--- a/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
@@ -852,7 +852,7 @@
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -1178,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
         <v>17</v>
@@ -1211,7 +1211,7 @@
         <v>7.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN5" t="n">
         <v>8.5</v>
@@ -1296,10 +1296,10 @@
         <v>2.3</v>
       </c>
       <c r="S6" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U6" t="n">
         <v>2.5</v>
@@ -1332,7 +1332,7 @@
         <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>21</v>
@@ -1341,10 +1341,10 @@
         <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
         <v>34</v>
@@ -1368,7 +1368,7 @@
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
@@ -1465,7 +1465,7 @@
         <v>1.95</v>
       </c>
       <c r="AA7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB7" t="n">
         <v>8</v>
@@ -1495,7 +1495,7 @@
         <v>51</v>
       </c>
       <c r="AK7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL7" t="n">
         <v>15</v>
@@ -2414,10 +2414,10 @@
         <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
         <v>1.2</v>
@@ -2426,10 +2426,10 @@
         <v>4.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S14" t="n">
         <v>2.05</v>
@@ -2474,7 +2474,7 @@
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
         <v>8.5</v>
@@ -4160,10 +4160,10 @@
         <v>8.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O26" t="n">
         <v>1.57</v>
@@ -4235,13 +4235,13 @@
         <v>34</v>
       </c>
       <c r="AN26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO26" t="n">
         <v>101</v>
       </c>
       <c r="AP26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AQ26" t="n">
         <v>81</v>
@@ -4281,13 +4281,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J27" t="n">
         <v>3.4</v>
@@ -4299,10 +4299,10 @@
         <v>4.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N27" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O27" t="n">
         <v>1.73</v>
@@ -4319,10 +4319,10 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V27" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W27" t="n">
         <v>1.75</v>
@@ -4340,7 +4340,7 @@
         <v>5</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC27" t="n">
         <v>12</v>
@@ -4361,20 +4361,20 @@
         <v>6.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ27" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="n">
         <v>6</v>
       </c>
       <c r="AM27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO27" t="n">
         <v>41</v>
@@ -4438,10 +4438,10 @@
         <v>6</v>
       </c>
       <c r="M28" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O28" t="n">
         <v>1.73</v>
@@ -4577,16 +4577,16 @@
         <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P29" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q29" t="n">
         <v>2.6</v>
@@ -4664,10 +4664,10 @@
         <v>51</v>
       </c>
       <c r="AR29" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="30">
@@ -4767,7 +4767,7 @@
         <v>11</v>
       </c>
       <c r="AD30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
@@ -4795,7 +4795,7 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
         <v>41</v>
@@ -4859,10 +4859,10 @@
         <v>5.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N31" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O31" t="n">
         <v>1.62</v>
@@ -4906,7 +4906,7 @@
         <v>10</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE31" t="n">
         <v>21</v>
@@ -4921,7 +4921,7 @@
         <v>7</v>
       </c>
       <c r="AI31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ31" t="n">
         <v>101</v>
@@ -4934,7 +4934,7 @@
         <v>19</v>
       </c>
       <c r="AN31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO31" t="n">
         <v>51</v>
@@ -5696,10 +5696,10 @@
         <v>1.78</v>
       </c>
       <c r="H37" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="J37" t="n">
         <v>2.4</v>
@@ -5778,10 +5778,10 @@
         <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AM37" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN37" t="n">
         <v>15</v>
@@ -5793,7 +5793,7 @@
         <v>45</v>
       </c>
       <c r="AQ37" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
@@ -5860,10 +5860,10 @@
         <v>3.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R38" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -5989,10 +5989,10 @@
         <v>2.05</v>
       </c>
       <c r="M39" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O39" t="n">
         <v>1.22</v>
@@ -6001,10 +6001,10 @@
         <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R39" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -6142,10 +6142,10 @@
         <v>4.33</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R40" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
@@ -6847,18 +6847,18 @@
         <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R45" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V45" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W45" t="n">
         <v>1.4</v>
@@ -6961,19 +6961,19 @@
         <v>1.33</v>
       </c>
       <c r="H46" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I46" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J46" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K46" t="n">
         <v>2.38</v>
       </c>
       <c r="L46" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
@@ -7008,10 +7008,10 @@
         <v>3</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA46" t="n">
         <v>6</v>
@@ -7020,10 +7020,10 @@
         <v>5.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE46" t="n">
         <v>13</v>
@@ -7035,7 +7035,7 @@
         <v>11</v>
       </c>
       <c r="AH46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI46" t="n">
         <v>29</v>
@@ -7265,7 +7265,7 @@
         <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O48" t="n">
         <v>1.4</v>
@@ -7504,10 +7504,10 @@
         <v>51</v>
       </c>
       <c r="AR49" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="50">
@@ -7653,10 +7653,10 @@
         <v>41</v>
       </c>
       <c r="AR50" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="51">
@@ -7864,16 +7864,16 @@
         <v>10</v>
       </c>
       <c r="O52" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P52" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R52" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -8122,66 +8122,66 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H54" t="n">
         <v>3.2</v>
       </c>
       <c r="I54" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="J54" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K54" t="n">
         <v>2.07</v>
       </c>
       <c r="L54" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M54" t="n">
         <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O54" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P54" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R54" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="V54" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W54" t="n">
         <v>1.4</v>
       </c>
       <c r="X54" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Z54" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AA54" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AB54" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC54" t="n">
         <v>10.5</v>
@@ -8190,43 +8190,43 @@
         <v>37</v>
       </c>
       <c r="AE54" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF54" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG54" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AH54" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AI54" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ54" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK54" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AL54" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AM54" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN54" t="n">
         <v>9.75</v>
       </c>
       <c r="AO54" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP54" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR54" t="inlineStr"/>
       <c r="AS54" t="inlineStr"/>
@@ -8563,10 +8563,10 @@
         <v>5</v>
       </c>
       <c r="M57" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O57" t="n">
         <v>1.3</v>
@@ -8972,28 +8972,28 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H60" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I60" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K60" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L60" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M60" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N60" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O60" t="n">
         <v>1.25</v>
@@ -9022,22 +9022,22 @@
         <v>3</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA60" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC60" t="n">
         <v>8.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE60" t="n">
         <v>12</v>
@@ -9049,22 +9049,22 @@
         <v>11</v>
       </c>
       <c r="AH60" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ60" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK60" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL60" t="n">
         <v>17</v>
       </c>
       <c r="AM60" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN60" t="n">
         <v>21</v>
@@ -10112,13 +10112,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H68" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J68" t="n">
         <v>1.8</v>
@@ -10130,10 +10130,10 @@
         <v>9.5</v>
       </c>
       <c r="M68" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O68" t="n">
         <v>1.25</v>
@@ -10142,10 +10142,10 @@
         <v>3.75</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R68" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S68" t="n">
         <v>2.44</v>
@@ -10166,10 +10166,10 @@
         <v>3</v>
       </c>
       <c r="Y68" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z68" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA68" t="n">
         <v>6</v>
@@ -10190,7 +10190,7 @@
         <v>34</v>
       </c>
       <c r="AG68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH68" t="n">
         <v>9.5</v>
@@ -10279,10 +10279,10 @@
         <v>2.75</v>
       </c>
       <c r="M69" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O69" t="n">
         <v>1.4</v>
@@ -10738,10 +10738,10 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V72" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W72" t="n">
         <v>1.44</v>
@@ -10840,43 +10840,105 @@
           <t>Jamshedpur</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L73" t="n">
+        <v>4.2</v>
+      </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
+      <c r="O73" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2.31</v>
+      </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
+      <c r="U73" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V73" t="n">
+        <v>1.54</v>
+      </c>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
-      <c r="AC73" t="inlineStr"/>
-      <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr"/>
-      <c r="AF73" t="inlineStr"/>
-      <c r="AG73" t="inlineStr"/>
-      <c r="AH73" t="inlineStr"/>
-      <c r="AI73" t="inlineStr"/>
-      <c r="AJ73" t="inlineStr"/>
-      <c r="AK73" t="inlineStr"/>
-      <c r="AL73" t="inlineStr"/>
-      <c r="AM73" t="inlineStr"/>
-      <c r="AN73" t="inlineStr"/>
-      <c r="AO73" t="inlineStr"/>
-      <c r="AP73" t="inlineStr"/>
-      <c r="AQ73" t="inlineStr"/>
+      <c r="Y73" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>50</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>26</v>
+      </c>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
     </row>
@@ -11472,16 +11534,16 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H78" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I78" t="n">
         <v>3.4</v>
       </c>
       <c r="J78" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K78" t="n">
         <v>1.91</v>
@@ -11974,22 +12036,22 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H82" t="n">
         <v>3.6</v>
       </c>
       <c r="I82" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J82" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K82" t="n">
         <v>2.1</v>
       </c>
       <c r="L82" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M82" t="n">
         <v>1.06</v>
@@ -12018,22 +12080,22 @@
         <v>1.29</v>
       </c>
       <c r="W82" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X82" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y82" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z82" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA82" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB82" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC82" t="n">
         <v>13</v>
@@ -12048,7 +12110,7 @@
         <v>41</v>
       </c>
       <c r="AG82" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH82" t="n">
         <v>6.5</v>
@@ -12060,7 +12122,7 @@
         <v>51</v>
       </c>
       <c r="AK82" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL82" t="n">
         <v>7</v>
@@ -12069,13 +12131,13 @@
         <v>9</v>
       </c>
       <c r="AN82" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO82" t="n">
         <v>17</v>
       </c>
       <c r="AP82" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ82" t="n">
         <v>29</v>
@@ -12139,10 +12201,10 @@
         <v>13</v>
       </c>
       <c r="O83" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P83" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q83" t="n">
         <v>1.75</v>
@@ -12153,10 +12215,10 @@
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V83" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W83" t="n">
         <v>1.33</v>
@@ -12534,99 +12596,99 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H86" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I86" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K86" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L86" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M86" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N86" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O86" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="P86" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R86" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="V86" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="W86" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X86" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y86" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Z86" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AA86" t="n">
         <v>5.5</v>
       </c>
       <c r="AB86" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD86" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE86" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AF86" t="n">
         <v>41</v>
       </c>
       <c r="AG86" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AH86" t="n">
         <v>6</v>
       </c>
       <c r="AI86" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ86" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK86" t="n">
         <v>101</v>
       </c>
       <c r="AL86" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AM86" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN86" t="n">
         <v>13</v>
@@ -12824,111 +12886,111 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H88" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I88" t="n">
         <v>7</v>
       </c>
       <c r="J88" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K88" t="n">
         <v>2.2</v>
       </c>
-      <c r="K88" t="n">
-        <v>2</v>
-      </c>
       <c r="L88" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M88" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N88" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="O88" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="P88" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.5</v>
+        <v>2.08</v>
       </c>
       <c r="R88" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="V88" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="W88" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z88" t="n">
         <v>1.57</v>
       </c>
-      <c r="X88" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>1.44</v>
-      </c>
       <c r="AA88" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AB88" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AC88" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD88" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD88" t="n">
-        <v>10</v>
-      </c>
       <c r="AE88" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF88" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG88" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH88" t="n">
         <v>7.5</v>
       </c>
       <c r="AI88" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AJ88" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AK88" t="n">
         <v>101</v>
       </c>
       <c r="AL88" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM88" t="n">
         <v>34</v>
       </c>
       <c r="AN88" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO88" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP88" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ88" t="n">
         <v>67</v>
-      </c>
-      <c r="AQ88" t="n">
-        <v>81</v>
       </c>
       <c r="AR88" t="n">
         <v>1.9</v>
@@ -13730,28 +13792,28 @@
         <v>11</v>
       </c>
       <c r="O94" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P94" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S94" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U94" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V94" t="n">
         <v>1.29</v>
-      </c>
-      <c r="P94" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R94" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S94" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T94" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U94" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V94" t="n">
-        <v>1.33</v>
       </c>
       <c r="W94" t="n">
         <v>1.4</v>
@@ -13817,10 +13879,10 @@
         <v>34</v>
       </c>
       <c r="AR94" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="95">
@@ -14296,10 +14358,10 @@
         <v>6.5</v>
       </c>
       <c r="M98" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O98" t="n">
         <v>1.33</v>
@@ -14584,16 +14646,16 @@
         <v>11</v>
       </c>
       <c r="O100" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P100" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R100" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
@@ -14701,13 +14763,13 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H101" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I101" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J101" t="n">
         <v>2.6</v>
@@ -14719,45 +14781,45 @@
         <v>5</v>
       </c>
       <c r="M101" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N101" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O101" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P101" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R101" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V101" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W101" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X101" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y101" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Z101" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA101" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB101" t="n">
         <v>7.5</v>
@@ -14790,7 +14852,7 @@
         <v>501</v>
       </c>
       <c r="AL101" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM101" t="n">
         <v>21</v>
@@ -14807,8 +14869,12 @@
       <c r="AQ101" t="n">
         <v>51</v>
       </c>
-      <c r="AR101" t="inlineStr"/>
-      <c r="AS101" t="inlineStr"/>
+      <c r="AR101" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>2.03</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -15278,10 +15344,10 @@
         <v>1.75</v>
       </c>
       <c r="J105" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="K105" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L105" t="n">
         <v>2.4</v>
@@ -15293,10 +15359,10 @@
         <v>6.8</v>
       </c>
       <c r="O105" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P105" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q105" t="n">
         <v>2</v>
@@ -15325,7 +15391,7 @@
         <v>1.8</v>
       </c>
       <c r="AA105" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB105" t="n">
         <v>24</v>
@@ -15340,7 +15406,7 @@
         <v>45</v>
       </c>
       <c r="AF105" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG105" t="n">
         <v>6.8</v>
@@ -15358,10 +15424,10 @@
         <v>800</v>
       </c>
       <c r="AL105" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AM105" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AN105" t="n">
         <v>8.25</v>
@@ -15370,10 +15436,10 @@
         <v>14</v>
       </c>
       <c r="AP105" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ105" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR105" t="inlineStr"/>
       <c r="AS105" t="inlineStr"/>
@@ -15551,28 +15617,28 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="H107" t="n">
         <v>3.25</v>
       </c>
       <c r="I107" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="J107" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="K107" t="n">
         <v>2.07</v>
       </c>
       <c r="L107" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="M107" t="n">
         <v>1.06</v>
       </c>
       <c r="N107" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="O107" t="n">
         <v>1.3</v>
@@ -15607,7 +15673,7 @@
         <v>1.98</v>
       </c>
       <c r="AA107" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB107" t="n">
         <v>9.25</v>
@@ -15619,43 +15685,43 @@
         <v>17</v>
       </c>
       <c r="AE107" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF107" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG107" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AH107" t="n">
         <v>6.4</v>
       </c>
       <c r="AI107" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ107" t="n">
         <v>60</v>
       </c>
       <c r="AK107" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL107" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AM107" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN107" t="n">
         <v>12.5</v>
       </c>
       <c r="AO107" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AP107" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ107" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR107" t="inlineStr"/>
       <c r="AS107" t="inlineStr"/>
@@ -15701,7 +15767,7 @@
         <v>2.62</v>
       </c>
       <c r="J108" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K108" t="n">
         <v>1.88</v>
@@ -15781,10 +15847,10 @@
         <v>900</v>
       </c>
       <c r="AL108" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AM108" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AN108" t="n">
         <v>10.75</v>
@@ -15793,10 +15859,10 @@
         <v>30</v>
       </c>
       <c r="AP108" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ108" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR108" t="inlineStr"/>
       <c r="AS108" t="inlineStr"/>
@@ -15833,13 +15899,13 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H109" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I109" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J109" t="n">
         <v>3.75</v>
@@ -15848,7 +15914,7 @@
         <v>2.88</v>
       </c>
       <c r="L109" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M109" t="n">
         <v>1.01</v>
@@ -15857,10 +15923,10 @@
         <v>34</v>
       </c>
       <c r="O109" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P109" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q109" t="n">
         <v>1.22</v>
@@ -15877,10 +15943,10 @@
         <v>2.25</v>
       </c>
       <c r="W109" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="X109" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y109" t="n">
         <v>1.29</v>
@@ -15901,7 +15967,7 @@
         <v>41</v>
       </c>
       <c r="AE109" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF109" t="n">
         <v>21</v>
@@ -15916,16 +15982,16 @@
         <v>11</v>
       </c>
       <c r="AJ109" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK109" t="n">
         <v>51</v>
       </c>
       <c r="AL109" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM109" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN109" t="n">
         <v>10</v>
@@ -16045,22 +16111,22 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="H111" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I111" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="J111" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K111" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L111" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="M111" t="n">
         <v>1.05</v>
@@ -16095,58 +16161,58 @@
         <v>2.92</v>
       </c>
       <c r="Y111" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Z111" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="AA111" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AB111" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AC111" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD111" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE111" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AF111" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG111" t="n">
         <v>8.75</v>
       </c>
       <c r="AH111" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AI111" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ111" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK111" t="n">
         <v>500</v>
       </c>
       <c r="AL111" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AM111" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AN111" t="n">
         <v>8.75</v>
       </c>
       <c r="AO111" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP111" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ111" t="n">
         <v>26</v>
@@ -17479,7 +17545,7 @@
         <v>2.82</v>
       </c>
       <c r="K121" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L121" t="n">
         <v>3.3</v>
@@ -17488,42 +17554,42 @@
         <v>1.04</v>
       </c>
       <c r="N121" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O121" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P121" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R121" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="V121" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W121" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X121" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Y121" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Z121" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="AA121" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB121" t="n">
         <v>13.5</v>
@@ -17532,7 +17598,7 @@
         <v>9</v>
       </c>
       <c r="AD121" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE121" t="n">
         <v>16.5</v>
@@ -17541,13 +17607,13 @@
         <v>21</v>
       </c>
       <c r="AG121" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH121" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AI121" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AJ121" t="n">
         <v>40</v>
@@ -17556,7 +17622,7 @@
         <v>250</v>
       </c>
       <c r="AL121" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AM121" t="n">
         <v>17</v>
@@ -17748,43 +17814,113 @@
           <t>Sukhothai</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
+      <c r="G123" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H123" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K123" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L123" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N123" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P123" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2.18</v>
+      </c>
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
-      <c r="Z123" t="inlineStr"/>
-      <c r="AA123" t="inlineStr"/>
-      <c r="AB123" t="inlineStr"/>
-      <c r="AC123" t="inlineStr"/>
-      <c r="AD123" t="inlineStr"/>
-      <c r="AE123" t="inlineStr"/>
-      <c r="AF123" t="inlineStr"/>
-      <c r="AG123" t="inlineStr"/>
-      <c r="AH123" t="inlineStr"/>
-      <c r="AI123" t="inlineStr"/>
-      <c r="AJ123" t="inlineStr"/>
-      <c r="AK123" t="inlineStr"/>
-      <c r="AL123" t="inlineStr"/>
-      <c r="AM123" t="inlineStr"/>
-      <c r="AN123" t="inlineStr"/>
-      <c r="AO123" t="inlineStr"/>
-      <c r="AP123" t="inlineStr"/>
-      <c r="AQ123" t="inlineStr"/>
+      <c r="U123" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X123" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>29</v>
+      </c>
       <c r="AR123" t="inlineStr"/>
       <c r="AS123" t="inlineStr"/>
     </row>
@@ -18459,10 +18595,10 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="H129" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I129" t="n">
         <v>21</v>
@@ -18477,7 +18613,7 @@
         <v>13</v>
       </c>
       <c r="M129" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N129" t="n">
         <v>1.01</v>
@@ -18489,10 +18625,10 @@
         <v>15</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="R129" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr"/>
@@ -18515,7 +18651,7 @@
         <v>1.91</v>
       </c>
       <c r="AA129" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB129" t="n">
         <v>11</v>
@@ -18536,7 +18672,7 @@
         <v>34</v>
       </c>
       <c r="AH129" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI129" t="n">
         <v>29</v>
@@ -18548,10 +18684,10 @@
         <v>201</v>
       </c>
       <c r="AL129" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM129" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN129" t="n">
         <v>51</v>
@@ -18563,7 +18699,7 @@
         <v>126</v>
       </c>
       <c r="AQ129" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR129" t="inlineStr"/>
       <c r="AS129" t="inlineStr"/>
@@ -19041,10 +19177,10 @@
         <v>4.5</v>
       </c>
       <c r="M133" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N133" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O133" t="n">
         <v>1.25</v>
@@ -19053,18 +19189,18 @@
         <v>3.75</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R133" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V133" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W133" t="n">
         <v>1.4</v>
@@ -19311,16 +19447,16 @@
         <v>3.55</v>
       </c>
       <c r="I135" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J135" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="K135" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L135" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="M135" t="n">
         <v>1.04</v>
@@ -19361,10 +19497,10 @@
         <v>2.3</v>
       </c>
       <c r="AA135" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB135" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC135" t="n">
         <v>12</v>
@@ -19373,43 +19509,43 @@
         <v>55</v>
       </c>
       <c r="AE135" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF135" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG135" t="n">
         <v>8.5</v>
       </c>
       <c r="AH135" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AI135" t="n">
         <v>12</v>
       </c>
       <c r="AJ135" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AK135" t="n">
         <v>250</v>
       </c>
       <c r="AL135" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM135" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AN135" t="n">
         <v>8.25</v>
       </c>
       <c r="AO135" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AP135" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AQ135" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AR135" t="inlineStr"/>
       <c r="AS135" t="inlineStr"/>
@@ -19592,13 +19728,13 @@
         <v>5.8</v>
       </c>
       <c r="J137" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="K137" t="n">
         <v>2</v>
       </c>
       <c r="L137" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
@@ -19609,15 +19745,15 @@
         <v>2.72</v>
       </c>
       <c r="Q137" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R137" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="V137" t="n">
         <v>1.24</v>
@@ -19626,7 +19762,7 @@
         <v>1.47</v>
       </c>
       <c r="X137" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="Y137" t="n">
         <v>1.98</v>
@@ -19635,10 +19771,10 @@
         <v>1.65</v>
       </c>
       <c r="AA137" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB137" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AC137" t="n">
         <v>8</v>
@@ -19647,13 +19783,13 @@
         <v>12</v>
       </c>
       <c r="AE137" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF137" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG137" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AH137" t="n">
         <v>6.7</v>
@@ -19677,13 +19813,13 @@
         <v>19</v>
       </c>
       <c r="AO137" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AP137" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AQ137" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR137" t="inlineStr"/>
       <c r="AS137" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
@@ -695,7 +695,7 @@
         <v>1.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
         <v>6</v>
@@ -978,28 +978,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K4" t="n">
         <v>2.3</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
@@ -1022,19 +1022,19 @@
         <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB4" t="n">
         <v>9.5</v>
@@ -1049,13 +1049,13 @@
         <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
@@ -1067,10 +1067,10 @@
         <v>151</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN4" t="n">
         <v>13</v>
@@ -1137,10 +1137,10 @@
         <v>2.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1296,10 +1296,10 @@
         <v>2.3</v>
       </c>
       <c r="S6" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T6" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U6" t="n">
         <v>2.5</v>
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
         <v>3.75</v>
@@ -1565,13 +1565,13 @@
         <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1639,7 +1639,7 @@
         <v>201</v>
       </c>
       <c r="AL8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM8" t="n">
         <v>8.5</v>
@@ -1697,10 +1697,10 @@
         <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K9" t="n">
         <v>2.3</v>
@@ -1741,13 +1741,13 @@
         <v>3.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB9" t="n">
         <v>10</v>
@@ -1756,7 +1756,7 @@
         <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -1780,7 +1780,7 @@
         <v>151</v>
       </c>
       <c r="AL9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM9" t="n">
         <v>21</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H12" t="n">
         <v>4.5</v>
@@ -2123,10 +2123,10 @@
         <v>7.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K12" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
         <v>7.5</v>
@@ -2255,22 +2255,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2279,16 +2279,16 @@
         <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -2299,10 +2299,10 @@
         <v>1.44</v>
       </c>
       <c r="W13" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X13" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y13" t="n">
         <v>1.95</v>
@@ -2320,10 +2320,10 @@
         <v>8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
         <v>26</v>
@@ -2332,10 +2332,10 @@
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
         <v>51</v>
@@ -2344,13 +2344,13 @@
         <v>301</v>
       </c>
       <c r="AL13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN13" t="n">
         <v>19</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>21</v>
       </c>
       <c r="AO13" t="n">
         <v>81</v>
@@ -2359,7 +2359,7 @@
         <v>51</v>
       </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2414,10 +2414,10 @@
         <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
         <v>1.2</v>
@@ -2426,10 +2426,10 @@
         <v>4.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R14" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S14" t="n">
         <v>2.05</v>
@@ -2559,10 +2559,10 @@
         <v>3.1</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
         <v>1.2</v>
@@ -2571,10 +2571,10 @@
         <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S15" t="n">
         <v>2</v>
@@ -3141,16 +3141,16 @@
         <v>7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -3222,10 +3222,10 @@
         <v>51</v>
       </c>
       <c r="AR19" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="20">
@@ -3713,40 +3713,40 @@
         <v>4</v>
       </c>
       <c r="M23" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>6</v>
+      </c>
+      <c r="T23" t="n">
         <v>1.13</v>
       </c>
-      <c r="N23" t="n">
-        <v>6</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.14</v>
-      </c>
       <c r="U23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V23" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W23" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="X23" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="Y23" t="n">
         <v>2.5</v>
@@ -4142,13 +4142,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H26" t="n">
         <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J26" t="n">
         <v>2.25</v>
@@ -4235,13 +4235,13 @@
         <v>34</v>
       </c>
       <c r="AN26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO26" t="n">
         <v>101</v>
       </c>
       <c r="AP26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AQ26" t="n">
         <v>81</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
@@ -4432,7 +4432,7 @@
         <v>2.75</v>
       </c>
       <c r="K28" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L28" t="n">
         <v>6</v>
@@ -4559,19 +4559,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
         <v>2.5</v>
       </c>
       <c r="K29" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L29" t="n">
         <v>6</v>
@@ -4714,7 +4714,7 @@
         <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L30" t="n">
         <v>5</v>
@@ -4841,19 +4841,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H31" t="n">
         <v>3.25</v>
       </c>
       <c r="I31" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
         <v>2.75</v>
       </c>
       <c r="K31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L31" t="n">
         <v>5.5</v>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM31" t="n">
         <v>19</v>
@@ -5144,7 +5144,7 @@
         <v>2.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -5159,22 +5159,22 @@
         <v>5.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R33" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S33" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T33" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U33" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V33" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W33" t="n">
         <v>1.25</v>
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
@@ -5292,10 +5292,10 @@
         <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.3</v>
@@ -5304,10 +5304,10 @@
         <v>3.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R34" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -5459,7 +5459,7 @@
         <v>1.33</v>
       </c>
       <c r="W35" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X35" t="n">
         <v>2.75</v>
@@ -5556,30 +5556,30 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J36" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="L36" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P36" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="Q36" t="n">
         <v>2.32</v>
@@ -5590,19 +5590,19 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W36" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X36" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Z36" t="n">
         <v>1.65</v>
@@ -5611,28 +5611,28 @@
         <v>6.1</v>
       </c>
       <c r="AB36" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE36" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF36" t="n">
         <v>40</v>
       </c>
       <c r="AG36" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AH36" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AI36" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ36" t="n">
         <v>110</v>
@@ -5641,22 +5641,22 @@
         <v>700</v>
       </c>
       <c r="AL36" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AM36" t="n">
         <v>14.5</v>
       </c>
       <c r="AN36" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO36" t="n">
         <v>40</v>
       </c>
       <c r="AP36" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ36" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
@@ -5693,22 +5693,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H37" t="n">
         <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J37" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="K37" t="n">
         <v>2.02</v>
       </c>
       <c r="L37" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
@@ -5748,13 +5748,13 @@
         <v>6</v>
       </c>
       <c r="AB37" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AC37" t="n">
         <v>8.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE37" t="n">
         <v>15.5</v>
@@ -5763,7 +5763,7 @@
         <v>32</v>
       </c>
       <c r="AG37" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH37" t="n">
         <v>6.7</v>
@@ -5775,25 +5775,25 @@
         <v>100</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AL37" t="n">
         <v>10.5</v>
       </c>
       <c r="AM37" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN37" t="n">
         <v>15</v>
       </c>
       <c r="AO37" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AP37" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AQ37" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
@@ -5854,27 +5854,27 @@
         <v>11</v>
       </c>
       <c r="O38" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P38" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="R38" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V38" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W38" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X38" t="n">
         <v>2.75</v>
@@ -6015,7 +6015,7 @@
         <v>1.4</v>
       </c>
       <c r="W39" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X39" t="n">
         <v>3</v>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H40" t="n">
         <v>3.9</v>
@@ -6121,7 +6121,7 @@
         <v>4.5</v>
       </c>
       <c r="J40" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K40" t="n">
         <v>2.38</v>
@@ -6130,10 +6130,10 @@
         <v>4.75</v>
       </c>
       <c r="M40" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O40" t="n">
         <v>1.2</v>
@@ -6142,10 +6142,10 @@
         <v>4.33</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R40" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
@@ -6156,16 +6156,16 @@
         <v>1.44</v>
       </c>
       <c r="W40" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X40" t="n">
         <v>3.25</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z40" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA40" t="n">
         <v>8.5</v>
@@ -6204,7 +6204,7 @@
         <v>15</v>
       </c>
       <c r="AM40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN40" t="n">
         <v>15</v>
@@ -6297,16 +6297,16 @@
         <v>1.33</v>
       </c>
       <c r="W41" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X41" t="n">
         <v>2.75</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AA41" t="n">
         <v>12</v>
@@ -6438,13 +6438,13 @@
         <v>1.44</v>
       </c>
       <c r="W42" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X42" t="n">
         <v>3.25</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Z42" t="n">
         <v>2.2</v>
@@ -6579,16 +6579,16 @@
         <v>1.29</v>
       </c>
       <c r="W43" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X43" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA43" t="n">
         <v>9.5</v>
@@ -6720,16 +6720,16 @@
         <v>1.25</v>
       </c>
       <c r="W44" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X44" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA44" t="n">
         <v>11</v>
@@ -6823,22 +6823,22 @@
         <v>3.7</v>
       </c>
       <c r="I45" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J45" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K45" t="n">
         <v>2.2</v>
       </c>
       <c r="L45" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O45" t="n">
         <v>1.29</v>
@@ -6847,10 +6847,10 @@
         <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R45" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -6882,7 +6882,7 @@
         <v>8.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE45" t="n">
         <v>15</v>
@@ -6903,13 +6903,13 @@
         <v>51</v>
       </c>
       <c r="AK45" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL45" t="n">
         <v>12</v>
       </c>
       <c r="AM45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN45" t="n">
         <v>15</v>
@@ -6961,45 +6961,45 @@
         <v>1.33</v>
       </c>
       <c r="H46" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J46" t="n">
         <v>1.8</v>
       </c>
       <c r="K46" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L46" t="n">
         <v>9</v>
       </c>
       <c r="M46" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O46" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P46" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="R46" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V46" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W46" t="n">
         <v>1.36</v>
@@ -7008,10 +7008,10 @@
         <v>3</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA46" t="n">
         <v>6</v>
@@ -7023,7 +7023,7 @@
         <v>9.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE46" t="n">
         <v>13</v>
@@ -7047,7 +7047,7 @@
         <v>1250</v>
       </c>
       <c r="AL46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM46" t="n">
         <v>41</v>
@@ -7099,13 +7099,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H47" t="n">
         <v>3.2</v>
       </c>
       <c r="I47" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J47" t="n">
         <v>4.33</v>
@@ -7117,10 +7117,10 @@
         <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O47" t="n">
         <v>1.44</v>
@@ -7158,7 +7158,7 @@
         <v>8</v>
       </c>
       <c r="AB47" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC47" t="n">
         <v>13</v>
@@ -7176,7 +7176,7 @@
         <v>7</v>
       </c>
       <c r="AH47" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI47" t="n">
         <v>19</v>
@@ -7191,13 +7191,13 @@
         <v>6</v>
       </c>
       <c r="AM47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP47" t="n">
         <v>21</v>
@@ -7206,10 +7206,10 @@
         <v>41</v>
       </c>
       <c r="AR47" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AS47" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="48">
@@ -7244,19 +7244,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H48" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J48" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L48" t="n">
         <v>2.4</v>
@@ -7274,16 +7274,16 @@
         <v>2.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R48" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S48" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T48" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U48" t="n">
         <v>4.33</v>
@@ -7307,10 +7307,10 @@
         <v>11</v>
       </c>
       <c r="AB48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC48" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD48" t="n">
         <v>51</v>
@@ -7504,10 +7504,10 @@
         <v>51</v>
       </c>
       <c r="AR49" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="50">
@@ -7709,10 +7709,10 @@
         <v>7.5</v>
       </c>
       <c r="M51" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O51" t="n">
         <v>1.33</v>
@@ -7721,10 +7721,10 @@
         <v>3.25</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R51" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S51" t="n">
         <v>2.95</v>
@@ -7840,28 +7840,28 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H52" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I52" t="n">
         <v>5.5</v>
       </c>
       <c r="J52" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K52" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L52" t="n">
         <v>6.5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O52" t="n">
         <v>1.36</v>
@@ -7870,39 +7870,39 @@
         <v>3</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R52" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W52" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X52" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA52" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB52" t="n">
         <v>6.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD52" t="n">
         <v>11</v>
@@ -7914,7 +7914,7 @@
         <v>34</v>
       </c>
       <c r="AG52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH52" t="n">
         <v>7.5</v>
@@ -7923,13 +7923,13 @@
         <v>21</v>
       </c>
       <c r="AJ52" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK52" t="n">
         <v>351</v>
       </c>
       <c r="AL52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM52" t="n">
         <v>29</v>
@@ -7981,22 +7981,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>3.3</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K53" t="n">
         <v>2.2</v>
       </c>
       <c r="L53" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M53" t="n">
         <v>1.05</v>
@@ -8082,7 +8082,7 @@
         <v>34</v>
       </c>
       <c r="AP53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ53" t="n">
         <v>29</v>
@@ -8710,16 +8710,16 @@
         <v>15</v>
       </c>
       <c r="O58" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P58" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R58" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S58" t="n">
         <v>2</v>
@@ -8831,22 +8831,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="H59" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I59" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J59" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K59" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L59" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M59" t="n">
         <v>1.03</v>
@@ -8861,10 +8861,10 @@
         <v>4.33</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R59" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
@@ -8875,10 +8875,10 @@
         <v>1.44</v>
       </c>
       <c r="W59" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X59" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y59" t="n">
         <v>1.8</v>
@@ -8890,13 +8890,13 @@
         <v>8</v>
       </c>
       <c r="AB59" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC59" t="n">
         <v>8.5</v>
       </c>
       <c r="AD59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE59" t="n">
         <v>12</v>
@@ -8905,10 +8905,10 @@
         <v>23</v>
       </c>
       <c r="AG59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH59" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI59" t="n">
         <v>17</v>
@@ -8923,13 +8923,13 @@
         <v>17</v>
       </c>
       <c r="AM59" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN59" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO59" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP59" t="n">
         <v>41</v>
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H60" t="n">
         <v>4.33</v>
@@ -8990,30 +8990,30 @@
         <v>7</v>
       </c>
       <c r="M60" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N60" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O60" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P60" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="R60" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V60" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W60" t="n">
         <v>1.36</v>
@@ -9028,7 +9028,7 @@
         <v>1.75</v>
       </c>
       <c r="AA60" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB60" t="n">
         <v>6.5</v>
@@ -9046,7 +9046,7 @@
         <v>29</v>
       </c>
       <c r="AG60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH60" t="n">
         <v>8.5</v>
@@ -9058,7 +9058,7 @@
         <v>67</v>
       </c>
       <c r="AK60" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL60" t="n">
         <v>17</v>
@@ -10112,22 +10112,22 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="H68" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="I68" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="J68" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K68" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L68" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="M68" t="n">
         <v>1.06</v>
@@ -10142,22 +10142,22 @@
         <v>3.75</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R68" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S68" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="T68" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U68" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V68" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W68" t="n">
         <v>1.36</v>
@@ -10166,22 +10166,22 @@
         <v>3</v>
       </c>
       <c r="Y68" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Z68" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AA68" t="n">
         <v>6</v>
       </c>
       <c r="AB68" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AC68" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD68" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE68" t="n">
         <v>12</v>
@@ -10193,10 +10193,10 @@
         <v>10</v>
       </c>
       <c r="AH68" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI68" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ68" t="n">
         <v>81</v>
@@ -10208,25 +10208,25 @@
         <v>21</v>
       </c>
       <c r="AM68" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN68" t="n">
         <v>29</v>
       </c>
       <c r="AO68" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AP68" t="n">
         <v>81</v>
       </c>
       <c r="AQ68" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR68" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="69">
@@ -10279,10 +10279,10 @@
         <v>2.75</v>
       </c>
       <c r="M69" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O69" t="n">
         <v>1.4</v>
@@ -10416,22 +10416,22 @@
         <v>8.5</v>
       </c>
       <c r="I70" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J70" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="K70" t="n">
         <v>3</v>
       </c>
       <c r="L70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M70" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N70" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O70" t="n">
         <v>1.13</v>
@@ -10464,13 +10464,13 @@
         <v>3.75</v>
       </c>
       <c r="Y70" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA70" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB70" t="n">
         <v>6</v>
@@ -10479,19 +10479,19 @@
         <v>11</v>
       </c>
       <c r="AD70" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE70" t="n">
         <v>12</v>
       </c>
       <c r="AF70" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG70" t="n">
         <v>17</v>
       </c>
       <c r="AH70" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI70" t="n">
         <v>34</v>
@@ -10503,22 +10503,22 @@
         <v>501</v>
       </c>
       <c r="AL70" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM70" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN70" t="n">
         <v>41</v>
       </c>
       <c r="AO70" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AP70" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AQ70" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR70" t="n">
         <v>1.19</v>
@@ -10651,10 +10651,10 @@
         <v>11</v>
       </c>
       <c r="AM71" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN71" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO71" t="n">
         <v>34</v>
@@ -10718,10 +10718,10 @@
         <v>3.1</v>
       </c>
       <c r="M72" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O72" t="n">
         <v>1.33</v>
@@ -10738,10 +10738,10 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V72" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W72" t="n">
         <v>1.44</v>
@@ -10801,7 +10801,7 @@
         <v>21</v>
       </c>
       <c r="AP72" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ72" t="n">
         <v>29</v>
@@ -10841,103 +10841,115 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H73" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I73" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J73" t="n">
-        <v>2.23</v>
+        <v>2.38</v>
       </c>
       <c r="K73" t="n">
         <v>2.4</v>
       </c>
       <c r="L73" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
+        <v>4.33</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N73" t="n">
+        <v>17</v>
+      </c>
       <c r="O73" t="n">
         <v>1.17</v>
       </c>
       <c r="P73" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="Q73" t="n">
         <v>1.57</v>
       </c>
       <c r="R73" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
+        <v>2.35</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.88</v>
+      </c>
       <c r="U73" t="n">
-        <v>2.39</v>
+        <v>2.38</v>
       </c>
       <c r="V73" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
+        <v>1.53</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.5</v>
+      </c>
       <c r="Y73" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z73" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AA73" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="AB73" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH73" t="n">
         <v>8</v>
       </c>
-      <c r="AC73" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AI73" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ73" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AK73" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL73" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AM73" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AN73" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AO73" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AP73" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ73" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
@@ -11107,16 +11119,16 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="H75" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I75" t="n">
         <v>1.7</v>
       </c>
       <c r="J75" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="K75" t="n">
         <v>2.18</v>
@@ -11127,24 +11139,24 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P75" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R75" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="V75" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W75" t="n">
         <v>1.4</v>
@@ -11156,40 +11168,40 @@
         <v>1.82</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AA75" t="n">
         <v>12.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC75" t="n">
         <v>15</v>
       </c>
       <c r="AD75" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AE75" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AF75" t="n">
         <v>50</v>
       </c>
       <c r="AG75" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH75" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AI75" t="n">
         <v>16</v>
       </c>
       <c r="AJ75" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK75" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL75" t="n">
         <v>6.4</v>
@@ -11198,7 +11210,7 @@
         <v>7.6</v>
       </c>
       <c r="AN75" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AO75" t="n">
         <v>13</v>
@@ -11265,7 +11277,7 @@
         <v>1.03</v>
       </c>
       <c r="N76" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O76" t="n">
         <v>1.18</v>
@@ -11292,10 +11304,10 @@
         <v>1.5</v>
       </c>
       <c r="W76" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X76" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y76" t="n">
         <v>1.83</v>
@@ -11322,7 +11334,7 @@
         <v>41</v>
       </c>
       <c r="AG76" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH76" t="n">
         <v>10</v>
@@ -11534,16 +11546,16 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H78" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I78" t="n">
         <v>3.4</v>
       </c>
       <c r="J78" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K78" t="n">
         <v>1.91</v>
@@ -11964,43 +11976,105 @@
           <t>Terengganu</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H81" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="J81" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1.98</v>
+      </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
+      <c r="O81" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1.97</v>
+      </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
+      <c r="U81" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V81" t="n">
+        <v>1.37</v>
+      </c>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
-      <c r="AA81" t="inlineStr"/>
-      <c r="AB81" t="inlineStr"/>
-      <c r="AC81" t="inlineStr"/>
-      <c r="AD81" t="inlineStr"/>
-      <c r="AE81" t="inlineStr"/>
-      <c r="AF81" t="inlineStr"/>
-      <c r="AG81" t="inlineStr"/>
-      <c r="AH81" t="inlineStr"/>
-      <c r="AI81" t="inlineStr"/>
-      <c r="AJ81" t="inlineStr"/>
-      <c r="AK81" t="inlineStr"/>
-      <c r="AL81" t="inlineStr"/>
-      <c r="AM81" t="inlineStr"/>
-      <c r="AN81" t="inlineStr"/>
-      <c r="AO81" t="inlineStr"/>
-      <c r="AP81" t="inlineStr"/>
-      <c r="AQ81" t="inlineStr"/>
+      <c r="Y81" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>23</v>
+      </c>
       <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr"/>
     </row>
@@ -12036,84 +12110,84 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H82" t="n">
         <v>3.6</v>
       </c>
       <c r="I82" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
         <v>4.33</v>
       </c>
       <c r="K82" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L82" t="n">
         <v>2.63</v>
       </c>
       <c r="M82" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O82" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P82" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R82" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V82" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W82" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X82" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y82" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Z82" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB82" t="n">
         <v>19</v>
       </c>
       <c r="AC82" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD82" t="n">
         <v>41</v>
       </c>
       <c r="AE82" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF82" t="n">
         <v>34</v>
       </c>
-      <c r="AF82" t="n">
-        <v>41</v>
-      </c>
       <c r="AG82" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH82" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI82" t="n">
         <v>15</v>
@@ -12122,25 +12196,25 @@
         <v>51</v>
       </c>
       <c r="AK82" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL82" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM82" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN82" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO82" t="n">
         <v>17</v>
       </c>
       <c r="AP82" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ82" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR82" t="inlineStr"/>
       <c r="AS82" t="inlineStr"/>
@@ -12177,28 +12251,28 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H83" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I83" t="n">
         <v>4.5</v>
       </c>
       <c r="J83" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K83" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L83" t="n">
         <v>4.75</v>
       </c>
       <c r="M83" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N83" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O83" t="n">
         <v>1.25</v>
@@ -12207,33 +12281,33 @@
         <v>3.75</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="R83" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X83" t="n">
         <v>3</v>
       </c>
-      <c r="V83" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W83" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X83" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Y83" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z83" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA83" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB83" t="n">
         <v>8.5</v>
@@ -12242,7 +12316,7 @@
         <v>8.5</v>
       </c>
       <c r="AD83" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE83" t="n">
         <v>13</v>
@@ -12251,7 +12325,7 @@
         <v>23</v>
       </c>
       <c r="AG83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH83" t="n">
         <v>7.5</v>
@@ -12260,10 +12334,10 @@
         <v>15</v>
       </c>
       <c r="AJ83" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK83" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL83" t="n">
         <v>13</v>
@@ -12281,7 +12355,7 @@
         <v>34</v>
       </c>
       <c r="AQ83" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR83" t="inlineStr"/>
       <c r="AS83" t="inlineStr"/>
@@ -12596,13 +12670,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H86" t="n">
         <v>2.88</v>
       </c>
       <c r="I86" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
         <v>3.4</v>
@@ -12614,10 +12688,10 @@
         <v>4.33</v>
       </c>
       <c r="M86" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N86" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O86" t="n">
         <v>1.62</v>
@@ -12655,7 +12729,7 @@
         <v>5.5</v>
       </c>
       <c r="AB86" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC86" t="n">
         <v>11</v>
@@ -12688,13 +12762,13 @@
         <v>6.5</v>
       </c>
       <c r="AM86" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN86" t="n">
         <v>13</v>
       </c>
       <c r="AO86" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP86" t="n">
         <v>34</v>
@@ -12741,48 +12815,48 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H87" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I87" t="n">
-        <v>2.35</v>
+        <v>2.88</v>
       </c>
       <c r="J87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L87" t="n">
         <v>4</v>
       </c>
-      <c r="K87" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.6</v>
-      </c>
       <c r="M87" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N87" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O87" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P87" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q87" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R87" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V87" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W87" t="n">
         <v>1.67</v>
@@ -12791,58 +12865,58 @@
         <v>2.1</v>
       </c>
       <c r="Y87" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z87" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA87" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB87" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AC87" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD87" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AE87" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AF87" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG87" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH87" t="n">
         <v>6</v>
       </c>
       <c r="AI87" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ87" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK87" t="n">
         <v>101</v>
       </c>
       <c r="AL87" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AM87" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AN87" t="n">
         <v>12</v>
       </c>
       <c r="AO87" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AP87" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ87" t="n">
         <v>51</v>
@@ -12886,13 +12960,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H88" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I88" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J88" t="n">
         <v>2.05</v>
@@ -12901,13 +12975,13 @@
         <v>2.2</v>
       </c>
       <c r="L88" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M88" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N88" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O88" t="n">
         <v>1.33</v>
@@ -12916,10 +12990,10 @@
         <v>3.25</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R88" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
@@ -12936,10 +13010,10 @@
         <v>2.63</v>
       </c>
       <c r="Y88" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z88" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA88" t="n">
         <v>5.5</v>
@@ -12951,7 +13025,7 @@
         <v>9</v>
       </c>
       <c r="AD88" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE88" t="n">
         <v>15</v>
@@ -12960,13 +13034,13 @@
         <v>34</v>
       </c>
       <c r="AG88" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH88" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI88" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ88" t="n">
         <v>81</v>
@@ -12978,16 +13052,16 @@
         <v>15</v>
       </c>
       <c r="AM88" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN88" t="n">
         <v>23</v>
       </c>
       <c r="AO88" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP88" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ88" t="n">
         <v>67</v>
@@ -13031,19 +13105,19 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H89" t="n">
         <v>3.6</v>
       </c>
       <c r="I89" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J89" t="n">
         <v>2.88</v>
       </c>
       <c r="K89" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L89" t="n">
         <v>3.2</v>
@@ -13061,16 +13135,16 @@
         <v>5</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R89" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S89" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T89" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U89" t="n">
         <v>2.25</v>
@@ -13097,7 +13171,7 @@
         <v>15</v>
       </c>
       <c r="AC89" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD89" t="n">
         <v>23</v>
@@ -13112,7 +13186,7 @@
         <v>17</v>
       </c>
       <c r="AH89" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI89" t="n">
         <v>11</v>
@@ -13321,28 +13395,28 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H91" t="n">
         <v>3.4</v>
       </c>
       <c r="I91" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J91" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K91" t="n">
         <v>2.2</v>
       </c>
       <c r="L91" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M91" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N91" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O91" t="n">
         <v>1.29</v>
@@ -13381,13 +13455,13 @@
         <v>1.91</v>
       </c>
       <c r="AA91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB91" t="n">
         <v>21</v>
       </c>
       <c r="AC91" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD91" t="n">
         <v>41</v>
@@ -13399,7 +13473,7 @@
         <v>41</v>
       </c>
       <c r="AG91" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH91" t="n">
         <v>6.5</v>
@@ -13414,16 +13488,16 @@
         <v>251</v>
       </c>
       <c r="AL91" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM91" t="n">
         <v>9</v>
       </c>
       <c r="AN91" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO91" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP91" t="n">
         <v>15</v>
@@ -13768,13 +13842,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H94" t="n">
         <v>3.5</v>
       </c>
       <c r="I94" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J94" t="n">
         <v>2.88</v>
@@ -13783,31 +13857,31 @@
         <v>2.1</v>
       </c>
       <c r="L94" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M94" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N94" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O94" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P94" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R94" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S94" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="T94" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="U94" t="n">
         <v>3.5</v>
@@ -13816,37 +13890,37 @@
         <v>1.29</v>
       </c>
       <c r="W94" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X94" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y94" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="Z94" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AA94" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB94" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC94" t="n">
         <v>9</v>
       </c>
       <c r="AD94" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE94" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF94" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG94" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH94" t="n">
         <v>6.5</v>
@@ -13858,16 +13932,16 @@
         <v>51</v>
       </c>
       <c r="AK94" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL94" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM94" t="n">
         <v>15</v>
       </c>
       <c r="AN94" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO94" t="n">
         <v>34</v>
@@ -13879,10 +13953,10 @@
         <v>34</v>
       </c>
       <c r="AR94" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="95">
@@ -14358,10 +14432,10 @@
         <v>6.5</v>
       </c>
       <c r="M98" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N98" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O98" t="n">
         <v>1.33</v>
@@ -14652,10 +14726,10 @@
         <v>3.5</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R100" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
@@ -15053,7 +15127,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H103" t="n">
         <v>3</v>
@@ -15062,19 +15136,19 @@
         <v>2.8</v>
       </c>
       <c r="J103" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K103" t="n">
         <v>2</v>
       </c>
       <c r="L103" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M103" t="n">
         <v>1.08</v>
       </c>
       <c r="N103" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O103" t="n">
         <v>1.4</v>
@@ -15097,16 +15171,16 @@
         <v>1.2</v>
       </c>
       <c r="W103" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X103" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y103" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z103" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA103" t="n">
         <v>7</v>
@@ -15142,7 +15216,7 @@
         <v>301</v>
       </c>
       <c r="AL103" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM103" t="n">
         <v>13</v>
@@ -15335,22 +15409,22 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="H105" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I105" t="n">
         <v>1.75</v>
       </c>
       <c r="J105" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="K105" t="n">
         <v>2.05</v>
       </c>
       <c r="L105" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="M105" t="n">
         <v>1.07</v>
@@ -15365,7 +15439,7 @@
         <v>2.95</v>
       </c>
       <c r="Q105" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R105" t="n">
         <v>1.72</v>
@@ -15379,10 +15453,10 @@
         <v>1.27</v>
       </c>
       <c r="W105" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X105" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="Y105" t="n">
         <v>1.9</v>
@@ -15391,10 +15465,10 @@
         <v>1.8</v>
       </c>
       <c r="AA105" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AB105" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC105" t="n">
         <v>14.5</v>
@@ -15406,28 +15480,28 @@
         <v>45</v>
       </c>
       <c r="AF105" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG105" t="n">
         <v>6.8</v>
       </c>
       <c r="AH105" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI105" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ105" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK105" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AL105" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AM105" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AN105" t="n">
         <v>8.25</v>
@@ -15436,10 +15510,10 @@
         <v>14</v>
       </c>
       <c r="AP105" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ105" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR105" t="inlineStr"/>
       <c r="AS105" t="inlineStr"/>
@@ -15617,22 +15691,22 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H107" t="n">
         <v>3.25</v>
       </c>
       <c r="I107" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J107" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="K107" t="n">
         <v>2.07</v>
       </c>
       <c r="L107" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M107" t="n">
         <v>1.06</v>
@@ -15647,7 +15721,7 @@
         <v>3.2</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R107" t="n">
         <v>1.82</v>
@@ -15673,16 +15747,16 @@
         <v>1.98</v>
       </c>
       <c r="AA107" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB107" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AC107" t="n">
         <v>8.25</v>
       </c>
       <c r="AD107" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE107" t="n">
         <v>15.5</v>
@@ -15697,22 +15771,22 @@
         <v>6.4</v>
       </c>
       <c r="AI107" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ107" t="n">
         <v>60</v>
       </c>
       <c r="AK107" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL107" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AM107" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN107" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO107" t="n">
         <v>55</v>
@@ -15779,13 +15853,13 @@
         <v>1.11</v>
       </c>
       <c r="N108" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O108" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P108" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="Q108" t="n">
         <v>2.5</v>
@@ -15799,7 +15873,7 @@
         <v>4.5</v>
       </c>
       <c r="V108" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W108" t="n">
         <v>1.57</v>
@@ -15814,7 +15888,7 @@
         <v>1.65</v>
       </c>
       <c r="AA108" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB108" t="n">
         <v>11.75</v>
@@ -15826,19 +15900,19 @@
         <v>30</v>
       </c>
       <c r="AE108" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF108" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG108" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AH108" t="n">
         <v>5.9</v>
       </c>
       <c r="AI108" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AJ108" t="n">
         <v>120</v>
@@ -15847,7 +15921,7 @@
         <v>900</v>
       </c>
       <c r="AL108" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AM108" t="n">
         <v>11.5</v>
@@ -16111,22 +16185,22 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="H111" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I111" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="J111" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K111" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L111" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="M111" t="n">
         <v>1.05</v>
@@ -16161,58 +16235,58 @@
         <v>2.92</v>
       </c>
       <c r="Y111" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Z111" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="AA111" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AB111" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC111" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD111" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE111" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF111" t="n">
         <v>40</v>
-      </c>
-      <c r="AF111" t="n">
-        <v>45</v>
       </c>
       <c r="AG111" t="n">
         <v>8.75</v>
       </c>
       <c r="AH111" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AI111" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ111" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK111" t="n">
         <v>500</v>
       </c>
       <c r="AL111" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AM111" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AN111" t="n">
         <v>8.75</v>
       </c>
       <c r="AO111" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP111" t="n">
         <v>15</v>
-      </c>
-      <c r="AP111" t="n">
-        <v>14.5</v>
       </c>
       <c r="AQ111" t="n">
         <v>26</v>
@@ -16538,16 +16612,16 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H114" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I114" t="n">
         <v>2.8</v>
       </c>
       <c r="J114" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K114" t="n">
         <v>2.1</v>
@@ -16556,54 +16630,54 @@
         <v>3.4</v>
       </c>
       <c r="M114" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N114" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O114" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P114" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R114" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V114" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W114" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X114" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y114" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z114" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA114" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB114" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC114" t="n">
         <v>10</v>
       </c>
       <c r="AD114" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE114" t="n">
         <v>21</v>
@@ -16612,7 +16686,7 @@
         <v>29</v>
       </c>
       <c r="AG114" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH114" t="n">
         <v>6</v>
@@ -16621,16 +16695,16 @@
         <v>13</v>
       </c>
       <c r="AJ114" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK114" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL114" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM114" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN114" t="n">
         <v>11</v>
@@ -16639,10 +16713,10 @@
         <v>29</v>
       </c>
       <c r="AP114" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ114" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR114" t="inlineStr"/>
       <c r="AS114" t="inlineStr"/>
@@ -17536,7 +17610,7 @@
         <v>2.3</v>
       </c>
       <c r="H121" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I121" t="n">
         <v>2.82</v>
@@ -17545,10 +17619,10 @@
         <v>2.82</v>
       </c>
       <c r="K121" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L121" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="M121" t="n">
         <v>1.04</v>
@@ -17557,24 +17631,24 @@
         <v>8.25</v>
       </c>
       <c r="O121" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P121" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="Q121" t="n">
         <v>1.65</v>
       </c>
       <c r="R121" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="V121" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="W121" t="n">
         <v>1.34</v>
@@ -17583,13 +17657,13 @@
         <v>3</v>
       </c>
       <c r="Y121" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Z121" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="AA121" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB121" t="n">
         <v>13.5</v>
@@ -17598,7 +17672,7 @@
         <v>9</v>
       </c>
       <c r="AD121" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE121" t="n">
         <v>16.5</v>
@@ -17610,7 +17684,7 @@
         <v>8.25</v>
       </c>
       <c r="AH121" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AI121" t="n">
         <v>11.5</v>
@@ -17622,10 +17696,10 @@
         <v>250</v>
       </c>
       <c r="AL121" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AM121" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN121" t="n">
         <v>10.25</v>
@@ -17634,10 +17708,10 @@
         <v>35</v>
       </c>
       <c r="AP121" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ121" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AR121" t="inlineStr"/>
       <c r="AS121" t="inlineStr"/>
@@ -17815,96 +17889,96 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="H123" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I123" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J123" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="K123" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="L123" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M123" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N123" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O123" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P123" t="n">
-        <v>4.05</v>
+        <v>3.75</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R123" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="n">
-        <v>2.42</v>
+        <v>2.65</v>
       </c>
       <c r="V123" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="W123" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X123" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="Y123" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Z123" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AA123" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AB123" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AC123" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD123" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE123" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF123" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG123" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH123" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AI123" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ123" t="n">
         <v>45</v>
       </c>
       <c r="AK123" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL123" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM123" t="n">
         <v>20</v>
@@ -17913,13 +17987,13 @@
         <v>11.75</v>
       </c>
       <c r="AO123" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP123" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ123" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR123" t="inlineStr"/>
       <c r="AS123" t="inlineStr"/>
@@ -17955,43 +18029,113 @@
           <t>Khonkaen Utd.</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
+      <c r="G124" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H124" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K124" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L124" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N124" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P124" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2.18</v>
+      </c>
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
-      <c r="Z124" t="inlineStr"/>
-      <c r="AA124" t="inlineStr"/>
-      <c r="AB124" t="inlineStr"/>
-      <c r="AC124" t="inlineStr"/>
-      <c r="AD124" t="inlineStr"/>
-      <c r="AE124" t="inlineStr"/>
-      <c r="AF124" t="inlineStr"/>
-      <c r="AG124" t="inlineStr"/>
-      <c r="AH124" t="inlineStr"/>
-      <c r="AI124" t="inlineStr"/>
-      <c r="AJ124" t="inlineStr"/>
-      <c r="AK124" t="inlineStr"/>
-      <c r="AL124" t="inlineStr"/>
-      <c r="AM124" t="inlineStr"/>
-      <c r="AN124" t="inlineStr"/>
-      <c r="AO124" t="inlineStr"/>
-      <c r="AP124" t="inlineStr"/>
-      <c r="AQ124" t="inlineStr"/>
+      <c r="U124" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X124" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>60</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>32</v>
+      </c>
       <c r="AR124" t="inlineStr"/>
       <c r="AS124" t="inlineStr"/>
     </row>
@@ -18027,22 +18171,22 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H125" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I125" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J125" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="K125" t="n">
         <v>2.3</v>
       </c>
       <c r="L125" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="M125" t="n">
         <v>1.03</v>
@@ -18083,7 +18227,7 @@
         <v>2.42</v>
       </c>
       <c r="AA125" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB125" t="n">
         <v>12</v>
@@ -18092,7 +18236,7 @@
         <v>8.5</v>
       </c>
       <c r="AD125" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE125" t="n">
         <v>14</v>
@@ -18107,7 +18251,7 @@
         <v>7.5</v>
       </c>
       <c r="AI125" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ125" t="n">
         <v>37</v>
@@ -18128,10 +18272,10 @@
         <v>45</v>
       </c>
       <c r="AP125" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ125" t="n">
         <v>25</v>
-      </c>
-      <c r="AQ125" t="n">
-        <v>26</v>
       </c>
       <c r="AR125" t="inlineStr"/>
       <c r="AS125" t="inlineStr"/>
@@ -18171,7 +18315,7 @@
         <v>2</v>
       </c>
       <c r="H126" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I126" t="n">
         <v>3.2</v>
@@ -18245,16 +18389,16 @@
         <v>15</v>
       </c>
       <c r="AH126" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI126" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ126" t="n">
         <v>41</v>
       </c>
       <c r="AK126" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL126" t="n">
         <v>13</v>
@@ -18309,22 +18453,22 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5.25</v>
+        <v>4.33</v>
       </c>
       <c r="H127" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I127" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="J127" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K127" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L127" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="M127" t="n">
         <v>1.03</v>
@@ -18357,64 +18501,64 @@
         <v>1.44</v>
       </c>
       <c r="W127" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X127" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y127" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z127" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA127" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB127" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC127" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD127" t="n">
         <v>51</v>
       </c>
       <c r="AE127" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ127" t="n">
         <v>41</v>
-      </c>
-      <c r="AF127" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG127" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH127" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI127" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ127" t="n">
-        <v>51</v>
       </c>
       <c r="AK127" t="n">
         <v>201</v>
       </c>
       <c r="AL127" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM127" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AN127" t="n">
         <v>8.5</v>
       </c>
       <c r="AO127" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP127" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ127" t="n">
         <v>23</v>
@@ -18895,10 +19039,10 @@
         <v>4.33</v>
       </c>
       <c r="M131" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N131" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O131" t="n">
         <v>1.36</v>
@@ -19159,48 +19303,48 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H133" t="n">
         <v>3.4</v>
       </c>
       <c r="I133" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J133" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K133" t="n">
         <v>2.2</v>
       </c>
       <c r="L133" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M133" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N133" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O133" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P133" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R133" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V133" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W133" t="n">
         <v>1.4</v>
@@ -19209,16 +19353,16 @@
         <v>2.75</v>
       </c>
       <c r="Y133" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z133" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA133" t="n">
         <v>7.5</v>
       </c>
       <c r="AB133" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC133" t="n">
         <v>8.5</v>
@@ -19248,13 +19392,13 @@
         <v>201</v>
       </c>
       <c r="AL133" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN133" t="n">
         <v>13</v>
-      </c>
-      <c r="AM133" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN133" t="n">
-        <v>15</v>
       </c>
       <c r="AO133" t="n">
         <v>41</v>
@@ -19441,54 +19585,54 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="H135" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I135" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="K135" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L135" t="n">
-        <v>2.45</v>
+        <v>2.57</v>
       </c>
       <c r="M135" t="n">
         <v>1.04</v>
       </c>
       <c r="N135" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O135" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P135" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Q135" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R135" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="V135" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="W135" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X135" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Y135" t="n">
         <v>1.55</v>
@@ -19497,31 +19641,31 @@
         <v>2.3</v>
       </c>
       <c r="AA135" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB135" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC135" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD135" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE135" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AF135" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG135" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH135" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AI135" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ135" t="n">
         <v>45</v>
@@ -19533,19 +19677,19 @@
         <v>9.5</v>
       </c>
       <c r="AM135" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AN135" t="n">
         <v>8.25</v>
       </c>
       <c r="AO135" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AP135" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AQ135" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AR135" t="inlineStr"/>
       <c r="AS135" t="inlineStr"/>
@@ -19739,36 +19883,36 @@
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P137" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R137" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="V137" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W137" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X137" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="Y137" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="Z137" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AA137" t="n">
         <v>5.7</v>
@@ -19786,40 +19930,40 @@
         <v>14</v>
       </c>
       <c r="AF137" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG137" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AH137" t="n">
         <v>6.7</v>
       </c>
       <c r="AI137" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AJ137" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK137" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AL137" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM137" t="n">
         <v>35</v>
       </c>
       <c r="AN137" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO137" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AP137" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AQ137" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR137" t="inlineStr"/>
       <c r="AS137" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
@@ -752,7 +752,7 @@
         <v>2.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB2" t="n">
         <v>8.5</v>
@@ -867,10 +867,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="R3" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -996,10 +996,10 @@
         <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
@@ -1149,18 +1149,18 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R5" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W5" t="n">
         <v>1.36</v>
@@ -1553,7 +1553,7 @@
         <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
         <v>1.7</v>
@@ -1562,10 +1562,10 @@
         <v>5</v>
       </c>
       <c r="K8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L8" t="n">
         <v>2.3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
@@ -1721,10 +1721,10 @@
         <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H10" t="n">
         <v>4.75</v>
@@ -1979,7 +1979,7 @@
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J11" t="n">
         <v>5</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H12" t="n">
         <v>4.5</v>
@@ -2255,40 +2255,40 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="H13" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L13" t="n">
         <v>7</v>
       </c>
-      <c r="J13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>6.5</v>
-      </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R13" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -2299,10 +2299,10 @@
         <v>1.44</v>
       </c>
       <c r="W13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y13" t="n">
         <v>1.95</v>
@@ -2317,13 +2317,13 @@
         <v>7</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF13" t="n">
         <v>26</v>
@@ -2332,25 +2332,25 @@
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ13" t="n">
         <v>51</v>
       </c>
       <c r="AK13" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL13" t="n">
         <v>17</v>
       </c>
       <c r="AM13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
         <v>81</v>
@@ -2359,7 +2359,7 @@
         <v>51</v>
       </c>
       <c r="AQ13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2402,7 +2402,7 @@
         <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="J14" t="n">
         <v>6</v>
@@ -2420,16 +2420,16 @@
         <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S14" t="n">
         <v>2.05</v>
@@ -2438,10 +2438,10 @@
         <v>1.8</v>
       </c>
       <c r="U14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W14" t="n">
         <v>1.3</v>
@@ -2541,19 +2541,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J15" t="n">
         <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L15" t="n">
         <v>3.1</v>
@@ -2577,10 +2577,10 @@
         <v>2.15</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U15" t="n">
         <v>2.63</v>
@@ -2589,19 +2589,19 @@
         <v>1.44</v>
       </c>
       <c r="W15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB15" t="n">
         <v>15</v>
@@ -2619,22 +2619,22 @@
         <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
         <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="n">
         <v>126</v>
       </c>
       <c r="AL15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM15" t="n">
         <v>15</v>
@@ -2716,10 +2716,10 @@
         <v>4.33</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R16" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -3695,34 +3695,34 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I23" t="n">
         <v>2.9</v>
       </c>
       <c r="J23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L23" t="n">
         <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P23" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q23" t="n">
         <v>3.5</v>
@@ -3743,52 +3743,52 @@
         <v>1.08</v>
       </c>
       <c r="W23" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X23" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA23" t="n">
         <v>5.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC23" t="n">
         <v>12</v>
       </c>
       <c r="AD23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF23" t="n">
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH23" t="n">
         <v>6.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ23" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK23" t="n">
         <v>101</v>
       </c>
       <c r="AL23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM23" t="n">
         <v>12</v>
@@ -3844,28 +3844,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H24" t="n">
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J24" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K24" t="n">
         <v>1.91</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.5</v>
@@ -3898,10 +3898,10 @@
         <v>2.25</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA24" t="n">
         <v>5.5</v>
@@ -3937,7 +3937,7 @@
         <v>451</v>
       </c>
       <c r="AL24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM24" t="n">
         <v>19</v>
@@ -3946,7 +3946,7 @@
         <v>15</v>
       </c>
       <c r="AO24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP24" t="n">
         <v>41</v>
@@ -4029,10 +4029,10 @@
         <v>1.53</v>
       </c>
       <c r="S25" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="U25" t="n">
         <v>5</v>
@@ -4104,10 +4104,10 @@
         <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -4432,7 +4432,7 @@
         <v>2.75</v>
       </c>
       <c r="K28" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L28" t="n">
         <v>6</v>
@@ -4571,16 +4571,16 @@
         <v>2.5</v>
       </c>
       <c r="K29" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L29" t="n">
         <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O29" t="n">
         <v>1.5</v>
@@ -4714,7 +4714,7 @@
         <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L30" t="n">
         <v>5</v>
@@ -4853,16 +4853,16 @@
         <v>2.75</v>
       </c>
       <c r="K31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L31" t="n">
         <v>5.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.62</v>
@@ -5026,10 +5026,10 @@
         <v>2.05</v>
       </c>
       <c r="U32" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V32" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W32" t="n">
         <v>1.25</v>
@@ -5144,7 +5144,7 @@
         <v>2.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -5153,10 +5153,10 @@
         <v>17</v>
       </c>
       <c r="O33" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P33" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q33" t="n">
         <v>1.53</v>
@@ -5165,10 +5165,10 @@
         <v>2.4</v>
       </c>
       <c r="S33" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U33" t="n">
         <v>2.25</v>
@@ -5459,7 +5459,7 @@
         <v>1.33</v>
       </c>
       <c r="W35" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X35" t="n">
         <v>2.75</v>
@@ -5556,13 +5556,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H36" t="n">
         <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J36" t="n">
         <v>3</v>
@@ -5571,15 +5571,15 @@
         <v>1.88</v>
       </c>
       <c r="L36" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P36" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="Q36" t="n">
         <v>2.32</v>
@@ -5590,10 +5590,10 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="V36" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W36" t="n">
         <v>1.53</v>
@@ -5602,22 +5602,22 @@
         <v>2.18</v>
       </c>
       <c r="Y36" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Z36" t="n">
         <v>1.65</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AC36" t="n">
         <v>9.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE36" t="n">
         <v>22</v>
@@ -5629,10 +5629,10 @@
         <v>6.8</v>
       </c>
       <c r="AH36" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AI36" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ36" t="n">
         <v>110</v>
@@ -5641,22 +5641,22 @@
         <v>700</v>
       </c>
       <c r="AL36" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AM36" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AN36" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AO36" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP36" t="n">
         <v>35</v>
       </c>
       <c r="AQ36" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
@@ -5696,19 +5696,19 @@
         <v>1.75</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I37" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="J37" t="n">
         <v>2.37</v>
       </c>
       <c r="K37" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L37" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
@@ -5736,7 +5736,7 @@
         <v>1.45</v>
       </c>
       <c r="X37" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="Y37" t="n">
         <v>1.93</v>
@@ -5745,10 +5745,10 @@
         <v>1.7</v>
       </c>
       <c r="AA37" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB37" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AC37" t="n">
         <v>8.5</v>
@@ -5763,7 +5763,7 @@
         <v>32</v>
       </c>
       <c r="AG37" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH37" t="n">
         <v>6.7</v>
@@ -5775,13 +5775,13 @@
         <v>100</v>
       </c>
       <c r="AK37" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
         <v>10.5</v>
       </c>
       <c r="AM37" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN37" t="n">
         <v>15</v>
@@ -5790,10 +5790,10 @@
         <v>75</v>
       </c>
       <c r="AP37" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AQ37" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
@@ -5830,22 +5830,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I38" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K38" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L38" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
         <v>1.05</v>
@@ -5860,33 +5860,33 @@
         <v>3.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R38" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W38" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X38" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z38" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA38" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB38" t="n">
         <v>11</v>
@@ -5895,16 +5895,16 @@
         <v>9</v>
       </c>
       <c r="AD38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE38" t="n">
         <v>17</v>
       </c>
       <c r="AF38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH38" t="n">
         <v>6.5</v>
@@ -5922,13 +5922,13 @@
         <v>11</v>
       </c>
       <c r="AM38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN38" t="n">
         <v>12</v>
       </c>
       <c r="AO38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP38" t="n">
         <v>26</v>
@@ -5971,10 +5971,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="H39" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I39" t="n">
         <v>1.48</v>
@@ -5983,57 +5983,57 @@
         <v>6</v>
       </c>
       <c r="K39" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L39" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R39" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V39" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W39" t="n">
         <v>1.33</v>
       </c>
       <c r="X39" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z39" t="n">
         <v>1.95</v>
       </c>
-      <c r="Z39" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AA39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB39" t="n">
         <v>34</v>
       </c>
       <c r="AC39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD39" t="n">
         <v>67</v>
@@ -6045,7 +6045,7 @@
         <v>41</v>
       </c>
       <c r="AG39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH39" t="n">
         <v>8.5</v>
@@ -6057,25 +6057,25 @@
         <v>51</v>
       </c>
       <c r="AK39" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL39" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM39" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AN39" t="n">
         <v>8.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP39" t="n">
         <v>12</v>
       </c>
       <c r="AQ39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
@@ -6156,7 +6156,7 @@
         <v>1.44</v>
       </c>
       <c r="W40" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X40" t="n">
         <v>3.25</v>
@@ -6297,16 +6297,16 @@
         <v>1.33</v>
       </c>
       <c r="W41" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X41" t="n">
         <v>2.75</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AA41" t="n">
         <v>12</v>
@@ -6438,13 +6438,13 @@
         <v>1.44</v>
       </c>
       <c r="W42" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X42" t="n">
         <v>3.25</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Z42" t="n">
         <v>2.2</v>
@@ -6579,16 +6579,16 @@
         <v>1.29</v>
       </c>
       <c r="W43" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X43" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA43" t="n">
         <v>9.5</v>
@@ -6706,10 +6706,10 @@
         <v>3.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R44" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -6720,16 +6720,16 @@
         <v>1.25</v>
       </c>
       <c r="W44" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X44" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA44" t="n">
         <v>11</v>
@@ -6847,10 +6847,10 @@
         <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="R45" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -6958,13 +6958,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H46" t="n">
         <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J46" t="n">
         <v>1.8</v>
@@ -6976,10 +6976,10 @@
         <v>9</v>
       </c>
       <c r="M46" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N46" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O46" t="n">
         <v>1.25</v>
@@ -6988,10 +6988,10 @@
         <v>3.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="R46" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -7008,10 +7008,10 @@
         <v>3</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA46" t="n">
         <v>6</v>
@@ -7020,10 +7020,10 @@
         <v>5.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD46" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE46" t="n">
         <v>13</v>
@@ -7032,37 +7032,37 @@
         <v>34</v>
       </c>
       <c r="AG46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH46" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ46" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK46" t="n">
         <v>1250</v>
       </c>
       <c r="AL46" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AM46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN46" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AO46" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AP46" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AQ46" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr"/>
@@ -7206,10 +7206,10 @@
         <v>41</v>
       </c>
       <c r="AR47" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -7244,13 +7244,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H48" t="n">
         <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J48" t="n">
         <v>6</v>
@@ -7259,7 +7259,7 @@
         <v>2.05</v>
       </c>
       <c r="L48" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M48" t="n">
         <v>1.08</v>
@@ -7280,10 +7280,10 @@
         <v>1.6</v>
       </c>
       <c r="S48" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T48" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U48" t="n">
         <v>4.33</v>
@@ -7316,7 +7316,7 @@
         <v>51</v>
       </c>
       <c r="AE48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF48" t="n">
         <v>51</v>
@@ -7346,7 +7346,7 @@
         <v>9</v>
       </c>
       <c r="AO48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP48" t="n">
         <v>17</v>
@@ -7355,10 +7355,10 @@
         <v>34</v>
       </c>
       <c r="AR48" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="49">
@@ -7393,22 +7393,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H49" t="n">
         <v>3</v>
       </c>
       <c r="I49" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J49" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K49" t="n">
         <v>1.91</v>
       </c>
       <c r="L49" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M49" t="n">
         <v>1.11</v>
@@ -7453,10 +7453,10 @@
         <v>1.62</v>
       </c>
       <c r="AA49" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB49" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC49" t="n">
         <v>10</v>
@@ -7471,7 +7471,7 @@
         <v>41</v>
       </c>
       <c r="AG49" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH49" t="n">
         <v>6</v>
@@ -7480,7 +7480,7 @@
         <v>19</v>
       </c>
       <c r="AJ49" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK49" t="n">
         <v>101</v>
@@ -7489,25 +7489,25 @@
         <v>8</v>
       </c>
       <c r="AM49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO49" t="n">
         <v>41</v>
       </c>
       <c r="AP49" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ49" t="n">
         <v>41</v>
       </c>
-      <c r="AQ49" t="n">
-        <v>51</v>
-      </c>
       <c r="AR49" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="50">
@@ -7691,13 +7691,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H51" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I51" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J51" t="n">
         <v>2.05</v>
@@ -7706,13 +7706,13 @@
         <v>2.2</v>
       </c>
       <c r="L51" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M51" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O51" t="n">
         <v>1.33</v>
@@ -7745,10 +7745,10 @@
         <v>2.63</v>
       </c>
       <c r="Y51" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA51" t="n">
         <v>5.5</v>
@@ -7763,7 +7763,7 @@
         <v>9.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF51" t="n">
         <v>34</v>
@@ -7775,7 +7775,7 @@
         <v>8</v>
       </c>
       <c r="AI51" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ51" t="n">
         <v>81</v>
@@ -7787,7 +7787,7 @@
         <v>15</v>
       </c>
       <c r="AM51" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN51" t="n">
         <v>23</v>
@@ -7799,7 +7799,7 @@
         <v>51</v>
       </c>
       <c r="AQ51" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR51" t="n">
         <v>1.56</v>
@@ -7843,25 +7843,25 @@
         <v>1.55</v>
       </c>
       <c r="H52" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I52" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J52" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K52" t="n">
         <v>2.1</v>
       </c>
       <c r="L52" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M52" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N52" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O52" t="n">
         <v>1.36</v>
@@ -7870,39 +7870,39 @@
         <v>3</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R52" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V52" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W52" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X52" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y52" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA52" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB52" t="n">
         <v>6.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD52" t="n">
         <v>11</v>
@@ -7914,7 +7914,7 @@
         <v>34</v>
       </c>
       <c r="AG52" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH52" t="n">
         <v>7.5</v>
@@ -7923,7 +7923,7 @@
         <v>21</v>
       </c>
       <c r="AJ52" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK52" t="n">
         <v>351</v>
@@ -7990,7 +7990,7 @@
         <v>3.1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K53" t="n">
         <v>2.2</v>
@@ -8082,7 +8082,7 @@
         <v>34</v>
       </c>
       <c r="AP53" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ53" t="n">
         <v>29</v>
@@ -8263,28 +8263,28 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="H55" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="J55" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K55" t="n">
         <v>2.05</v>
       </c>
       <c r="L55" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="M55" t="n">
         <v>1.09</v>
       </c>
       <c r="N55" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="O55" t="n">
         <v>1.39</v>
@@ -8313,34 +8313,34 @@
         <v>2.67</v>
       </c>
       <c r="Y55" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Z55" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="AA55" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB55" t="n">
         <v>16</v>
       </c>
       <c r="AC55" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AD55" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE55" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF55" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG55" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AH55" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AI55" t="n">
         <v>15.5</v>
@@ -8352,22 +8352,22 @@
         <v>800</v>
       </c>
       <c r="AL55" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AM55" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AN55" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AO55" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP55" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ55" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AR55" t="inlineStr"/>
       <c r="AS55" t="inlineStr"/>
@@ -8704,10 +8704,10 @@
         <v>6.5</v>
       </c>
       <c r="M58" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O58" t="n">
         <v>1.2</v>
@@ -8716,10 +8716,10 @@
         <v>4.33</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R58" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S58" t="n">
         <v>2</v>
@@ -8831,13 +8831,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H59" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I59" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J59" t="n">
         <v>2</v>
@@ -8866,8 +8866,12 @@
       <c r="R59" t="n">
         <v>2.2</v>
       </c>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
+      <c r="S59" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.83</v>
+      </c>
       <c r="U59" t="n">
         <v>2.63</v>
       </c>
@@ -8881,22 +8885,22 @@
         <v>3.4</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA59" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB59" t="n">
         <v>8</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>7.5</v>
       </c>
       <c r="AC59" t="n">
         <v>8.5</v>
       </c>
       <c r="AD59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE59" t="n">
         <v>12</v>
@@ -8920,7 +8924,7 @@
         <v>201</v>
       </c>
       <c r="AL59" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM59" t="n">
         <v>34</v>
@@ -9002,10 +9006,10 @@
         <v>4</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R60" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
@@ -9113,7 +9117,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H61" t="n">
         <v>3.5</v>
@@ -9254,7 +9258,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="H62" t="n">
         <v>4.1</v>
@@ -9540,7 +9544,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H64" t="n">
         <v>4.33</v>
@@ -10112,28 +10116,28 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>4.75</v>
       </c>
       <c r="I68" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J68" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K68" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L68" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M68" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N68" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O68" t="n">
         <v>1.25</v>
@@ -10142,10 +10146,10 @@
         <v>3.75</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R68" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S68" t="n">
         <v>2.47</v>
@@ -10154,10 +10158,10 @@
         <v>1.55</v>
       </c>
       <c r="U68" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V68" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W68" t="n">
         <v>1.36</v>
@@ -10166,22 +10170,22 @@
         <v>3</v>
       </c>
       <c r="Y68" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z68" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA68" t="n">
         <v>6</v>
       </c>
       <c r="AB68" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AC68" t="n">
         <v>9</v>
       </c>
       <c r="AD68" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE68" t="n">
         <v>12</v>
@@ -10193,10 +10197,10 @@
         <v>10</v>
       </c>
       <c r="AH68" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI68" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ68" t="n">
         <v>81</v>
@@ -10208,19 +10212,19 @@
         <v>21</v>
       </c>
       <c r="AM68" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN68" t="n">
         <v>29</v>
       </c>
       <c r="AO68" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AP68" t="n">
         <v>81</v>
       </c>
       <c r="AQ68" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR68" t="n">
         <v>1.42</v>
@@ -10279,10 +10283,10 @@
         <v>2.75</v>
       </c>
       <c r="M69" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O69" t="n">
         <v>1.4</v>
@@ -10428,10 +10432,10 @@
         <v>13</v>
       </c>
       <c r="M70" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N70" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O70" t="n">
         <v>1.13</v>
@@ -10718,10 +10722,10 @@
         <v>3.1</v>
       </c>
       <c r="M72" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N72" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O72" t="n">
         <v>1.33</v>
@@ -10730,18 +10734,18 @@
         <v>3.25</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R72" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V72" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W72" t="n">
         <v>1.44</v>
@@ -10841,16 +10845,16 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H73" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I73" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J73" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K73" t="n">
         <v>2.4</v>
@@ -10871,22 +10875,22 @@
         <v>5</v>
       </c>
       <c r="Q73" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V73" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R73" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S73" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T73" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U73" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V73" t="n">
-        <v>1.53</v>
       </c>
       <c r="W73" t="n">
         <v>1.29</v>
@@ -10895,10 +10899,10 @@
         <v>3.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z73" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA73" t="n">
         <v>10</v>
@@ -10916,7 +10920,7 @@
         <v>13</v>
       </c>
       <c r="AF73" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG73" t="n">
         <v>17</v>
@@ -10934,7 +10938,7 @@
         <v>126</v>
       </c>
       <c r="AL73" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM73" t="n">
         <v>23</v>
@@ -11256,58 +11260,58 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H76" t="n">
         <v>4.75</v>
       </c>
       <c r="I76" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="J76" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K76" t="n">
         <v>2.5</v>
       </c>
       <c r="L76" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="M76" t="n">
         <v>1.03</v>
       </c>
       <c r="N76" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O76" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P76" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R76" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S76" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="T76" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U76" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V76" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W76" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X76" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y76" t="n">
         <v>1.83</v>
@@ -11319,22 +11323,22 @@
         <v>19</v>
       </c>
       <c r="AB76" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC76" t="n">
         <v>19</v>
       </c>
       <c r="AD76" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AE76" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF76" t="n">
         <v>41</v>
       </c>
       <c r="AG76" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH76" t="n">
         <v>10</v>
@@ -11349,13 +11353,13 @@
         <v>251</v>
       </c>
       <c r="AL76" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM76" t="n">
         <v>7.5</v>
       </c>
       <c r="AN76" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO76" t="n">
         <v>9.5</v>
@@ -11546,22 +11550,22 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H78" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J78" t="n">
         <v>3.4</v>
-      </c>
-      <c r="J78" t="n">
-        <v>3.2</v>
       </c>
       <c r="K78" t="n">
         <v>1.91</v>
       </c>
       <c r="L78" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M78" t="n">
         <v>1.11</v>
@@ -11605,7 +11609,7 @@
         <v>6.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC78" t="n">
         <v>10</v>
@@ -11635,19 +11639,19 @@
         <v>501</v>
       </c>
       <c r="AL78" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM78" t="n">
         <v>15</v>
       </c>
       <c r="AN78" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO78" t="n">
         <v>34</v>
       </c>
       <c r="AP78" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ78" t="n">
         <v>41</v>
@@ -11691,16 +11695,16 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H79" t="n">
         <v>3.3</v>
       </c>
       <c r="I79" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K79" t="n">
         <v>2.1</v>
@@ -11741,10 +11745,10 @@
         <v>2.63</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z79" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA79" t="n">
         <v>6.5</v>
@@ -11753,10 +11757,10 @@
         <v>8.5</v>
       </c>
       <c r="AC79" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD79" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE79" t="n">
         <v>17</v>
@@ -11777,16 +11781,16 @@
         <v>51</v>
       </c>
       <c r="AK79" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL79" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM79" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN79" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO79" t="n">
         <v>41</v>
@@ -11977,22 +11981,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H81" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I81" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="J81" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="K81" t="n">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="L81" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
@@ -12019,22 +12023,22 @@
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Z81" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="AA81" t="n">
         <v>14</v>
       </c>
       <c r="AB81" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC81" t="n">
         <v>15</v>
       </c>
       <c r="AD81" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AE81" t="n">
         <v>50</v>
@@ -12043,13 +12047,13 @@
         <v>50</v>
       </c>
       <c r="AG81" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH81" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AI81" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ81" t="n">
         <v>80</v>
@@ -12061,13 +12065,13 @@
         <v>6.2</v>
       </c>
       <c r="AM81" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AN81" t="n">
         <v>6.6</v>
       </c>
       <c r="AO81" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AP81" t="n">
         <v>9.800000000000001</v>
@@ -12110,13 +12114,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H82" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J82" t="n">
         <v>4.33</v>
@@ -12125,25 +12129,25 @@
         <v>2.2</v>
       </c>
       <c r="L82" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M82" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O82" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P82" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R82" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
@@ -12154,16 +12158,16 @@
         <v>1.33</v>
       </c>
       <c r="W82" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X82" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y82" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z82" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA82" t="n">
         <v>11</v>
@@ -12184,7 +12188,7 @@
         <v>34</v>
       </c>
       <c r="AG82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH82" t="n">
         <v>7</v>
@@ -12196,10 +12200,10 @@
         <v>51</v>
       </c>
       <c r="AK82" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL82" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM82" t="n">
         <v>9.5</v>
@@ -12533,22 +12537,22 @@
         </is>
       </c>
       <c r="G85" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K85" t="n">
         <v>2.1</v>
       </c>
-      <c r="H85" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K85" t="n">
-        <v>2.07</v>
-      </c>
       <c r="L85" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
@@ -12579,61 +12583,61 @@
         <v>2.57</v>
       </c>
       <c r="Y85" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Z85" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="AA85" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB85" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AC85" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD85" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AE85" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF85" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG85" t="n">
         <v>8.5</v>
       </c>
       <c r="AH85" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AI85" t="n">
         <v>15</v>
       </c>
       <c r="AJ85" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK85" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL85" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AM85" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN85" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AO85" t="n">
+        <v>50</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ85" t="n">
         <v>45</v>
-      </c>
-      <c r="AP85" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ85" t="n">
-        <v>40</v>
       </c>
       <c r="AR85" t="inlineStr"/>
       <c r="AS85" t="inlineStr"/>
@@ -12694,10 +12698,10 @@
         <v>6</v>
       </c>
       <c r="O86" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P86" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q86" t="n">
         <v>2.88</v>
@@ -12708,10 +12712,10 @@
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V86" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W86" t="n">
         <v>1.67</v>
@@ -12815,16 +12819,16 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H87" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I87" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J87" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K87" t="n">
         <v>1.83</v>
@@ -12853,10 +12857,10 @@
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V87" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W87" t="n">
         <v>1.67</v>
@@ -12874,16 +12878,16 @@
         <v>6</v>
       </c>
       <c r="AB87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC87" t="n">
         <v>11</v>
       </c>
       <c r="AD87" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE87" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF87" t="n">
         <v>41</v>
@@ -12898,7 +12902,7 @@
         <v>21</v>
       </c>
       <c r="AJ87" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK87" t="n">
         <v>101</v>
@@ -12907,7 +12911,7 @@
         <v>6.5</v>
       </c>
       <c r="AM87" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN87" t="n">
         <v>12</v>
@@ -12960,28 +12964,28 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H88" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I88" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J88" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K88" t="n">
         <v>2.2</v>
       </c>
       <c r="L88" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M88" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N88" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O88" t="n">
         <v>1.33</v>
@@ -12990,18 +12994,18 @@
         <v>3.25</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R88" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V88" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W88" t="n">
         <v>1.44</v>
@@ -13010,10 +13014,10 @@
         <v>2.63</v>
       </c>
       <c r="Y88" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z88" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA88" t="n">
         <v>5.5</v>
@@ -13028,13 +13032,13 @@
         <v>9</v>
       </c>
       <c r="AE88" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF88" t="n">
         <v>34</v>
       </c>
       <c r="AG88" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH88" t="n">
         <v>8</v>
@@ -13049,13 +13053,13 @@
         <v>101</v>
       </c>
       <c r="AL88" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM88" t="n">
         <v>41</v>
       </c>
       <c r="AN88" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO88" t="n">
         <v>101</v>
@@ -13105,13 +13109,13 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H89" t="n">
         <v>3.6</v>
       </c>
       <c r="I89" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J89" t="n">
         <v>2.88</v>
@@ -13120,19 +13124,19 @@
         <v>2.4</v>
       </c>
       <c r="L89" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M89" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N89" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O89" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P89" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q89" t="n">
         <v>1.53</v>
@@ -13141,16 +13145,16 @@
         <v>2.4</v>
       </c>
       <c r="S89" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="T89" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="U89" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V89" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W89" t="n">
         <v>1.29</v>
@@ -13159,19 +13163,19 @@
         <v>3.5</v>
       </c>
       <c r="Y89" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z89" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB89" t="n">
         <v>15</v>
       </c>
       <c r="AC89" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD89" t="n">
         <v>23</v>
@@ -13183,7 +13187,7 @@
         <v>21</v>
       </c>
       <c r="AG89" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH89" t="n">
         <v>7.5</v>
@@ -13213,7 +13217,7 @@
         <v>19</v>
       </c>
       <c r="AQ89" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr"/>
@@ -13395,13 +13399,13 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H91" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I91" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="J91" t="n">
         <v>4.5</v>
@@ -13413,10 +13417,10 @@
         <v>2.5</v>
       </c>
       <c r="M91" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O91" t="n">
         <v>1.29</v>
@@ -13425,22 +13429,22 @@
         <v>3.5</v>
       </c>
       <c r="Q91" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R91" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S91" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="T91" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="U91" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V91" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W91" t="n">
         <v>1.4</v>
@@ -13473,7 +13477,7 @@
         <v>41</v>
       </c>
       <c r="AG91" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH91" t="n">
         <v>6.5</v>
@@ -13488,7 +13492,7 @@
         <v>251</v>
       </c>
       <c r="AL91" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM91" t="n">
         <v>9</v>
@@ -13506,10 +13510,10 @@
         <v>26</v>
       </c>
       <c r="AR91" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="92">
@@ -14003,16 +14007,16 @@
         <v>3.1</v>
       </c>
       <c r="K95" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L95" t="n">
         <v>3.6</v>
       </c>
       <c r="M95" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N95" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O95" t="n">
         <v>1.3</v>
@@ -14047,7 +14051,7 @@
         <v>1.95</v>
       </c>
       <c r="AA95" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB95" t="n">
         <v>11</v>
@@ -14059,19 +14063,19 @@
         <v>23</v>
       </c>
       <c r="AE95" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF95" t="n">
         <v>29</v>
       </c>
       <c r="AG95" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH95" t="n">
         <v>6</v>
       </c>
       <c r="AI95" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ95" t="n">
         <v>51</v>
@@ -14080,13 +14084,13 @@
         <v>251</v>
       </c>
       <c r="AL95" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM95" t="n">
         <v>15</v>
       </c>
       <c r="AN95" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO95" t="n">
         <v>34</v>
@@ -14297,24 +14301,24 @@
         <v>13</v>
       </c>
       <c r="O97" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P97" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R97" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V97" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W97" t="n">
         <v>1.33</v>
@@ -14347,7 +14351,7 @@
         <v>41</v>
       </c>
       <c r="AG97" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH97" t="n">
         <v>7.5</v>
@@ -14365,7 +14369,7 @@
         <v>8</v>
       </c>
       <c r="AM97" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AN97" t="n">
         <v>8.5</v>
@@ -14374,7 +14378,7 @@
         <v>12</v>
       </c>
       <c r="AP97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ97" t="n">
         <v>23</v>
@@ -14576,19 +14580,19 @@
         <v>1.07</v>
       </c>
       <c r="N99" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O99" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P99" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R99" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
@@ -14982,16 +14986,16 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H102" t="n">
         <v>2.9</v>
       </c>
       <c r="I102" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J102" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K102" t="n">
         <v>1.95</v>
@@ -15000,10 +15004,10 @@
         <v>3.4</v>
       </c>
       <c r="M102" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N102" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O102" t="n">
         <v>1.44</v>
@@ -15074,7 +15078,7 @@
         <v>7</v>
       </c>
       <c r="AM102" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN102" t="n">
         <v>11</v>
@@ -15127,22 +15131,22 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="H103" t="n">
         <v>3</v>
       </c>
       <c r="I103" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J103" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K103" t="n">
         <v>2</v>
       </c>
       <c r="L103" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M103" t="n">
         <v>1.08</v>
@@ -15171,31 +15175,31 @@
         <v>1.2</v>
       </c>
       <c r="W103" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X103" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y103" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z103" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AA103" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB103" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC103" t="n">
         <v>10</v>
       </c>
       <c r="AD103" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE103" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF103" t="n">
         <v>34</v>
@@ -15216,19 +15220,19 @@
         <v>301</v>
       </c>
       <c r="AL103" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM103" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN103" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO103" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP103" t="n">
         <v>29</v>
-      </c>
-      <c r="AP103" t="n">
-        <v>26</v>
       </c>
       <c r="AQ103" t="n">
         <v>41</v>
@@ -15409,22 +15413,22 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.35</v>
+        <v>4.55</v>
       </c>
       <c r="H105" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I105" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J105" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K105" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L105" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="M105" t="n">
         <v>1.07</v>
@@ -15433,13 +15437,13 @@
         <v>6.8</v>
       </c>
       <c r="O105" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P105" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R105" t="n">
         <v>1.72</v>
@@ -15453,64 +15457,64 @@
         <v>1.27</v>
       </c>
       <c r="W105" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X105" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="Y105" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Z105" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AA105" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB105" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC105" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD105" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AE105" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AF105" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG105" t="n">
         <v>6.8</v>
       </c>
       <c r="AH105" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AI105" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ105" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK105" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AL105" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AM105" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AN105" t="n">
         <v>8.25</v>
       </c>
       <c r="AO105" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP105" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ105" t="n">
         <v>30</v>
@@ -15700,19 +15704,19 @@
         <v>3.6</v>
       </c>
       <c r="J107" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="K107" t="n">
         <v>2.07</v>
       </c>
       <c r="L107" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="M107" t="n">
         <v>1.06</v>
       </c>
       <c r="N107" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="O107" t="n">
         <v>1.3</v>
@@ -15747,25 +15751,25 @@
         <v>1.98</v>
       </c>
       <c r="AA107" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AB107" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AC107" t="n">
         <v>8.25</v>
       </c>
       <c r="AD107" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE107" t="n">
         <v>15.5</v>
       </c>
       <c r="AF107" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG107" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AH107" t="n">
         <v>6.4</v>
@@ -15774,28 +15778,28 @@
         <v>14</v>
       </c>
       <c r="AJ107" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK107" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL107" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AM107" t="n">
         <v>20</v>
       </c>
       <c r="AN107" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO107" t="n">
         <v>55</v>
       </c>
       <c r="AP107" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ107" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR107" t="inlineStr"/>
       <c r="AS107" t="inlineStr"/>
@@ -15832,7 +15836,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="H108" t="n">
         <v>2.95</v>
@@ -15888,7 +15892,7 @@
         <v>1.65</v>
       </c>
       <c r="AA108" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB108" t="n">
         <v>11.75</v>
@@ -15900,10 +15904,10 @@
         <v>30</v>
       </c>
       <c r="AE108" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF108" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG108" t="n">
         <v>5.6</v>
@@ -15924,7 +15928,7 @@
         <v>6.5</v>
       </c>
       <c r="AM108" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AN108" t="n">
         <v>10.75</v>
@@ -15936,7 +15940,7 @@
         <v>28</v>
       </c>
       <c r="AQ108" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR108" t="inlineStr"/>
       <c r="AS108" t="inlineStr"/>
@@ -16556,7 +16560,7 @@
         <v>101</v>
       </c>
       <c r="AL113" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM113" t="n">
         <v>26</v>
@@ -16571,7 +16575,7 @@
         <v>51</v>
       </c>
       <c r="AQ113" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR113" t="n">
         <v>1.88</v>
@@ -16630,30 +16634,30 @@
         <v>3.4</v>
       </c>
       <c r="M114" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N114" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O114" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P114" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R114" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V114" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W114" t="n">
         <v>1.4</v>
@@ -17210,10 +17214,10 @@
         <v>4.33</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R118" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
@@ -17321,19 +17325,19 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H119" t="n">
         <v>4.33</v>
       </c>
       <c r="I119" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J119" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K119" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L119" t="n">
         <v>5</v>
@@ -17342,7 +17346,7 @@
         <v>1.03</v>
       </c>
       <c r="N119" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O119" t="n">
         <v>1.18</v>
@@ -17357,10 +17361,10 @@
         <v>2.3</v>
       </c>
       <c r="S119" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T119" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U119" t="n">
         <v>2.5</v>
@@ -17369,22 +17373,22 @@
         <v>1.5</v>
       </c>
       <c r="W119" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X119" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y119" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z119" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA119" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB119" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC119" t="n">
         <v>8.5</v>
@@ -17399,7 +17403,7 @@
         <v>21</v>
       </c>
       <c r="AG119" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH119" t="n">
         <v>8.5</v>
@@ -17414,7 +17418,7 @@
         <v>151</v>
       </c>
       <c r="AL119" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM119" t="n">
         <v>29</v>
@@ -17610,7 +17614,7 @@
         <v>2.3</v>
       </c>
       <c r="H121" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I121" t="n">
         <v>2.82</v>
@@ -17619,60 +17623,60 @@
         <v>2.82</v>
       </c>
       <c r="K121" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L121" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="M121" t="n">
         <v>1.04</v>
       </c>
       <c r="N121" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O121" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P121" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R121" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="V121" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="W121" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="X121" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Y121" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="Z121" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="AA121" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB121" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC121" t="n">
         <v>9</v>
       </c>
       <c r="AD121" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE121" t="n">
         <v>16.5</v>
@@ -17681,25 +17685,25 @@
         <v>21</v>
       </c>
       <c r="AG121" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH121" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AI121" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ121" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AK121" t="n">
         <v>250</v>
       </c>
       <c r="AL121" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM121" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AN121" t="n">
         <v>10.25</v>
@@ -17708,10 +17712,10 @@
         <v>35</v>
       </c>
       <c r="AP121" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ121" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR121" t="inlineStr"/>
       <c r="AS121" t="inlineStr"/>
@@ -17889,48 +17893,48 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="H123" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I123" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J123" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="K123" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L123" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M123" t="n">
         <v>1.05</v>
       </c>
       <c r="N123" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O123" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P123" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R123" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="V123" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W123" t="n">
         <v>1.36</v>
@@ -17939,61 +17943,61 @@
         <v>2.87</v>
       </c>
       <c r="Y123" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="Z123" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA123" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AB123" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AC123" t="n">
         <v>8.25</v>
       </c>
       <c r="AD123" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AE123" t="n">
         <v>14.5</v>
       </c>
       <c r="AF123" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG123" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AH123" t="n">
         <v>6.9</v>
       </c>
       <c r="AI123" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ123" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AK123" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL123" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AM123" t="n">
         <v>20</v>
       </c>
       <c r="AN123" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AO123" t="n">
         <v>50</v>
       </c>
       <c r="AP123" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AQ123" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AR123" t="inlineStr"/>
       <c r="AS123" t="inlineStr"/>
@@ -18030,66 +18034,66 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="H124" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I124" t="n">
         <v>3.95</v>
       </c>
       <c r="J124" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K124" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="L124" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="M124" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N124" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="O124" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="P124" t="n">
-        <v>4.05</v>
+        <v>3.55</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="R124" t="n">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="n">
-        <v>2.42</v>
+        <v>2.82</v>
       </c>
       <c r="V124" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="W124" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="X124" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="Y124" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Z124" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="AA124" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB124" t="n">
         <v>9</v>
-      </c>
-      <c r="AB124" t="n">
-        <v>9.75</v>
       </c>
       <c r="AC124" t="n">
         <v>8.25</v>
@@ -18098,31 +18102,31 @@
         <v>15</v>
       </c>
       <c r="AE124" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL124" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF124" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG124" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH124" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI124" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ124" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK124" t="n">
-        <v>300</v>
-      </c>
-      <c r="AL124" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AM124" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN124" t="n">
         <v>13</v>
@@ -18131,10 +18135,10 @@
         <v>60</v>
       </c>
       <c r="AP124" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ124" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AR124" t="inlineStr"/>
       <c r="AS124" t="inlineStr"/>
@@ -18171,22 +18175,22 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="H125" t="n">
         <v>3.65</v>
       </c>
       <c r="I125" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="J125" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="K125" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L125" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="M125" t="n">
         <v>1.03</v>
@@ -18215,10 +18219,10 @@
         <v>1.55</v>
       </c>
       <c r="W125" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X125" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Y125" t="n">
         <v>1.5</v>
@@ -18227,19 +18231,19 @@
         <v>2.42</v>
       </c>
       <c r="AA125" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AB125" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC125" t="n">
         <v>8.5</v>
       </c>
       <c r="AD125" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AE125" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF125" t="n">
         <v>19</v>
@@ -18251,7 +18255,7 @@
         <v>7.5</v>
       </c>
       <c r="AI125" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ125" t="n">
         <v>37</v>
@@ -18260,22 +18264,22 @@
         <v>200</v>
       </c>
       <c r="AL125" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AM125" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AN125" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AO125" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP125" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ125" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR125" t="inlineStr"/>
       <c r="AS125" t="inlineStr"/>
@@ -18312,22 +18316,22 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H126" t="n">
         <v>3.5</v>
       </c>
       <c r="I126" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J126" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K126" t="n">
         <v>2.3</v>
       </c>
       <c r="L126" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M126" t="n">
         <v>1.03</v>
@@ -18368,10 +18372,10 @@
         <v>2.25</v>
       </c>
       <c r="AA126" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB126" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC126" t="n">
         <v>9</v>
@@ -18416,7 +18420,7 @@
         <v>23</v>
       </c>
       <c r="AQ126" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR126" t="inlineStr"/>
       <c r="AS126" t="inlineStr"/>
@@ -18453,13 +18457,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="H127" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I127" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="J127" t="n">
         <v>5</v>
@@ -18507,10 +18511,10 @@
         <v>3.25</v>
       </c>
       <c r="Y127" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z127" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA127" t="n">
         <v>15</v>
@@ -18525,13 +18529,13 @@
         <v>51</v>
       </c>
       <c r="AE127" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF127" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG127" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH127" t="n">
         <v>8</v>
@@ -18555,13 +18559,13 @@
         <v>8.5</v>
       </c>
       <c r="AO127" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP127" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ127" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR127" t="inlineStr"/>
       <c r="AS127" t="inlineStr"/>
@@ -18598,22 +18602,22 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H128" t="n">
         <v>3.5</v>
       </c>
       <c r="I128" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J128" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K128" t="n">
         <v>2.2</v>
       </c>
       <c r="L128" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M128" t="n">
         <v>1.05</v>
@@ -18654,7 +18658,7 @@
         <v>2</v>
       </c>
       <c r="AA128" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB128" t="n">
         <v>15</v>
@@ -18663,7 +18667,7 @@
         <v>11</v>
       </c>
       <c r="AD128" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE128" t="n">
         <v>23</v>
@@ -18687,19 +18691,19 @@
         <v>201</v>
       </c>
       <c r="AL128" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM128" t="n">
         <v>11</v>
       </c>
       <c r="AN128" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO128" t="n">
         <v>21</v>
       </c>
       <c r="AP128" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ128" t="n">
         <v>26</v>
@@ -18757,7 +18761,7 @@
         <v>13</v>
       </c>
       <c r="M129" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N129" t="n">
         <v>1.01</v>
@@ -18880,22 +18884,22 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="H130" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I130" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="J130" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="K130" t="n">
         <v>2.2</v>
       </c>
       <c r="L130" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M130" t="n">
         <v>1.06</v>
@@ -18910,18 +18914,18 @@
         <v>3.5</v>
       </c>
       <c r="Q130" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R130" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V130" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W130" t="n">
         <v>1.4</v>
@@ -18939,16 +18943,16 @@
         <v>7</v>
       </c>
       <c r="AB130" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AC130" t="n">
         <v>8.5</v>
       </c>
       <c r="AD130" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE130" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF130" t="n">
         <v>26</v>
@@ -18957,31 +18961,31 @@
         <v>10</v>
       </c>
       <c r="AH130" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI130" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ130" t="n">
         <v>51</v>
       </c>
       <c r="AK130" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL130" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM130" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN130" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO130" t="n">
         <v>51</v>
       </c>
       <c r="AP130" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ130" t="n">
         <v>41</v>
@@ -19039,30 +19043,30 @@
         <v>4.33</v>
       </c>
       <c r="M131" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N131" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O131" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P131" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R131" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V131" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W131" t="n">
         <v>1.5</v>
@@ -19162,48 +19166,48 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H132" t="n">
         <v>3.4</v>
       </c>
       <c r="I132" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="J132" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K132" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L132" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M132" t="n">
         <v>1.04</v>
       </c>
       <c r="N132" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O132" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P132" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R132" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V132" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W132" t="n">
         <v>1.36</v>
@@ -19212,34 +19216,34 @@
         <v>3</v>
       </c>
       <c r="Y132" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z132" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA132" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB132" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC132" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD132" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE132" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF132" t="n">
         <v>26</v>
       </c>
       <c r="AG132" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH132" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI132" t="n">
         <v>13</v>
@@ -19251,22 +19255,22 @@
         <v>151</v>
       </c>
       <c r="AL132" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM132" t="n">
         <v>15</v>
       </c>
       <c r="AN132" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO132" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP132" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ132" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR132" t="inlineStr"/>
       <c r="AS132" t="inlineStr"/>
@@ -19444,7 +19448,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H134" t="n">
         <v>4.8</v>
@@ -19453,7 +19457,7 @@
         <v>1.42</v>
       </c>
       <c r="J134" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K134" t="n">
         <v>2.57</v>
@@ -19468,16 +19472,16 @@
         <v>9.75</v>
       </c>
       <c r="O134" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P134" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="Q134" t="n">
         <v>1.45</v>
       </c>
       <c r="R134" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="S134" t="inlineStr"/>
       <c r="T134" t="inlineStr"/>
@@ -19494,10 +19498,10 @@
         <v>3.5</v>
       </c>
       <c r="Y134" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Z134" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AA134" t="n">
         <v>22</v>
@@ -19521,7 +19525,7 @@
         <v>9.75</v>
       </c>
       <c r="AH134" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AI134" t="n">
         <v>16</v>
@@ -19548,7 +19552,7 @@
         <v>10.5</v>
       </c>
       <c r="AQ134" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AR134" t="inlineStr"/>
       <c r="AS134" t="inlineStr"/>
@@ -19585,22 +19589,22 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H135" t="n">
         <v>3.45</v>
       </c>
       <c r="I135" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J135" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K135" t="n">
         <v>2.18</v>
       </c>
       <c r="L135" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="M135" t="n">
         <v>1.04</v>
@@ -19609,54 +19613,54 @@
         <v>8.25</v>
       </c>
       <c r="O135" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P135" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="Q135" t="n">
         <v>1.65</v>
       </c>
       <c r="R135" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="V135" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W135" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X135" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Y135" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Z135" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="AA135" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB135" t="n">
         <v>21</v>
       </c>
       <c r="AC135" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AD135" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE135" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF135" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG135" t="n">
         <v>8.25</v>
@@ -19665,31 +19669,31 @@
         <v>6.9</v>
       </c>
       <c r="AI135" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ135" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK135" t="n">
         <v>250</v>
       </c>
       <c r="AL135" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AM135" t="n">
         <v>11.25</v>
       </c>
       <c r="AN135" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AO135" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AP135" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ135" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR135" t="inlineStr"/>
       <c r="AS135" t="inlineStr"/>
@@ -19872,13 +19876,13 @@
         <v>5.8</v>
       </c>
       <c r="J137" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="K137" t="n">
         <v>2</v>
       </c>
       <c r="L137" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
@@ -19886,10 +19890,10 @@
         <v>1.34</v>
       </c>
       <c r="P137" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="Q137" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R137" t="n">
         <v>1.65</v>
@@ -19900,7 +19904,7 @@
         <v>3.25</v>
       </c>
       <c r="V137" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W137" t="n">
         <v>1.45</v>
@@ -19915,55 +19919,55 @@
         <v>1.7</v>
       </c>
       <c r="AA137" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB137" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AC137" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD137" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AE137" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF137" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG137" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AH137" t="n">
         <v>6.7</v>
       </c>
       <c r="AI137" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN137" t="n">
         <v>18</v>
       </c>
-      <c r="AJ137" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK137" t="n">
-        <v>900</v>
-      </c>
-      <c r="AL137" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM137" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN137" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AO137" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AP137" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AQ137" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR137" t="inlineStr"/>
       <c r="AS137" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
@@ -728,10 +728,10 @@
         <v>2.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="T2" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="U2" t="n">
         <v>2.3</v>
@@ -867,18 +867,18 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="R3" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W3" t="n">
         <v>1.4</v>
@@ -981,10 +981,10 @@
         <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
         <v>2.38</v>
@@ -1137,10 +1137,10 @@
         <v>2.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1149,18 +1149,18 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
         <v>1.36</v>
@@ -1211,7 +1211,7 @@
         <v>7.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AN5" t="n">
         <v>8.5</v>
@@ -1223,7 +1223,7 @@
         <v>13</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1296,10 +1296,10 @@
         <v>2.3</v>
       </c>
       <c r="S6" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="T6" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U6" t="n">
         <v>2.5</v>
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H7" t="n">
         <v>4.2</v>
@@ -1474,7 +1474,7 @@
         <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1486,7 +1486,7 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1553,7 +1553,7 @@
         <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
         <v>1.7</v>
@@ -1562,16 +1562,16 @@
         <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
         <v>2.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1639,7 +1639,7 @@
         <v>201</v>
       </c>
       <c r="AL8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM8" t="n">
         <v>8.5</v>
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
@@ -1715,24 +1715,24 @@
         <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W9" t="n">
         <v>1.33</v>
@@ -1835,31 +1835,31 @@
         <v>1.33</v>
       </c>
       <c r="H10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J10" t="n">
         <v>1.83</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q10" t="n">
         <v>1.73</v>
@@ -1870,10 +1870,10 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W10" t="n">
         <v>1.33</v>
@@ -1921,19 +1921,19 @@
         <v>401</v>
       </c>
       <c r="AL10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO10" t="n">
         <v>101</v>
       </c>
       <c r="AP10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
@@ -1979,7 +1979,7 @@
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J11" t="n">
         <v>5</v>
@@ -2023,10 +2023,10 @@
         <v>2.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA11" t="n">
         <v>10</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H12" t="n">
         <v>4.5</v>
@@ -2144,10 +2144,10 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R12" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -2255,7 +2255,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="H13" t="n">
         <v>5</v>
@@ -2273,10 +2273,10 @@
         <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
         <v>1.2</v>
@@ -2285,10 +2285,10 @@
         <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R13" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -2402,7 +2402,7 @@
         <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="J14" t="n">
         <v>6</v>
@@ -2474,7 +2474,7 @@
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
         <v>8.5</v>
@@ -2492,7 +2492,7 @@
         <v>8</v>
       </c>
       <c r="AM14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AN14" t="n">
         <v>8.5</v>
@@ -2547,7 +2547,7 @@
         <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J15" t="n">
         <v>3.1</v>
@@ -2565,16 +2565,16 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R15" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S15" t="n">
         <v>2.05</v>
@@ -2583,10 +2583,10 @@
         <v>1.8</v>
       </c>
       <c r="U15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W15" t="n">
         <v>1.3</v>
@@ -2686,13 +2686,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
         <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J16" t="n">
         <v>1.91</v>
@@ -2701,7 +2701,7 @@
         <v>2.5</v>
       </c>
       <c r="L16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -2716,10 +2716,10 @@
         <v>4.33</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R16" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -2736,10 +2736,10 @@
         <v>3.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA16" t="n">
         <v>7.5</v>
@@ -2757,7 +2757,7 @@
         <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
@@ -2766,7 +2766,7 @@
         <v>9.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ16" t="n">
         <v>51</v>
@@ -2790,7 +2790,7 @@
         <v>51</v>
       </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H17" t="n">
         <v>3.8</v>
@@ -2845,10 +2845,10 @@
         <v>2.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
         <v>1.2</v>
@@ -2881,37 +2881,37 @@
         <v>3.25</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
         <v>41</v>
       </c>
       <c r="AE17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF17" t="n">
         <v>29</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
         <v>41</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H18" t="n">
         <v>2.9</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
         <v>1.8</v>
       </c>
       <c r="L18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M18" t="n">
         <v>1.14</v>
@@ -2996,10 +2996,10 @@
         <v>5.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q18" t="n">
         <v>3.2</v>
@@ -3022,13 +3022,13 @@
         <v>2.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB18" t="n">
         <v>9</v>
@@ -3052,7 +3052,7 @@
         <v>6</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ18" t="n">
         <v>101</v>
@@ -3260,13 +3260,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J20" t="n">
         <v>2.2</v>
@@ -3355,7 +3355,7 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO20" t="n">
         <v>67</v>
@@ -3431,10 +3431,10 @@
         <v>5.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S21" t="n">
         <v>2.01</v>
@@ -3443,10 +3443,10 @@
         <v>1.89</v>
       </c>
       <c r="U21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W21" t="n">
         <v>1.25</v>
@@ -3713,16 +3713,16 @@
         <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P23" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
         <v>3.5</v>
@@ -3731,7 +3731,7 @@
         <v>1.3</v>
       </c>
       <c r="S23" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T23" t="n">
         <v>1.13</v>
@@ -3844,13 +3844,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
         <v>2.88</v>
@@ -3859,25 +3859,25 @@
         <v>1.91</v>
       </c>
       <c r="L24" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P24" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R24" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S24" t="n">
         <v>4.4</v>
@@ -3937,7 +3937,7 @@
         <v>451</v>
       </c>
       <c r="AL24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM24" t="n">
         <v>19</v>
@@ -3955,10 +3955,10 @@
         <v>51</v>
       </c>
       <c r="AR24" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="25">
@@ -4035,10 +4035,10 @@
         <v>1.25</v>
       </c>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V25" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W25" t="n">
         <v>1.53</v>
@@ -4104,16 +4104,16 @@
         <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>WAusmfv0</t>
+          <t>YFDGWYgJ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4133,118 +4133,118 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Central Norte</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
         <v>3.6</v>
       </c>
-      <c r="I26" t="n">
-        <v>7.5</v>
-      </c>
       <c r="J26" t="n">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="K26" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L26" t="n">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="P26" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V26" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="W26" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="X26" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="Y26" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AA26" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AB26" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AF26" t="n">
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AJ26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AN26" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AO26" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AP26" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AQ26" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
@@ -4252,7 +4252,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>YFDGWYgJ</t>
+          <t>4zMazHff</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4272,37 +4272,37 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Central Norte</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Def. de Belgrano</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.35</v>
+        <v>1.91</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="J27" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="K27" t="n">
         <v>1.8</v>
       </c>
       <c r="L27" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M27" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.73</v>
@@ -4319,10 +4319,10 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V27" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="W27" t="n">
         <v>1.75</v>
@@ -4331,25 +4331,25 @@
         <v>2.05</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AC27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE27" t="n">
         <v>23</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>29</v>
       </c>
       <c r="AF27" t="n">
         <v>51</v>
@@ -4361,29 +4361,29 @@
         <v>6.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ27" t="n">
         <v>126</v>
       </c>
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AM27" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AO27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
@@ -4391,7 +4391,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4zMazHff</t>
+          <t>EX3htnRF</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4411,109 +4411,109 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I28" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K28" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L28" t="n">
         <v>6</v>
       </c>
       <c r="M28" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="R28" t="n">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH28" t="n">
         <v>7</v>
       </c>
-      <c r="V28" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X28" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE28" t="n">
+      <c r="AI28" t="n">
         <v>23</v>
       </c>
-      <c r="AF28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ28" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO28" t="n">
         <v>51</v>
@@ -4522,15 +4522,19 @@
         <v>51</v>
       </c>
       <c r="AQ28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EX3htnRF</t>
+          <t>0M52fxnQ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4540,7 +4544,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -4550,63 +4554,63 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>Deportivo Moron</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="I29" t="n">
+        <v>4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L29" t="n">
         <v>5</v>
       </c>
-      <c r="J29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L29" t="n">
-        <v>6</v>
-      </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="N29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="P29" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="V29" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="W29" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="X29" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="Y29" t="n">
         <v>2.5</v>
@@ -4618,25 +4622,25 @@
         <v>5</v>
       </c>
       <c r="AB29" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AF29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI29" t="n">
         <v>23</v>
@@ -4646,34 +4650,30 @@
       </c>
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AM29" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AN29" t="n">
         <v>17</v>
       </c>
       <c r="AO29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ29" t="n">
         <v>51</v>
       </c>
-      <c r="AR29" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>1.88</v>
-      </c>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0M52fxnQ</t>
+          <t>WAusmfv0</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4693,118 +4693,118 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Almirante Brown</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Deportivo Moron</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="H30" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="J30" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="K30" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="P30" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="R30" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V30" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="W30" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="X30" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AA30" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE30" t="n">
         <v>19</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>26</v>
       </c>
       <c r="AF30" t="n">
         <v>51</v>
       </c>
       <c r="AG30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI30" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AJ30" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AM30" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AP30" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AQ30" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
@@ -4984,28 +4984,28 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J32" t="n">
         <v>2.75</v>
       </c>
       <c r="K32" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L32" t="n">
         <v>3.2</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O32" t="n">
         <v>1.14</v>
@@ -5014,10 +5014,10 @@
         <v>5.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R32" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S32" t="n">
         <v>1.8</v>
@@ -5038,10 +5038,10 @@
         <v>3.75</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AA32" t="n">
         <v>13</v>
@@ -5071,28 +5071,28 @@
         <v>10</v>
       </c>
       <c r="AJ32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK32" t="n">
         <v>81</v>
       </c>
       <c r="AL32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM32" t="n">
         <v>19</v>
       </c>
       <c r="AN32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP32" t="n">
         <v>21</v>
       </c>
       <c r="AQ32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -5144,7 +5144,7 @@
         <v>2.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -5159,49 +5159,49 @@
         <v>5</v>
       </c>
       <c r="Q33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V33" t="n">
         <v>1.53</v>
       </c>
-      <c r="R33" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W33" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X33" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB33" t="n">
         <v>41</v>
       </c>
       <c r="AC33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AE33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AF33" t="n">
         <v>41</v>
@@ -5210,19 +5210,19 @@
         <v>17</v>
       </c>
       <c r="AH33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL33" t="n">
         <v>9</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>9.5</v>
       </c>
       <c r="AM33" t="n">
         <v>8</v>
@@ -5295,7 +5295,7 @@
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O34" t="n">
         <v>1.3</v>
@@ -5439,16 +5439,16 @@
         <v>11</v>
       </c>
       <c r="O35" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P35" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R35" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -5693,22 +5693,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H37" t="n">
         <v>3.45</v>
       </c>
       <c r="I37" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="J37" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="K37" t="n">
         <v>2.05</v>
       </c>
       <c r="L37" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
@@ -5754,10 +5754,10 @@
         <v>8.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE37" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF37" t="n">
         <v>32</v>
@@ -5766,34 +5766,34 @@
         <v>8.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI37" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ37" t="n">
         <v>100</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AL37" t="n">
         <v>10.5</v>
       </c>
       <c r="AM37" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN37" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO37" t="n">
         <v>75</v>
       </c>
       <c r="AP37" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AQ37" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
@@ -5995,30 +5995,30 @@
         <v>15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P39" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R39" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V39" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W39" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X39" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y39" t="n">
         <v>1.8</v>
@@ -6045,22 +6045,22 @@
         <v>41</v>
       </c>
       <c r="AG39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ39" t="n">
         <v>51</v>
       </c>
       <c r="AK39" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM39" t="n">
         <v>7.5</v>
@@ -6130,10 +6130,10 @@
         <v>4.75</v>
       </c>
       <c r="M40" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O40" t="n">
         <v>1.2</v>
@@ -6835,22 +6835,22 @@
         <v>5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O45" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P45" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="R45" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -6976,22 +6976,22 @@
         <v>9</v>
       </c>
       <c r="M46" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O46" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P46" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R46" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -7117,10 +7117,10 @@
         <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O47" t="n">
         <v>1.44</v>
@@ -7137,10 +7137,10 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W47" t="n">
         <v>1.53</v>
@@ -7244,13 +7244,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H48" t="n">
         <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J48" t="n">
         <v>6</v>
@@ -7259,7 +7259,7 @@
         <v>2.05</v>
       </c>
       <c r="L48" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M48" t="n">
         <v>1.08</v>
@@ -7274,10 +7274,10 @@
         <v>2.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R48" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S48" t="n">
         <v>3.4</v>
@@ -7316,7 +7316,7 @@
         <v>51</v>
       </c>
       <c r="AE48" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AF48" t="n">
         <v>51</v>
@@ -7346,7 +7346,7 @@
         <v>9</v>
       </c>
       <c r="AO48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP48" t="n">
         <v>17</v>
@@ -7393,13 +7393,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I49" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J49" t="n">
         <v>3.1</v>
@@ -7447,10 +7447,10 @@
         <v>2.25</v>
       </c>
       <c r="Y49" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA49" t="n">
         <v>6</v>
@@ -7465,7 +7465,7 @@
         <v>21</v>
       </c>
       <c r="AE49" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF49" t="n">
         <v>41</v>
@@ -7691,10 +7691,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H51" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I51" t="n">
         <v>7.5</v>
@@ -7706,7 +7706,7 @@
         <v>2.2</v>
       </c>
       <c r="L51" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M51" t="n">
         <v>1.07</v>
@@ -7799,7 +7799,7 @@
         <v>51</v>
       </c>
       <c r="AQ51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR51" t="n">
         <v>1.56</v>
@@ -7840,13 +7840,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H52" t="n">
         <v>3.6</v>
       </c>
       <c r="I52" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J52" t="n">
         <v>2.2</v>
@@ -7855,13 +7855,13 @@
         <v>2.1</v>
       </c>
       <c r="L52" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N52" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O52" t="n">
         <v>1.36</v>
@@ -7870,18 +7870,18 @@
         <v>3</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R52" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W52" t="n">
         <v>1.44</v>
@@ -7890,19 +7890,19 @@
         <v>2.63</v>
       </c>
       <c r="Y52" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA52" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB52" t="n">
         <v>6.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD52" t="n">
         <v>11</v>
@@ -7923,7 +7923,7 @@
         <v>21</v>
       </c>
       <c r="AJ52" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK52" t="n">
         <v>351</v>
@@ -8011,18 +8011,18 @@
         <v>3.75</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R53" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V53" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W53" t="n">
         <v>1.36</v>
@@ -8575,18 +8575,18 @@
         <v>3.4</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R57" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V57" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W57" t="n">
         <v>1.4</v>
@@ -8695,7 +8695,7 @@
         <v>7</v>
       </c>
       <c r="J58" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="K58" t="n">
         <v>2.5</v>
@@ -8710,10 +8710,10 @@
         <v>13</v>
       </c>
       <c r="O58" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P58" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q58" t="n">
         <v>1.7</v>
@@ -8985,10 +8985,10 @@
         <v>7</v>
       </c>
       <c r="J60" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="K60" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L60" t="n">
         <v>7</v>
@@ -9000,10 +9000,10 @@
         <v>13</v>
       </c>
       <c r="O60" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P60" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q60" t="n">
         <v>1.75</v>
@@ -9014,10 +9014,10 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V60" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W60" t="n">
         <v>1.36</v>
@@ -9117,13 +9117,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I61" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J61" t="n">
         <v>2.5</v>
@@ -9135,10 +9135,10 @@
         <v>4.75</v>
       </c>
       <c r="M61" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N61" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O61" t="n">
         <v>1.33</v>
@@ -9194,7 +9194,7 @@
         <v>9</v>
       </c>
       <c r="AH61" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI61" t="n">
         <v>17</v>
@@ -9215,10 +9215,10 @@
         <v>15</v>
       </c>
       <c r="AO61" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP61" t="n">
         <v>41</v>
-      </c>
-      <c r="AP61" t="n">
-        <v>34</v>
       </c>
       <c r="AQ61" t="n">
         <v>41</v>
@@ -9258,13 +9258,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="H62" t="n">
         <v>4.1</v>
       </c>
       <c r="I62" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J62" t="n">
         <v>2.3</v>
@@ -9273,7 +9273,7 @@
         <v>2.4</v>
       </c>
       <c r="L62" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M62" t="n">
         <v>1.03</v>
@@ -9294,10 +9294,10 @@
         <v>2.35</v>
       </c>
       <c r="S62" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T62" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U62" t="n">
         <v>2.38</v>
@@ -9306,22 +9306,22 @@
         <v>1.53</v>
       </c>
       <c r="W62" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X62" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z62" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA62" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB62" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC62" t="n">
         <v>8.5</v>
@@ -9336,7 +9336,7 @@
         <v>21</v>
       </c>
       <c r="AG62" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH62" t="n">
         <v>8</v>
@@ -9348,7 +9348,7 @@
         <v>41</v>
       </c>
       <c r="AK62" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL62" t="n">
         <v>15</v>
@@ -9357,7 +9357,7 @@
         <v>23</v>
       </c>
       <c r="AN62" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO62" t="n">
         <v>41</v>
@@ -9366,7 +9366,7 @@
         <v>29</v>
       </c>
       <c r="AQ62" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR62" t="inlineStr"/>
       <c r="AS62" t="inlineStr"/>
@@ -9544,22 +9544,22 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="H64" t="n">
         <v>4.33</v>
       </c>
       <c r="I64" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J64" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K64" t="n">
         <v>2.38</v>
       </c>
       <c r="L64" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M64" t="n">
         <v>1.03</v>
@@ -9598,10 +9598,10 @@
         <v>3.4</v>
       </c>
       <c r="Y64" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z64" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA64" t="n">
         <v>9</v>
@@ -9622,7 +9622,7 @@
         <v>21</v>
       </c>
       <c r="AG64" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH64" t="n">
         <v>8.5</v>
@@ -9830,7 +9830,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H66" t="n">
         <v>4.1</v>
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H67" t="n">
         <v>3.8</v>
@@ -10116,7 +10116,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H68" t="n">
         <v>4.75</v>
@@ -10152,10 +10152,10 @@
         <v>2</v>
       </c>
       <c r="S68" t="n">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="T68" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U68" t="n">
         <v>3</v>
@@ -10227,10 +10227,10 @@
         <v>81</v>
       </c>
       <c r="AR68" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="69">
@@ -10283,13 +10283,13 @@
         <v>2.75</v>
       </c>
       <c r="M69" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N69" t="n">
         <v>9</v>
       </c>
       <c r="O69" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P69" t="n">
         <v>2.75</v>
@@ -10310,7 +10310,7 @@
         <v>4</v>
       </c>
       <c r="V69" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W69" t="n">
         <v>1.5</v>
@@ -10414,16 +10414,16 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="H70" t="n">
         <v>8.5</v>
       </c>
       <c r="I70" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J70" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="K70" t="n">
         <v>3</v>
@@ -10432,22 +10432,22 @@
         <v>13</v>
       </c>
       <c r="M70" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N70" t="n">
         <v>21</v>
       </c>
       <c r="O70" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P70" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R70" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S70" t="n">
         <v>1.83</v>
@@ -10459,7 +10459,7 @@
         <v>2.1</v>
       </c>
       <c r="V70" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W70" t="n">
         <v>1.25</v>
@@ -10468,10 +10468,10 @@
         <v>3.75</v>
       </c>
       <c r="Y70" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA70" t="n">
         <v>8.5</v>
@@ -10495,10 +10495,10 @@
         <v>17</v>
       </c>
       <c r="AH70" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI70" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ70" t="n">
         <v>101</v>
@@ -10519,16 +10519,16 @@
         <v>251</v>
       </c>
       <c r="AP70" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AQ70" t="n">
         <v>81</v>
       </c>
       <c r="AR70" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AS70" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="71">
@@ -10572,7 +10572,7 @@
         <v>3.1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K71" t="n">
         <v>2.2</v>
@@ -10581,13 +10581,13 @@
         <v>3.6</v>
       </c>
       <c r="M71" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N71" t="n">
         <v>11</v>
       </c>
       <c r="O71" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P71" t="n">
         <v>3.75</v>
@@ -10604,7 +10604,7 @@
         <v>3</v>
       </c>
       <c r="V71" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W71" t="n">
         <v>1.36</v>
@@ -10704,13 +10704,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H72" t="n">
         <v>3.6</v>
       </c>
       <c r="I72" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J72" t="n">
         <v>3.6</v>
@@ -10722,22 +10722,22 @@
         <v>3.1</v>
       </c>
       <c r="M72" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N72" t="n">
         <v>10</v>
       </c>
       <c r="O72" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P72" t="n">
         <v>3.25</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R72" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
@@ -10745,7 +10745,7 @@
         <v>3.75</v>
       </c>
       <c r="V72" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W72" t="n">
         <v>1.44</v>
@@ -10802,7 +10802,7 @@
         <v>9.5</v>
       </c>
       <c r="AO72" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP72" t="n">
         <v>21</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H73" t="n">
         <v>3.8</v>
@@ -11266,7 +11266,7 @@
         <v>4.75</v>
       </c>
       <c r="I76" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J76" t="n">
         <v>7</v>
@@ -11284,28 +11284,28 @@
         <v>17</v>
       </c>
       <c r="O76" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P76" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R76" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S76" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="T76" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="U76" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V76" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W76" t="n">
         <v>1.29</v>
@@ -11405,7 +11405,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H77" t="n">
         <v>3.7</v>
@@ -11414,7 +11414,7 @@
         <v>5</v>
       </c>
       <c r="J77" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K77" t="n">
         <v>2.05</v>
@@ -11423,13 +11423,13 @@
         <v>6</v>
       </c>
       <c r="M77" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N77" t="n">
         <v>9</v>
       </c>
       <c r="O77" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P77" t="n">
         <v>2.75</v>
@@ -11438,7 +11438,7 @@
         <v>2.2</v>
       </c>
       <c r="R77" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
@@ -11446,7 +11446,7 @@
         <v>4</v>
       </c>
       <c r="V77" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W77" t="n">
         <v>1.5</v>
@@ -11550,10 +11550,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H78" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I78" t="n">
         <v>3.2</v>
@@ -11562,28 +11562,28 @@
         <v>3.4</v>
       </c>
       <c r="K78" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L78" t="n">
         <v>3.75</v>
       </c>
       <c r="M78" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N78" t="n">
         <v>6.5</v>
       </c>
       <c r="O78" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P78" t="n">
         <v>2.5</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R78" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
@@ -11591,7 +11591,7 @@
         <v>5</v>
       </c>
       <c r="V78" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="W78" t="n">
         <v>1.57</v>
@@ -11657,10 +11657,10 @@
         <v>41</v>
       </c>
       <c r="AR78" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="79">
@@ -11695,7 +11695,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H79" t="n">
         <v>3.3</v>
@@ -11704,7 +11704,7 @@
         <v>4.1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K79" t="n">
         <v>2.1</v>
@@ -11713,22 +11713,22 @@
         <v>4.5</v>
       </c>
       <c r="M79" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N79" t="n">
         <v>10</v>
       </c>
       <c r="O79" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P79" t="n">
         <v>3.25</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="R79" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
@@ -11736,7 +11736,7 @@
         <v>3.75</v>
       </c>
       <c r="V79" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W79" t="n">
         <v>1.44</v>
@@ -11745,10 +11745,10 @@
         <v>2.63</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z79" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA79" t="n">
         <v>6.5</v>
@@ -11769,7 +11769,7 @@
         <v>29</v>
       </c>
       <c r="AG79" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH79" t="n">
         <v>6.5</v>
@@ -11781,16 +11781,16 @@
         <v>51</v>
       </c>
       <c r="AK79" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL79" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM79" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN79" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO79" t="n">
         <v>41</v>
@@ -11836,40 +11836,40 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="I80" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J80" t="n">
         <v>3.2</v>
       </c>
       <c r="K80" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L80" t="n">
         <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N80" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O80" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P80" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q80" t="n">
         <v>2.5</v>
       </c>
       <c r="R80" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
@@ -11877,19 +11877,19 @@
         <v>5</v>
       </c>
       <c r="V80" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="W80" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X80" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y80" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z80" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA80" t="n">
         <v>6.5</v>
@@ -11904,13 +11904,13 @@
         <v>23</v>
       </c>
       <c r="AE80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF80" t="n">
         <v>41</v>
       </c>
       <c r="AG80" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH80" t="n">
         <v>6</v>
@@ -11922,7 +11922,7 @@
         <v>67</v>
       </c>
       <c r="AK80" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL80" t="n">
         <v>8</v>
@@ -11931,7 +11931,7 @@
         <v>15</v>
       </c>
       <c r="AN80" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO80" t="n">
         <v>34</v>
@@ -11943,10 +11943,10 @@
         <v>41</v>
       </c>
       <c r="AR80" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="81">
@@ -12114,13 +12114,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H82" t="n">
         <v>3.7</v>
       </c>
       <c r="I82" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J82" t="n">
         <v>4.33</v>
@@ -12129,13 +12129,13 @@
         <v>2.2</v>
       </c>
       <c r="L82" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M82" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N82" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O82" t="n">
         <v>1.25</v>
@@ -12144,18 +12144,18 @@
         <v>3.75</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="R82" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V82" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W82" t="n">
         <v>1.36</v>
@@ -12164,19 +12164,19 @@
         <v>3</v>
       </c>
       <c r="Y82" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z82" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB82" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC82" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD82" t="n">
         <v>41</v>
@@ -12188,16 +12188,16 @@
         <v>34</v>
       </c>
       <c r="AG82" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH82" t="n">
         <v>7</v>
       </c>
       <c r="AI82" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ82" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK82" t="n">
         <v>201</v>
@@ -12218,7 +12218,7 @@
         <v>15</v>
       </c>
       <c r="AQ82" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR82" t="inlineStr"/>
       <c r="AS82" t="inlineStr"/>
@@ -12285,10 +12285,10 @@
         <v>3.75</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="R83" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
@@ -12426,10 +12426,10 @@
         <v>3.4</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="R84" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
@@ -12674,22 +12674,22 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H86" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="J86" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K86" t="n">
         <v>1.83</v>
       </c>
       <c r="L86" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
         <v>1.13</v>
@@ -12704,10 +12704,10 @@
         <v>2.25</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="R86" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
@@ -12724,22 +12724,22 @@
         <v>2.1</v>
       </c>
       <c r="Y86" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z86" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA86" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC86" t="n">
         <v>11</v>
       </c>
       <c r="AD86" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE86" t="n">
         <v>26</v>
@@ -12748,7 +12748,7 @@
         <v>41</v>
       </c>
       <c r="AG86" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH86" t="n">
         <v>6</v>
@@ -12757,7 +12757,7 @@
         <v>21</v>
       </c>
       <c r="AJ86" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK86" t="n">
         <v>101</v>
@@ -12769,7 +12769,7 @@
         <v>13</v>
       </c>
       <c r="AN86" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO86" t="n">
         <v>34</v>
@@ -12819,22 +12819,22 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="H87" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="I87" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="J87" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K87" t="n">
         <v>1.83</v>
       </c>
       <c r="L87" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M87" t="n">
         <v>1.13</v>
@@ -12849,18 +12849,18 @@
         <v>2.2</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="R87" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V87" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W87" t="n">
         <v>1.67</v>
@@ -12869,22 +12869,22 @@
         <v>2.1</v>
       </c>
       <c r="Y87" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z87" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA87" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB87" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC87" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD87" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE87" t="n">
         <v>29</v>
@@ -12902,28 +12902,28 @@
         <v>21</v>
       </c>
       <c r="AJ87" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK87" t="n">
         <v>101</v>
       </c>
       <c r="AL87" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM87" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN87" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO87" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP87" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ87" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR87" t="n">
         <v>1.95</v>
@@ -12964,7 +12964,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="H88" t="n">
         <v>3.8</v>
@@ -12997,15 +12997,15 @@
         <v>2.05</v>
       </c>
       <c r="R88" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V88" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W88" t="n">
         <v>1.44</v>
@@ -13109,13 +13109,13 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H89" t="n">
         <v>3.6</v>
       </c>
       <c r="I89" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="J89" t="n">
         <v>2.88</v>
@@ -13127,10 +13127,10 @@
         <v>3.1</v>
       </c>
       <c r="M89" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N89" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O89" t="n">
         <v>1.14</v>
@@ -13139,22 +13139,22 @@
         <v>5.5</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R89" t="n">
         <v>2.4</v>
       </c>
       <c r="S89" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T89" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U89" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V89" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W89" t="n">
         <v>1.29</v>
@@ -13254,7 +13254,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H90" t="n">
         <v>4.5</v>
@@ -13275,7 +13275,7 @@
         <v>1.03</v>
       </c>
       <c r="N90" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O90" t="n">
         <v>1.17</v>
@@ -13284,16 +13284,16 @@
         <v>5</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R90" t="n">
         <v>2.35</v>
       </c>
       <c r="S90" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T90" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U90" t="n">
         <v>2.38</v>
@@ -13405,7 +13405,7 @@
         <v>3.5</v>
       </c>
       <c r="I91" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="J91" t="n">
         <v>4.5</v>
@@ -13435,10 +13435,10 @@
         <v>1.93</v>
       </c>
       <c r="S91" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="T91" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="U91" t="n">
         <v>3.25</v>
@@ -13510,10 +13510,10 @@
         <v>26</v>
       </c>
       <c r="AR91" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="92">
@@ -13548,13 +13548,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="H92" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I92" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J92" t="n">
         <v>2.1</v>
@@ -13563,13 +13563,13 @@
         <v>2.25</v>
       </c>
       <c r="L92" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M92" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N92" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O92" t="n">
         <v>1.36</v>
@@ -13590,10 +13590,10 @@
         <v>1.36</v>
       </c>
       <c r="U92" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V92" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W92" t="n">
         <v>1.4</v>
@@ -13602,16 +13602,16 @@
         <v>2.75</v>
       </c>
       <c r="Y92" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z92" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA92" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB92" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC92" t="n">
         <v>9</v>
@@ -13626,34 +13626,34 @@
         <v>34</v>
       </c>
       <c r="AG92" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH92" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI92" t="n">
         <v>21</v>
       </c>
       <c r="AJ92" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK92" t="n">
         <v>351</v>
       </c>
       <c r="AL92" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM92" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN92" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO92" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP92" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ92" t="n">
         <v>51</v>
@@ -13703,7 +13703,7 @@
         <v>4.33</v>
       </c>
       <c r="I93" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="J93" t="n">
         <v>10</v>
@@ -13727,16 +13727,16 @@
         <v>3.25</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R93" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S93" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="T93" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="U93" t="n">
         <v>3.75</v>
@@ -13808,10 +13808,10 @@
         <v>41</v>
       </c>
       <c r="AR93" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.49</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="94">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H94" t="n">
         <v>3.5</v>
@@ -13995,13 +13995,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="H95" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I95" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J95" t="n">
         <v>3.1</v>
@@ -14013,10 +14013,10 @@
         <v>3.6</v>
       </c>
       <c r="M95" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N95" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O95" t="n">
         <v>1.3</v>
@@ -14025,36 +14025,36 @@
         <v>3.4</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R95" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V95" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W95" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X95" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y95" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z95" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA95" t="n">
         <v>8</v>
       </c>
       <c r="AB95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC95" t="n">
         <v>9.5</v>
@@ -14069,7 +14069,7 @@
         <v>29</v>
       </c>
       <c r="AG95" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH95" t="n">
         <v>6</v>
@@ -14078,10 +14078,10 @@
         <v>13</v>
       </c>
       <c r="AJ95" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK95" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL95" t="n">
         <v>9.5</v>
@@ -14096,7 +14096,7 @@
         <v>34</v>
       </c>
       <c r="AP95" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ95" t="n">
         <v>34</v>
@@ -14136,16 +14136,16 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H96" t="n">
         <v>3.25</v>
       </c>
       <c r="I96" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J96" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K96" t="n">
         <v>2.2</v>
@@ -14166,18 +14166,18 @@
         <v>3.75</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R96" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V96" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W96" t="n">
         <v>1.4</v>
@@ -14277,16 +14277,16 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H97" t="n">
         <v>3.75</v>
       </c>
       <c r="I97" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J97" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K97" t="n">
         <v>2.3</v>
@@ -14298,7 +14298,7 @@
         <v>1.04</v>
       </c>
       <c r="N97" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O97" t="n">
         <v>1.22</v>
@@ -14327,10 +14327,10 @@
         <v>3.25</v>
       </c>
       <c r="Y97" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z97" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA97" t="n">
         <v>17</v>
@@ -14360,13 +14360,13 @@
         <v>15</v>
       </c>
       <c r="AJ97" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK97" t="n">
         <v>201</v>
       </c>
       <c r="AL97" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM97" t="n">
         <v>8</v>
@@ -14436,42 +14436,42 @@
         <v>6.5</v>
       </c>
       <c r="M98" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N98" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O98" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P98" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="R98" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V98" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W98" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X98" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y98" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z98" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA98" t="n">
         <v>6</v>
@@ -14489,10 +14489,10 @@
         <v>13</v>
       </c>
       <c r="AF98" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG98" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH98" t="n">
         <v>7.5</v>
@@ -14504,16 +14504,16 @@
         <v>67</v>
       </c>
       <c r="AK98" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL98" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM98" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN98" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO98" t="n">
         <v>67</v>
@@ -14700,19 +14700,19 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="H100" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I100" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J100" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K100" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L100" t="n">
         <v>6</v>
@@ -14744,10 +14744,10 @@
         <v>1.33</v>
       </c>
       <c r="W100" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X100" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y100" t="n">
         <v>1.95</v>
@@ -14765,19 +14765,19 @@
         <v>8.5</v>
       </c>
       <c r="AD100" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE100" t="n">
         <v>13</v>
       </c>
       <c r="AF100" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG100" t="n">
         <v>11</v>
       </c>
       <c r="AH100" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI100" t="n">
         <v>19</v>
@@ -14795,7 +14795,7 @@
         <v>29</v>
       </c>
       <c r="AN100" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO100" t="n">
         <v>67</v>
@@ -14804,7 +14804,7 @@
         <v>41</v>
       </c>
       <c r="AQ100" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR100" t="inlineStr"/>
       <c r="AS100" t="inlineStr"/>
@@ -15434,7 +15434,7 @@
         <v>1.07</v>
       </c>
       <c r="N105" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="O105" t="n">
         <v>1.34</v>
@@ -15487,7 +15487,7 @@
         <v>55</v>
       </c>
       <c r="AG105" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AH105" t="n">
         <v>6.8</v>
@@ -15704,19 +15704,19 @@
         <v>3.6</v>
       </c>
       <c r="J107" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="K107" t="n">
         <v>2.07</v>
       </c>
       <c r="L107" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="M107" t="n">
         <v>1.06</v>
       </c>
       <c r="N107" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="O107" t="n">
         <v>1.3</v>
@@ -15751,55 +15751,55 @@
         <v>1.98</v>
       </c>
       <c r="AA107" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AB107" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AC107" t="n">
         <v>8.25</v>
       </c>
       <c r="AD107" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE107" t="n">
         <v>15.5</v>
       </c>
       <c r="AF107" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG107" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AH107" t="n">
         <v>6.4</v>
       </c>
       <c r="AI107" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ107" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK107" t="n">
         <v>450</v>
       </c>
       <c r="AL107" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AM107" t="n">
         <v>20</v>
       </c>
       <c r="AN107" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO107" t="n">
         <v>55</v>
       </c>
       <c r="AP107" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ107" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR107" t="inlineStr"/>
       <c r="AS107" t="inlineStr"/>
@@ -15836,7 +15836,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="H108" t="n">
         <v>2.95</v>
@@ -15931,13 +15931,13 @@
         <v>11.75</v>
       </c>
       <c r="AN108" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AO108" t="n">
         <v>30</v>
       </c>
       <c r="AP108" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ108" t="n">
         <v>45</v>
@@ -15977,22 +15977,22 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H109" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I109" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="J109" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K109" t="n">
         <v>2.88</v>
       </c>
       <c r="L109" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="M109" t="n">
         <v>1.01</v>
@@ -16007,10 +16007,10 @@
         <v>10</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="R109" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
@@ -16033,10 +16033,10 @@
         <v>3.5</v>
       </c>
       <c r="AA109" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB109" t="n">
         <v>29</v>
-      </c>
-      <c r="AB109" t="n">
-        <v>34</v>
       </c>
       <c r="AC109" t="n">
         <v>15</v>
@@ -16045,40 +16045,40 @@
         <v>41</v>
       </c>
       <c r="AE109" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF109" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG109" t="n">
         <v>34</v>
       </c>
       <c r="AH109" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI109" t="n">
         <v>11</v>
       </c>
       <c r="AJ109" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK109" t="n">
         <v>51</v>
       </c>
       <c r="AL109" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM109" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN109" t="n">
         <v>10</v>
       </c>
       <c r="AO109" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP109" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ109" t="n">
         <v>15</v>
@@ -16578,10 +16578,10 @@
         <v>67</v>
       </c>
       <c r="AR113" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -16763,7 +16763,7 @@
         <v>3.1</v>
       </c>
       <c r="I115" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J115" t="n">
         <v>2.88</v>
@@ -16822,7 +16822,7 @@
         <v>9.5</v>
       </c>
       <c r="AD115" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE115" t="n">
         <v>19</v>
@@ -16846,7 +16846,7 @@
         <v>1250</v>
       </c>
       <c r="AL115" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM115" t="n">
         <v>19</v>
@@ -16861,7 +16861,7 @@
         <v>41</v>
       </c>
       <c r="AQ115" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR115" t="n">
         <v>1.83</v>
@@ -17064,27 +17064,27 @@
         <v>1.04</v>
       </c>
       <c r="N117" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O117" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P117" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R117" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V117" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W117" t="n">
         <v>1.36</v>
@@ -17346,7 +17346,7 @@
         <v>1.03</v>
       </c>
       <c r="N119" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O119" t="n">
         <v>1.18</v>
@@ -17361,10 +17361,10 @@
         <v>2.3</v>
       </c>
       <c r="S119" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T119" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U119" t="n">
         <v>2.5</v>
@@ -17611,22 +17611,22 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H121" t="n">
         <v>3.45</v>
       </c>
       <c r="I121" t="n">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
       <c r="J121" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="K121" t="n">
         <v>2.22</v>
       </c>
       <c r="L121" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M121" t="n">
         <v>1.04</v>
@@ -17638,13 +17638,13 @@
         <v>1.2</v>
       </c>
       <c r="P121" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R121" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr"/>
@@ -17661,34 +17661,34 @@
         <v>3.1</v>
       </c>
       <c r="Y121" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Z121" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="AA121" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB121" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC121" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD121" t="n">
         <v>24</v>
       </c>
       <c r="AE121" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF121" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG121" t="n">
         <v>8.5</v>
       </c>
       <c r="AH121" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AI121" t="n">
         <v>11.25</v>
@@ -17697,25 +17697,25 @@
         <v>37</v>
       </c>
       <c r="AK121" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AL121" t="n">
         <v>12</v>
       </c>
       <c r="AM121" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AN121" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AO121" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AP121" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ121" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR121" t="inlineStr"/>
       <c r="AS121" t="inlineStr"/>
@@ -17893,22 +17893,22 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="H123" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I123" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J123" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="K123" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L123" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M123" t="n">
         <v>1.05</v>
@@ -17931,13 +17931,13 @@
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="V123" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W123" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X123" t="n">
         <v>2.87</v>
@@ -17946,19 +17946,19 @@
         <v>1.65</v>
       </c>
       <c r="Z123" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AA123" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB123" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC123" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD123" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AE123" t="n">
         <v>14.5</v>
@@ -17970,34 +17970,34 @@
         <v>7.9</v>
       </c>
       <c r="AH123" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AI123" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ123" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK123" t="n">
         <v>350</v>
       </c>
       <c r="AL123" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN123" t="n">
         <v>11.75</v>
       </c>
-      <c r="AM123" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN123" t="n">
-        <v>12</v>
-      </c>
       <c r="AO123" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP123" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ123" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR123" t="inlineStr"/>
       <c r="AS123" t="inlineStr"/>
@@ -18034,19 +18034,19 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="H124" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I124" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="J124" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="K124" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L124" t="n">
         <v>4.25</v>
@@ -18055,13 +18055,13 @@
         <v>1.05</v>
       </c>
       <c r="N124" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="O124" t="n">
         <v>1.26</v>
       </c>
       <c r="P124" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q124" t="n">
         <v>1.78</v>
@@ -18078,43 +18078,43 @@
         <v>1.38</v>
       </c>
       <c r="W124" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X124" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Y124" t="n">
         <v>1.7</v>
       </c>
       <c r="Z124" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AA124" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AB124" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC124" t="n">
         <v>8.25</v>
       </c>
       <c r="AD124" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE124" t="n">
         <v>14</v>
       </c>
       <c r="AF124" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG124" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AH124" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AI124" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ124" t="n">
         <v>60</v>
@@ -18123,16 +18123,16 @@
         <v>400</v>
       </c>
       <c r="AL124" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN124" t="n">
         <v>12.5</v>
       </c>
-      <c r="AM124" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN124" t="n">
-        <v>13</v>
-      </c>
       <c r="AO124" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AP124" t="n">
         <v>35</v>
@@ -18346,24 +18346,24 @@
         <v>4.33</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R126" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S126" t="inlineStr"/>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V126" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W126" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X126" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y126" t="n">
         <v>1.57</v>
@@ -18381,7 +18381,7 @@
         <v>9</v>
       </c>
       <c r="AD126" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE126" t="n">
         <v>15</v>
@@ -18457,19 +18457,19 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H127" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I127" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J127" t="n">
         <v>5</v>
       </c>
       <c r="K127" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L127" t="n">
         <v>2.2</v>
@@ -18481,16 +18481,16 @@
         <v>15</v>
       </c>
       <c r="O127" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P127" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R127" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S127" t="n">
         <v>2.05</v>
@@ -18499,22 +18499,22 @@
         <v>1.8</v>
       </c>
       <c r="U127" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V127" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W127" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X127" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y127" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z127" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA127" t="n">
         <v>15</v>
@@ -18529,16 +18529,16 @@
         <v>51</v>
       </c>
       <c r="AE127" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF127" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG127" t="n">
         <v>15</v>
       </c>
       <c r="AH127" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI127" t="n">
         <v>15</v>
@@ -18547,7 +18547,7 @@
         <v>41</v>
       </c>
       <c r="AK127" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL127" t="n">
         <v>8.5</v>
@@ -18559,7 +18559,7 @@
         <v>8.5</v>
       </c>
       <c r="AO127" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP127" t="n">
         <v>12</v>
@@ -18602,13 +18602,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H128" t="n">
         <v>3.5</v>
       </c>
       <c r="I128" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J128" t="n">
         <v>3.75</v>
@@ -18632,10 +18632,10 @@
         <v>3.5</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R128" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr"/>
@@ -18661,7 +18661,7 @@
         <v>10</v>
       </c>
       <c r="AB128" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC128" t="n">
         <v>11</v>
@@ -19028,25 +19028,25 @@
         <v>2.05</v>
       </c>
       <c r="H131" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I131" t="n">
         <v>3.4</v>
       </c>
       <c r="J131" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K131" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L131" t="n">
         <v>4.33</v>
       </c>
       <c r="M131" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N131" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O131" t="n">
         <v>1.33</v>
@@ -19055,10 +19055,10 @@
         <v>3.25</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R131" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr"/>
@@ -19069,52 +19069,52 @@
         <v>1.25</v>
       </c>
       <c r="W131" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X131" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y131" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z131" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA131" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB131" t="n">
         <v>9.5</v>
       </c>
       <c r="AC131" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD131" t="n">
         <v>19</v>
       </c>
       <c r="AE131" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF131" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG131" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH131" t="n">
         <v>6.5</v>
       </c>
       <c r="AI131" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ131" t="n">
         <v>51</v>
       </c>
       <c r="AK131" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL131" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM131" t="n">
         <v>17</v>
@@ -19307,16 +19307,16 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H133" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I133" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J133" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K133" t="n">
         <v>2.2</v>
@@ -19372,7 +19372,7 @@
         <v>8.5</v>
       </c>
       <c r="AD133" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE133" t="n">
         <v>15</v>
@@ -19589,7 +19589,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H135" t="n">
         <v>3.45</v>
@@ -19598,13 +19598,13 @@
         <v>2.05</v>
       </c>
       <c r="J135" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K135" t="n">
         <v>2.18</v>
       </c>
       <c r="L135" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="M135" t="n">
         <v>1.04</v>
@@ -19639,7 +19639,7 @@
         <v>3</v>
       </c>
       <c r="Y135" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Z135" t="n">
         <v>2.32</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
@@ -713,7 +713,7 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -722,22 +722,22 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="T2" t="n">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>1.29</v>
@@ -867,10 +867,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="R3" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -1052,7 +1052,7 @@
         <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
         <v>7.5</v>
@@ -1122,7 +1122,7 @@
         <v>5.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
         <v>1.62</v>
@@ -1140,7 +1140,7 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1163,10 +1163,10 @@
         <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y5" t="n">
         <v>1.8</v>
@@ -1199,7 +1199,7 @@
         <v>7.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
         <v>51</v>
@@ -1260,19 +1260,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
         <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L6" t="n">
         <v>3.4</v>
@@ -1296,10 +1296,10 @@
         <v>2.3</v>
       </c>
       <c r="S6" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="T6" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U6" t="n">
         <v>2.5</v>
@@ -1338,7 +1338,7 @@
         <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
         <v>7.5</v>
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H7" t="n">
         <v>4.2</v>
@@ -1465,7 +1465,7 @@
         <v>1.95</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB7" t="n">
         <v>8</v>
@@ -1474,7 +1474,7 @@
         <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1486,7 +1486,7 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1495,7 +1495,7 @@
         <v>51</v>
       </c>
       <c r="AK7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL7" t="n">
         <v>15</v>
@@ -1550,19 +1550,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H8" t="n">
         <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J8" t="n">
         <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
         <v>2.3</v>
@@ -1639,7 +1639,7 @@
         <v>201</v>
       </c>
       <c r="AL8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM8" t="n">
         <v>8.5</v>
@@ -1832,28 +1832,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K10" t="n">
         <v>2.5</v>
       </c>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
         <v>1.22</v>
@@ -1882,22 +1882,22 @@
         <v>3.25</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA10" t="n">
         <v>7</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>12</v>
@@ -1909,34 +1909,34 @@
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
         <v>67</v>
       </c>
       <c r="AK10" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AP10" t="n">
         <v>67</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K11" t="n">
         <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -2011,10 +2011,10 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
         <v>1.5</v>
@@ -2023,19 +2023,19 @@
         <v>2.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
         <v>51</v>
@@ -2044,13 +2044,13 @@
         <v>41</v>
       </c>
       <c r="AF11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG11" t="n">
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI11" t="n">
         <v>19</v>
@@ -2065,13 +2065,13 @@
         <v>6</v>
       </c>
       <c r="AM11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN11" t="n">
         <v>9</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>17</v>
@@ -2114,22 +2114,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2144,10 +2144,10 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -2179,7 +2179,7 @@
         <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
@@ -2188,13 +2188,13 @@
         <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ12" t="n">
         <v>81</v>
@@ -2206,7 +2206,7 @@
         <v>15</v>
       </c>
       <c r="AM12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="n">
         <v>21</v>
@@ -2255,7 +2255,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H13" t="n">
         <v>5</v>
@@ -2279,24 +2279,28 @@
         <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
+        <v>2.25</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.8</v>
+      </c>
       <c r="U13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W13" t="n">
         <v>1.3</v>
@@ -2305,19 +2309,19 @@
         <v>3.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB13" t="n">
         <v>7</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD13" t="n">
         <v>9</v>
@@ -2326,31 +2330,31 @@
         <v>11</v>
       </c>
       <c r="AF13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
         <v>9.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
         <v>51</v>
       </c>
       <c r="AK13" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
         <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
         <v>81</v>
@@ -2396,7 +2400,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H14" t="n">
         <v>4.5</v>
@@ -2408,10 +2412,10 @@
         <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2426,16 +2430,16 @@
         <v>4.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S14" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
         <v>2.5</v>
@@ -2456,7 +2460,7 @@
         <v>1.95</v>
       </c>
       <c r="AA14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="n">
         <v>34</v>
@@ -2492,19 +2496,19 @@
         <v>8</v>
       </c>
       <c r="AM14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AN14" t="n">
         <v>8</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>8.5</v>
       </c>
       <c r="AO14" t="n">
         <v>11</v>
       </c>
       <c r="AP14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2541,7 +2545,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
         <v>3.6</v>
@@ -2550,7 +2554,7 @@
         <v>2.63</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>2.3</v>
@@ -2577,10 +2581,10 @@
         <v>2.25</v>
       </c>
       <c r="S15" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U15" t="n">
         <v>2.5</v>
@@ -2613,7 +2617,7 @@
         <v>26</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
         <v>23</v>
@@ -2631,7 +2635,7 @@
         <v>34</v>
       </c>
       <c r="AK15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL15" t="n">
         <v>12</v>
@@ -2686,16 +2690,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K16" t="n">
         <v>2.5</v>
@@ -2707,27 +2711,31 @@
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
+        <v>2.3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.83</v>
+      </c>
       <c r="U16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V16" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W16" t="n">
         <v>1.3</v>
@@ -2742,7 +2750,7 @@
         <v>1.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB16" t="n">
         <v>7</v>
@@ -2751,19 +2759,19 @@
         <v>8.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
         <v>21</v>
@@ -2845,10 +2853,10 @@
         <v>2.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
         <v>1.2</v>
@@ -2857,10 +2865,10 @@
         <v>4.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R17" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S17" t="n">
         <v>2.05</v>
@@ -2996,10 +3004,10 @@
         <v>5.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q18" t="n">
         <v>3.2</v>
@@ -3222,10 +3230,10 @@
         <v>51</v>
       </c>
       <c r="AR19" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="20">
@@ -3260,13 +3268,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
         <v>2.2</v>
@@ -3278,10 +3286,10 @@
         <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -3349,16 +3357,16 @@
         <v>451</v>
       </c>
       <c r="AL20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN20" t="n">
         <v>21</v>
       </c>
       <c r="AO20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP20" t="n">
         <v>51</v>
@@ -3546,13 +3554,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J22" t="n">
         <v>3.5</v>
@@ -3561,7 +3569,7 @@
         <v>1.91</v>
       </c>
       <c r="L22" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M22" t="n">
         <v>1.1</v>
@@ -3651,7 +3659,7 @@
         <v>29</v>
       </c>
       <c r="AP22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ22" t="n">
         <v>41</v>
@@ -3701,7 +3709,7 @@
         <v>2.9</v>
       </c>
       <c r="I23" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
         <v>3.75</v>
@@ -3713,10 +3721,10 @@
         <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O23" t="n">
         <v>1.73</v>
@@ -3758,7 +3766,7 @@
         <v>5.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC23" t="n">
         <v>12</v>
@@ -3844,13 +3852,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J24" t="n">
         <v>2.88</v>
@@ -3859,13 +3867,13 @@
         <v>1.91</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.53</v>
@@ -3892,28 +3900,28 @@
         <v>1.14</v>
       </c>
       <c r="W24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z24" t="n">
         <v>1.57</v>
-      </c>
-      <c r="X24" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1.62</v>
       </c>
       <c r="AA24" t="n">
         <v>5.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
@@ -3937,10 +3945,10 @@
         <v>451</v>
       </c>
       <c r="AL24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN24" t="n">
         <v>15</v>
@@ -3993,22 +4001,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J25" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K25" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
@@ -4029,7 +4037,7 @@
         <v>1.53</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T25" t="n">
         <v>1.25</v>
@@ -4047,10 +4055,10 @@
         <v>2.38</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA25" t="n">
         <v>5.5</v>
@@ -4068,13 +4076,13 @@
         <v>19</v>
       </c>
       <c r="AF25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG25" t="n">
         <v>7</v>
       </c>
       <c r="AH25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI25" t="n">
         <v>21</v>
@@ -4160,10 +4168,10 @@
         <v>4.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N26" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.73</v>
@@ -4311,18 +4319,18 @@
         <v>2</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V27" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W27" t="n">
         <v>1.75</v>
@@ -4420,13 +4428,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J28" t="n">
         <v>2.5</v>
@@ -4444,10 +4452,10 @@
         <v>7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P28" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q28" t="n">
         <v>2.6</v>
@@ -4479,7 +4487,7 @@
         <v>5</v>
       </c>
       <c r="AB28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC28" t="n">
         <v>9.5</v>
@@ -4525,10 +4533,10 @@
         <v>51</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="29">
@@ -4607,10 +4615,10 @@
         <v>1.1</v>
       </c>
       <c r="W29" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X29" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="Y29" t="n">
         <v>2.5</v>
@@ -4702,7 +4710,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
@@ -4720,10 +4728,10 @@
         <v>8.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.57</v>
@@ -4776,7 +4784,7 @@
         <v>51</v>
       </c>
       <c r="AG30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH30" t="n">
         <v>8</v>
@@ -4804,7 +4812,7 @@
         <v>81</v>
       </c>
       <c r="AQ30" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
@@ -4879,10 +4887,10 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V31" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W31" t="n">
         <v>1.67</v>
@@ -4984,22 +4992,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="H32" t="n">
         <v>3.75</v>
       </c>
       <c r="I32" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="J32" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K32" t="n">
         <v>2.5</v>
       </c>
       <c r="L32" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="M32" t="n">
         <v>1.02</v>
@@ -5008,10 +5016,10 @@
         <v>19</v>
       </c>
       <c r="O32" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P32" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q32" t="n">
         <v>1.44</v>
@@ -5026,16 +5034,16 @@
         <v>2.05</v>
       </c>
       <c r="U32" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W32" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X32" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Y32" t="n">
         <v>1.4</v>
@@ -5044,28 +5052,28 @@
         <v>2.75</v>
       </c>
       <c r="AA32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF32" t="n">
         <v>19</v>
       </c>
       <c r="AG32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI32" t="n">
         <v>10</v>
@@ -5074,25 +5082,25 @@
         <v>26</v>
       </c>
       <c r="AK32" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM32" t="n">
         <v>17</v>
       </c>
-      <c r="AM32" t="n">
+      <c r="AN32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ32" t="n">
         <v>19</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>21</v>
       </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -5129,19 +5137,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H33" t="n">
         <v>4.75</v>
       </c>
       <c r="I33" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="J33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K33" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L33" t="n">
         <v>1.91</v>
@@ -5192,7 +5200,7 @@
         <v>21</v>
       </c>
       <c r="AB33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC33" t="n">
         <v>19</v>
@@ -5210,7 +5218,7 @@
         <v>17</v>
       </c>
       <c r="AH33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI33" t="n">
         <v>17</v>
@@ -5228,7 +5236,7 @@
         <v>8</v>
       </c>
       <c r="AN33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO33" t="n">
         <v>10</v>
@@ -5237,7 +5245,7 @@
         <v>11</v>
       </c>
       <c r="AQ33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
@@ -5292,10 +5300,10 @@
         <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O34" t="n">
         <v>1.3</v>
@@ -5304,10 +5312,10 @@
         <v>3.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R34" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -5693,95 +5701,95 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="H37" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J37" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="K37" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L37" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="P37" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="R37" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="V37" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="W37" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="X37" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AA37" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="AB37" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD37" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF37" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AG37" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="AH37" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AI37" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AJ37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AK37" t="n">
         <v>900</v>
       </c>
       <c r="AL37" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AM37" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AN37" t="n">
         <v>15.5</v>
@@ -5790,10 +5798,10 @@
         <v>75</v>
       </c>
       <c r="AP37" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AQ37" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
@@ -5995,24 +6003,24 @@
         <v>15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P39" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R39" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V39" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W39" t="n">
         <v>1.3</v>
@@ -6033,7 +6041,7 @@
         <v>34</v>
       </c>
       <c r="AC39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD39" t="n">
         <v>67</v>
@@ -6057,7 +6065,7 @@
         <v>51</v>
       </c>
       <c r="AK39" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL39" t="n">
         <v>8</v>
@@ -6706,10 +6714,10 @@
         <v>3.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R44" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -6817,19 +6825,19 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H45" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I45" t="n">
         <v>4.5</v>
       </c>
       <c r="J45" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K45" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L45" t="n">
         <v>5</v>
@@ -6847,36 +6855,36 @@
         <v>3.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R45" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W45" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X45" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC45" t="n">
         <v>8.5</v>
@@ -6885,19 +6893,19 @@
         <v>13</v>
       </c>
       <c r="AE45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF45" t="n">
         <v>26</v>
       </c>
       <c r="AG45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH45" t="n">
         <v>7</v>
       </c>
       <c r="AI45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ45" t="n">
         <v>51</v>
@@ -6906,7 +6914,7 @@
         <v>251</v>
       </c>
       <c r="AL45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM45" t="n">
         <v>23</v>
@@ -6988,10 +6996,10 @@
         <v>3.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R46" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -7129,18 +7137,18 @@
         <v>2.63</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R47" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V47" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W47" t="n">
         <v>1.53</v>
@@ -7206,10 +7214,10 @@
         <v>41</v>
       </c>
       <c r="AR47" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AS47" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="48">
@@ -7274,10 +7282,10 @@
         <v>2.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R48" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S48" t="n">
         <v>3.4</v>
@@ -7393,10 +7401,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H49" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
         <v>3.5</v>
@@ -7447,10 +7455,10 @@
         <v>2.25</v>
       </c>
       <c r="Y49" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA49" t="n">
         <v>6</v>
@@ -7465,7 +7473,7 @@
         <v>21</v>
       </c>
       <c r="AE49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF49" t="n">
         <v>41</v>
@@ -7787,7 +7795,7 @@
         <v>15</v>
       </c>
       <c r="AM51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN51" t="n">
         <v>23</v>
@@ -7861,7 +7869,7 @@
         <v>1.07</v>
       </c>
       <c r="N52" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O52" t="n">
         <v>1.36</v>
@@ -8122,72 +8130,72 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="H54" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I54" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J54" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K54" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M54" t="n">
         <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="O54" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P54" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="R54" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="W54" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X54" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Z54" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AA54" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB54" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD54" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AE54" t="n">
         <v>25</v>
@@ -8196,37 +8204,37 @@
         <v>30</v>
       </c>
       <c r="AG54" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AH54" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AI54" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ54" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK54" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AL54" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="AM54" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AN54" t="n">
         <v>9.75</v>
       </c>
       <c r="AO54" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AP54" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ54" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR54" t="inlineStr"/>
       <c r="AS54" t="inlineStr"/>
@@ -8263,34 +8271,34 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I55" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="J55" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K55" t="n">
         <v>2.05</v>
       </c>
       <c r="L55" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
         <v>1.09</v>
       </c>
       <c r="N55" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="O55" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P55" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="Q55" t="n">
         <v>2.15</v>
@@ -8301,73 +8309,73 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="V55" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W55" t="n">
         <v>1.44</v>
       </c>
       <c r="X55" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="Y55" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Z55" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AA55" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB55" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC55" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AD55" t="n">
         <v>40</v>
       </c>
       <c r="AE55" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF55" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG55" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AH55" t="n">
         <v>6.2</v>
       </c>
       <c r="AI55" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ55" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK55" t="n">
         <v>800</v>
       </c>
       <c r="AL55" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AM55" t="n">
         <v>12</v>
       </c>
       <c r="AN55" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AO55" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP55" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ55" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR55" t="inlineStr"/>
       <c r="AS55" t="inlineStr"/>
@@ -8404,19 +8412,19 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H56" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I56" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="K56" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L56" t="n">
         <v>3.5</v>
@@ -8425,78 +8433,78 @@
         <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="O56" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P56" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="R56" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="V56" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="W56" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X56" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA56" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AB56" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC56" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD56" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE56" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF56" t="n">
         <v>32</v>
       </c>
       <c r="AG56" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AH56" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI56" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ56" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK56" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM56" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AN56" t="n">
         <v>11.5</v>
@@ -8508,7 +8516,7 @@
         <v>29</v>
       </c>
       <c r="AQ56" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR56" t="inlineStr"/>
       <c r="AS56" t="inlineStr"/>
@@ -8545,10 +8553,10 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H57" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I57" t="n">
         <v>4.33</v>
@@ -8557,16 +8565,16 @@
         <v>2.4</v>
       </c>
       <c r="K57" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L57" t="n">
         <v>5</v>
       </c>
       <c r="M57" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N57" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O57" t="n">
         <v>1.3</v>
@@ -8575,30 +8583,30 @@
         <v>3.4</v>
       </c>
       <c r="Q57" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R57" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V57" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W57" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X57" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y57" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA57" t="n">
         <v>6.5</v>
@@ -8610,7 +8618,7 @@
         <v>8.5</v>
       </c>
       <c r="AD57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE57" t="n">
         <v>15</v>
@@ -8619,10 +8627,10 @@
         <v>29</v>
       </c>
       <c r="AG57" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI57" t="n">
         <v>17</v>
@@ -8689,16 +8697,16 @@
         <v>1.4</v>
       </c>
       <c r="H58" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I58" t="n">
         <v>7</v>
       </c>
       <c r="J58" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="K58" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L58" t="n">
         <v>6.5</v>
@@ -8716,10 +8724,10 @@
         <v>4</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R58" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S58" t="n">
         <v>2</v>
@@ -8728,58 +8736,58 @@
         <v>1.85</v>
       </c>
       <c r="U58" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V58" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W58" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X58" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y58" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z58" t="n">
         <v>1.8</v>
       </c>
-      <c r="Z58" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AA58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB58" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC58" t="n">
         <v>8.5</v>
       </c>
       <c r="AD58" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF58" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH58" t="n">
         <v>8.5</v>
       </c>
       <c r="AI58" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ58" t="n">
         <v>51</v>
       </c>
       <c r="AK58" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL58" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM58" t="n">
         <v>41</v>
@@ -8831,19 +8839,19 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H59" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I59" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J59" t="n">
         <v>2</v>
       </c>
       <c r="K59" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L59" t="n">
         <v>6</v>
@@ -8855,28 +8863,28 @@
         <v>15</v>
       </c>
       <c r="O59" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P59" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R59" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S59" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T59" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U59" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V59" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W59" t="n">
         <v>1.3</v>
@@ -8894,7 +8902,7 @@
         <v>8.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC59" t="n">
         <v>8.5</v>
@@ -8903,7 +8911,7 @@
         <v>11</v>
       </c>
       <c r="AE59" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF59" t="n">
         <v>23</v>
@@ -8985,10 +8993,10 @@
         <v>7</v>
       </c>
       <c r="J60" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="K60" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L60" t="n">
         <v>7</v>
@@ -9288,22 +9296,22 @@
         <v>5</v>
       </c>
       <c r="Q62" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V62" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R62" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S62" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T62" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U62" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V62" t="n">
-        <v>1.53</v>
       </c>
       <c r="W62" t="n">
         <v>1.29</v>
@@ -9406,16 +9414,16 @@
         <v>2</v>
       </c>
       <c r="H63" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I63" t="n">
         <v>3.3</v>
       </c>
       <c r="J63" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K63" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L63" t="n">
         <v>3.75</v>
@@ -9433,10 +9441,10 @@
         <v>4.33</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R63" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
@@ -9447,19 +9455,19 @@
         <v>1.44</v>
       </c>
       <c r="W63" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X63" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y63" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z63" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA63" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB63" t="n">
         <v>11</v>
@@ -9474,13 +9482,13 @@
         <v>15</v>
       </c>
       <c r="AF63" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH63" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI63" t="n">
         <v>13</v>
@@ -9489,10 +9497,10 @@
         <v>41</v>
       </c>
       <c r="AK63" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM63" t="n">
         <v>19</v>
@@ -9501,10 +9509,10 @@
         <v>12</v>
       </c>
       <c r="AO63" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP63" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ63" t="n">
         <v>29</v>
@@ -9544,13 +9552,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H64" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I64" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J64" t="n">
         <v>2.3</v>
@@ -9568,16 +9576,16 @@
         <v>15</v>
       </c>
       <c r="O64" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P64" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R64" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S64" t="n">
         <v>2.05</v>
@@ -9586,10 +9594,10 @@
         <v>1.8</v>
       </c>
       <c r="U64" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V64" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W64" t="n">
         <v>1.3</v>
@@ -9598,10 +9606,10 @@
         <v>3.4</v>
       </c>
       <c r="Y64" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z64" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA64" t="n">
         <v>9</v>
@@ -9625,10 +9633,10 @@
         <v>15</v>
       </c>
       <c r="AH64" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ64" t="n">
         <v>41</v>
@@ -9637,10 +9645,10 @@
         <v>151</v>
       </c>
       <c r="AL64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM64" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN64" t="n">
         <v>13</v>
@@ -9652,7 +9660,7 @@
         <v>29</v>
       </c>
       <c r="AQ64" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR64" t="inlineStr"/>
       <c r="AS64" t="inlineStr"/>
@@ -9689,28 +9697,28 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H65" t="n">
         <v>3.75</v>
       </c>
       <c r="I65" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J65" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K65" t="n">
         <v>2.25</v>
       </c>
       <c r="L65" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M65" t="n">
         <v>1.04</v>
       </c>
       <c r="N65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O65" t="n">
         <v>1.25</v>
@@ -9719,10 +9727,10 @@
         <v>3.75</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R65" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
@@ -9739,16 +9747,16 @@
         <v>3</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z65" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA65" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC65" t="n">
         <v>8.5</v>
@@ -9760,7 +9768,7 @@
         <v>15</v>
       </c>
       <c r="AF65" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG65" t="n">
         <v>12</v>
@@ -9775,7 +9783,7 @@
         <v>51</v>
       </c>
       <c r="AK65" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL65" t="n">
         <v>12</v>
@@ -9790,10 +9798,10 @@
         <v>41</v>
       </c>
       <c r="AP65" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ65" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr"/>
@@ -9830,13 +9838,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H66" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I66" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J66" t="n">
         <v>2.2</v>
@@ -9848,10 +9856,10 @@
         <v>5</v>
       </c>
       <c r="M66" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N66" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O66" t="n">
         <v>1.2</v>
@@ -9895,10 +9903,10 @@
         <v>8.5</v>
       </c>
       <c r="AD66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF66" t="n">
         <v>23</v>
@@ -9931,7 +9939,7 @@
         <v>51</v>
       </c>
       <c r="AP66" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ66" t="n">
         <v>41</v>
@@ -9971,7 +9979,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H67" t="n">
         <v>3.8</v>
@@ -10116,13 +10124,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H68" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J68" t="n">
         <v>1.8</v>
@@ -10131,13 +10139,13 @@
         <v>2.4</v>
       </c>
       <c r="L68" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M68" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N68" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O68" t="n">
         <v>1.25</v>
@@ -10146,10 +10154,10 @@
         <v>3.75</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R68" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S68" t="n">
         <v>2.44</v>
@@ -10158,10 +10166,10 @@
         <v>1.56</v>
       </c>
       <c r="U68" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V68" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W68" t="n">
         <v>1.36</v>
@@ -10170,10 +10178,10 @@
         <v>3</v>
       </c>
       <c r="Y68" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z68" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA68" t="n">
         <v>6</v>
@@ -10182,13 +10190,13 @@
         <v>5.5</v>
       </c>
       <c r="AC68" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD68" t="n">
         <v>7.5</v>
       </c>
       <c r="AE68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF68" t="n">
         <v>34</v>
@@ -10203,7 +10211,7 @@
         <v>26</v>
       </c>
       <c r="AJ68" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK68" t="n">
         <v>101</v>
@@ -10283,13 +10291,13 @@
         <v>2.75</v>
       </c>
       <c r="M69" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N69" t="n">
         <v>9</v>
       </c>
       <c r="O69" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P69" t="n">
         <v>2.75</v>
@@ -10310,7 +10318,7 @@
         <v>4</v>
       </c>
       <c r="V69" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W69" t="n">
         <v>1.5</v>
@@ -10423,7 +10431,7 @@
         <v>15</v>
       </c>
       <c r="J70" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="K70" t="n">
         <v>3</v>
@@ -10432,13 +10440,13 @@
         <v>13</v>
       </c>
       <c r="M70" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N70" t="n">
         <v>21</v>
       </c>
       <c r="O70" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P70" t="n">
         <v>5.5</v>
@@ -10459,7 +10467,7 @@
         <v>2.1</v>
       </c>
       <c r="V70" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W70" t="n">
         <v>1.25</v>
@@ -10572,7 +10580,7 @@
         <v>3.1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K71" t="n">
         <v>2.2</v>
@@ -10581,13 +10589,13 @@
         <v>3.6</v>
       </c>
       <c r="M71" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N71" t="n">
         <v>11</v>
       </c>
       <c r="O71" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P71" t="n">
         <v>3.75</v>
@@ -10604,7 +10612,7 @@
         <v>3</v>
       </c>
       <c r="V71" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W71" t="n">
         <v>1.36</v>
@@ -10704,13 +10712,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H72" t="n">
         <v>3.6</v>
       </c>
       <c r="I72" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J72" t="n">
         <v>3.6</v>
@@ -10722,13 +10730,13 @@
         <v>3.1</v>
       </c>
       <c r="M72" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N72" t="n">
         <v>10</v>
       </c>
       <c r="O72" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P72" t="n">
         <v>3.25</v>
@@ -10745,7 +10753,7 @@
         <v>3.75</v>
       </c>
       <c r="V72" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W72" t="n">
         <v>1.44</v>
@@ -10802,7 +10810,7 @@
         <v>9.5</v>
       </c>
       <c r="AO72" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP72" t="n">
         <v>21</v>
@@ -10845,13 +10853,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H73" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I73" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J73" t="n">
         <v>2.3</v>
@@ -10860,7 +10868,7 @@
         <v>2.4</v>
       </c>
       <c r="L73" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M73" t="n">
         <v>1.03</v>
@@ -10908,7 +10916,7 @@
         <v>10</v>
       </c>
       <c r="AB73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC73" t="n">
         <v>8.5</v>
@@ -10990,7 +10998,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="H74" t="n">
         <v>3.3</v>
@@ -11002,7 +11010,7 @@
         <v>3.1</v>
       </c>
       <c r="K74" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L74" t="n">
         <v>3.1</v>
@@ -11038,10 +11046,10 @@
         <v>2.15</v>
       </c>
       <c r="AA74" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AB74" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC74" t="n">
         <v>9.5</v>
@@ -11053,7 +11061,7 @@
         <v>19.5</v>
       </c>
       <c r="AF74" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG74" t="n">
         <v>11.5</v>
@@ -11071,22 +11079,22 @@
         <v>300</v>
       </c>
       <c r="AL74" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AM74" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AN74" t="n">
         <v>9.5</v>
       </c>
       <c r="AO74" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP74" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ74" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr"/>
@@ -11266,7 +11274,7 @@
         <v>4.75</v>
       </c>
       <c r="I76" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="J76" t="n">
         <v>7</v>
@@ -11284,28 +11292,28 @@
         <v>17</v>
       </c>
       <c r="O76" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P76" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R76" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S76" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="T76" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U76" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V76" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W76" t="n">
         <v>1.29</v>
@@ -11405,7 +11413,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H77" t="n">
         <v>3.7</v>
@@ -11414,7 +11422,7 @@
         <v>5</v>
       </c>
       <c r="J77" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K77" t="n">
         <v>2.05</v>
@@ -11423,22 +11431,22 @@
         <v>6</v>
       </c>
       <c r="M77" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N77" t="n">
         <v>9</v>
       </c>
       <c r="O77" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P77" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q77" t="n">
         <v>2.2</v>
       </c>
       <c r="R77" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
@@ -11446,7 +11454,7 @@
         <v>4</v>
       </c>
       <c r="V77" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W77" t="n">
         <v>1.5</v>
@@ -11550,10 +11558,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H78" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I78" t="n">
         <v>3.2</v>
@@ -11562,19 +11570,19 @@
         <v>3.4</v>
       </c>
       <c r="K78" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L78" t="n">
         <v>3.75</v>
       </c>
       <c r="M78" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N78" t="n">
         <v>6.5</v>
       </c>
       <c r="O78" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P78" t="n">
         <v>2.5</v>
@@ -11583,7 +11591,7 @@
         <v>2.6</v>
       </c>
       <c r="R78" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
@@ -11591,7 +11599,7 @@
         <v>5</v>
       </c>
       <c r="V78" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W78" t="n">
         <v>1.57</v>
@@ -11657,10 +11665,10 @@
         <v>41</v>
       </c>
       <c r="AR78" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="79">
@@ -11695,7 +11703,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H79" t="n">
         <v>3.3</v>
@@ -11704,7 +11712,7 @@
         <v>4.1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K79" t="n">
         <v>2.1</v>
@@ -11713,22 +11721,22 @@
         <v>4.5</v>
       </c>
       <c r="M79" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O79" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P79" t="n">
         <v>3.25</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R79" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
@@ -11736,7 +11744,7 @@
         <v>3.75</v>
       </c>
       <c r="V79" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W79" t="n">
         <v>1.44</v>
@@ -11836,40 +11844,40 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H80" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="I80" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J80" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K80" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L80" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M80" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N80" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O80" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P80" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q80" t="n">
         <v>2.5</v>
       </c>
       <c r="R80" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
@@ -11877,7 +11885,7 @@
         <v>5</v>
       </c>
       <c r="V80" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W80" t="n">
         <v>1.57</v>
@@ -11892,19 +11900,19 @@
         <v>1.7</v>
       </c>
       <c r="AA80" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB80" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC80" t="n">
         <v>10</v>
       </c>
       <c r="AD80" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE80" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF80" t="n">
         <v>41</v>
@@ -11913,7 +11921,7 @@
         <v>6.5</v>
       </c>
       <c r="AH80" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI80" t="n">
         <v>17</v>
@@ -11925,28 +11933,28 @@
         <v>501</v>
       </c>
       <c r="AL80" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM80" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN80" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO80" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP80" t="n">
         <v>34</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>29</v>
       </c>
       <c r="AQ80" t="n">
         <v>41</v>
       </c>
       <c r="AR80" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="81">
@@ -11981,103 +11989,103 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="H81" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="I81" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="J81" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="K81" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="L81" t="n">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P81" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="R81" t="n">
-        <v>1.97</v>
+        <v>2.15</v>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="V81" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="Z81" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="AA81" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>90</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG81" t="n">
         <v>14</v>
       </c>
-      <c r="AB81" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>12</v>
-      </c>
       <c r="AH81" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AI81" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ81" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AK81" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="AL81" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="AM81" t="n">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="AN81" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AO81" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AP81" t="n">
-        <v>9.800000000000001</v>
+        <v>9.25</v>
       </c>
       <c r="AQ81" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr"/>
@@ -12114,28 +12122,28 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H82" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I82" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J82" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K82" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L82" t="n">
         <v>2.5</v>
       </c>
       <c r="M82" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N82" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O82" t="n">
         <v>1.25</v>
@@ -12144,10 +12152,10 @@
         <v>3.75</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="R82" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
@@ -12164,10 +12172,10 @@
         <v>3</v>
       </c>
       <c r="Y82" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z82" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA82" t="n">
         <v>12</v>
@@ -12188,13 +12196,13 @@
         <v>34</v>
       </c>
       <c r="AG82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH82" t="n">
         <v>7</v>
       </c>
       <c r="AI82" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ82" t="n">
         <v>41</v>
@@ -12206,13 +12214,13 @@
         <v>8</v>
       </c>
       <c r="AM82" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN82" t="n">
         <v>8.5</v>
       </c>
       <c r="AO82" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP82" t="n">
         <v>15</v>
@@ -12255,28 +12263,28 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H83" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I83" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J83" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="K83" t="n">
         <v>2.25</v>
       </c>
       <c r="L83" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M83" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N83" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O83" t="n">
         <v>1.25</v>
@@ -12285,18 +12293,18 @@
         <v>3.75</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R83" t="n">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V83" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W83" t="n">
         <v>1.36</v>
@@ -12311,22 +12319,22 @@
         <v>1.95</v>
       </c>
       <c r="AA83" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB83" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC83" t="n">
         <v>8.5</v>
       </c>
       <c r="AD83" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE83" t="n">
         <v>13</v>
       </c>
       <c r="AF83" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG83" t="n">
         <v>12</v>
@@ -12335,7 +12343,7 @@
         <v>7.5</v>
       </c>
       <c r="AI83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ83" t="n">
         <v>51</v>
@@ -12347,7 +12355,7 @@
         <v>13</v>
       </c>
       <c r="AM83" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN83" t="n">
         <v>15</v>
@@ -12356,7 +12364,7 @@
         <v>51</v>
       </c>
       <c r="AP83" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ83" t="n">
         <v>41</v>
@@ -12399,7 +12407,7 @@
         <v>1.7</v>
       </c>
       <c r="H84" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I84" t="n">
         <v>5</v>
@@ -12414,22 +12422,22 @@
         <v>5.5</v>
       </c>
       <c r="M84" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O84" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P84" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="R84" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
@@ -12440,10 +12448,10 @@
         <v>1.29</v>
       </c>
       <c r="W84" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X84" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y84" t="n">
         <v>1.95</v>
@@ -12470,10 +12478,10 @@
         <v>29</v>
       </c>
       <c r="AG84" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH84" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI84" t="n">
         <v>17</v>
@@ -12482,16 +12490,16 @@
         <v>51</v>
       </c>
       <c r="AK84" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL84" t="n">
         <v>12</v>
       </c>
       <c r="AM84" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN84" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO84" t="n">
         <v>51</v>
@@ -12537,44 +12545,44 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="H85" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I85" t="n">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="J85" t="n">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="K85" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L85" t="n">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P85" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R85" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="V85" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W85" t="n">
         <v>1.39</v>
@@ -12583,37 +12591,37 @@
         <v>2.57</v>
       </c>
       <c r="Y85" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Z85" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AA85" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AB85" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="AC85" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD85" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE85" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF85" t="n">
         <v>29</v>
       </c>
       <c r="AG85" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH85" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AI85" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ85" t="n">
         <v>80</v>
@@ -12622,22 +12630,22 @@
         <v>700</v>
       </c>
       <c r="AL85" t="n">
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="AM85" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AN85" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AO85" t="n">
+        <v>70</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ85" t="n">
         <v>50</v>
-      </c>
-      <c r="AP85" t="n">
-        <v>35</v>
-      </c>
-      <c r="AQ85" t="n">
-        <v>45</v>
       </c>
       <c r="AR85" t="inlineStr"/>
       <c r="AS85" t="inlineStr"/>
@@ -12677,25 +12685,25 @@
         <v>2.45</v>
       </c>
       <c r="H86" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I86" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="J86" t="n">
         <v>3.5</v>
       </c>
       <c r="K86" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L86" t="n">
         <v>4</v>
       </c>
       <c r="M86" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N86" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O86" t="n">
         <v>1.57</v>
@@ -12704,30 +12712,30 @@
         <v>2.25</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="R86" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V86" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W86" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X86" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y86" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z86" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA86" t="n">
         <v>6</v>
@@ -12775,16 +12783,16 @@
         <v>34</v>
       </c>
       <c r="AP86" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ86" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR86" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="87">
@@ -12819,13 +12827,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H87" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="I87" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J87" t="n">
         <v>3.75</v>
@@ -12834,7 +12842,7 @@
         <v>1.83</v>
       </c>
       <c r="L87" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M87" t="n">
         <v>1.13</v>
@@ -12849,10 +12857,10 @@
         <v>2.2</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="R87" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
@@ -12875,10 +12883,10 @@
         <v>1.57</v>
       </c>
       <c r="AA87" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB87" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC87" t="n">
         <v>12</v>
@@ -12911,10 +12919,10 @@
         <v>6</v>
       </c>
       <c r="AM87" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN87" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO87" t="n">
         <v>29</v>
@@ -12964,54 +12972,54 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="H88" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I88" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K88" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L88" t="n">
         <v>8</v>
       </c>
       <c r="M88" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N88" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O88" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P88" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R88" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="V88" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="W88" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X88" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y88" t="n">
         <v>2.25</v>
@@ -13020,7 +13028,7 @@
         <v>1.57</v>
       </c>
       <c r="AA88" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB88" t="n">
         <v>6</v>
@@ -13029,7 +13037,7 @@
         <v>9</v>
       </c>
       <c r="AD88" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE88" t="n">
         <v>13</v>
@@ -13038,10 +13046,10 @@
         <v>34</v>
       </c>
       <c r="AG88" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH88" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AH88" t="n">
-        <v>8</v>
       </c>
       <c r="AI88" t="n">
         <v>23</v>
@@ -13053,7 +13061,7 @@
         <v>101</v>
       </c>
       <c r="AL88" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM88" t="n">
         <v>41</v>
@@ -13115,7 +13123,7 @@
         <v>3.6</v>
       </c>
       <c r="I89" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="J89" t="n">
         <v>2.88</v>
@@ -13124,7 +13132,7 @@
         <v>2.4</v>
       </c>
       <c r="L89" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M89" t="n">
         <v>1.03</v>
@@ -13139,7 +13147,7 @@
         <v>5.5</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R89" t="n">
         <v>2.4</v>
@@ -13163,19 +13171,19 @@
         <v>3.5</v>
       </c>
       <c r="Y89" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Z89" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AA89" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB89" t="n">
         <v>15</v>
       </c>
       <c r="AC89" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD89" t="n">
         <v>23</v>
@@ -13217,7 +13225,7 @@
         <v>19</v>
       </c>
       <c r="AQ89" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr"/>
@@ -13254,7 +13262,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H90" t="n">
         <v>4.5</v>
@@ -13284,7 +13292,7 @@
         <v>5</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R90" t="n">
         <v>2.35</v>
@@ -13308,7 +13316,7 @@
         <v>3.5</v>
       </c>
       <c r="Y90" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Z90" t="n">
         <v>2</v>
@@ -13399,16 +13407,16 @@
         </is>
       </c>
       <c r="G91" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J91" t="n">
         <v>4.33</v>
-      </c>
-      <c r="H91" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J91" t="n">
-        <v>4.5</v>
       </c>
       <c r="K91" t="n">
         <v>2.2</v>
@@ -13429,16 +13437,16 @@
         <v>3.5</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R91" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S91" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="T91" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U91" t="n">
         <v>3.25</v>
@@ -13453,10 +13461,10 @@
         <v>2.75</v>
       </c>
       <c r="Y91" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z91" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA91" t="n">
         <v>12</v>
@@ -13483,13 +13491,13 @@
         <v>6.5</v>
       </c>
       <c r="AI91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ91" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK91" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL91" t="n">
         <v>7.5</v>
@@ -13510,10 +13518,10 @@
         <v>26</v>
       </c>
       <c r="AR91" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="92">
@@ -13548,7 +13556,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="H92" t="n">
         <v>4</v>
@@ -13566,10 +13574,10 @@
         <v>6</v>
       </c>
       <c r="M92" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O92" t="n">
         <v>1.36</v>
@@ -13578,10 +13586,10 @@
         <v>3</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R92" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S92" t="n">
         <v>3.2</v>
@@ -13700,25 +13708,25 @@
         <v>11</v>
       </c>
       <c r="H93" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I93" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="J93" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="K93" t="n">
         <v>2.25</v>
       </c>
       <c r="L93" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="M93" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N93" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O93" t="n">
         <v>1.33</v>
@@ -13733,10 +13741,10 @@
         <v>1.73</v>
       </c>
       <c r="S93" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="T93" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="U93" t="n">
         <v>3.75</v>
@@ -13760,10 +13768,10 @@
         <v>19</v>
       </c>
       <c r="AB93" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC93" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD93" t="n">
         <v>151</v>
@@ -13778,7 +13786,7 @@
         <v>8</v>
       </c>
       <c r="AH93" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI93" t="n">
         <v>29</v>
@@ -13799,19 +13807,19 @@
         <v>10</v>
       </c>
       <c r="AO93" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP93" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ93" t="n">
         <v>41</v>
       </c>
       <c r="AR93" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="94">
@@ -13846,22 +13854,22 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H94" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I94" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K94" t="n">
         <v>2.1</v>
       </c>
       <c r="L94" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M94" t="n">
         <v>1.06</v>
@@ -13882,16 +13890,16 @@
         <v>1.75</v>
       </c>
       <c r="S94" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="T94" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="U94" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V94" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W94" t="n">
         <v>1.44</v>
@@ -13909,13 +13917,13 @@
         <v>7.5</v>
       </c>
       <c r="AB94" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC94" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD94" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE94" t="n">
         <v>19</v>
@@ -13924,7 +13932,7 @@
         <v>29</v>
       </c>
       <c r="AG94" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH94" t="n">
         <v>6.5</v>
@@ -13936,7 +13944,7 @@
         <v>51</v>
       </c>
       <c r="AK94" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL94" t="n">
         <v>9</v>
@@ -13945,7 +13953,7 @@
         <v>15</v>
       </c>
       <c r="AN94" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO94" t="n">
         <v>34</v>
@@ -13957,10 +13965,10 @@
         <v>34</v>
       </c>
       <c r="AR94" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.5</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="95">
@@ -13995,28 +14003,28 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="H95" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J95" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3</v>
-      </c>
-      <c r="J95" t="n">
-        <v>3.1</v>
       </c>
       <c r="K95" t="n">
         <v>2.1</v>
       </c>
       <c r="L95" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M95" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N95" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O95" t="n">
         <v>1.3</v>
@@ -14025,51 +14033,51 @@
         <v>3.4</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R95" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V95" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W95" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X95" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y95" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z95" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA95" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB95" t="n">
         <v>12</v>
       </c>
       <c r="AC95" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD95" t="n">
         <v>23</v>
       </c>
       <c r="AE95" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF95" t="n">
         <v>29</v>
       </c>
       <c r="AG95" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH95" t="n">
         <v>6</v>
@@ -14078,13 +14086,13 @@
         <v>13</v>
       </c>
       <c r="AJ95" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK95" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL95" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM95" t="n">
         <v>15</v>
@@ -14093,7 +14101,7 @@
         <v>11</v>
       </c>
       <c r="AO95" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP95" t="n">
         <v>23</v>
@@ -14166,18 +14174,18 @@
         <v>3.75</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R96" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V96" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W96" t="n">
         <v>1.4</v>
@@ -14298,7 +14306,7 @@
         <v>1.04</v>
       </c>
       <c r="N97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O97" t="n">
         <v>1.22</v>
@@ -14307,10 +14315,10 @@
         <v>4</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R97" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
@@ -14418,10 +14426,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I98" t="n">
         <v>6.5</v>
@@ -14430,7 +14438,7 @@
         <v>2.1</v>
       </c>
       <c r="K98" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L98" t="n">
         <v>6.5</v>
@@ -14442,24 +14450,24 @@
         <v>11</v>
       </c>
       <c r="O98" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P98" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R98" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V98" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W98" t="n">
         <v>1.4</v>
@@ -14468,13 +14476,13 @@
         <v>2.75</v>
       </c>
       <c r="Y98" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z98" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA98" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB98" t="n">
         <v>6.5</v>
@@ -14492,19 +14500,19 @@
         <v>29</v>
       </c>
       <c r="AG98" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH98" t="n">
         <v>7.5</v>
       </c>
       <c r="AI98" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ98" t="n">
         <v>67</v>
       </c>
       <c r="AK98" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL98" t="n">
         <v>15</v>
@@ -14513,7 +14521,7 @@
         <v>34</v>
       </c>
       <c r="AN98" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO98" t="n">
         <v>67</v>
@@ -15131,22 +15139,22 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H103" t="n">
         <v>3</v>
       </c>
       <c r="I103" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J103" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K103" t="n">
         <v>2</v>
       </c>
       <c r="L103" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M103" t="n">
         <v>1.08</v>
@@ -15187,16 +15195,16 @@
         <v>1.8</v>
       </c>
       <c r="AA103" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB103" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC103" t="n">
         <v>10</v>
       </c>
       <c r="AD103" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE103" t="n">
         <v>21</v>
@@ -15220,7 +15228,7 @@
         <v>301</v>
       </c>
       <c r="AL103" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM103" t="n">
         <v>15</v>
@@ -15413,111 +15421,111 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.55</v>
+        <v>4.15</v>
       </c>
       <c r="H105" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I105" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="J105" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="K105" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L105" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="M105" t="n">
         <v>1.07</v>
       </c>
       <c r="N105" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="O105" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P105" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q105" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R105" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="V105" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W105" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X105" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Y105" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="Z105" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AA105" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AB105" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC105" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD105" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ105" t="n">
         <v>80</v>
       </c>
-      <c r="AE105" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF105" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG105" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AH105" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AI105" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ105" t="n">
-        <v>90</v>
-      </c>
       <c r="AK105" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AL105" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="AM105" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AN105" t="n">
         <v>8.25</v>
       </c>
       <c r="AO105" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP105" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ105" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AR105" t="inlineStr"/>
       <c r="AS105" t="inlineStr"/>
@@ -15710,7 +15718,7 @@
         <v>2.07</v>
       </c>
       <c r="L107" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="M107" t="n">
         <v>1.06</v>
@@ -15775,22 +15783,22 @@
         <v>6.4</v>
       </c>
       <c r="AI107" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ107" t="n">
         <v>60</v>
       </c>
       <c r="AK107" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL107" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AM107" t="n">
         <v>20</v>
       </c>
       <c r="AN107" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO107" t="n">
         <v>55</v>
@@ -15836,111 +15844,111 @@
         </is>
       </c>
       <c r="G108" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I108" t="n">
         <v>2.65</v>
       </c>
-      <c r="H108" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="I108" t="n">
-        <v>2.62</v>
-      </c>
       <c r="J108" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K108" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="L108" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="M108" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N108" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="O108" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P108" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="R108" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="n">
-        <v>4.5</v>
+        <v>4.85</v>
       </c>
       <c r="V108" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W108" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X108" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="Y108" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z108" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AA108" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AB108" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC108" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AD108" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE108" t="n">
         <v>30</v>
       </c>
-      <c r="AE108" t="n">
-        <v>28</v>
-      </c>
       <c r="AF108" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG108" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AH108" t="n">
         <v>5.9</v>
       </c>
       <c r="AI108" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ108" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AK108" t="n">
         <v>900</v>
       </c>
       <c r="AL108" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AM108" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AN108" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO108" t="n">
         <v>30</v>
       </c>
       <c r="AP108" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ108" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AR108" t="inlineStr"/>
       <c r="AS108" t="inlineStr"/>
@@ -16117,43 +16125,109 @@
           <t>Tanjong Pagar</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+      <c r="I110" t="n">
+        <v>21</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K110" t="n">
+        <v>5</v>
+      </c>
+      <c r="L110" t="n">
+        <v>21</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N110" t="n">
+        <v>29</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P110" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5.5</v>
+      </c>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
-      <c r="Z110" t="inlineStr"/>
-      <c r="AA110" t="inlineStr"/>
-      <c r="AB110" t="inlineStr"/>
-      <c r="AC110" t="inlineStr"/>
-      <c r="AD110" t="inlineStr"/>
-      <c r="AE110" t="inlineStr"/>
-      <c r="AF110" t="inlineStr"/>
-      <c r="AG110" t="inlineStr"/>
-      <c r="AH110" t="inlineStr"/>
-      <c r="AI110" t="inlineStr"/>
-      <c r="AJ110" t="inlineStr"/>
+      <c r="U110" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V110" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X110" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>81</v>
+      </c>
       <c r="AK110" t="inlineStr"/>
-      <c r="AL110" t="inlineStr"/>
-      <c r="AM110" t="inlineStr"/>
-      <c r="AN110" t="inlineStr"/>
+      <c r="AL110" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>800</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>101</v>
+      </c>
       <c r="AO110" t="inlineStr"/>
-      <c r="AP110" t="inlineStr"/>
-      <c r="AQ110" t="inlineStr"/>
+      <c r="AP110" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>201</v>
+      </c>
       <c r="AR110" t="inlineStr"/>
       <c r="AS110" t="inlineStr"/>
     </row>
@@ -16189,84 +16263,84 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="H111" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J111" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K111" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L111" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N111" t="n">
+        <v>9</v>
+      </c>
+      <c r="O111" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P111" t="n">
         <v>3.85</v>
       </c>
-      <c r="I111" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="J111" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K111" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L111" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M111" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N111" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="O111" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P111" t="n">
-        <v>3.7</v>
-      </c>
       <c r="Q111" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R111" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="V111" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W111" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X111" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="Y111" t="n">
         <v>1.7</v>
       </c>
       <c r="Z111" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AA111" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB111" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AC111" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD111" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE111" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF111" t="n">
         <v>40</v>
       </c>
       <c r="AG111" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH111" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AI111" t="n">
         <v>15.5</v>
@@ -16275,25 +16349,25 @@
         <v>65</v>
       </c>
       <c r="AK111" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL111" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AM111" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AN111" t="n">
         <v>8.75</v>
       </c>
       <c r="AO111" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AP111" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ111" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR111" t="inlineStr"/>
       <c r="AS111" t="inlineStr"/>
@@ -16330,111 +16404,111 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="H112" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I112" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K112" t="n">
+        <v>2</v>
+      </c>
+      <c r="L112" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N112" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P112" t="n">
         <v>3.4</v>
       </c>
-      <c r="I112" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J112" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="K112" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L112" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M112" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N112" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="O112" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P112" t="n">
-        <v>3.3</v>
-      </c>
       <c r="Q112" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="R112" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="V112" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="W112" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="X112" t="n">
-        <v>2.92</v>
+        <v>2.65</v>
       </c>
       <c r="Y112" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="Z112" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="AA112" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AB112" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC112" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD112" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE112" t="n">
         <v>18</v>
       </c>
       <c r="AF112" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AG112" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AH112" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="AI112" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AJ112" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AK112" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="AL112" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AM112" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AN112" t="n">
         <v>12.5</v>
       </c>
       <c r="AO112" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AP112" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ112" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AR112" t="inlineStr"/>
       <c r="AS112" t="inlineStr"/>
@@ -16509,10 +16583,10 @@
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V113" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W113" t="n">
         <v>1.53</v>
@@ -16533,7 +16607,7 @@
         <v>6.5</v>
       </c>
       <c r="AC113" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD113" t="n">
         <v>12</v>
@@ -16545,10 +16619,10 @@
         <v>41</v>
       </c>
       <c r="AG113" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH113" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI113" t="n">
         <v>23</v>
@@ -16560,7 +16634,7 @@
         <v>101</v>
       </c>
       <c r="AL113" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM113" t="n">
         <v>26</v>
@@ -16575,13 +16649,13 @@
         <v>51</v>
       </c>
       <c r="AQ113" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR113" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AS113" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="114">
@@ -16640,16 +16714,16 @@
         <v>10</v>
       </c>
       <c r="O114" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P114" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R114" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
@@ -16763,7 +16837,7 @@
         <v>3.1</v>
       </c>
       <c r="I115" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J115" t="n">
         <v>2.88</v>
@@ -16822,7 +16896,7 @@
         <v>9.5</v>
       </c>
       <c r="AD115" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE115" t="n">
         <v>19</v>
@@ -16837,7 +16911,7 @@
         <v>6</v>
       </c>
       <c r="AI115" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ115" t="n">
         <v>67</v>
@@ -16846,7 +16920,7 @@
         <v>1250</v>
       </c>
       <c r="AL115" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM115" t="n">
         <v>19</v>
@@ -16861,13 +16935,13 @@
         <v>41</v>
       </c>
       <c r="AQ115" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR115" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -16902,22 +16976,22 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H116" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I116" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J116" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K116" t="n">
         <v>2.2</v>
       </c>
       <c r="L116" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M116" t="n">
         <v>1.06</v>
@@ -16952,22 +17026,22 @@
         <v>2.63</v>
       </c>
       <c r="Y116" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z116" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA116" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB116" t="n">
         <v>5.5</v>
       </c>
       <c r="AC116" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD116" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE116" t="n">
         <v>15</v>
@@ -16991,16 +17065,16 @@
         <v>101</v>
       </c>
       <c r="AL116" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM116" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN116" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO116" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP116" t="n">
         <v>67</v>
@@ -17046,7 +17120,7 @@
         <v>2.55</v>
       </c>
       <c r="H117" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I117" t="n">
         <v>2.7</v>
@@ -17055,10 +17129,10 @@
         <v>3.1</v>
       </c>
       <c r="K117" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L117" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M117" t="n">
         <v>1.04</v>
@@ -17073,10 +17147,10 @@
         <v>4</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R117" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
@@ -17108,7 +17182,7 @@
         <v>10</v>
       </c>
       <c r="AD117" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE117" t="n">
         <v>19</v>
@@ -17132,7 +17206,7 @@
         <v>151</v>
       </c>
       <c r="AL117" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM117" t="n">
         <v>15</v>
@@ -17349,28 +17423,28 @@
         <v>17</v>
       </c>
       <c r="O119" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P119" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R119" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S119" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T119" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U119" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V119" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W119" t="n">
         <v>1.3</v>
@@ -17379,7 +17453,7 @@
         <v>3.4</v>
       </c>
       <c r="Y119" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Z119" t="n">
         <v>2.1</v>
@@ -17520,10 +17594,10 @@
         <v>3.25</v>
       </c>
       <c r="Y120" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z120" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AA120" t="n">
         <v>11</v>
@@ -17611,111 +17685,111 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="H121" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I121" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="J121" t="n">
-        <v>2.72</v>
+        <v>2.92</v>
       </c>
       <c r="K121" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L121" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M121" t="n">
         <v>1.04</v>
       </c>
       <c r="N121" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O121" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P121" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R121" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="V121" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W121" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X121" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Y121" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Z121" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="AA121" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB121" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC121" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD121" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE121" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AF121" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP121" t="n">
         <v>20</v>
       </c>
-      <c r="AG121" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH121" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI121" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AJ121" t="n">
-        <v>37</v>
-      </c>
-      <c r="AK121" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL121" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM121" t="n">
-        <v>18</v>
-      </c>
-      <c r="AN121" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO121" t="n">
-        <v>37</v>
-      </c>
-      <c r="AP121" t="n">
-        <v>22</v>
-      </c>
       <c r="AQ121" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR121" t="inlineStr"/>
       <c r="AS121" t="inlineStr"/>
@@ -18034,111 +18108,111 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="H124" t="n">
-        <v>3.55</v>
+        <v>2.95</v>
       </c>
       <c r="I124" t="n">
-        <v>3.8</v>
+        <v>4.45</v>
       </c>
       <c r="J124" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="K124" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L124" t="n">
-        <v>4.25</v>
+        <v>4.6</v>
       </c>
       <c r="M124" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N124" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="O124" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P124" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="R124" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="n">
-        <v>2.82</v>
+        <v>2.65</v>
       </c>
       <c r="V124" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="W124" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X124" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="Y124" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="Z124" t="n">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="AA124" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB124" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC124" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AD124" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE124" t="n">
         <v>14</v>
       </c>
       <c r="AF124" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AG124" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AH124" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="AI124" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN124" t="n">
         <v>13.5</v>
       </c>
-      <c r="AJ124" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK124" t="n">
-        <v>400</v>
-      </c>
-      <c r="AL124" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AM124" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN124" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AO124" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AP124" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AQ124" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AR124" t="inlineStr"/>
       <c r="AS124" t="inlineStr"/>
@@ -18316,13 +18390,13 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H126" t="n">
         <v>3.5</v>
       </c>
       <c r="I126" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J126" t="n">
         <v>2.75</v>
@@ -18331,7 +18405,7 @@
         <v>2.3</v>
       </c>
       <c r="L126" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M126" t="n">
         <v>1.03</v>
@@ -18340,19 +18414,23 @@
         <v>15</v>
       </c>
       <c r="O126" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P126" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R126" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S126" t="inlineStr"/>
-      <c r="T126" t="inlineStr"/>
+        <v>2.25</v>
+      </c>
+      <c r="S126" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1.8</v>
+      </c>
       <c r="U126" t="n">
         <v>2.5</v>
       </c>
@@ -18366,10 +18444,10 @@
         <v>3.4</v>
       </c>
       <c r="Y126" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z126" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA126" t="n">
         <v>10</v>
@@ -18393,7 +18471,7 @@
         <v>15</v>
       </c>
       <c r="AH126" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI126" t="n">
         <v>12</v>
@@ -18411,7 +18489,7 @@
         <v>19</v>
       </c>
       <c r="AN126" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO126" t="n">
         <v>34</v>
@@ -18487,16 +18565,16 @@
         <v>4.5</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R127" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S127" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T127" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U127" t="n">
         <v>2.5</v>
@@ -18550,10 +18628,10 @@
         <v>151</v>
       </c>
       <c r="AL127" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM127" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN127" t="n">
         <v>8.5</v>
@@ -18632,10 +18710,10 @@
         <v>3.5</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R128" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr"/>
@@ -18884,16 +18962,16 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H130" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I130" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J130" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K130" t="n">
         <v>2.2</v>
@@ -18902,10 +18980,10 @@
         <v>5.5</v>
       </c>
       <c r="M130" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N130" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O130" t="n">
         <v>1.29</v>
@@ -18949,10 +19027,10 @@
         <v>8.5</v>
       </c>
       <c r="AD130" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE130" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF130" t="n">
         <v>26</v>
@@ -18961,7 +19039,7 @@
         <v>10</v>
       </c>
       <c r="AH130" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI130" t="n">
         <v>17</v>
@@ -19025,16 +19103,16 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H131" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I131" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J131" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K131" t="n">
         <v>2.1</v>
@@ -19049,30 +19127,30 @@
         <v>10</v>
       </c>
       <c r="O131" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P131" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R131" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V131" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W131" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X131" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y131" t="n">
         <v>1.83</v>
@@ -19084,13 +19162,13 @@
         <v>7</v>
       </c>
       <c r="AB131" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC131" t="n">
         <v>9</v>
       </c>
       <c r="AD131" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE131" t="n">
         <v>17</v>
@@ -19099,7 +19177,7 @@
         <v>29</v>
       </c>
       <c r="AG131" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH131" t="n">
         <v>6.5</v>
@@ -19111,13 +19189,13 @@
         <v>51</v>
       </c>
       <c r="AK131" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL131" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AM131" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN131" t="n">
         <v>13</v>
@@ -19166,48 +19244,48 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H132" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I132" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J132" t="n">
         <v>2.88</v>
       </c>
       <c r="K132" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L132" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M132" t="n">
         <v>1.04</v>
       </c>
       <c r="N132" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O132" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P132" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R132" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V132" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W132" t="n">
         <v>1.36</v>
@@ -19225,10 +19303,10 @@
         <v>9</v>
       </c>
       <c r="AB132" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC132" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD132" t="n">
         <v>21</v>
@@ -19237,13 +19315,13 @@
         <v>17</v>
       </c>
       <c r="AF132" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG132" t="n">
         <v>12</v>
       </c>
       <c r="AH132" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI132" t="n">
         <v>13</v>
@@ -19258,13 +19336,13 @@
         <v>11</v>
       </c>
       <c r="AM132" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN132" t="n">
         <v>11</v>
       </c>
       <c r="AO132" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP132" t="n">
         <v>23</v>
@@ -19307,13 +19385,13 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H133" t="n">
         <v>3.3</v>
       </c>
       <c r="I133" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J133" t="n">
         <v>2.6</v>
@@ -19325,10 +19403,10 @@
         <v>4.33</v>
       </c>
       <c r="M133" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N133" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O133" t="n">
         <v>1.29</v>
@@ -19366,7 +19444,7 @@
         <v>7.5</v>
       </c>
       <c r="AB133" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC133" t="n">
         <v>8.5</v>
@@ -19381,7 +19459,7 @@
         <v>26</v>
       </c>
       <c r="AG133" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH133" t="n">
         <v>6.5</v>
@@ -19390,7 +19468,7 @@
         <v>15</v>
       </c>
       <c r="AJ133" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK133" t="n">
         <v>201</v>
@@ -19408,10 +19486,10 @@
         <v>41</v>
       </c>
       <c r="AP133" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ133" t="n">
         <v>34</v>
-      </c>
-      <c r="AQ133" t="n">
-        <v>41</v>
       </c>
       <c r="AR133" t="inlineStr"/>
       <c r="AS133" t="inlineStr"/>
@@ -19448,7 +19526,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H134" t="n">
         <v>4.8</v>
@@ -19457,10 +19535,10 @@
         <v>1.42</v>
       </c>
       <c r="J134" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K134" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="L134" t="n">
         <v>1.87</v>
@@ -19469,24 +19547,24 @@
         <v>1.03</v>
       </c>
       <c r="N134" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O134" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P134" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="R134" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="S134" t="inlineStr"/>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V134" t="n">
         <v>1.65</v>
@@ -19495,16 +19573,16 @@
         <v>1.26</v>
       </c>
       <c r="X134" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Y134" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Z134" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AA134" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB134" t="n">
         <v>40</v>
@@ -19522,10 +19600,10 @@
         <v>45</v>
       </c>
       <c r="AG134" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH134" t="n">
         <v>9.75</v>
-      </c>
-      <c r="AH134" t="n">
-        <v>10</v>
       </c>
       <c r="AI134" t="n">
         <v>16</v>
@@ -19534,13 +19612,13 @@
         <v>55</v>
       </c>
       <c r="AK134" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL134" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AM134" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AN134" t="n">
         <v>8.5</v>
@@ -19552,7 +19630,7 @@
         <v>10.5</v>
       </c>
       <c r="AQ134" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AR134" t="inlineStr"/>
       <c r="AS134" t="inlineStr"/>
@@ -19598,13 +19676,13 @@
         <v>2.05</v>
       </c>
       <c r="J135" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K135" t="n">
         <v>2.18</v>
       </c>
       <c r="L135" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="M135" t="n">
         <v>1.04</v>
@@ -19613,42 +19691,42 @@
         <v>8.25</v>
       </c>
       <c r="O135" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P135" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="Q135" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R135" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="V135" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="W135" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="X135" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="Y135" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Z135" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="AA135" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB135" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC135" t="n">
         <v>11.25</v>
@@ -19657,43 +19735,43 @@
         <v>45</v>
       </c>
       <c r="AE135" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF135" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG135" t="n">
         <v>8.25</v>
       </c>
       <c r="AH135" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AI135" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AJ135" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AK135" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL135" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AM135" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AN135" t="n">
         <v>8.5</v>
       </c>
       <c r="AO135" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AP135" t="n">
         <v>15</v>
       </c>
       <c r="AQ135" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR135" t="inlineStr"/>
       <c r="AS135" t="inlineStr"/>
@@ -19867,22 +19945,22 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H137" t="n">
         <v>3.35</v>
       </c>
       <c r="I137" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J137" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="K137" t="n">
         <v>2</v>
       </c>
       <c r="L137" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
@@ -19890,10 +19968,10 @@
         <v>1.34</v>
       </c>
       <c r="P137" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="Q137" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R137" t="n">
         <v>1.65</v>
@@ -19904,7 +19982,7 @@
         <v>3.25</v>
       </c>
       <c r="V137" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W137" t="n">
         <v>1.45</v>
@@ -19919,25 +19997,25 @@
         <v>1.7</v>
       </c>
       <c r="AA137" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB137" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AC137" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD137" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AE137" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF137" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG137" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH137" t="n">
         <v>6.7</v>
@@ -19946,28 +20024,28 @@
         <v>17.5</v>
       </c>
       <c r="AJ137" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK137" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AL137" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AM137" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN137" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO137" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AP137" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AQ137" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AR137" t="inlineStr"/>
       <c r="AS137" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
@@ -704,7 +704,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L2" t="n">
         <v>5.5</v>
@@ -713,7 +713,7 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -722,46 +722,46 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="T2" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA2" t="n">
         <v>9.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC2" t="n">
         <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -770,7 +770,7 @@
         <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>9</v>
@@ -785,7 +785,7 @@
         <v>151</v>
       </c>
       <c r="AL2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J3" t="n">
         <v>3.5</v>
@@ -852,7 +852,7 @@
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -861,16 +861,16 @@
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R3" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -881,10 +881,10 @@
         <v>1.3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y3" t="n">
         <v>1.75</v>
@@ -893,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB3" t="n">
         <v>15</v>
@@ -908,22 +908,22 @@
         <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL3" t="n">
         <v>8.5</v>
@@ -938,7 +938,7 @@
         <v>23</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>29</v>
@@ -978,16 +978,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
         <v>2.3</v>
@@ -1028,10 +1028,10 @@
         <v>3.25</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA4" t="n">
         <v>8.5</v>
@@ -1049,16 +1049,16 @@
         <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
         <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1140,27 +1140,27 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
         <v>1.33</v>
@@ -1169,10 +1169,10 @@
         <v>3.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1193,7 +1193,7 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>7.5</v>
@@ -1205,10 +1205,10 @@
         <v>51</v>
       </c>
       <c r="AK5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM5" t="n">
         <v>8</v>
@@ -1220,7 +1220,7 @@
         <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ5" t="n">
         <v>23</v>
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J6" t="n">
         <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
         <v>1.2</v>
@@ -1290,22 +1290,22 @@
         <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R6" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="T6" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W6" t="n">
         <v>1.3</v>
@@ -1320,10 +1320,10 @@
         <v>2.38</v>
       </c>
       <c r="AA6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
         <v>9</v>
@@ -1338,10 +1338,10 @@
         <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
         <v>12</v>
@@ -1356,19 +1356,19 @@
         <v>13</v>
       </c>
       <c r="AM6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
         <v>34</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
@@ -1405,22 +1405,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H7" t="n">
         <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K7" t="n">
         <v>2.38</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1459,10 +1459,10 @@
         <v>3.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA7" t="n">
         <v>8</v>
@@ -1489,7 +1489,7 @@
         <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>51</v>
@@ -1501,10 +1501,10 @@
         <v>15</v>
       </c>
       <c r="AM7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
         <v>51</v>
@@ -1550,28 +1550,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1600,28 +1600,28 @@
         <v>3</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
         <v>12</v>
@@ -1642,16 +1642,16 @@
         <v>8</v>
       </c>
       <c r="AM8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN8" t="n">
         <v>8.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ8" t="n">
         <v>23</v>
@@ -1691,22 +1691,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J9" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
         <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -1715,24 +1715,24 @@
         <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W9" t="n">
         <v>1.33</v>
@@ -1756,7 +1756,7 @@
         <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -1771,7 +1771,7 @@
         <v>7</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
         <v>41</v>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
         <v>3.6</v>
@@ -2059,7 +2059,7 @@
         <v>67</v>
       </c>
       <c r="AK11" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL11" t="n">
         <v>6</v>
@@ -2114,28 +2114,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="H12" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
         <v>1.3</v>
@@ -2144,10 +2144,10 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R12" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -2164,10 +2164,10 @@
         <v>2.75</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA12" t="n">
         <v>6</v>
@@ -2179,7 +2179,7 @@
         <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
@@ -2188,28 +2188,28 @@
         <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK12" t="n">
         <v>501</v>
       </c>
       <c r="AL12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM12" t="n">
         <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
         <v>81</v>
@@ -2261,7 +2261,7 @@
         <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
         <v>1.83</v>
@@ -2270,7 +2270,7 @@
         <v>2.5</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2309,16 +2309,16 @@
         <v>3.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC13" t="n">
         <v>8.5</v>
@@ -2330,22 +2330,22 @@
         <v>11</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
         <v>9.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ13" t="n">
         <v>51</v>
       </c>
       <c r="AK13" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AL13" t="n">
         <v>21</v>
@@ -2357,7 +2357,7 @@
         <v>23</v>
       </c>
       <c r="AO13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP13" t="n">
         <v>51</v>
@@ -2403,10 +2403,10 @@
         <v>6.25</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I14" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J14" t="n">
         <v>6</v>
@@ -2421,7 +2421,7 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O14" t="n">
         <v>1.18</v>
@@ -2436,10 +2436,10 @@
         <v>2.3</v>
       </c>
       <c r="S14" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="n">
         <v>2.5</v>
@@ -2448,16 +2448,16 @@
         <v>1.5</v>
       </c>
       <c r="W14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA14" t="n">
         <v>19</v>
@@ -2481,7 +2481,7 @@
         <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI14" t="n">
         <v>17</v>
@@ -2493,13 +2493,13 @@
         <v>201</v>
       </c>
       <c r="AL14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM14" t="n">
         <v>8</v>
       </c>
-      <c r="AM14" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO14" t="n">
         <v>11</v>
@@ -2548,10 +2548,10 @@
         <v>2.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
@@ -2560,7 +2560,7 @@
         <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2569,16 +2569,16 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S15" t="n">
         <v>2.03</v>
@@ -2587,16 +2587,16 @@
         <v>1.83</v>
       </c>
       <c r="U15" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V15" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y15" t="n">
         <v>1.53</v>
@@ -2605,7 +2605,7 @@
         <v>2.38</v>
       </c>
       <c r="AA15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB15" t="n">
         <v>15</v>
@@ -2614,10 +2614,10 @@
         <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
         <v>23</v>
@@ -2629,13 +2629,13 @@
         <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
         <v>34</v>
       </c>
       <c r="AK15" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL15" t="n">
         <v>12</v>
@@ -2690,22 +2690,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H16" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K16" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -2750,7 +2750,7 @@
         <v>1.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB16" t="n">
         <v>7</v>
@@ -2759,13 +2759,13 @@
         <v>8.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
@@ -2783,16 +2783,16 @@
         <v>301</v>
       </c>
       <c r="AL16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM16" t="n">
         <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP16" t="n">
         <v>51</v>
@@ -2835,22 +2835,22 @@
         </is>
       </c>
       <c r="G17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H17" t="n">
         <v>3.75</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.8</v>
-      </c>
       <c r="I17" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
         <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2865,10 +2865,10 @@
         <v>4.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R17" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S17" t="n">
         <v>2.05</v>
@@ -2895,19 +2895,19 @@
         <v>2.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
         <v>41</v>
       </c>
       <c r="AE17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF17" t="n">
         <v>29</v>
@@ -2931,13 +2931,13 @@
         <v>9</v>
       </c>
       <c r="AM17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN17" t="n">
         <v>8.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP17" t="n">
         <v>15</v>
@@ -2983,13 +2983,13 @@
         <v>2.25</v>
       </c>
       <c r="H18" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I18" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
         <v>1.8</v>
@@ -2998,42 +2998,42 @@
         <v>4.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="R18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W18" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="X18" t="n">
         <v>2.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA18" t="n">
         <v>5</v>
@@ -3051,10 +3051,10 @@
         <v>26</v>
       </c>
       <c r="AF18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH18" t="n">
         <v>6</v>
@@ -3063,7 +3063,7 @@
         <v>23</v>
       </c>
       <c r="AJ18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK18" t="n">
         <v>401</v>
@@ -3072,7 +3072,7 @@
         <v>7</v>
       </c>
       <c r="AM18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN18" t="n">
         <v>15</v>
@@ -3125,40 +3125,40 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R19" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -3169,22 +3169,22 @@
         <v>1.2</v>
       </c>
       <c r="W19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X19" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC19" t="n">
         <v>9</v>
@@ -3196,44 +3196,44 @@
         <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH19" t="n">
         <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="n">
         <v>81</v>
       </c>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ19" t="n">
         <v>51</v>
       </c>
       <c r="AR19" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="20">
@@ -3274,10 +3274,10 @@
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K20" t="n">
         <v>2.1</v>
@@ -3286,10 +3286,10 @@
         <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -3306,16 +3306,16 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W20" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X20" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y20" t="n">
         <v>2.25</v>
@@ -3342,7 +3342,7 @@
         <v>34</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH20" t="n">
         <v>8</v>
@@ -3360,7 +3360,7 @@
         <v>13</v>
       </c>
       <c r="AM20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN20" t="n">
         <v>21</v>
@@ -3409,10 +3409,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H21" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I21" t="n">
         <v>1.48</v>
@@ -3421,52 +3421,52 @@
         <v>5.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.95</v>
       </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O21" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P21" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S21" t="n">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="T21" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y21" t="n">
         <v>1.67</v>
       </c>
-      <c r="W21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1.57</v>
-      </c>
       <c r="Z21" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AA21" t="n">
         <v>21</v>
@@ -3475,22 +3475,22 @@
         <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE21" t="n">
         <v>41</v>
       </c>
       <c r="AF21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
         <v>15</v>
@@ -3499,25 +3499,25 @@
         <v>41</v>
       </c>
       <c r="AK21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN21" t="n">
         <v>8.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP21" t="n">
         <v>11</v>
       </c>
       <c r="AQ21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3727,10 +3727,10 @@
         <v>5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P23" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q23" t="n">
         <v>3.5</v>
@@ -3739,10 +3739,10 @@
         <v>1.3</v>
       </c>
       <c r="S23" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="U23" t="n">
         <v>8</v>
@@ -3852,16 +3852,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J24" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
         <v>1.91</v>
@@ -3870,10 +3870,10 @@
         <v>4.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O24" t="n">
         <v>1.53</v>
@@ -3906,10 +3906,10 @@
         <v>2.2</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA24" t="n">
         <v>5.5</v>
@@ -4037,16 +4037,16 @@
         <v>1.53</v>
       </c>
       <c r="S25" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T25" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="U25" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W25" t="n">
         <v>1.53</v>
@@ -4112,10 +4112,10 @@
         <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -4150,28 +4150,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
         <v>1.8</v>
       </c>
       <c r="L26" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O26" t="n">
         <v>1.73</v>
@@ -4206,10 +4206,10 @@
         <v>1.44</v>
       </c>
       <c r="AA26" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC26" t="n">
         <v>11</v>
@@ -4240,7 +4240,7 @@
         <v>6.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN26" t="n">
         <v>15</v>
@@ -4289,10 +4289,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I27" t="n">
         <v>4.75</v>
@@ -4307,10 +4307,10 @@
         <v>6</v>
       </c>
       <c r="M27" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N27" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O27" t="n">
         <v>1.73</v>
@@ -4333,10 +4333,10 @@
         <v>1.08</v>
       </c>
       <c r="W27" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X27" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="Y27" t="n">
         <v>2.75</v>
@@ -4345,7 +4345,7 @@
         <v>1.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AB27" t="n">
         <v>7</v>
@@ -4354,7 +4354,7 @@
         <v>11</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -4363,7 +4363,7 @@
         <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH27" t="n">
         <v>6.5</v>
@@ -4372,11 +4372,11 @@
         <v>29</v>
       </c>
       <c r="AJ27" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM27" t="n">
         <v>21</v>
@@ -4391,7 +4391,7 @@
         <v>51</v>
       </c>
       <c r="AQ27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
@@ -4428,28 +4428,28 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H28" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J28" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K28" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.53</v>
@@ -4478,10 +4478,10 @@
         <v>2.25</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA28" t="n">
         <v>5</v>
@@ -4493,7 +4493,7 @@
         <v>9.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
         <v>19</v>
@@ -4515,10 +4515,10 @@
       </c>
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN28" t="n">
         <v>17</v>
@@ -4527,7 +4527,7 @@
         <v>51</v>
       </c>
       <c r="AP28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ28" t="n">
         <v>51</v>
@@ -4710,10 +4710,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H30" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
         <v>7.5</v>
@@ -4722,22 +4722,22 @@
         <v>2.25</v>
       </c>
       <c r="K30" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L30" t="n">
         <v>8.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P30" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q30" t="n">
         <v>2.88</v>
@@ -4748,22 +4748,22 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V30" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W30" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X30" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y30" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AA30" t="n">
         <v>4.33</v>
@@ -4772,13 +4772,13 @@
         <v>5.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD30" t="n">
         <v>10</v>
       </c>
       <c r="AE30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF30" t="n">
         <v>51</v>
@@ -4849,28 +4849,28 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H31" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J31" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
         <v>1.83</v>
       </c>
       <c r="L31" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N31" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O31" t="n">
         <v>1.62</v>
@@ -4908,16 +4908,16 @@
         <v>5</v>
       </c>
       <c r="AB31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC31" t="n">
         <v>10</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF31" t="n">
         <v>41</v>
@@ -4926,7 +4926,7 @@
         <v>6</v>
       </c>
       <c r="AH31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI31" t="n">
         <v>23</v>
@@ -4936,16 +4936,16 @@
       </c>
       <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN31" t="n">
         <v>15</v>
       </c>
       <c r="AO31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP31" t="n">
         <v>41</v>
@@ -4992,40 +4992,40 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H32" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="J32" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L32" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M32" t="n">
         <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O32" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P32" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R32" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S32" t="n">
         <v>1.8</v>
@@ -5034,10 +5034,10 @@
         <v>2.05</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V32" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W32" t="n">
         <v>1.22</v>
@@ -5046,46 +5046,46 @@
         <v>4</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AA32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF32" t="n">
         <v>19</v>
       </c>
       <c r="AG32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH32" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI32" t="n">
         <v>10</v>
       </c>
       <c r="AJ32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK32" t="n">
         <v>67</v>
       </c>
       <c r="AL32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM32" t="n">
         <v>17</v>
@@ -5100,7 +5100,7 @@
         <v>17</v>
       </c>
       <c r="AQ32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -5140,10 +5140,10 @@
         <v>6.5</v>
       </c>
       <c r="H33" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="J33" t="n">
         <v>6</v>
@@ -5197,7 +5197,7 @@
         <v>2</v>
       </c>
       <c r="AA33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB33" t="n">
         <v>34</v>
@@ -5236,7 +5236,7 @@
         <v>8</v>
       </c>
       <c r="AN33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO33" t="n">
         <v>10</v>
@@ -5282,40 +5282,40 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J34" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K34" t="n">
         <v>2.1</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P34" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R34" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -5338,19 +5338,19 @@
         <v>1.95</v>
       </c>
       <c r="AA34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC34" t="n">
         <v>11</v>
       </c>
       <c r="AD34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF34" t="n">
         <v>34</v>
@@ -5371,19 +5371,19 @@
         <v>251</v>
       </c>
       <c r="AL34" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP34" t="n">
         <v>21</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>19</v>
       </c>
       <c r="AQ34" t="n">
         <v>29</v>
@@ -5423,22 +5423,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="H35" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L35" t="n">
         <v>3.75</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4</v>
       </c>
       <c r="M35" t="n">
         <v>1.05</v>
@@ -5453,10 +5453,10 @@
         <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R35" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -5473,34 +5473,34 @@
         <v>2.75</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z35" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA35" t="n">
         <v>8</v>
       </c>
       <c r="AB35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC35" t="n">
         <v>9</v>
       </c>
       <c r="AD35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE35" t="n">
         <v>17</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>15</v>
       </c>
       <c r="AF35" t="n">
         <v>26</v>
       </c>
       <c r="AG35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH35" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI35" t="n">
         <v>13</v>
@@ -5512,19 +5512,19 @@
         <v>201</v>
       </c>
       <c r="AL35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN35" t="n">
         <v>12</v>
       </c>
-      <c r="AM35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>13</v>
-      </c>
       <c r="AO35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ35" t="n">
         <v>34</v>
@@ -5564,30 +5564,30 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="H36" t="n">
         <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="K36" t="n">
         <v>1.88</v>
       </c>
       <c r="L36" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P36" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="Q36" t="n">
         <v>2.32</v>
@@ -5598,10 +5598,10 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W36" t="n">
         <v>1.53</v>
@@ -5610,22 +5610,22 @@
         <v>2.18</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Z36" t="n">
         <v>1.65</v>
       </c>
       <c r="AA36" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AC36" t="n">
         <v>9.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE36" t="n">
         <v>22</v>
@@ -5634,13 +5634,13 @@
         <v>40</v>
       </c>
       <c r="AG36" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AH36" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AI36" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ36" t="n">
         <v>110</v>
@@ -5649,13 +5649,13 @@
         <v>700</v>
       </c>
       <c r="AL36" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AM36" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AN36" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AO36" t="n">
         <v>45</v>
@@ -5707,16 +5707,16 @@
         <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="J37" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="K37" t="n">
         <v>1.95</v>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
@@ -5727,10 +5727,10 @@
         <v>2.45</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R37" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -5756,13 +5756,13 @@
         <v>5.3</v>
       </c>
       <c r="AB37" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AC37" t="n">
         <v>8.75</v>
       </c>
       <c r="AD37" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE37" t="n">
         <v>17</v>
@@ -5777,10 +5777,10 @@
         <v>6.6</v>
       </c>
       <c r="AI37" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ37" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AK37" t="n">
         <v>900</v>
@@ -5868,10 +5868,10 @@
         <v>3.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R38" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -5979,22 +5979,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H39" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I39" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J39" t="n">
         <v>6</v>
       </c>
       <c r="K39" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -6003,24 +6003,28 @@
         <v>15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P39" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R39" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
+        <v>2.25</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.83</v>
+      </c>
       <c r="U39" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V39" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W39" t="n">
         <v>1.3</v>
@@ -6041,7 +6045,7 @@
         <v>34</v>
       </c>
       <c r="AC39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD39" t="n">
         <v>67</v>
@@ -6059,7 +6063,7 @@
         <v>9</v>
       </c>
       <c r="AI39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ39" t="n">
         <v>51</v>
@@ -6077,10 +6081,10 @@
         <v>8.5</v>
       </c>
       <c r="AO39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP39" t="n">
         <v>11</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>12</v>
       </c>
       <c r="AQ39" t="n">
         <v>23</v>
@@ -6291,10 +6295,10 @@
         <v>3.75</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R41" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -6564,7 +6568,7 @@
         <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O43" t="n">
         <v>1.33</v>
@@ -6581,10 +6585,10 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V43" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W43" t="n">
         <v>1.44</v>
@@ -6714,10 +6718,10 @@
         <v>3.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R44" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -6855,18 +6859,18 @@
         <v>3.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R45" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V45" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W45" t="n">
         <v>1.36</v>
@@ -6978,10 +6982,10 @@
         <v>1.8</v>
       </c>
       <c r="K46" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M46" t="n">
         <v>1.05</v>
@@ -6996,10 +7000,10 @@
         <v>3.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R46" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -7010,19 +7014,19 @@
         <v>1.33</v>
       </c>
       <c r="W46" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X46" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB46" t="n">
         <v>5.5</v>
@@ -7040,16 +7044,16 @@
         <v>34</v>
       </c>
       <c r="AG46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH46" t="n">
         <v>10</v>
       </c>
-      <c r="AH46" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AI46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ46" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="n">
         <v>1250</v>
@@ -7064,7 +7068,7 @@
         <v>29</v>
       </c>
       <c r="AO46" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AP46" t="n">
         <v>81</v>
@@ -7137,10 +7141,10 @@
         <v>2.63</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R47" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -7214,10 +7218,10 @@
         <v>41</v>
       </c>
       <c r="AR47" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="48">
@@ -7282,16 +7286,16 @@
         <v>2.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R48" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S48" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T48" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U48" t="n">
         <v>4.33</v>
@@ -7363,10 +7367,10 @@
         <v>34</v>
       </c>
       <c r="AR48" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="49">
@@ -7568,10 +7572,10 @@
         <v>4.33</v>
       </c>
       <c r="M50" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O50" t="n">
         <v>1.5</v>
@@ -7717,10 +7721,10 @@
         <v>7.5</v>
       </c>
       <c r="M51" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O51" t="n">
         <v>1.33</v>
@@ -7729,10 +7733,10 @@
         <v>3.25</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R51" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S51" t="n">
         <v>2.95</v>
@@ -7851,45 +7855,45 @@
         <v>1.53</v>
       </c>
       <c r="H52" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I52" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J52" t="n">
         <v>2.2</v>
       </c>
       <c r="K52" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L52" t="n">
         <v>6.5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O52" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P52" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R52" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="V52" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="W52" t="n">
         <v>1.44</v>
@@ -7904,7 +7908,7 @@
         <v>1.62</v>
       </c>
       <c r="AA52" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB52" t="n">
         <v>6.5</v>
@@ -7931,13 +7935,13 @@
         <v>21</v>
       </c>
       <c r="AJ52" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK52" t="n">
         <v>351</v>
       </c>
       <c r="AL52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM52" t="n">
         <v>29</v>
@@ -8412,108 +8416,108 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H56" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J56" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="K56" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L56" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M56" t="n">
         <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="O56" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P56" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="R56" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="V56" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W56" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X56" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA56" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AB56" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AC56" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE56" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF56" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG56" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AI56" t="n">
         <v>15.5</v>
       </c>
       <c r="AJ56" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK56" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL56" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM56" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN56" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO56" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP56" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ56" t="n">
         <v>40</v>
@@ -8586,7 +8590,7 @@
         <v>2.05</v>
       </c>
       <c r="R57" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -8694,22 +8698,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H58" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I58" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J58" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K58" t="n">
         <v>2.4</v>
       </c>
       <c r="L58" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M58" t="n">
         <v>1.04</v>
@@ -8724,10 +8728,10 @@
         <v>4</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R58" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S58" t="n">
         <v>2</v>
@@ -8787,13 +8791,13 @@
         <v>301</v>
       </c>
       <c r="AL58" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM58" t="n">
         <v>41</v>
       </c>
       <c r="AN58" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO58" t="n">
         <v>81</v>
@@ -8869,16 +8873,16 @@
         <v>4.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R59" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S59" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T59" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U59" t="n">
         <v>2.5</v>
@@ -8887,10 +8891,10 @@
         <v>1.5</v>
       </c>
       <c r="W59" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X59" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y59" t="n">
         <v>1.75</v>
@@ -8902,7 +8906,7 @@
         <v>8.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC59" t="n">
         <v>8.5</v>
@@ -8914,7 +8918,7 @@
         <v>11</v>
       </c>
       <c r="AF59" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG59" t="n">
         <v>15</v>
@@ -8923,10 +8927,10 @@
         <v>8.5</v>
       </c>
       <c r="AI59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ59" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK59" t="n">
         <v>201</v>
@@ -9008,24 +9012,24 @@
         <v>13</v>
       </c>
       <c r="O60" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P60" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R60" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V60" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W60" t="n">
         <v>1.36</v>
@@ -9149,10 +9153,10 @@
         <v>9</v>
       </c>
       <c r="O61" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P61" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q61" t="n">
         <v>2.1</v>
@@ -9290,28 +9294,28 @@
         <v>17</v>
       </c>
       <c r="O62" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P62" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R62" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S62" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="T62" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="U62" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V62" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W62" t="n">
         <v>1.29</v>
@@ -9423,7 +9427,7 @@
         <v>2.6</v>
       </c>
       <c r="K63" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L63" t="n">
         <v>3.75</v>
@@ -9435,24 +9439,28 @@
         <v>15</v>
       </c>
       <c r="O63" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P63" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R63" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
+        <v>2.25</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.8</v>
+      </c>
       <c r="U63" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V63" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W63" t="n">
         <v>1.3</v>
@@ -9467,7 +9475,7 @@
         <v>2.25</v>
       </c>
       <c r="AA63" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB63" t="n">
         <v>11</v>
@@ -9491,7 +9499,7 @@
         <v>7.5</v>
       </c>
       <c r="AI63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ63" t="n">
         <v>41</v>
@@ -9727,18 +9735,18 @@
         <v>3.75</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R65" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V65" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W65" t="n">
         <v>1.36</v>
@@ -9982,10 +9990,10 @@
         <v>1.9</v>
       </c>
       <c r="H67" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I67" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J67" t="n">
         <v>2.5</v>
@@ -10039,7 +10047,7 @@
         <v>2.25</v>
       </c>
       <c r="AA67" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB67" t="n">
         <v>11</v>
@@ -10051,7 +10059,7 @@
         <v>17</v>
       </c>
       <c r="AE67" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF67" t="n">
         <v>21</v>
@@ -10072,7 +10080,7 @@
         <v>126</v>
       </c>
       <c r="AL67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM67" t="n">
         <v>21</v>
@@ -10124,22 +10132,22 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="I68" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="J68" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="K68" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L68" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="M68" t="n">
         <v>1.05</v>
@@ -10148,52 +10156,52 @@
         <v>11</v>
       </c>
       <c r="O68" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P68" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q68" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R68" t="n">
         <v>1.88</v>
       </c>
-      <c r="R68" t="n">
-        <v>1.98</v>
-      </c>
       <c r="S68" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="T68" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="U68" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V68" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W68" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X68" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y68" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Z68" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AA68" t="n">
         <v>6</v>
       </c>
       <c r="AB68" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AC68" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD68" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE68" t="n">
         <v>13</v>
@@ -10202,43 +10210,43 @@
         <v>34</v>
       </c>
       <c r="AG68" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH68" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI68" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ68" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>501</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO68" t="n">
         <v>101</v>
       </c>
-      <c r="AK68" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>151</v>
-      </c>
       <c r="AP68" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AQ68" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR68" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="69">
@@ -10315,10 +10323,10 @@
         <v>1.31</v>
       </c>
       <c r="U69" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V69" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W69" t="n">
         <v>1.5</v>
@@ -10431,7 +10439,7 @@
         <v>15</v>
       </c>
       <c r="J70" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="K70" t="n">
         <v>3</v>
@@ -10715,7 +10723,7 @@
         <v>2.8</v>
       </c>
       <c r="H72" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I72" t="n">
         <v>2.3</v>
@@ -10724,7 +10732,7 @@
         <v>3.6</v>
       </c>
       <c r="K72" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L72" t="n">
         <v>3.1</v>
@@ -10733,19 +10741,19 @@
         <v>1.06</v>
       </c>
       <c r="N72" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O72" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P72" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R72" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
@@ -10768,7 +10776,7 @@
         <v>1.83</v>
       </c>
       <c r="AA72" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB72" t="n">
         <v>13</v>
@@ -10786,10 +10794,10 @@
         <v>34</v>
       </c>
       <c r="AG72" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI72" t="n">
         <v>17</v>
@@ -10798,7 +10806,7 @@
         <v>51</v>
       </c>
       <c r="AK72" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL72" t="n">
         <v>7.5</v>
@@ -10816,7 +10824,7 @@
         <v>21</v>
       </c>
       <c r="AQ72" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr"/>
@@ -10889,10 +10897,10 @@
         <v>2.4</v>
       </c>
       <c r="S73" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T73" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U73" t="n">
         <v>2.25</v>
@@ -11001,10 +11009,10 @@
         <v>2.55</v>
       </c>
       <c r="H74" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I74" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J74" t="n">
         <v>3.1</v>
@@ -11013,7 +11021,7 @@
         <v>2.12</v>
       </c>
       <c r="L74" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
@@ -11021,7 +11029,7 @@
         <v>1.23</v>
       </c>
       <c r="P74" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q74" t="n">
         <v>1.7</v>
@@ -11055,7 +11063,7 @@
         <v>9.5</v>
       </c>
       <c r="AD74" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE74" t="n">
         <v>19.5</v>
@@ -11064,10 +11072,10 @@
         <v>25</v>
       </c>
       <c r="AG74" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH74" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AI74" t="n">
         <v>12</v>
@@ -11088,7 +11096,7 @@
         <v>9.5</v>
       </c>
       <c r="AO74" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP74" t="n">
         <v>19.5</v>
@@ -11131,22 +11139,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.75</v>
+        <v>4.55</v>
       </c>
       <c r="H75" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I75" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="J75" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="K75" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L75" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
@@ -11154,10 +11162,10 @@
         <v>1.3</v>
       </c>
       <c r="P75" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R75" t="n">
         <v>1.72</v>
@@ -11177,58 +11185,58 @@
         <v>2.52</v>
       </c>
       <c r="Y75" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AA75" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB75" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC75" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD75" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AE75" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AF75" t="n">
         <v>50</v>
       </c>
       <c r="AG75" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH75" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI75" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ75" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK75" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL75" t="n">
         <v>6.4</v>
       </c>
       <c r="AM75" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AN75" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AO75" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP75" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ75" t="n">
         <v>28</v>
@@ -11268,22 +11276,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H76" t="n">
         <v>4.75</v>
       </c>
       <c r="I76" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="J76" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K76" t="n">
         <v>2.5</v>
       </c>
       <c r="L76" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="M76" t="n">
         <v>1.03</v>
@@ -11292,28 +11300,28 @@
         <v>17</v>
       </c>
       <c r="O76" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P76" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R76" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S76" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T76" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U76" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V76" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W76" t="n">
         <v>1.29</v>
@@ -11322,25 +11330,25 @@
         <v>3.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA76" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB76" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC76" t="n">
         <v>19</v>
       </c>
       <c r="AD76" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AE76" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AF76" t="n">
         <v>41</v>
@@ -11367,10 +11375,10 @@
         <v>7.5</v>
       </c>
       <c r="AN76" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO76" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP76" t="n">
         <v>11</v>
@@ -11413,93 +11421,93 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H77" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I77" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J77" t="n">
         <v>2.38</v>
       </c>
       <c r="K77" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L77" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M77" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N77" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O77" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P77" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="R77" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V77" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W77" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X77" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y77" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA77" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB77" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE77" t="n">
         <v>15</v>
       </c>
       <c r="AF77" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG77" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH77" t="n">
         <v>7</v>
       </c>
       <c r="AI77" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ77" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK77" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL77" t="n">
         <v>11</v>
@@ -11517,7 +11525,7 @@
         <v>41</v>
       </c>
       <c r="AQ77" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR77" t="n">
         <v>1.78</v>
@@ -11558,13 +11566,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H78" t="n">
         <v>2.88</v>
       </c>
       <c r="I78" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J78" t="n">
         <v>3.4</v>
@@ -11620,19 +11628,19 @@
         <v>11</v>
       </c>
       <c r="AC78" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD78" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE78" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF78" t="n">
         <v>41</v>
       </c>
       <c r="AG78" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH78" t="n">
         <v>5.5</v>
@@ -11650,7 +11658,7 @@
         <v>7.5</v>
       </c>
       <c r="AM78" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN78" t="n">
         <v>12</v>
@@ -11665,10 +11673,10 @@
         <v>41</v>
       </c>
       <c r="AR78" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="79">
@@ -11844,28 +11852,28 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I80" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K80" t="n">
         <v>1.95</v>
       </c>
       <c r="L80" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M80" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N80" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O80" t="n">
         <v>1.44</v>
@@ -11903,13 +11911,13 @@
         <v>6</v>
       </c>
       <c r="AB80" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC80" t="n">
         <v>9.5</v>
       </c>
-      <c r="AC80" t="n">
-        <v>10</v>
-      </c>
       <c r="AD80" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE80" t="n">
         <v>21</v>
@@ -11921,7 +11929,7 @@
         <v>6.5</v>
       </c>
       <c r="AH80" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI80" t="n">
         <v>17</v>
@@ -11933,22 +11941,22 @@
         <v>501</v>
       </c>
       <c r="AL80" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM80" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN80" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO80" t="n">
         <v>41</v>
       </c>
       <c r="AP80" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ80" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR80" t="n">
         <v>1.88</v>
@@ -12009,10 +12017,10 @@
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P81" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="Q81" t="n">
         <v>1.55</v>
@@ -12023,18 +12031,18 @@
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="V81" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Z81" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="AA81" t="n">
         <v>15.5</v>
@@ -12404,19 +12412,19 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H84" t="n">
         <v>3.8</v>
       </c>
       <c r="I84" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J84" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K84" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L84" t="n">
         <v>5.5</v>
@@ -12425,7 +12433,7 @@
         <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O84" t="n">
         <v>1.33</v>
@@ -12490,16 +12498,16 @@
         <v>51</v>
       </c>
       <c r="AK84" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL84" t="n">
         <v>12</v>
       </c>
       <c r="AM84" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN84" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO84" t="n">
         <v>51</v>
@@ -12697,19 +12705,19 @@
         <v>1.91</v>
       </c>
       <c r="L86" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M86" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N86" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O86" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P86" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q86" t="n">
         <v>2.7</v>
@@ -12780,7 +12788,7 @@
         <v>12</v>
       </c>
       <c r="AO86" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP86" t="n">
         <v>29</v>
@@ -12789,10 +12797,10 @@
         <v>41</v>
       </c>
       <c r="AR86" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="87">
@@ -12978,7 +12986,7 @@
         <v>4.1</v>
       </c>
       <c r="I88" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J88" t="n">
         <v>1.91</v>
@@ -12996,16 +13004,16 @@
         <v>11</v>
       </c>
       <c r="O88" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P88" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R88" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
@@ -13022,10 +13030,10 @@
         <v>2.75</v>
       </c>
       <c r="Y88" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z88" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA88" t="n">
         <v>6</v>
@@ -13046,10 +13054,10 @@
         <v>34</v>
       </c>
       <c r="AG88" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH88" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI88" t="n">
         <v>23</v>
@@ -13061,13 +13069,13 @@
         <v>101</v>
       </c>
       <c r="AL88" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM88" t="n">
         <v>41</v>
       </c>
       <c r="AN88" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO88" t="n">
         <v>101</v>
@@ -13117,13 +13125,13 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H89" t="n">
         <v>3.6</v>
       </c>
       <c r="I89" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J89" t="n">
         <v>2.88</v>
@@ -13153,16 +13161,16 @@
         <v>2.4</v>
       </c>
       <c r="S89" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T89" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="U89" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V89" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W89" t="n">
         <v>1.29</v>
@@ -13171,10 +13179,10 @@
         <v>3.5</v>
       </c>
       <c r="Y89" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Z89" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AA89" t="n">
         <v>12</v>
@@ -13183,7 +13191,7 @@
         <v>15</v>
       </c>
       <c r="AC89" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD89" t="n">
         <v>23</v>
@@ -13225,7 +13233,7 @@
         <v>19</v>
       </c>
       <c r="AQ89" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr"/>
@@ -13283,31 +13291,31 @@
         <v>1.03</v>
       </c>
       <c r="N90" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O90" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P90" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R90" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S90" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="T90" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="U90" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V90" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W90" t="n">
         <v>1.29</v>
@@ -13316,7 +13324,7 @@
         <v>3.5</v>
       </c>
       <c r="Y90" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Z90" t="n">
         <v>2</v>
@@ -13407,13 +13415,13 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H91" t="n">
         <v>3.4</v>
       </c>
       <c r="I91" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J91" t="n">
         <v>4.33</v>
@@ -13422,37 +13430,37 @@
         <v>2.2</v>
       </c>
       <c r="L91" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M91" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N91" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O91" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P91" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R91" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S91" t="n">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="T91" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="U91" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V91" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W91" t="n">
         <v>1.4</v>
@@ -13461,10 +13469,10 @@
         <v>2.75</v>
       </c>
       <c r="Y91" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z91" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA91" t="n">
         <v>12</v>
@@ -13473,7 +13481,7 @@
         <v>21</v>
       </c>
       <c r="AC91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD91" t="n">
         <v>41</v>
@@ -13491,10 +13499,10 @@
         <v>6.5</v>
       </c>
       <c r="AI91" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ91" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK91" t="n">
         <v>201</v>
@@ -13509,7 +13517,7 @@
         <v>8.5</v>
       </c>
       <c r="AO91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP91" t="n">
         <v>15</v>
@@ -13518,10 +13526,10 @@
         <v>26</v>
       </c>
       <c r="AR91" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="92">
@@ -13586,10 +13594,10 @@
         <v>3</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R92" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S92" t="n">
         <v>3.2</v>
@@ -13705,28 +13713,28 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H93" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I93" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="J93" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="K93" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L93" t="n">
         <v>1.91</v>
       </c>
       <c r="M93" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N93" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O93" t="n">
         <v>1.33</v>
@@ -13741,7 +13749,7 @@
         <v>1.73</v>
       </c>
       <c r="S93" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T93" t="n">
         <v>1.39</v>
@@ -13759,13 +13767,13 @@
         <v>2.63</v>
       </c>
       <c r="Y93" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Z93" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA93" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB93" t="n">
         <v>41</v>
@@ -13774,7 +13782,7 @@
         <v>29</v>
       </c>
       <c r="AD93" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE93" t="n">
         <v>81</v>
@@ -13789,7 +13797,7 @@
         <v>8.5</v>
       </c>
       <c r="AI93" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ93" t="n">
         <v>101</v>
@@ -13804,7 +13812,7 @@
         <v>5.5</v>
       </c>
       <c r="AN93" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO93" t="n">
         <v>8</v>
@@ -13819,7 +13827,7 @@
         <v>1.58</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="94">
@@ -13896,10 +13904,10 @@
         <v>1.42</v>
       </c>
       <c r="U94" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V94" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W94" t="n">
         <v>1.44</v>
@@ -14144,16 +14152,16 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H96" t="n">
         <v>3.25</v>
       </c>
       <c r="I96" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J96" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K96" t="n">
         <v>2.2</v>
@@ -14426,22 +14434,22 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="H98" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I98" t="n">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="J98" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K98" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L98" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="M98" t="n">
         <v>1.05</v>
@@ -14476,61 +14484,61 @@
         <v>2.75</v>
       </c>
       <c r="Y98" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z98" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA98" t="n">
         <v>6.5</v>
       </c>
       <c r="AB98" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AC98" t="n">
         <v>8.5</v>
       </c>
       <c r="AD98" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE98" t="n">
         <v>13</v>
       </c>
       <c r="AF98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG98" t="n">
         <v>10</v>
       </c>
       <c r="AH98" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI98" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ98" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK98" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AL98" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM98" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN98" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AO98" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP98" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ98" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR98" t="inlineStr"/>
       <c r="AS98" t="inlineStr"/>
@@ -14585,10 +14593,10 @@
         <v>3.6</v>
       </c>
       <c r="M99" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O99" t="n">
         <v>1.4</v>
@@ -14605,10 +14613,10 @@
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V99" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W99" t="n">
         <v>1.5</v>
@@ -14708,22 +14716,22 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="H100" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I100" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="J100" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="K100" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L100" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M100" t="n">
         <v>1.05</v>
@@ -14758,55 +14766,55 @@
         <v>2.75</v>
       </c>
       <c r="Y100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z100" t="n">
         <v>1.95</v>
       </c>
-      <c r="Z100" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AA100" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB100" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC100" t="n">
         <v>8.5</v>
       </c>
       <c r="AD100" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE100" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF100" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG100" t="n">
         <v>11</v>
       </c>
       <c r="AH100" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI100" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ100" t="n">
         <v>51</v>
       </c>
       <c r="AK100" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AL100" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN100" t="n">
         <v>15</v>
       </c>
-      <c r="AM100" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN100" t="n">
-        <v>17</v>
-      </c>
       <c r="AO100" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP100" t="n">
         <v>41</v>
@@ -14887,10 +14895,10 @@
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V101" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W101" t="n">
         <v>1.53</v>
@@ -14956,10 +14964,10 @@
         <v>51</v>
       </c>
       <c r="AR101" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -15139,22 +15147,22 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H103" t="n">
         <v>3</v>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J103" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K103" t="n">
         <v>2</v>
       </c>
       <c r="L103" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M103" t="n">
         <v>1.08</v>
@@ -15195,16 +15203,16 @@
         <v>1.8</v>
       </c>
       <c r="AA103" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB103" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC103" t="n">
         <v>10</v>
       </c>
       <c r="AD103" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE103" t="n">
         <v>21</v>
@@ -15228,7 +15236,7 @@
         <v>301</v>
       </c>
       <c r="AL103" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM103" t="n">
         <v>15</v>
@@ -15298,10 +15306,10 @@
         <v>4.5</v>
       </c>
       <c r="M104" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N104" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O104" t="n">
         <v>1.29</v>
@@ -15421,7 +15429,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="H105" t="n">
         <v>3.45</v>
@@ -15430,19 +15438,19 @@
         <v>1.75</v>
       </c>
       <c r="J105" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="K105" t="n">
         <v>2.1</v>
       </c>
       <c r="L105" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="M105" t="n">
         <v>1.07</v>
       </c>
       <c r="N105" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="O105" t="n">
         <v>1.33</v>
@@ -15471,34 +15479,34 @@
         <v>2.6</v>
       </c>
       <c r="Y105" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Z105" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="AA105" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AB105" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC105" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD105" t="n">
         <v>70</v>
       </c>
       <c r="AE105" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AF105" t="n">
         <v>50</v>
       </c>
       <c r="AG105" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AH105" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI105" t="n">
         <v>16.5</v>
@@ -15510,22 +15518,22 @@
         <v>700</v>
       </c>
       <c r="AL105" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AM105" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AN105" t="n">
         <v>8.25</v>
       </c>
       <c r="AO105" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP105" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ105" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR105" t="inlineStr"/>
       <c r="AS105" t="inlineStr"/>
@@ -15703,22 +15711,22 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="H107" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I107" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J107" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="K107" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L107" t="n">
-        <v>4.15</v>
+        <v>3.95</v>
       </c>
       <c r="M107" t="n">
         <v>1.06</v>
@@ -15753,61 +15761,61 @@
         <v>2.65</v>
       </c>
       <c r="Y107" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Z107" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AA107" t="n">
         <v>7.3</v>
       </c>
       <c r="AB107" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AC107" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD107" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE107" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF107" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG107" t="n">
         <v>7.2</v>
       </c>
       <c r="AH107" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AI107" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ107" t="n">
         <v>60</v>
       </c>
       <c r="AK107" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL107" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AM107" t="n">
         <v>20</v>
       </c>
       <c r="AN107" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AO107" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP107" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ107" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR107" t="inlineStr"/>
       <c r="AS107" t="inlineStr"/>
@@ -15847,108 +15855,108 @@
         <v>2.67</v>
       </c>
       <c r="H108" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I108" t="n">
         <v>2.65</v>
       </c>
       <c r="J108" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L108" t="n">
         <v>3.55</v>
       </c>
-      <c r="K108" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="L108" t="n">
-        <v>3.5</v>
-      </c>
       <c r="M108" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N108" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="O108" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P108" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.65</v>
+        <v>2.82</v>
       </c>
       <c r="R108" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="n">
-        <v>4.85</v>
+        <v>5.3</v>
       </c>
       <c r="V108" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="W108" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="X108" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Y108" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="Z108" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AA108" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AB108" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC108" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AC108" t="n">
-        <v>11.25</v>
       </c>
       <c r="AD108" t="n">
         <v>32</v>
       </c>
       <c r="AE108" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF108" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG108" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AH108" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AI108" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ108" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AK108" t="n">
         <v>900</v>
       </c>
       <c r="AL108" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AM108" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AN108" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AN108" t="n">
-        <v>11</v>
       </c>
       <c r="AO108" t="n">
         <v>30</v>
       </c>
       <c r="AP108" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ108" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR108" t="inlineStr"/>
       <c r="AS108" t="inlineStr"/>
@@ -15985,22 +15993,22 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H109" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I109" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="J109" t="n">
         <v>3.5</v>
       </c>
       <c r="K109" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L109" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M109" t="n">
         <v>1.01</v>
@@ -16009,42 +16017,42 @@
         <v>34</v>
       </c>
       <c r="O109" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P109" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="R109" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="V109" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W109" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="X109" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y109" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="Z109" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AA109" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AB109" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC109" t="n">
         <v>15</v>
@@ -16062,7 +16070,7 @@
         <v>34</v>
       </c>
       <c r="AH109" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI109" t="n">
         <v>11</v>
@@ -16071,16 +16079,16 @@
         <v>21</v>
       </c>
       <c r="AK109" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL109" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM109" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN109" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO109" t="n">
         <v>21</v>
@@ -16089,7 +16097,7 @@
         <v>13</v>
       </c>
       <c r="AQ109" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR109" t="inlineStr"/>
       <c r="AS109" t="inlineStr"/>
@@ -16126,107 +16134,111 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="H110" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I110" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J110" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="K110" t="n">
         <v>5</v>
       </c>
       <c r="L110" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M110" t="n">
         <v>1.01</v>
       </c>
       <c r="N110" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O110" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P110" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="R110" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="V110" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="W110" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="X110" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y110" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z110" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="AA110" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AB110" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AC110" t="n">
         <v>21</v>
       </c>
       <c r="AD110" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AE110" t="n">
         <v>15</v>
       </c>
       <c r="AF110" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG110" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH110" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AI110" t="n">
         <v>34</v>
       </c>
       <c r="AJ110" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK110" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>126</v>
+      </c>
       <c r="AL110" t="n">
         <v>101</v>
       </c>
       <c r="AM110" t="n">
-        <v>800</v>
+        <v>151</v>
       </c>
       <c r="AN110" t="n">
+        <v>67</v>
+      </c>
+      <c r="AO110" t="n">
         <v>101</v>
       </c>
-      <c r="AO110" t="inlineStr"/>
       <c r="AP110" t="n">
-        <v>1000</v>
+        <v>151</v>
       </c>
       <c r="AQ110" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AR110" t="inlineStr"/>
       <c r="AS110" t="inlineStr"/>
@@ -16263,22 +16275,22 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="H111" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I111" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="J111" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K111" t="n">
         <v>2.27</v>
       </c>
       <c r="L111" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="M111" t="n">
         <v>1.04</v>
@@ -16287,63 +16299,63 @@
         <v>9</v>
       </c>
       <c r="O111" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P111" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R111" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="V111" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W111" t="n">
         <v>1.35</v>
       </c>
       <c r="X111" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Y111" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Z111" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA111" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB111" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AC111" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD111" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AE111" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF111" t="n">
         <v>37</v>
-      </c>
-      <c r="AF111" t="n">
-        <v>40</v>
       </c>
       <c r="AG111" t="n">
         <v>9</v>
       </c>
       <c r="AH111" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AI111" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ111" t="n">
         <v>65</v>
@@ -16352,19 +16364,19 @@
         <v>450</v>
       </c>
       <c r="AL111" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AM111" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN111" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AO111" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AP111" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ111" t="n">
         <v>25</v>
@@ -16404,54 +16416,54 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="H112" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I112" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="J112" t="n">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="K112" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L112" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="M112" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N112" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="O112" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P112" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="R112" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="V112" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W112" t="n">
         <v>1.44</v>
       </c>
       <c r="X112" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="Y112" t="n">
         <v>1.62</v>
@@ -16460,28 +16472,28 @@
         <v>2.15</v>
       </c>
       <c r="AA112" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AB112" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AC112" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD112" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE112" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AF112" t="n">
         <v>25</v>
       </c>
       <c r="AG112" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AH112" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AI112" t="n">
         <v>12.5</v>
@@ -16493,22 +16505,22 @@
         <v>400</v>
       </c>
       <c r="AL112" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AM112" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AN112" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO112" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AP112" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AQ112" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR112" t="inlineStr"/>
       <c r="AS112" t="inlineStr"/>
@@ -16545,54 +16557,54 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H113" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I113" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J113" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K113" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L113" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M113" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N113" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O113" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P113" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R113" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="V113" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="W113" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X113" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y113" t="n">
         <v>2.38</v>
@@ -16604,25 +16616,25 @@
         <v>5</v>
       </c>
       <c r="AB113" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC113" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD113" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE113" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF113" t="n">
         <v>41</v>
       </c>
       <c r="AG113" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH113" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI113" t="n">
         <v>23</v>
@@ -16634,16 +16646,16 @@
         <v>101</v>
       </c>
       <c r="AL113" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM113" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN113" t="n">
         <v>19</v>
       </c>
       <c r="AO113" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP113" t="n">
         <v>51</v>
@@ -16652,10 +16664,10 @@
         <v>51</v>
       </c>
       <c r="AR113" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="114">
@@ -16690,99 +16702,99 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H114" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I114" t="n">
         <v>2.8</v>
       </c>
       <c r="J114" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K114" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L114" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M114" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N114" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O114" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P114" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q114" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="R114" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="V114" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="W114" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X114" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y114" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="Z114" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AA114" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AB114" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC114" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD114" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE114" t="n">
         <v>23</v>
       </c>
-      <c r="AE114" t="n">
-        <v>21</v>
-      </c>
       <c r="AF114" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG114" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AH114" t="n">
         <v>6</v>
       </c>
       <c r="AI114" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>351</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AM114" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ114" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK114" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL114" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AM114" t="n">
-        <v>15</v>
       </c>
       <c r="AN114" t="n">
         <v>11</v>
@@ -16791,10 +16803,10 @@
         <v>29</v>
       </c>
       <c r="AP114" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ114" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR114" t="inlineStr"/>
       <c r="AS114" t="inlineStr"/>
@@ -16976,69 +16988,69 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H116" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I116" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J116" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K116" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L116" t="n">
         <v>8.5</v>
       </c>
       <c r="M116" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N116" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O116" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P116" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R116" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="V116" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="W116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X116" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z116" t="n">
         <v>1.44</v>
       </c>
-      <c r="X116" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y116" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z116" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AA116" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AB116" t="n">
         <v>5.5</v>
       </c>
       <c r="AC116" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD116" t="n">
         <v>8.5</v>
@@ -17050,16 +17062,16 @@
         <v>41</v>
       </c>
       <c r="AG116" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH116" t="n">
         <v>8.5</v>
       </c>
       <c r="AI116" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ116" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK116" t="n">
         <v>101</v>
@@ -17077,10 +17089,10 @@
         <v>101</v>
       </c>
       <c r="AP116" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AQ116" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR116" t="inlineStr"/>
       <c r="AS116" t="inlineStr"/>
@@ -17117,48 +17129,48 @@
         </is>
       </c>
       <c r="G117" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H117" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I117" t="n">
         <v>2.55</v>
       </c>
-      <c r="H117" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I117" t="n">
-        <v>2.7</v>
-      </c>
       <c r="J117" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K117" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L117" t="n">
         <v>3.2</v>
       </c>
       <c r="M117" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N117" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O117" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P117" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R117" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V117" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W117" t="n">
         <v>1.36</v>
@@ -17167,16 +17179,16 @@
         <v>3</v>
       </c>
       <c r="Y117" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z117" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA117" t="n">
         <v>10</v>
       </c>
       <c r="AB117" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC117" t="n">
         <v>10</v>
@@ -17185,13 +17197,13 @@
         <v>26</v>
       </c>
       <c r="AE117" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF117" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG117" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH117" t="n">
         <v>6.5</v>
@@ -17206,10 +17218,10 @@
         <v>151</v>
       </c>
       <c r="AL117" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM117" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN117" t="n">
         <v>10</v>
@@ -17453,7 +17465,7 @@
         <v>3.4</v>
       </c>
       <c r="Y119" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Z119" t="n">
         <v>2.1</v>
@@ -17544,16 +17556,16 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H120" t="n">
         <v>3.5</v>
       </c>
       <c r="I120" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J120" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K120" t="n">
         <v>2.3</v>
@@ -17594,22 +17606,22 @@
         <v>3.25</v>
       </c>
       <c r="Y120" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z120" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AA120" t="n">
         <v>11</v>
       </c>
       <c r="AB120" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC120" t="n">
         <v>10</v>
       </c>
       <c r="AD120" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE120" t="n">
         <v>19</v>
@@ -17633,7 +17645,7 @@
         <v>126</v>
       </c>
       <c r="AL120" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM120" t="n">
         <v>15</v>
@@ -17642,7 +17654,7 @@
         <v>10</v>
       </c>
       <c r="AO120" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP120" t="n">
         <v>19</v>
@@ -18390,22 +18402,22 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="H126" t="n">
         <v>3.5</v>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="J126" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K126" t="n">
         <v>2.3</v>
       </c>
       <c r="L126" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M126" t="n">
         <v>1.03</v>
@@ -18450,19 +18462,19 @@
         <v>2.38</v>
       </c>
       <c r="AA126" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB126" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC126" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD126" t="n">
         <v>21</v>
       </c>
       <c r="AE126" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF126" t="n">
         <v>21</v>
@@ -18471,7 +18483,7 @@
         <v>15</v>
       </c>
       <c r="AH126" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI126" t="n">
         <v>12</v>
@@ -18483,19 +18495,19 @@
         <v>126</v>
       </c>
       <c r="AL126" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM126" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN126" t="n">
         <v>11</v>
       </c>
       <c r="AO126" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP126" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ126" t="n">
         <v>26</v>
@@ -18556,31 +18568,31 @@
         <v>1.03</v>
       </c>
       <c r="N127" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O127" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P127" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R127" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S127" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="T127" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U127" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V127" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W127" t="n">
         <v>1.3</v>
@@ -18710,18 +18722,18 @@
         <v>3.5</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R128" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V128" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W128" t="n">
         <v>1.4</v>
@@ -18839,7 +18851,7 @@
         <v>13</v>
       </c>
       <c r="M129" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N129" t="n">
         <v>1.01</v>
@@ -19103,22 +19115,22 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H131" t="n">
         <v>3.3</v>
       </c>
       <c r="I131" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J131" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K131" t="n">
         <v>2.1</v>
       </c>
       <c r="L131" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M131" t="n">
         <v>1.06</v>
@@ -19153,16 +19165,16 @@
         <v>2.75</v>
       </c>
       <c r="Y131" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z131" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA131" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB131" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC131" t="n">
         <v>9</v>
@@ -19192,10 +19204,10 @@
         <v>251</v>
       </c>
       <c r="AL131" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM131" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN131" t="n">
         <v>13</v>
@@ -19207,7 +19219,7 @@
         <v>29</v>
       </c>
       <c r="AQ131" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR131" t="inlineStr"/>
       <c r="AS131" t="inlineStr"/>
@@ -19244,48 +19256,48 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H132" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J132" t="n">
         <v>2.88</v>
       </c>
       <c r="K132" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L132" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M132" t="n">
         <v>1.04</v>
       </c>
       <c r="N132" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O132" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P132" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R132" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V132" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W132" t="n">
         <v>1.36</v>
@@ -19303,10 +19315,10 @@
         <v>9</v>
       </c>
       <c r="AB132" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC132" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD132" t="n">
         <v>21</v>
@@ -19315,13 +19327,13 @@
         <v>17</v>
       </c>
       <c r="AF132" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG132" t="n">
         <v>12</v>
       </c>
       <c r="AH132" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI132" t="n">
         <v>13</v>
@@ -19336,13 +19348,13 @@
         <v>11</v>
       </c>
       <c r="AM132" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN132" t="n">
         <v>11</v>
       </c>
       <c r="AO132" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP132" t="n">
         <v>23</v>
@@ -19670,25 +19682,25 @@
         <v>3.3</v>
       </c>
       <c r="H135" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I135" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J135" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K135" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L135" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="M135" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N135" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O135" t="n">
         <v>1.23</v>
@@ -19714,61 +19726,61 @@
         <v>1.36</v>
       </c>
       <c r="X135" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Y135" t="n">
         <v>1.57</v>
       </c>
       <c r="Z135" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="AA135" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB135" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC135" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AD135" t="n">
         <v>45</v>
       </c>
       <c r="AE135" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF135" t="n">
         <v>26</v>
       </c>
-      <c r="AF135" t="n">
-        <v>28</v>
-      </c>
       <c r="AG135" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH135" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AI135" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AJ135" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK135" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AL135" t="n">
         <v>9</v>
       </c>
       <c r="AM135" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AN135" t="n">
         <v>8.5</v>
       </c>
       <c r="AO135" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AP135" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ135" t="n">
         <v>22</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
@@ -698,13 +698,13 @@
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
         <v>5.5</v>
@@ -713,7 +713,7 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -728,40 +728,40 @@
         <v>2.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="T2" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>1.25</v>
       </c>
       <c r="X2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -791,7 +791,7 @@
         <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO2" t="n">
         <v>67</v>
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J3" t="n">
         <v>3.5</v>
@@ -852,7 +852,7 @@
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -881,22 +881,22 @@
         <v>1.3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X3" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA3" t="n">
         <v>9</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
         <v>11</v>
@@ -914,10 +914,10 @@
         <v>9.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>51</v>
@@ -926,13 +926,13 @@
         <v>251</v>
       </c>
       <c r="AL3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM3" t="n">
         <v>12</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO3" t="n">
         <v>23</v>
@@ -978,22 +978,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
         <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1022,28 +1022,28 @@
         <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X4" t="n">
         <v>3.25</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA4" t="n">
         <v>8.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC4" t="n">
         <v>8.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>13</v>
@@ -1055,31 +1055,31 @@
         <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
       </c>
       <c r="AK4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ4" t="n">
         <v>34</v>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H5" t="n">
         <v>4.1</v>
@@ -1128,10 +1128,10 @@
         <v>1.62</v>
       </c>
       <c r="J5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L5" t="n">
         <v>2.2</v>
@@ -1202,7 +1202,7 @@
         <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK5" t="n">
         <v>201</v>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
@@ -1344,7 +1344,7 @@
         <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
         <v>34</v>
@@ -1420,7 +1420,7 @@
         <v>2.38</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1501,7 +1501,7 @@
         <v>15</v>
       </c>
       <c r="AM7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN7" t="n">
         <v>15</v>
@@ -1553,16 +1553,16 @@
         <v>4.33</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
         <v>2.4</v>
@@ -1571,33 +1571,33 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y8" t="n">
         <v>1.7</v>
@@ -1618,31 +1618,31 @@
         <v>41</v>
       </c>
       <c r="AE8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF8" t="n">
         <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>7</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
       </c>
       <c r="AK8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN8" t="n">
         <v>8.5</v>
@@ -1651,7 +1651,7 @@
         <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ8" t="n">
         <v>23</v>
@@ -1691,10 +1691,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
         <v>4.1</v>
@@ -1706,7 +1706,7 @@
         <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -1721,10 +1721,10 @@
         <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1783,7 +1783,7 @@
         <v>15</v>
       </c>
       <c r="AM9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN9" t="n">
         <v>13</v>
@@ -1850,48 +1850,48 @@
         <v>8.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA10" t="n">
         <v>7</v>
       </c>
       <c r="AB10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC10" t="n">
         <v>9</v>
@@ -1900,13 +1900,13 @@
         <v>8</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
         <v>29</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
         <v>10</v>
@@ -1921,13 +1921,13 @@
         <v>451</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO10" t="n">
         <v>126</v>
@@ -1936,7 +1936,7 @@
         <v>67</v>
       </c>
       <c r="AQ10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="G11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J11" t="n">
         <v>5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5.5</v>
       </c>
       <c r="K11" t="n">
         <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -2011,31 +2011,31 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V11" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W11" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X11" t="n">
         <v>2.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD11" t="n">
         <v>51</v>
@@ -2044,13 +2044,13 @@
         <v>41</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI11" t="n">
         <v>19</v>
@@ -2059,19 +2059,19 @@
         <v>67</v>
       </c>
       <c r="AK11" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL11" t="n">
         <v>6</v>
       </c>
       <c r="AM11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AN11" t="n">
         <v>9</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
         <v>17</v>
@@ -2114,22 +2114,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K12" t="n">
         <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
@@ -2144,21 +2144,21 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="R12" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X12" t="n">
         <v>2.75</v>
@@ -2173,25 +2173,25 @@
         <v>6</v>
       </c>
       <c r="AB12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG12" t="n">
         <v>9.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI12" t="n">
         <v>21</v>
@@ -2200,7 +2200,7 @@
         <v>67</v>
       </c>
       <c r="AK12" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL12" t="n">
         <v>17</v>
@@ -2255,22 +2255,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K13" t="n">
         <v>2.5</v>
       </c>
       <c r="L13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2279,16 +2279,16 @@
         <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R13" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S13" t="n">
         <v>2.05</v>
@@ -2297,22 +2297,22 @@
         <v>1.8</v>
       </c>
       <c r="U13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V13" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W13" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X13" t="n">
         <v>3.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA13" t="n">
         <v>7.5</v>
@@ -2321,34 +2321,34 @@
         <v>6.5</v>
       </c>
       <c r="AC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD13" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>11</v>
       </c>
       <c r="AF13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK13" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>41</v>
@@ -2400,13 +2400,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H14" t="n">
         <v>4.75</v>
       </c>
       <c r="I14" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J14" t="n">
         <v>6</v>
@@ -2415,40 +2415,40 @@
         <v>2.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R14" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="T14" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="U14" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V14" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W14" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X14" t="n">
         <v>3.5</v>
@@ -2478,10 +2478,10 @@
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI14" t="n">
         <v>17</v>
@@ -2493,7 +2493,7 @@
         <v>201</v>
       </c>
       <c r="AL14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
@@ -2502,7 +2502,7 @@
         <v>8.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
         <v>11</v>
@@ -2545,22 +2545,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H15" t="n">
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K15" t="n">
         <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2593,31 +2593,31 @@
         <v>1.44</v>
       </c>
       <c r="W15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X15" t="n">
         <v>3.25</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA15" t="n">
         <v>11</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD15" t="n">
         <v>23</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
         <v>23</v>
@@ -2632,7 +2632,7 @@
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK15" t="n">
         <v>126</v>
@@ -2641,19 +2641,19 @@
         <v>12</v>
       </c>
       <c r="AM15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>26</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>23</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2738,7 +2738,7 @@
         <v>1.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X16" t="n">
         <v>3.4</v>
@@ -2835,13 +2835,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J17" t="n">
         <v>3.75</v>
@@ -2850,19 +2850,19 @@
         <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
         <v>1.7</v>
@@ -2877,13 +2877,13 @@
         <v>1.8</v>
       </c>
       <c r="U17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X17" t="n">
         <v>3.25</v>
@@ -2934,7 +2934,7 @@
         <v>11</v>
       </c>
       <c r="AN17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO17" t="n">
         <v>19</v>
@@ -2943,7 +2943,7 @@
         <v>15</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -2980,13 +2980,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H18" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I18" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
         <v>3.25</v>
@@ -3004,10 +3004,10 @@
         <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
         <v>3.4</v>
@@ -3024,10 +3024,10 @@
         <v>1.1</v>
       </c>
       <c r="W18" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X18" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y18" t="n">
         <v>2.63</v>
@@ -3045,16 +3045,16 @@
         <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH18" t="n">
         <v>6</v>
@@ -3155,18 +3155,18 @@
         <v>2.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V19" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W19" t="n">
         <v>1.5</v>
@@ -3175,10 +3175,10 @@
         <v>2.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA19" t="n">
         <v>5.5</v>
@@ -3409,10 +3409,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I21" t="n">
         <v>1.48</v>
@@ -3421,52 +3421,52 @@
         <v>5.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="L21" t="n">
         <v>1.95</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O21" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="R21" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="S21" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="T21" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="U21" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W21" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X21" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AA21" t="n">
         <v>21</v>
@@ -3475,7 +3475,7 @@
         <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD21" t="n">
         <v>67</v>
@@ -3484,13 +3484,13 @@
         <v>41</v>
       </c>
       <c r="AF21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
         <v>15</v>
@@ -3499,25 +3499,25 @@
         <v>41</v>
       </c>
       <c r="AK21" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="n">
         <v>9</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>8.5</v>
       </c>
       <c r="AN21" t="n">
         <v>8.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP21" t="n">
         <v>11</v>
       </c>
       <c r="AQ21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3703,13 +3703,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H23" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I23" t="n">
         <v>2.9</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3</v>
       </c>
       <c r="J23" t="n">
         <v>3.75</v>
@@ -3739,7 +3739,7 @@
         <v>1.3</v>
       </c>
       <c r="S23" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T23" t="n">
         <v>1.12</v>
@@ -3751,7 +3751,7 @@
         <v>1.08</v>
       </c>
       <c r="W23" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X23" t="n">
         <v>2</v>
@@ -3766,10 +3766,10 @@
         <v>5.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD23" t="n">
         <v>29</v>
@@ -3781,10 +3781,10 @@
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI23" t="n">
         <v>26</v>
@@ -3876,16 +3876,16 @@
         <v>7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P24" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R24" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S24" t="n">
         <v>4.4</v>
@@ -3963,10 +3963,10 @@
         <v>51</v>
       </c>
       <c r="AR24" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="25">
@@ -4168,10 +4168,10 @@
         <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N26" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.73</v>
@@ -4188,10 +4188,10 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V26" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="W26" t="n">
         <v>1.75</v>
@@ -4313,16 +4313,16 @@
         <v>5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P27" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R27" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -4333,10 +4333,10 @@
         <v>1.08</v>
       </c>
       <c r="W27" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X27" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="Y27" t="n">
         <v>2.75</v>
@@ -4713,13 +4713,13 @@
         <v>1.57</v>
       </c>
       <c r="H30" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K30" t="n">
         <v>1.91</v>
@@ -4728,10 +4728,10 @@
         <v>8.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.62</v>
@@ -4740,10 +4740,10 @@
         <v>2.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R30" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -4766,7 +4766,7 @@
         <v>1.33</v>
       </c>
       <c r="AA30" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AB30" t="n">
         <v>5.5</v>
@@ -4775,7 +4775,7 @@
         <v>11</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
         <v>21</v>
@@ -4855,7 +4855,7 @@
         <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
@@ -4914,7 +4914,7 @@
         <v>10</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE31" t="n">
         <v>23</v>
@@ -4926,7 +4926,7 @@
         <v>6</v>
       </c>
       <c r="AH31" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI31" t="n">
         <v>23</v>
@@ -5137,16 +5137,16 @@
         </is>
       </c>
       <c r="G33" t="n">
+        <v>7</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J33" t="n">
         <v>6.5</v>
-      </c>
-      <c r="H33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="J33" t="n">
-        <v>6</v>
       </c>
       <c r="K33" t="n">
         <v>2.5</v>
@@ -5158,64 +5158,64 @@
         <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R33" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S33" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="T33" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="U33" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V33" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W33" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X33" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z33" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF33" t="n">
         <v>41</v>
       </c>
       <c r="AG33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH33" t="n">
         <v>9</v>
@@ -5227,19 +5227,19 @@
         <v>51</v>
       </c>
       <c r="AK33" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN33" t="n">
         <v>8.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP33" t="n">
         <v>11</v>
@@ -5303,7 +5303,7 @@
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O34" t="n">
         <v>1.33</v>
@@ -5320,10 +5320,10 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V34" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W34" t="n">
         <v>1.44</v>
@@ -5441,30 +5441,30 @@
         <v>3.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O35" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R35" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V35" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W35" t="n">
         <v>1.4</v>
@@ -5564,25 +5564,29 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I36" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="J36" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="K36" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="L36" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+        <v>3.9</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5.4</v>
+      </c>
       <c r="O36" t="n">
         <v>1.47</v>
       </c>
@@ -5590,7 +5594,7 @@
         <v>2.35</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R36" t="n">
         <v>1.47</v>
@@ -5604,10 +5608,10 @@
         <v>1.16</v>
       </c>
       <c r="W36" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X36" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="Y36" t="n">
         <v>2</v>
@@ -5616,28 +5620,28 @@
         <v>1.65</v>
       </c>
       <c r="AA36" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE36" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF36" t="n">
         <v>40</v>
       </c>
       <c r="AG36" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AH36" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AI36" t="n">
         <v>18</v>
@@ -5649,16 +5653,16 @@
         <v>700</v>
       </c>
       <c r="AL36" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="AM36" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AN36" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AO36" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP36" t="n">
         <v>35</v>
@@ -5701,83 +5705,83 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="I37" t="n">
-        <v>4.35</v>
+        <v>3.8</v>
       </c>
       <c r="J37" t="n">
-        <v>2.47</v>
+        <v>2.72</v>
       </c>
       <c r="K37" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="L37" t="n">
-        <v>4.9</v>
+        <v>4.45</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="P37" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="R37" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="V37" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W37" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X37" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA37" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AB37" t="n">
-        <v>7.2</v>
+        <v>8.25</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD37" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AF37" t="n">
         <v>40</v>
       </c>
       <c r="AG37" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="AH37" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="AI37" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ37" t="n">
         <v>120</v>
@@ -5786,22 +5790,22 @@
         <v>900</v>
       </c>
       <c r="AL37" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM37" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AN37" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AP37" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AQ37" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
@@ -5841,34 +5845,34 @@
         <v>2.1</v>
       </c>
       <c r="H38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I38" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3.5</v>
       </c>
       <c r="J38" t="n">
         <v>2.75</v>
       </c>
       <c r="K38" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N38" t="n">
+        <v>13</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P38" t="n">
         <v>4</v>
       </c>
-      <c r="M38" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N38" t="n">
-        <v>11</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3.75</v>
-      </c>
       <c r="Q38" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R38" t="n">
         <v>2</v>
@@ -5876,10 +5880,10 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V38" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W38" t="n">
         <v>1.36</v>
@@ -5888,13 +5892,13 @@
         <v>3</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Z38" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB38" t="n">
         <v>11</v>
@@ -5906,13 +5910,13 @@
         <v>19</v>
       </c>
       <c r="AE38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF38" t="n">
         <v>23</v>
       </c>
       <c r="AG38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH38" t="n">
         <v>6.5</v>
@@ -5924,10 +5928,10 @@
         <v>41</v>
       </c>
       <c r="AK38" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM38" t="n">
         <v>19</v>
@@ -5936,13 +5940,13 @@
         <v>12</v>
       </c>
       <c r="AO38" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP38" t="n">
         <v>26</v>
       </c>
       <c r="AQ38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr"/>
@@ -5979,19 +5983,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H39" t="n">
         <v>4.75</v>
       </c>
       <c r="I39" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K39" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L39" t="n">
         <v>1.95</v>
@@ -6003,28 +6007,28 @@
         <v>15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P39" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R39" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S39" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T39" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U39" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V39" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W39" t="n">
         <v>1.3</v>
@@ -6045,7 +6049,7 @@
         <v>34</v>
       </c>
       <c r="AC39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD39" t="n">
         <v>67</v>
@@ -6124,63 +6128,67 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H40" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I40" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J40" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K40" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L40" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
         <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O40" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P40" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y40" t="n">
         <v>1.67</v>
       </c>
-      <c r="R40" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X40" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>1.7</v>
-      </c>
       <c r="Z40" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB40" t="n">
         <v>9</v>
@@ -6192,16 +6200,16 @@
         <v>13</v>
       </c>
       <c r="AE40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF40" t="n">
         <v>21</v>
       </c>
       <c r="AG40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH40" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI40" t="n">
         <v>15</v>
@@ -6265,13 +6273,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H41" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I41" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J41" t="n">
         <v>4.5</v>
@@ -6283,33 +6291,33 @@
         <v>2.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O41" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P41" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="R41" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V41" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W41" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X41" t="n">
         <v>2.75</v>
@@ -6339,7 +6347,7 @@
         <v>41</v>
       </c>
       <c r="AG41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH41" t="n">
         <v>6.5</v>
@@ -6351,10 +6359,10 @@
         <v>51</v>
       </c>
       <c r="AK41" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM41" t="n">
         <v>9</v>
@@ -6450,7 +6458,7 @@
         <v>1.44</v>
       </c>
       <c r="W42" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X42" t="n">
         <v>3.25</v>
@@ -6591,10 +6599,10 @@
         <v>1.25</v>
       </c>
       <c r="W43" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X43" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y43" t="n">
         <v>1.83</v>
@@ -6718,10 +6726,10 @@
         <v>3.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R44" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -6732,10 +6740,10 @@
         <v>1.25</v>
       </c>
       <c r="W44" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X44" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y44" t="n">
         <v>1.83</v>
@@ -6829,13 +6837,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
         <v>3.8</v>
       </c>
       <c r="I45" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J45" t="n">
         <v>2.3</v>
@@ -6847,10 +6855,10 @@
         <v>5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O45" t="n">
         <v>1.25</v>
@@ -6859,18 +6867,18 @@
         <v>3.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R45" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W45" t="n">
         <v>1.36</v>
@@ -6888,7 +6896,7 @@
         <v>7.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC45" t="n">
         <v>8.5</v>
@@ -6906,7 +6914,7 @@
         <v>11</v>
       </c>
       <c r="AH45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI45" t="n">
         <v>15</v>
@@ -6930,7 +6938,7 @@
         <v>51</v>
       </c>
       <c r="AP45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ45" t="n">
         <v>41</v>
@@ -6982,10 +6990,10 @@
         <v>1.8</v>
       </c>
       <c r="K46" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M46" t="n">
         <v>1.05</v>
@@ -6994,87 +7002,87 @@
         <v>11</v>
       </c>
       <c r="O46" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P46" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R46" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V46" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W46" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X46" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AA46" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB46" t="n">
         <v>5.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD46" t="n">
         <v>7.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF46" t="n">
         <v>34</v>
       </c>
       <c r="AG46" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH46" t="n">
         <v>10</v>
       </c>
       <c r="AI46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ46" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK46" t="n">
         <v>1250</v>
       </c>
       <c r="AL46" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM46" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN46" t="n">
         <v>29</v>
       </c>
       <c r="AO46" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AP46" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AQ46" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr"/>
@@ -7111,22 +7119,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H47" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I47" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="J47" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K47" t="n">
         <v>1.95</v>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M47" t="n">
         <v>1.08</v>
@@ -7167,10 +7175,10 @@
         <v>1.67</v>
       </c>
       <c r="AA47" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC47" t="n">
         <v>13</v>
@@ -7188,7 +7196,7 @@
         <v>7</v>
       </c>
       <c r="AH47" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI47" t="n">
         <v>19</v>
@@ -7203,19 +7211,19 @@
         <v>6</v>
       </c>
       <c r="AM47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN47" t="n">
         <v>9.5</v>
       </c>
-      <c r="AN47" t="n">
-        <v>10</v>
-      </c>
       <c r="AO47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP47" t="n">
         <v>21</v>
       </c>
       <c r="AQ47" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR47" t="n">
         <v>1.83</v>
@@ -7256,22 +7264,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H48" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="J48" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K48" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M48" t="n">
         <v>1.08</v>
@@ -7280,10 +7288,10 @@
         <v>8</v>
       </c>
       <c r="O48" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P48" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q48" t="n">
         <v>2.35</v>
@@ -7304,10 +7312,10 @@
         <v>1.2</v>
       </c>
       <c r="W48" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X48" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y48" t="n">
         <v>2.2</v>
@@ -7319,10 +7327,10 @@
         <v>11</v>
       </c>
       <c r="AB48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD48" t="n">
         <v>51</v>
@@ -7334,10 +7342,10 @@
         <v>51</v>
       </c>
       <c r="AG48" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI48" t="n">
         <v>21</v>
@@ -7367,7 +7375,7 @@
         <v>34</v>
       </c>
       <c r="AR48" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AS48" t="n">
         <v>2.1</v>
@@ -7665,10 +7673,10 @@
         <v>41</v>
       </c>
       <c r="AR50" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="51">
@@ -7855,7 +7863,7 @@
         <v>1.53</v>
       </c>
       <c r="H52" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I52" t="n">
         <v>5.75</v>
@@ -7864,51 +7872,51 @@
         <v>2.2</v>
       </c>
       <c r="K52" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L52" t="n">
         <v>6.5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O52" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="P52" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="R52" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="V52" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="W52" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X52" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA52" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB52" t="n">
         <v>6.5</v>
@@ -7926,7 +7934,7 @@
         <v>34</v>
       </c>
       <c r="AG52" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH52" t="n">
         <v>7.5</v>
@@ -7935,7 +7943,7 @@
         <v>21</v>
       </c>
       <c r="AJ52" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK52" t="n">
         <v>351</v>
@@ -7947,7 +7955,7 @@
         <v>29</v>
       </c>
       <c r="AN52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO52" t="n">
         <v>67</v>
@@ -8134,7 +8142,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H54" t="n">
         <v>3.15</v>
@@ -8146,54 +8154,54 @@
         <v>3.45</v>
       </c>
       <c r="K54" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L54" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M54" t="n">
         <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="O54" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="R54" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="V54" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W54" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X54" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Z54" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="AA54" t="n">
         <v>9.75</v>
       </c>
       <c r="AB54" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC54" t="n">
         <v>10.75</v>
@@ -8208,37 +8216,37 @@
         <v>30</v>
       </c>
       <c r="AG54" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AH54" t="n">
         <v>6.4</v>
       </c>
       <c r="AI54" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ54" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK54" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AL54" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AM54" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AN54" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AO54" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP54" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ54" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AR54" t="inlineStr"/>
       <c r="AS54" t="inlineStr"/>
@@ -8416,28 +8424,28 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H56" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I56" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J56" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="K56" t="n">
         <v>2.15</v>
       </c>
       <c r="L56" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M56" t="n">
         <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="O56" t="n">
         <v>1.33</v>
@@ -8446,7 +8454,7 @@
         <v>3.15</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R56" t="n">
         <v>1.78</v>
@@ -8454,43 +8462,43 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="V56" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W56" t="n">
         <v>1.39</v>
       </c>
       <c r="X56" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AA56" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AB56" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AC56" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD56" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE56" t="n">
         <v>19</v>
       </c>
       <c r="AF56" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG56" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AH56" t="n">
         <v>6.7</v>
@@ -8502,13 +8510,13 @@
         <v>75</v>
       </c>
       <c r="AK56" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL56" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AM56" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN56" t="n">
         <v>12</v>
@@ -8517,7 +8525,7 @@
         <v>45</v>
       </c>
       <c r="AP56" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ56" t="n">
         <v>40</v>
@@ -8578,7 +8586,7 @@
         <v>1.06</v>
       </c>
       <c r="N57" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O57" t="n">
         <v>1.3</v>
@@ -8740,10 +8748,10 @@
         <v>1.85</v>
       </c>
       <c r="U58" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V58" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W58" t="n">
         <v>1.33</v>
@@ -8843,19 +8851,19 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H59" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I59" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J59" t="n">
         <v>2</v>
       </c>
       <c r="K59" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L59" t="n">
         <v>6</v>
@@ -8867,73 +8875,73 @@
         <v>15</v>
       </c>
       <c r="O59" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P59" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="R59" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T59" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U59" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V59" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W59" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X59" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z59" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA59" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC59" t="n">
         <v>8.5</v>
       </c>
       <c r="AD59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF59" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG59" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH59" t="n">
         <v>8.5</v>
       </c>
       <c r="AI59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ59" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK59" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL59" t="n">
         <v>19</v>
@@ -8988,19 +8996,19 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H60" t="n">
         <v>4.33</v>
       </c>
       <c r="I60" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J60" t="n">
         <v>1.95</v>
       </c>
       <c r="K60" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L60" t="n">
         <v>7</v>
@@ -9032,22 +9040,22 @@
         <v>1.4</v>
       </c>
       <c r="W60" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X60" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y60" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA60" t="n">
         <v>7</v>
       </c>
       <c r="AB60" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC60" t="n">
         <v>8.5</v>
@@ -9059,7 +9067,7 @@
         <v>12</v>
       </c>
       <c r="AF60" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG60" t="n">
         <v>12</v>
@@ -9068,10 +9076,10 @@
         <v>8.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ60" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK60" t="n">
         <v>351</v>
@@ -9147,30 +9155,30 @@
         <v>4.75</v>
       </c>
       <c r="M61" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N61" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O61" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P61" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="R61" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V61" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W61" t="n">
         <v>1.44</v>
@@ -9179,10 +9187,10 @@
         <v>2.63</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA61" t="n">
         <v>6.5</v>
@@ -9203,10 +9211,10 @@
         <v>29</v>
       </c>
       <c r="AG61" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH61" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI61" t="n">
         <v>17</v>
@@ -9227,10 +9235,10 @@
         <v>15</v>
       </c>
       <c r="AO61" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP61" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ61" t="n">
         <v>41</v>
@@ -9270,16 +9278,16 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H62" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I62" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J62" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K62" t="n">
         <v>2.4</v>
@@ -9294,34 +9302,34 @@
         <v>17</v>
       </c>
       <c r="O62" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P62" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R62" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T62" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U62" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V62" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W62" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X62" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y62" t="n">
         <v>1.57</v>
@@ -9330,7 +9338,7 @@
         <v>2.25</v>
       </c>
       <c r="AA62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB62" t="n">
         <v>10</v>
@@ -9415,13 +9423,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H63" t="n">
         <v>3.7</v>
       </c>
       <c r="I63" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J63" t="n">
         <v>2.6</v>
@@ -9451,10 +9459,10 @@
         <v>2.25</v>
       </c>
       <c r="S63" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T63" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U63" t="n">
         <v>2.5</v>
@@ -9511,7 +9519,7 @@
         <v>13</v>
       </c>
       <c r="AM63" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN63" t="n">
         <v>12</v>
@@ -9520,7 +9528,7 @@
         <v>41</v>
       </c>
       <c r="AP63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ63" t="n">
         <v>29</v>
@@ -9560,70 +9568,70 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H64" t="n">
         <v>4.1</v>
       </c>
       <c r="I64" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J64" t="n">
         <v>2.3</v>
       </c>
       <c r="K64" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L64" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M64" t="n">
         <v>1.03</v>
       </c>
       <c r="N64" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O64" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P64" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R64" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z64" t="n">
         <v>2.25</v>
       </c>
-      <c r="S64" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T64" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U64" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V64" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W64" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X64" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>2.2</v>
-      </c>
       <c r="AA64" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB64" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC64" t="n">
         <v>8.5</v>
@@ -9638,7 +9646,7 @@
         <v>21</v>
       </c>
       <c r="AG64" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH64" t="n">
         <v>8</v>
@@ -9650,7 +9658,7 @@
         <v>41</v>
       </c>
       <c r="AK64" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL64" t="n">
         <v>15</v>
@@ -9668,7 +9676,7 @@
         <v>29</v>
       </c>
       <c r="AQ64" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR64" t="inlineStr"/>
       <c r="AS64" t="inlineStr"/>
@@ -9711,13 +9719,13 @@
         <v>3.75</v>
       </c>
       <c r="I65" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J65" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K65" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L65" t="n">
         <v>4.75</v>
@@ -9785,7 +9793,7 @@
         <v>7.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ65" t="n">
         <v>51</v>
@@ -9864,10 +9872,10 @@
         <v>5</v>
       </c>
       <c r="M66" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O66" t="n">
         <v>1.2</v>
@@ -9876,7 +9884,7 @@
         <v>4.33</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R66" t="n">
         <v>2.15</v>
@@ -9993,7 +10001,7 @@
         <v>3.75</v>
       </c>
       <c r="I67" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J67" t="n">
         <v>2.5</v>
@@ -10017,7 +10025,7 @@
         <v>4.5</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="R67" t="n">
         <v>2.25</v>
@@ -10132,22 +10140,22 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H68" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I68" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J68" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="K68" t="n">
         <v>2.3</v>
       </c>
       <c r="L68" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M68" t="n">
         <v>1.05</v>
@@ -10162,16 +10170,16 @@
         <v>3.5</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R68" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S68" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="T68" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="U68" t="n">
         <v>3.4</v>
@@ -10186,10 +10194,10 @@
         <v>2.75</v>
       </c>
       <c r="Y68" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z68" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA68" t="n">
         <v>6</v>
@@ -10213,7 +10221,7 @@
         <v>9.5</v>
       </c>
       <c r="AH68" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI68" t="n">
         <v>23</v>
@@ -10225,13 +10233,13 @@
         <v>501</v>
       </c>
       <c r="AL68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM68" t="n">
         <v>41</v>
       </c>
       <c r="AN68" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO68" t="n">
         <v>101</v>
@@ -10243,10 +10251,10 @@
         <v>67</v>
       </c>
       <c r="AR68" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="69">
@@ -10299,10 +10307,10 @@
         <v>2.75</v>
       </c>
       <c r="M69" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O69" t="n">
         <v>1.4</v>
@@ -10320,7 +10328,7 @@
         <v>3.45</v>
       </c>
       <c r="T69" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="U69" t="n">
         <v>4.33</v>
@@ -10430,40 +10438,40 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="H70" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I70" t="n">
         <v>15</v>
       </c>
       <c r="J70" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="K70" t="n">
         <v>3</v>
       </c>
       <c r="L70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M70" t="n">
         <v>1.02</v>
       </c>
       <c r="N70" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O70" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P70" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R70" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S70" t="n">
         <v>1.83</v>
@@ -10484,16 +10492,16 @@
         <v>3.75</v>
       </c>
       <c r="Y70" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AA70" t="n">
         <v>8.5</v>
       </c>
       <c r="AB70" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC70" t="n">
         <v>11</v>
@@ -10502,22 +10510,22 @@
         <v>6.5</v>
       </c>
       <c r="AE70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF70" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG70" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH70" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI70" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ70" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK70" t="n">
         <v>501</v>
@@ -10529,10 +10537,10 @@
         <v>67</v>
       </c>
       <c r="AN70" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO70" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AP70" t="n">
         <v>101</v>
@@ -10541,10 +10549,10 @@
         <v>81</v>
       </c>
       <c r="AR70" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AS70" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="71">
@@ -10588,7 +10596,7 @@
         <v>3.1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K71" t="n">
         <v>2.2</v>
@@ -10720,13 +10728,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H72" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I72" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J72" t="n">
         <v>3.6</v>
@@ -10744,16 +10752,16 @@
         <v>9.5</v>
       </c>
       <c r="O72" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P72" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R72" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
@@ -10797,7 +10805,7 @@
         <v>9.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI72" t="n">
         <v>17</v>
@@ -10806,7 +10814,7 @@
         <v>51</v>
       </c>
       <c r="AK72" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL72" t="n">
         <v>7.5</v>
@@ -10818,13 +10826,13 @@
         <v>9.5</v>
       </c>
       <c r="AO72" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP72" t="n">
         <v>21</v>
       </c>
       <c r="AQ72" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr"/>
@@ -10897,10 +10905,10 @@
         <v>2.4</v>
       </c>
       <c r="S73" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T73" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U73" t="n">
         <v>2.25</v>
@@ -11006,22 +11014,22 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="H74" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="I74" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="J74" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K74" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L74" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
@@ -11040,66 +11048,66 @@
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="V74" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="Z74" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="AA74" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AB74" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM74" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>300</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>14</v>
       </c>
       <c r="AN74" t="n">
         <v>9.5</v>
       </c>
       <c r="AO74" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AP74" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AQ74" t="n">
         <v>25</v>
@@ -11276,13 +11284,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H76" t="n">
         <v>4.75</v>
       </c>
       <c r="I76" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="J76" t="n">
         <v>6.5</v>
@@ -11300,28 +11308,28 @@
         <v>17</v>
       </c>
       <c r="O76" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P76" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R76" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S76" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T76" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="U76" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V76" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W76" t="n">
         <v>1.29</v>
@@ -11330,13 +11338,13 @@
         <v>3.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA76" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB76" t="n">
         <v>34</v>
@@ -11369,7 +11377,7 @@
         <v>251</v>
       </c>
       <c r="AL76" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM76" t="n">
         <v>7.5</v>
@@ -11378,7 +11386,7 @@
         <v>8.5</v>
       </c>
       <c r="AO76" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP76" t="n">
         <v>11</v>
@@ -11421,48 +11429,48 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H77" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I77" t="n">
         <v>4.75</v>
       </c>
       <c r="J77" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K77" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L77" t="n">
         <v>5.5</v>
       </c>
       <c r="M77" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O77" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P77" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R77" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V77" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W77" t="n">
         <v>1.44</v>
@@ -11471,13 +11479,13 @@
         <v>2.63</v>
       </c>
       <c r="Y77" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA77" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB77" t="n">
         <v>7.5</v>
@@ -11486,7 +11494,7 @@
         <v>8.5</v>
       </c>
       <c r="AD77" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE77" t="n">
         <v>15</v>
@@ -11495,10 +11503,10 @@
         <v>29</v>
       </c>
       <c r="AG77" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH77" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI77" t="n">
         <v>19</v>
@@ -11507,7 +11515,7 @@
         <v>67</v>
       </c>
       <c r="AK77" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL77" t="n">
         <v>11</v>
@@ -11516,7 +11524,7 @@
         <v>23</v>
       </c>
       <c r="AN77" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO77" t="n">
         <v>51</v>
@@ -11634,13 +11642,13 @@
         <v>26</v>
       </c>
       <c r="AE78" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF78" t="n">
         <v>41</v>
       </c>
       <c r="AG78" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH78" t="n">
         <v>5.5</v>
@@ -11729,7 +11737,7 @@
         <v>4.5</v>
       </c>
       <c r="M79" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N79" t="n">
         <v>9</v>
@@ -11738,13 +11746,13 @@
         <v>1.33</v>
       </c>
       <c r="P79" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R79" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
@@ -11752,7 +11760,7 @@
         <v>3.75</v>
       </c>
       <c r="V79" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W79" t="n">
         <v>1.44</v>
@@ -11855,10 +11863,10 @@
         <v>2.1</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J80" t="n">
         <v>2.88</v>
@@ -11870,22 +11878,22 @@
         <v>4.5</v>
       </c>
       <c r="M80" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N80" t="n">
         <v>6.5</v>
       </c>
       <c r="O80" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P80" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R80" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
@@ -11893,7 +11901,7 @@
         <v>5</v>
       </c>
       <c r="V80" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="W80" t="n">
         <v>1.57</v>
@@ -11902,16 +11910,16 @@
         <v>2.25</v>
       </c>
       <c r="Y80" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Z80" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA80" t="n">
         <v>6</v>
       </c>
       <c r="AB80" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC80" t="n">
         <v>9.5</v>
@@ -11959,10 +11967,10 @@
         <v>51</v>
       </c>
       <c r="AR80" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="81">
@@ -12000,7 +12008,7 @@
         <v>6</v>
       </c>
       <c r="H81" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I81" t="n">
         <v>1.4</v>
@@ -12009,10 +12017,10 @@
         <v>5.7</v>
       </c>
       <c r="K81" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L81" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
@@ -12031,7 +12039,7 @@
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>2.48</v>
+        <v>2.49</v>
       </c>
       <c r="V81" t="n">
         <v>1.5</v>
@@ -12039,10 +12047,10 @@
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Z81" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AA81" t="n">
         <v>15.5</v>
@@ -12060,34 +12068,34 @@
         <v>45</v>
       </c>
       <c r="AF81" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG81" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AI81" t="n">
         <v>14</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>14.5</v>
       </c>
       <c r="AJ81" t="n">
         <v>55</v>
       </c>
       <c r="AK81" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AL81" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AM81" t="n">
         <v>6.3</v>
       </c>
       <c r="AN81" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AO81" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AP81" t="n">
         <v>9.25</v>
@@ -12412,22 +12420,22 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="H84" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I84" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="J84" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="K84" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L84" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M84" t="n">
         <v>1.06</v>
@@ -12436,78 +12444,78 @@
         <v>10</v>
       </c>
       <c r="O84" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P84" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R84" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V84" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W84" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X84" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y84" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z84" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA84" t="n">
         <v>6.5</v>
       </c>
       <c r="AB84" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC84" t="n">
         <v>8.5</v>
       </c>
       <c r="AD84" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE84" t="n">
         <v>13</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>15</v>
       </c>
       <c r="AF84" t="n">
         <v>29</v>
       </c>
       <c r="AG84" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH84" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI84" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>401</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN84" t="n">
         <v>17</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>351</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM84" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN84" t="n">
-        <v>15</v>
       </c>
       <c r="AO84" t="n">
         <v>51</v>
@@ -12708,22 +12716,22 @@
         <v>3.75</v>
       </c>
       <c r="M86" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O86" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P86" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R86" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
@@ -12797,10 +12805,10 @@
         <v>41</v>
       </c>
       <c r="AR86" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="87">
@@ -12835,16 +12843,16 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H87" t="n">
         <v>2.88</v>
       </c>
       <c r="I87" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J87" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K87" t="n">
         <v>1.83</v>
@@ -12853,10 +12861,10 @@
         <v>3.75</v>
       </c>
       <c r="M87" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N87" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O87" t="n">
         <v>1.62</v>
@@ -12873,10 +12881,10 @@
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V87" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W87" t="n">
         <v>1.67</v>
@@ -12885,10 +12893,10 @@
         <v>2.1</v>
       </c>
       <c r="Y87" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z87" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA87" t="n">
         <v>6</v>
@@ -12909,7 +12917,7 @@
         <v>41</v>
       </c>
       <c r="AG87" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH87" t="n">
         <v>6</v>
@@ -12939,7 +12947,7 @@
         <v>29</v>
       </c>
       <c r="AQ87" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR87" t="n">
         <v>1.95</v>
@@ -12983,25 +12991,25 @@
         <v>1.33</v>
       </c>
       <c r="H88" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I88" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J88" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K88" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L88" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M88" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N88" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O88" t="n">
         <v>1.25</v>
@@ -13024,10 +13032,10 @@
         <v>1.33</v>
       </c>
       <c r="W88" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X88" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y88" t="n">
         <v>2.2</v>
@@ -13057,7 +13065,7 @@
         <v>10</v>
       </c>
       <c r="AH88" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI88" t="n">
         <v>23</v>
@@ -13069,13 +13077,13 @@
         <v>101</v>
       </c>
       <c r="AL88" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AM88" t="n">
         <v>41</v>
       </c>
       <c r="AN88" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO88" t="n">
         <v>101</v>
@@ -13125,22 +13133,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="H89" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I89" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J89" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K89" t="n">
         <v>2.4</v>
       </c>
       <c r="L89" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M89" t="n">
         <v>1.03</v>
@@ -13188,19 +13196,19 @@
         <v>12</v>
       </c>
       <c r="AB89" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE89" t="n">
         <v>15</v>
       </c>
-      <c r="AC89" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD89" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>17</v>
-      </c>
       <c r="AF89" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG89" t="n">
         <v>19</v>
@@ -13218,22 +13226,22 @@
         <v>101</v>
       </c>
       <c r="AL89" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM89" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN89" t="n">
         <v>11</v>
       </c>
       <c r="AO89" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP89" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ89" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr"/>
@@ -13270,16 +13278,16 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H90" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I90" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J90" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K90" t="n">
         <v>2.5</v>
@@ -13330,46 +13338,46 @@
         <v>2</v>
       </c>
       <c r="AA90" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB90" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC90" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD90" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE90" t="n">
         <v>11</v>
       </c>
       <c r="AF90" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG90" t="n">
         <v>15</v>
       </c>
       <c r="AH90" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI90" t="n">
         <v>17</v>
       </c>
       <c r="AJ90" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK90" t="n">
         <v>201</v>
       </c>
       <c r="AL90" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM90" t="n">
         <v>34</v>
       </c>
       <c r="AN90" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO90" t="n">
         <v>67</v>
@@ -13433,22 +13441,22 @@
         <v>2.6</v>
       </c>
       <c r="M91" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O91" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P91" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R91" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S91" t="n">
         <v>2.8</v>
@@ -13713,28 +13721,28 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="H93" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I93" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="J93" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="K93" t="n">
         <v>2.2</v>
       </c>
       <c r="L93" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="M93" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N93" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O93" t="n">
         <v>1.33</v>
@@ -13743,16 +13751,16 @@
         <v>3.25</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R93" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S93" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T93" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="U93" t="n">
         <v>3.75</v>
@@ -13794,7 +13802,7 @@
         <v>8</v>
       </c>
       <c r="AH93" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI93" t="n">
         <v>26</v>
@@ -13815,7 +13823,7 @@
         <v>9.5</v>
       </c>
       <c r="AO93" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP93" t="n">
         <v>15</v>
@@ -13824,10 +13832,10 @@
         <v>41</v>
       </c>
       <c r="AR93" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.41</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="94">
@@ -13883,7 +13891,7 @@
         <v>1.06</v>
       </c>
       <c r="N94" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O94" t="n">
         <v>1.33</v>
@@ -14029,10 +14037,10 @@
         <v>3.5</v>
       </c>
       <c r="M95" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N95" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O95" t="n">
         <v>1.3</v>
@@ -14041,30 +14049,30 @@
         <v>3.4</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R95" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V95" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W95" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X95" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y95" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z95" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA95" t="n">
         <v>8.5</v>
@@ -14085,7 +14093,7 @@
         <v>29</v>
       </c>
       <c r="AG95" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH95" t="n">
         <v>6</v>
@@ -14094,13 +14102,13 @@
         <v>13</v>
       </c>
       <c r="AJ95" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK95" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL95" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM95" t="n">
         <v>15</v>
@@ -14115,7 +14123,7 @@
         <v>23</v>
       </c>
       <c r="AQ95" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR95" t="inlineStr"/>
       <c r="AS95" t="inlineStr"/>
@@ -14152,16 +14160,16 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H96" t="n">
         <v>3.25</v>
       </c>
       <c r="I96" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J96" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K96" t="n">
         <v>2.2</v>
@@ -14182,10 +14190,10 @@
         <v>3.75</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R96" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
@@ -14223,7 +14231,7 @@
         <v>21</v>
       </c>
       <c r="AF96" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG96" t="n">
         <v>11</v>
@@ -14241,7 +14249,7 @@
         <v>151</v>
       </c>
       <c r="AL96" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM96" t="n">
         <v>13</v>
@@ -14296,45 +14304,45 @@
         <v>5.75</v>
       </c>
       <c r="H97" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I97" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J97" t="n">
         <v>5.5</v>
       </c>
       <c r="K97" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L97" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M97" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N97" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O97" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P97" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R97" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V97" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W97" t="n">
         <v>1.33</v>
@@ -14343,10 +14351,10 @@
         <v>3.25</v>
       </c>
       <c r="Y97" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z97" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA97" t="n">
         <v>17</v>
@@ -14367,7 +14375,7 @@
         <v>41</v>
       </c>
       <c r="AG97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH97" t="n">
         <v>7.5</v>
@@ -14376,13 +14384,13 @@
         <v>15</v>
       </c>
       <c r="AJ97" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK97" t="n">
         <v>201</v>
       </c>
       <c r="AL97" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM97" t="n">
         <v>8</v>
@@ -14394,7 +14402,7 @@
         <v>12</v>
       </c>
       <c r="AP97" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ97" t="n">
         <v>23</v>
@@ -14434,13 +14442,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H98" t="n">
         <v>3.75</v>
       </c>
       <c r="I98" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J98" t="n">
         <v>2.25</v>
@@ -14464,18 +14472,18 @@
         <v>3.5</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R98" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V98" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W98" t="n">
         <v>1.4</v>
@@ -14505,7 +14513,7 @@
         <v>13</v>
       </c>
       <c r="AF98" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG98" t="n">
         <v>10</v>
@@ -14520,13 +14528,13 @@
         <v>51</v>
       </c>
       <c r="AK98" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL98" t="n">
         <v>13</v>
       </c>
       <c r="AM98" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN98" t="n">
         <v>17</v>
@@ -14575,40 +14583,40 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H99" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J99" t="n">
         <v>3.2</v>
       </c>
       <c r="K99" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L99" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M99" t="n">
         <v>1.08</v>
       </c>
       <c r="N99" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O99" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P99" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R99" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
@@ -14622,16 +14630,16 @@
         <v>1.5</v>
       </c>
       <c r="X99" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="Y99" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z99" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA99" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB99" t="n">
         <v>11</v>
@@ -14649,40 +14657,44 @@
         <v>34</v>
       </c>
       <c r="AG99" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH99" t="n">
         <v>6</v>
       </c>
       <c r="AI99" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ99" t="n">
         <v>51</v>
       </c>
       <c r="AK99" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL99" t="n">
         <v>8</v>
       </c>
       <c r="AM99" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN99" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO99" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP99" t="n">
         <v>29</v>
       </c>
-      <c r="AP99" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ99" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR99" t="inlineStr"/>
-      <c r="AS99" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -14716,7 +14728,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H100" t="n">
         <v>3.8</v>
@@ -14725,7 +14737,7 @@
         <v>4.5</v>
       </c>
       <c r="J100" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K100" t="n">
         <v>2.2</v>
@@ -14760,16 +14772,16 @@
         <v>1.33</v>
       </c>
       <c r="W100" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X100" t="n">
         <v>2.75</v>
       </c>
       <c r="Y100" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z100" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA100" t="n">
         <v>7</v>
@@ -14784,7 +14796,7 @@
         <v>13</v>
       </c>
       <c r="AE100" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF100" t="n">
         <v>26</v>
@@ -14793,19 +14805,19 @@
         <v>11</v>
       </c>
       <c r="AH100" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI100" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ100" t="n">
         <v>51</v>
       </c>
       <c r="AK100" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL100" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM100" t="n">
         <v>23</v>
@@ -14860,25 +14872,25 @@
         <v>1.85</v>
       </c>
       <c r="H101" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I101" t="n">
         <v>4.33</v>
       </c>
       <c r="J101" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K101" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L101" t="n">
         <v>5</v>
       </c>
       <c r="M101" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N101" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O101" t="n">
         <v>1.44</v>
@@ -14887,10 +14899,10 @@
         <v>2.63</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R101" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
@@ -14901,16 +14913,16 @@
         <v>1.17</v>
       </c>
       <c r="W101" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X101" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Y101" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z101" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA101" t="n">
         <v>5.5</v>
@@ -14925,22 +14937,22 @@
         <v>15</v>
       </c>
       <c r="AE101" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF101" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG101" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH101" t="n">
         <v>6.5</v>
       </c>
       <c r="AI101" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ101" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK101" t="n">
         <v>501</v>
@@ -14952,7 +14964,7 @@
         <v>21</v>
       </c>
       <c r="AN101" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO101" t="n">
         <v>51</v>
@@ -14964,10 +14976,10 @@
         <v>51</v>
       </c>
       <c r="AR101" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS101" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="102">
@@ -15002,28 +15014,28 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H102" t="n">
         <v>2.9</v>
       </c>
       <c r="I102" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J102" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K102" t="n">
         <v>1.95</v>
       </c>
       <c r="L102" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M102" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N102" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O102" t="n">
         <v>1.44</v>
@@ -15032,10 +15044,10 @@
         <v>2.63</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R102" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr"/>
@@ -15046,10 +15058,10 @@
         <v>1.18</v>
       </c>
       <c r="W102" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X102" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Y102" t="n">
         <v>2</v>
@@ -15061,7 +15073,7 @@
         <v>7.5</v>
       </c>
       <c r="AB102" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC102" t="n">
         <v>11</v>
@@ -15085,7 +15097,7 @@
         <v>17</v>
       </c>
       <c r="AJ102" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK102" t="n">
         <v>1000</v>
@@ -15103,16 +15115,16 @@
         <v>26</v>
       </c>
       <c r="AP102" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ102" t="n">
         <v>41</v>
       </c>
       <c r="AR102" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="103">
@@ -15147,22 +15159,22 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H103" t="n">
         <v>3</v>
       </c>
       <c r="I103" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J103" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K103" t="n">
         <v>2</v>
       </c>
       <c r="L103" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M103" t="n">
         <v>1.08</v>
@@ -15177,10 +15189,10 @@
         <v>2.75</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R103" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
@@ -15191,7 +15203,7 @@
         <v>1.2</v>
       </c>
       <c r="W103" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X103" t="n">
         <v>2.5</v>
@@ -15203,16 +15215,16 @@
         <v>1.8</v>
       </c>
       <c r="AA103" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB103" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC103" t="n">
         <v>10</v>
       </c>
       <c r="AD103" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE103" t="n">
         <v>21</v>
@@ -15236,10 +15248,10 @@
         <v>301</v>
       </c>
       <c r="AL103" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM103" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN103" t="n">
         <v>12</v>
@@ -15248,7 +15260,7 @@
         <v>34</v>
       </c>
       <c r="AP103" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ103" t="n">
         <v>41</v>
@@ -15318,21 +15330,21 @@
         <v>3.5</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R104" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V104" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W104" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X104" t="n">
         <v>2.75</v>
@@ -15429,22 +15441,22 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H105" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I105" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J105" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="K105" t="n">
         <v>2.1</v>
       </c>
       <c r="L105" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M105" t="n">
         <v>1.07</v>
@@ -15453,10 +15465,10 @@
         <v>7.1</v>
       </c>
       <c r="O105" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P105" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q105" t="n">
         <v>1.95</v>
@@ -15467,7 +15479,7 @@
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="V105" t="n">
         <v>1.29</v>
@@ -15479,61 +15491,61 @@
         <v>2.6</v>
       </c>
       <c r="Y105" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="Z105" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AA105" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB105" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC105" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD105" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AE105" t="n">
         <v>40</v>
       </c>
       <c r="AF105" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG105" t="n">
         <v>7.1</v>
       </c>
       <c r="AH105" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AI105" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ105" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK105" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL105" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AM105" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AN105" t="n">
         <v>8.25</v>
       </c>
       <c r="AO105" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AP105" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ105" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR105" t="inlineStr"/>
       <c r="AS105" t="inlineStr"/>
@@ -15588,7 +15600,7 @@
         <v>4.5</v>
       </c>
       <c r="M106" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N106" t="n">
         <v>7.1</v>
@@ -15626,7 +15638,7 @@
         <v>1.87</v>
       </c>
       <c r="AA106" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB106" t="n">
         <v>8.25</v>
@@ -15662,7 +15674,7 @@
         <v>11.25</v>
       </c>
       <c r="AM106" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN106" t="n">
         <v>13.5</v>
@@ -15711,28 +15723,28 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="H107" t="n">
         <v>3.2</v>
       </c>
       <c r="I107" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J107" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="K107" t="n">
         <v>2.05</v>
       </c>
       <c r="L107" t="n">
-        <v>3.95</v>
+        <v>4.15</v>
       </c>
       <c r="M107" t="n">
         <v>1.06</v>
       </c>
       <c r="N107" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="O107" t="n">
         <v>1.3</v>
@@ -15741,7 +15753,7 @@
         <v>3.2</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R107" t="n">
         <v>1.82</v>
@@ -15767,25 +15779,25 @@
         <v>2</v>
       </c>
       <c r="AA107" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB107" t="n">
         <v>9.75</v>
       </c>
       <c r="AC107" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD107" t="n">
         <v>18.5</v>
       </c>
       <c r="AE107" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF107" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG107" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AH107" t="n">
         <v>6.3</v>
@@ -15800,22 +15812,22 @@
         <v>450</v>
       </c>
       <c r="AL107" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AM107" t="n">
         <v>20</v>
       </c>
       <c r="AN107" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AO107" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AP107" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ107" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR107" t="inlineStr"/>
       <c r="AS107" t="inlineStr"/>
@@ -15852,40 +15864,40 @@
         </is>
       </c>
       <c r="G108" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I108" t="n">
         <v>2.67</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="I108" t="n">
-        <v>2.65</v>
       </c>
       <c r="J108" t="n">
         <v>3.6</v>
       </c>
       <c r="K108" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="L108" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="M108" t="n">
         <v>1.14</v>
       </c>
       <c r="N108" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O108" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P108" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="R108" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr"/>
@@ -15902,16 +15914,16 @@
         <v>2.1</v>
       </c>
       <c r="Y108" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Z108" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AA108" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB108" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AC108" t="n">
         <v>11.5</v>
@@ -15926,13 +15938,13 @@
         <v>60</v>
       </c>
       <c r="AG108" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AH108" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AI108" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ108" t="n">
         <v>175</v>
@@ -15944,13 +15956,13 @@
         <v>5.8</v>
       </c>
       <c r="AM108" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AN108" t="n">
         <v>11.5</v>
       </c>
       <c r="AO108" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP108" t="n">
         <v>32</v>
@@ -15993,22 +16005,22 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="H109" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I109" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="J109" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K109" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L109" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="M109" t="n">
         <v>1.01</v>
@@ -16017,24 +16029,24 @@
         <v>34</v>
       </c>
       <c r="O109" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P109" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="R109" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V109" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W109" t="n">
         <v>1.14</v>
@@ -16049,55 +16061,55 @@
         <v>4</v>
       </c>
       <c r="AA109" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB109" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC109" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD109" t="n">
         <v>41</v>
       </c>
       <c r="AE109" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF109" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG109" t="n">
         <v>34</v>
       </c>
       <c r="AH109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI109" t="n">
         <v>11</v>
       </c>
       <c r="AJ109" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK109" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL109" t="n">
         <v>23</v>
       </c>
       <c r="AM109" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN109" t="n">
         <v>11</v>
       </c>
       <c r="AO109" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP109" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ109" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR109" t="inlineStr"/>
       <c r="AS109" t="inlineStr"/>
@@ -16134,22 +16146,22 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="H110" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I110" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J110" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="K110" t="n">
         <v>5</v>
       </c>
       <c r="L110" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M110" t="n">
         <v>1.01</v>
@@ -16184,10 +16196,10 @@
         <v>9</v>
       </c>
       <c r="Y110" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="Z110" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AA110" t="n">
         <v>34</v>
@@ -16199,22 +16211,22 @@
         <v>21</v>
       </c>
       <c r="AD110" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE110" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF110" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG110" t="n">
         <v>34</v>
       </c>
       <c r="AH110" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI110" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ110" t="n">
         <v>51</v>
@@ -16235,10 +16247,10 @@
         <v>101</v>
       </c>
       <c r="AP110" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AQ110" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR110" t="inlineStr"/>
       <c r="AS110" t="inlineStr"/>
@@ -16275,22 +16287,22 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="H111" t="n">
         <v>3.85</v>
       </c>
       <c r="I111" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="J111" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K111" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L111" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="M111" t="n">
         <v>1.04</v>
@@ -16319,10 +16331,10 @@
         <v>1.42</v>
       </c>
       <c r="W111" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X111" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Y111" t="n">
         <v>1.65</v>
@@ -16331,22 +16343,22 @@
         <v>2.1</v>
       </c>
       <c r="AA111" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AB111" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AC111" t="n">
         <v>13.5</v>
       </c>
       <c r="AD111" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE111" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AF111" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG111" t="n">
         <v>9</v>
@@ -16364,19 +16376,19 @@
         <v>450</v>
       </c>
       <c r="AL111" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AM111" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AN111" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AO111" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP111" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ111" t="n">
         <v>25</v>
@@ -16664,10 +16676,10 @@
         <v>51</v>
       </c>
       <c r="AR113" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="114">
@@ -16702,22 +16714,22 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H114" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I114" t="n">
         <v>3</v>
       </c>
-      <c r="I114" t="n">
-        <v>2.8</v>
-      </c>
       <c r="J114" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K114" t="n">
         <v>2</v>
       </c>
       <c r="L114" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M114" t="n">
         <v>1.08</v>
@@ -16726,24 +16738,24 @@
         <v>8</v>
       </c>
       <c r="O114" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P114" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R114" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V114" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W114" t="n">
         <v>1.5</v>
@@ -16752,10 +16764,10 @@
         <v>2.5</v>
       </c>
       <c r="Y114" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z114" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA114" t="n">
         <v>7.5</v>
@@ -16764,19 +16776,19 @@
         <v>12</v>
       </c>
       <c r="AC114" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD114" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE114" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF114" t="n">
         <v>34</v>
       </c>
       <c r="AG114" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH114" t="n">
         <v>6</v>
@@ -16788,10 +16800,10 @@
         <v>51</v>
       </c>
       <c r="AK114" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL114" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM114" t="n">
         <v>13</v>
@@ -16806,7 +16818,7 @@
         <v>26</v>
       </c>
       <c r="AQ114" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR114" t="inlineStr"/>
       <c r="AS114" t="inlineStr"/>
@@ -16843,13 +16855,13 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H115" t="n">
         <v>3.1</v>
       </c>
       <c r="I115" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J115" t="n">
         <v>2.88</v>
@@ -16858,7 +16870,7 @@
         <v>1.95</v>
       </c>
       <c r="L115" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M115" t="n">
         <v>1.1</v>
@@ -16914,10 +16926,10 @@
         <v>19</v>
       </c>
       <c r="AF115" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG115" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH115" t="n">
         <v>6</v>
@@ -16932,7 +16944,7 @@
         <v>1250</v>
       </c>
       <c r="AL115" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM115" t="n">
         <v>19</v>
@@ -16950,10 +16962,10 @@
         <v>51</v>
       </c>
       <c r="AR115" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="116">
@@ -16988,16 +17000,16 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H116" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I116" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J116" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K116" t="n">
         <v>2.1</v>
@@ -17006,36 +17018,36 @@
         <v>8.5</v>
       </c>
       <c r="M116" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N116" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O116" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P116" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R116" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V116" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W116" t="n">
         <v>1.5</v>
       </c>
       <c r="X116" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="Y116" t="n">
         <v>2.63</v>
@@ -17053,16 +17065,16 @@
         <v>9.5</v>
       </c>
       <c r="AD116" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE116" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF116" t="n">
         <v>41</v>
       </c>
       <c r="AG116" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH116" t="n">
         <v>8.5</v>
@@ -17077,7 +17089,7 @@
         <v>101</v>
       </c>
       <c r="AL116" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM116" t="n">
         <v>41</v>
@@ -17094,8 +17106,12 @@
       <c r="AQ116" t="n">
         <v>81</v>
       </c>
-      <c r="AR116" t="inlineStr"/>
-      <c r="AS116" t="inlineStr"/>
+      <c r="AR116" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.99</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -17129,22 +17145,22 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H117" t="n">
         <v>3.3</v>
       </c>
       <c r="I117" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J117" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K117" t="n">
         <v>2.2</v>
       </c>
       <c r="L117" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M117" t="n">
         <v>1.05</v>
@@ -17159,10 +17175,10 @@
         <v>3.75</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="R117" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
@@ -17173,7 +17189,7 @@
         <v>1.36</v>
       </c>
       <c r="W117" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X117" t="n">
         <v>3</v>
@@ -17191,10 +17207,10 @@
         <v>15</v>
       </c>
       <c r="AC117" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD117" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE117" t="n">
         <v>21</v>
@@ -17218,7 +17234,7 @@
         <v>151</v>
       </c>
       <c r="AL117" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM117" t="n">
         <v>13</v>
@@ -17227,10 +17243,10 @@
         <v>10</v>
       </c>
       <c r="AO117" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP117" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ117" t="n">
         <v>26</v>
@@ -17285,45 +17301,49 @@
         <v>2.3</v>
       </c>
       <c r="L118" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M118" t="n">
         <v>1.03</v>
       </c>
       <c r="N118" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O118" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P118" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="R118" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
+        <v>2.35</v>
+      </c>
+      <c r="S118" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.84</v>
+      </c>
       <c r="U118" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="V118" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="W118" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X118" t="n">
         <v>3.4</v>
       </c>
       <c r="Y118" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z118" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA118" t="n">
         <v>10</v>
@@ -17362,7 +17382,7 @@
         <v>13</v>
       </c>
       <c r="AM118" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN118" t="n">
         <v>11</v>
@@ -17411,22 +17431,22 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H119" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I119" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J119" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K119" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L119" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M119" t="n">
         <v>1.03</v>
@@ -17441,16 +17461,16 @@
         <v>5</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R119" t="n">
         <v>2.35</v>
       </c>
       <c r="S119" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T119" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="U119" t="n">
         <v>2.38</v>
@@ -17459,10 +17479,10 @@
         <v>1.53</v>
       </c>
       <c r="W119" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X119" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y119" t="n">
         <v>1.67</v>
@@ -17489,7 +17509,7 @@
         <v>21</v>
       </c>
       <c r="AG119" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH119" t="n">
         <v>8.5</v>
@@ -17519,7 +17539,7 @@
         <v>41</v>
       </c>
       <c r="AQ119" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR119" t="inlineStr"/>
       <c r="AS119" t="inlineStr"/>
@@ -17556,22 +17576,22 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="H120" t="n">
         <v>3.5</v>
       </c>
       <c r="I120" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="J120" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K120" t="n">
         <v>2.3</v>
       </c>
       <c r="L120" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M120" t="n">
         <v>1.03</v>
@@ -17600,31 +17620,31 @@
         <v>1.44</v>
       </c>
       <c r="W120" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X120" t="n">
         <v>3.25</v>
       </c>
       <c r="Y120" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z120" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA120" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB120" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC120" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD120" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE120" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF120" t="n">
         <v>23</v>
@@ -17645,22 +17665,22 @@
         <v>126</v>
       </c>
       <c r="AL120" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN120" t="n">
         <v>11</v>
       </c>
-      <c r="AM120" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN120" t="n">
-        <v>10</v>
-      </c>
       <c r="AO120" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ120" t="n">
         <v>26</v>
-      </c>
-      <c r="AP120" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ120" t="n">
-        <v>23</v>
       </c>
       <c r="AR120" t="inlineStr"/>
       <c r="AS120" t="inlineStr"/>
@@ -17697,111 +17717,111 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.4</v>
+        <v>2.77</v>
       </c>
       <c r="H121" t="n">
         <v>3.35</v>
       </c>
       <c r="I121" t="n">
-        <v>2.75</v>
+        <v>2.37</v>
       </c>
       <c r="J121" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="K121" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L121" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="M121" t="n">
         <v>1.04</v>
       </c>
       <c r="N121" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O121" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P121" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R121" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="V121" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W121" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X121" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Y121" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Z121" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="AA121" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AB121" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC121" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD121" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AE121" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AF121" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG121" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH121" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI121" t="n">
         <v>11</v>
       </c>
       <c r="AJ121" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AK121" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AL121" t="n">
         <v>11.25</v>
       </c>
       <c r="AM121" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AN121" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AO121" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AP121" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ121" t="n">
         <v>20</v>
-      </c>
-      <c r="AQ121" t="n">
-        <v>23</v>
       </c>
       <c r="AR121" t="inlineStr"/>
       <c r="AS121" t="inlineStr"/>
@@ -17841,60 +17861,60 @@
         <v>1.72</v>
       </c>
       <c r="H122" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I122" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="J122" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="K122" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L122" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="M122" t="n">
         <v>1.05</v>
       </c>
       <c r="N122" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O122" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P122" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R122" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S122" t="inlineStr"/>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="V122" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W122" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X122" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="Y122" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Z122" t="n">
         <v>2.02</v>
       </c>
       <c r="AA122" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AB122" t="n">
         <v>8.5</v>
@@ -17912,22 +17932,22 @@
         <v>23</v>
       </c>
       <c r="AG122" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AH122" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AI122" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ122" t="n">
         <v>60</v>
       </c>
       <c r="AK122" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AL122" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AM122" t="n">
         <v>26</v>
@@ -17939,7 +17959,7 @@
         <v>70</v>
       </c>
       <c r="AP122" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AQ122" t="n">
         <v>40</v>
@@ -17979,22 +17999,22 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H123" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I123" t="n">
         <v>3.4</v>
       </c>
       <c r="J123" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="K123" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L123" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M123" t="n">
         <v>1.05</v>
@@ -18003,24 +18023,24 @@
         <v>7.9</v>
       </c>
       <c r="O123" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P123" t="n">
         <v>3.6</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R123" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="V123" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W123" t="n">
         <v>1.37</v>
@@ -18029,61 +18049,61 @@
         <v>2.87</v>
       </c>
       <c r="Y123" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Z123" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="AA123" t="n">
         <v>8.5</v>
       </c>
       <c r="AB123" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC123" t="n">
         <v>8.5</v>
       </c>
       <c r="AD123" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE123" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF123" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG123" t="n">
         <v>7.9</v>
       </c>
       <c r="AH123" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AI123" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ123" t="n">
         <v>50</v>
       </c>
       <c r="AK123" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AL123" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AM123" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AN123" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AO123" t="n">
         <v>45</v>
       </c>
       <c r="AP123" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ123" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR123" t="inlineStr"/>
       <c r="AS123" t="inlineStr"/>
@@ -18120,28 +18140,28 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="H124" t="n">
-        <v>2.95</v>
+        <v>3.85</v>
       </c>
       <c r="I124" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="J124" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="K124" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L124" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="M124" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N124" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="O124" t="n">
         <v>1.24</v>
@@ -18158,73 +18178,73 @@
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="V124" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W124" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X124" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="Y124" t="n">
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
       <c r="Z124" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="AA124" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB124" t="n">
         <v>8.25</v>
       </c>
-      <c r="AB124" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AC124" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AD124" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE124" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN124" t="n">
         <v>14</v>
       </c>
-      <c r="AF124" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG124" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AH124" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI124" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AJ124" t="n">
-        <v>37</v>
-      </c>
-      <c r="AK124" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL124" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM124" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN124" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AO124" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AP124" t="n">
         <v>40</v>
       </c>
       <c r="AQ124" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AR124" t="inlineStr"/>
       <c r="AS124" t="inlineStr"/>
@@ -18264,19 +18284,19 @@
         <v>1.95</v>
       </c>
       <c r="H125" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K125" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L125" t="n">
         <v>3.65</v>
-      </c>
-      <c r="I125" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J125" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="K125" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="L125" t="n">
-        <v>3.75</v>
       </c>
       <c r="M125" t="n">
         <v>1.03</v>
@@ -18288,7 +18308,7 @@
         <v>1.18</v>
       </c>
       <c r="P125" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="Q125" t="n">
         <v>1.55</v>
@@ -18299,13 +18319,13 @@
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V125" t="n">
         <v>1.55</v>
       </c>
       <c r="W125" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X125" t="n">
         <v>3.25</v>
@@ -18314,7 +18334,7 @@
         <v>1.5</v>
       </c>
       <c r="Z125" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AA125" t="n">
         <v>10.25</v>
@@ -18329,7 +18349,7 @@
         <v>18.5</v>
       </c>
       <c r="AE125" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF125" t="n">
         <v>19</v>
@@ -18338,7 +18358,7 @@
         <v>9</v>
       </c>
       <c r="AH125" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AI125" t="n">
         <v>11.75</v>
@@ -18350,19 +18370,19 @@
         <v>200</v>
       </c>
       <c r="AL125" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AM125" t="n">
         <v>22</v>
       </c>
       <c r="AN125" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AO125" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP125" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ125" t="n">
         <v>26</v>
@@ -18402,13 +18422,13 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H126" t="n">
         <v>3.5</v>
       </c>
       <c r="I126" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J126" t="n">
         <v>2.88</v>
@@ -18426,28 +18446,28 @@
         <v>15</v>
       </c>
       <c r="O126" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P126" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R126" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S126" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T126" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="U126" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V126" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W126" t="n">
         <v>1.3</v>
@@ -18489,13 +18509,13 @@
         <v>12</v>
       </c>
       <c r="AJ126" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK126" t="n">
         <v>126</v>
       </c>
       <c r="AL126" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM126" t="n">
         <v>17</v>
@@ -18510,7 +18530,7 @@
         <v>21</v>
       </c>
       <c r="AQ126" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR126" t="inlineStr"/>
       <c r="AS126" t="inlineStr"/>
@@ -18547,7 +18567,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H127" t="n">
         <v>4.1</v>
@@ -18556,10 +18576,10 @@
         <v>1.6</v>
       </c>
       <c r="J127" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K127" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L127" t="n">
         <v>2.2</v>
@@ -18577,16 +18597,16 @@
         <v>5</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R127" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S127" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="T127" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="U127" t="n">
         <v>2.38</v>
@@ -18595,19 +18615,19 @@
         <v>1.53</v>
       </c>
       <c r="W127" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X127" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y127" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z127" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA127" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB127" t="n">
         <v>26</v>
@@ -18625,7 +18645,7 @@
         <v>34</v>
       </c>
       <c r="AG127" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH127" t="n">
         <v>8.5</v>
@@ -18640,10 +18660,10 @@
         <v>151</v>
       </c>
       <c r="AL127" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM127" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN127" t="n">
         <v>8.5</v>
@@ -18692,84 +18712,84 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H128" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I128" t="n">
         <v>2.1</v>
       </c>
       <c r="J128" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K128" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L128" t="n">
         <v>2.88</v>
       </c>
       <c r="M128" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N128" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O128" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P128" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R128" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V128" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W128" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X128" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y128" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="Z128" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AA128" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB128" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC128" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD128" t="n">
         <v>34</v>
       </c>
       <c r="AE128" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF128" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG128" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AH128" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI128" t="n">
         <v>15</v>
@@ -18778,13 +18798,13 @@
         <v>51</v>
       </c>
       <c r="AK128" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL128" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM128" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN128" t="n">
         <v>9</v>
@@ -18793,10 +18813,10 @@
         <v>21</v>
       </c>
       <c r="AP128" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ128" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR128" t="inlineStr"/>
       <c r="AS128" t="inlineStr"/>
@@ -18833,10 +18853,10 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="H129" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I129" t="n">
         <v>21</v>
@@ -18851,22 +18871,22 @@
         <v>13</v>
       </c>
       <c r="M129" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N129" t="n">
         <v>1.01</v>
       </c>
       <c r="O129" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P129" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="R129" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr"/>
@@ -18889,7 +18909,7 @@
         <v>1.91</v>
       </c>
       <c r="AA129" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB129" t="n">
         <v>11</v>
@@ -18910,7 +18930,7 @@
         <v>34</v>
       </c>
       <c r="AH129" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI129" t="n">
         <v>29</v>
@@ -18922,10 +18942,10 @@
         <v>201</v>
       </c>
       <c r="AL129" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM129" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AN129" t="n">
         <v>51</v>
@@ -18937,7 +18957,7 @@
         <v>126</v>
       </c>
       <c r="AQ129" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR129" t="inlineStr"/>
       <c r="AS129" t="inlineStr"/>
@@ -18974,13 +18994,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H130" t="n">
         <v>3.6</v>
       </c>
       <c r="I130" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J130" t="n">
         <v>2.3</v>
@@ -18989,7 +19009,7 @@
         <v>2.2</v>
       </c>
       <c r="L130" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M130" t="n">
         <v>1.05</v>
@@ -19004,18 +19024,18 @@
         <v>3.5</v>
       </c>
       <c r="Q130" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R130" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V130" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W130" t="n">
         <v>1.4</v>
@@ -19033,7 +19053,7 @@
         <v>7</v>
       </c>
       <c r="AB130" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC130" t="n">
         <v>8.5</v>
@@ -19063,13 +19083,13 @@
         <v>301</v>
       </c>
       <c r="AL130" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM130" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN130" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO130" t="n">
         <v>51</v>
@@ -19121,7 +19141,7 @@
         <v>3.3</v>
       </c>
       <c r="I131" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J131" t="n">
         <v>2.75</v>
@@ -19145,18 +19165,18 @@
         <v>3.4</v>
       </c>
       <c r="Q131" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R131" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V131" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W131" t="n">
         <v>1.4</v>
@@ -19174,19 +19194,19 @@
         <v>7.5</v>
       </c>
       <c r="AB131" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC131" t="n">
         <v>9</v>
       </c>
       <c r="AD131" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE131" t="n">
         <v>17</v>
       </c>
       <c r="AF131" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG131" t="n">
         <v>10</v>
@@ -19210,7 +19230,7 @@
         <v>17</v>
       </c>
       <c r="AN131" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO131" t="n">
         <v>41</v>
@@ -19256,28 +19276,28 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H132" t="n">
         <v>3.4</v>
       </c>
       <c r="I132" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J132" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K132" t="n">
         <v>2.2</v>
       </c>
       <c r="L132" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M132" t="n">
         <v>1.04</v>
       </c>
       <c r="N132" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O132" t="n">
         <v>1.25</v>
@@ -19321,10 +19341,10 @@
         <v>9.5</v>
       </c>
       <c r="AD132" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE132" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF132" t="n">
         <v>26</v>
@@ -19345,7 +19365,7 @@
         <v>151</v>
       </c>
       <c r="AL132" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM132" t="n">
         <v>15</v>
@@ -19357,7 +19377,7 @@
         <v>29</v>
       </c>
       <c r="AP132" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ132" t="n">
         <v>29</v>
@@ -19397,22 +19417,22 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H133" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I133" t="n">
         <v>3.3</v>
       </c>
-      <c r="I133" t="n">
-        <v>3.75</v>
-      </c>
       <c r="J133" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K133" t="n">
         <v>2.2</v>
       </c>
       <c r="L133" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M133" t="n">
         <v>1.05</v>
@@ -19427,10 +19447,10 @@
         <v>3.5</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R133" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr"/>
@@ -19453,31 +19473,31 @@
         <v>2</v>
       </c>
       <c r="AA133" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB133" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AC133" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD133" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE133" t="n">
         <v>17</v>
-      </c>
-      <c r="AE133" t="n">
-        <v>15</v>
       </c>
       <c r="AF133" t="n">
         <v>26</v>
       </c>
       <c r="AG133" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH133" t="n">
         <v>6.5</v>
       </c>
       <c r="AI133" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ133" t="n">
         <v>41</v>
@@ -19486,19 +19506,19 @@
         <v>201</v>
       </c>
       <c r="AL133" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN133" t="n">
         <v>12</v>
       </c>
-      <c r="AM133" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN133" t="n">
-        <v>13</v>
-      </c>
       <c r="AO133" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP133" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ133" t="n">
         <v>34</v>
@@ -19538,22 +19558,22 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="H134" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I134" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="J134" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K134" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="L134" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="M134" t="n">
         <v>1.03</v>
@@ -19562,30 +19582,30 @@
         <v>9.5</v>
       </c>
       <c r="O134" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P134" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="Q134" t="n">
         <v>1.47</v>
       </c>
       <c r="R134" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="S134" t="inlineStr"/>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V134" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W134" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X134" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Y134" t="n">
         <v>1.65</v>
@@ -19600,7 +19620,7 @@
         <v>40</v>
       </c>
       <c r="AC134" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD134" t="n">
         <v>110</v>
@@ -19615,7 +19635,7 @@
         <v>9.5</v>
       </c>
       <c r="AH134" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI134" t="n">
         <v>16</v>
@@ -19627,19 +19647,19 @@
         <v>350</v>
       </c>
       <c r="AL134" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AM134" t="n">
         <v>8.25</v>
       </c>
       <c r="AN134" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AO134" t="n">
         <v>10.5</v>
       </c>
       <c r="AP134" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AQ134" t="n">
         <v>20</v>
@@ -19682,16 +19702,16 @@
         <v>3.3</v>
       </c>
       <c r="H135" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I135" t="n">
         <v>2.1</v>
       </c>
       <c r="J135" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K135" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L135" t="n">
         <v>2.7</v>
@@ -19723,22 +19743,22 @@
         <v>1.44</v>
       </c>
       <c r="W135" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X135" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="Y135" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Z135" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="AA135" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB135" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC135" t="n">
         <v>11</v>
@@ -19747,19 +19767,19 @@
         <v>45</v>
       </c>
       <c r="AE135" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF135" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG135" t="n">
         <v>8</v>
       </c>
       <c r="AH135" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI135" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ135" t="n">
         <v>40</v>
@@ -19768,10 +19788,10 @@
         <v>250</v>
       </c>
       <c r="AL135" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AM135" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AN135" t="n">
         <v>8.5</v>
@@ -19783,7 +19803,7 @@
         <v>15.5</v>
       </c>
       <c r="AQ135" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR135" t="inlineStr"/>
       <c r="AS135" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
@@ -698,10 +698,10 @@
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
@@ -710,37 +710,37 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.53</v>
       </c>
-      <c r="R2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X2" t="n">
         <v>3.5</v>
@@ -761,7 +761,7 @@
         <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -785,16 +785,16 @@
         <v>151</v>
       </c>
       <c r="AL2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -837,40 +837,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R3" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -878,13 +878,13 @@
         <v>3.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X3" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y3" t="n">
         <v>1.8</v>
@@ -893,10 +893,10 @@
         <v>1.95</v>
       </c>
       <c r="AA3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>11</v>
@@ -932,13 +932,13 @@
         <v>12</v>
       </c>
       <c r="AN3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO3" t="n">
         <v>23</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
         <v>29</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -996,33 +996,33 @@
         <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X4" t="n">
         <v>3.25</v>
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
         <v>13</v>
@@ -1146,7 +1146,7 @@
         <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
         <v>1.73</v>
@@ -1157,10 +1157,10 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="W5" t="n">
         <v>1.33</v>
@@ -1169,10 +1169,10 @@
         <v>3.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1196,13 +1196,13 @@
         <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK5" t="n">
         <v>201</v>
@@ -1278,13 +1278,13 @@
         <v>3.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
         <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
         <v>4.5</v>
@@ -1302,10 +1302,10 @@
         <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="W6" t="n">
         <v>1.3</v>
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
         <v>5</v>
@@ -1417,19 +1417,19 @@
         <v>2.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
         <v>4.33</v>
@@ -1447,10 +1447,10 @@
         <v>1.95</v>
       </c>
       <c r="U7" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W7" t="n">
         <v>1.33</v>
@@ -1477,7 +1477,7 @@
         <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
         <v>23</v>
@@ -1489,7 +1489,7 @@
         <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
         <v>51</v>
@@ -1501,7 +1501,7 @@
         <v>15</v>
       </c>
       <c r="AM7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN7" t="n">
         <v>15</v>
@@ -1550,54 +1550,54 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J8" t="n">
         <v>4.33</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="W8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y8" t="n">
         <v>1.7</v>
@@ -1618,16 +1618,16 @@
         <v>41</v>
       </c>
       <c r="AE8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF8" t="n">
         <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI8" t="n">
         <v>13</v>
@@ -1636,10 +1636,10 @@
         <v>41</v>
       </c>
       <c r="AK8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM8" t="n">
         <v>9.5</v>
@@ -1651,7 +1651,7 @@
         <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ8" t="n">
         <v>23</v>
@@ -1691,13 +1691,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>2.5</v>
@@ -1729,10 +1729,10 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W9" t="n">
         <v>1.33</v>
@@ -1741,7 +1741,7 @@
         <v>3.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Z9" t="n">
         <v>2.2</v>
@@ -1862,10 +1862,10 @@
         <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1885,7 +1885,7 @@
         <v>2.05</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA10" t="n">
         <v>7</v>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
@@ -1988,7 +1988,7 @@
         <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -2017,16 +2017,16 @@
         <v>1.22</v>
       </c>
       <c r="W11" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X11" t="n">
         <v>2.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AA11" t="n">
         <v>10</v>
@@ -2114,10 +2114,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>8</v>
@@ -2126,57 +2126,57 @@
         <v>2.05</v>
       </c>
       <c r="K12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
         <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
         <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V12" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="X12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA12" t="n">
         <v>6</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
         <v>9.5</v>
@@ -2185,10 +2185,10 @@
         <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH12" t="n">
         <v>7.5</v>
@@ -2197,16 +2197,16 @@
         <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK12" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN12" t="n">
         <v>23</v>
@@ -2255,40 +2255,40 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="H13" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="K13" t="n">
         <v>2.5</v>
       </c>
       <c r="L13" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S13" t="n">
         <v>2.05</v>
@@ -2297,10 +2297,10 @@
         <v>1.8</v>
       </c>
       <c r="U13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W13" t="n">
         <v>1.27</v>
@@ -2309,61 +2309,61 @@
         <v>3.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AA13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE13" t="n">
         <v>11</v>
       </c>
       <c r="AF13" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
         <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK13" t="n">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="AL13" t="n">
         <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP13" t="n">
         <v>51</v>
       </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2406,7 +2406,7 @@
         <v>4.75</v>
       </c>
       <c r="I14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J14" t="n">
         <v>6</v>
@@ -2415,13 +2415,13 @@
         <v>2.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O14" t="n">
         <v>1.17</v>
@@ -2436,19 +2436,19 @@
         <v>2.4</v>
       </c>
       <c r="S14" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T14" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U14" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X14" t="n">
         <v>3.5</v>
@@ -2481,7 +2481,7 @@
         <v>17</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI14" t="n">
         <v>17</v>
@@ -2493,7 +2493,7 @@
         <v>201</v>
       </c>
       <c r="AL14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
@@ -2545,13 +2545,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>2.88</v>
@@ -2560,7 +2560,7 @@
         <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2569,16 +2569,16 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R15" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S15" t="n">
         <v>2.03</v>
@@ -2587,13 +2587,13 @@
         <v>1.83</v>
       </c>
       <c r="U15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X15" t="n">
         <v>3.25</v>
@@ -2605,22 +2605,22 @@
         <v>2.25</v>
       </c>
       <c r="AA15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB15" t="n">
         <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>17</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         <v>11</v>
       </c>
       <c r="AO15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP15" t="n">
         <v>21</v>
@@ -2738,7 +2738,7 @@
         <v>1.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X16" t="n">
         <v>3.4</v>
@@ -2835,7 +2835,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
         <v>3.7</v>
@@ -2847,7 +2847,7 @@
         <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L17" t="n">
         <v>2.63</v>
@@ -2883,7 +2883,7 @@
         <v>1.4</v>
       </c>
       <c r="W17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X17" t="n">
         <v>3.25</v>
@@ -2904,10 +2904,10 @@
         <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
         <v>29</v>
@@ -3125,19 +3125,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J19" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
         <v>5.5</v>
@@ -3149,16 +3149,16 @@
         <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -3178,7 +3178,7 @@
         <v>2.1</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AA19" t="n">
         <v>5.5</v>
@@ -3193,26 +3193,28 @@
         <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
         <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH19" t="n">
         <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK19" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>501</v>
+      </c>
       <c r="AL19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM19" t="n">
         <v>23</v>
@@ -3268,7 +3270,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
@@ -3298,10 +3300,10 @@
         <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -3321,7 +3323,7 @@
         <v>2.25</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AA20" t="n">
         <v>5.5</v>
@@ -3409,13 +3411,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H21" t="n">
         <v>4.75</v>
       </c>
       <c r="I21" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="J21" t="n">
         <v>5.5</v>
@@ -3424,7 +3426,7 @@
         <v>2.63</v>
       </c>
       <c r="L21" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
@@ -3439,10 +3441,10 @@
         <v>5.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R21" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="S21" t="n">
         <v>1.83</v>
@@ -3463,10 +3465,10 @@
         <v>3.75</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA21" t="n">
         <v>21</v>
@@ -3475,7 +3477,7 @@
         <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD21" t="n">
         <v>67</v>
@@ -3511,7 +3513,7 @@
         <v>8.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP21" t="n">
         <v>11</v>
@@ -3557,10 +3559,10 @@
         <v>2.55</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="J22" t="n">
         <v>3.5</v>
@@ -3587,7 +3589,7 @@
         <v>2.5</v>
       </c>
       <c r="R22" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S22" t="n">
         <v>4.1</v>
@@ -3611,7 +3613,7 @@
         <v>2.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AA22" t="n">
         <v>6.5</v>
@@ -3659,7 +3661,7 @@
         <v>29</v>
       </c>
       <c r="AP22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ22" t="n">
         <v>41</v>
@@ -3706,10 +3708,10 @@
         <v>2.7</v>
       </c>
       <c r="H23" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="I23" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="J23" t="n">
         <v>3.75</v>
@@ -3724,46 +3726,46 @@
         <v>1.17</v>
       </c>
       <c r="N23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S23" t="n">
+        <v>7</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>9</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA23" t="n">
         <v>5</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="U23" t="n">
-        <v>8</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="X23" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>5.5</v>
       </c>
       <c r="AB23" t="n">
         <v>11</v>
@@ -3784,10 +3786,10 @@
         <v>4.75</v>
       </c>
       <c r="AH23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ23" t="n">
         <v>126</v>
@@ -3808,7 +3810,7 @@
         <v>34</v>
       </c>
       <c r="AP23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ23" t="n">
         <v>51</v>
@@ -3852,7 +3854,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
@@ -3885,7 +3887,7 @@
         <v>2.6</v>
       </c>
       <c r="R24" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S24" t="n">
         <v>4.4</v>
@@ -3909,7 +3911,7 @@
         <v>2.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AA24" t="n">
         <v>5.5</v>
@@ -4001,7 +4003,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
@@ -4034,19 +4036,19 @@
         <v>2.4</v>
       </c>
       <c r="R25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S25" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V25" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W25" t="n">
         <v>1.53</v>
@@ -4058,7 +4060,7 @@
         <v>2.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AA25" t="n">
         <v>5.5</v>
@@ -4112,10 +4114,10 @@
         <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="26">
@@ -4168,13 +4170,13 @@
         <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
         <v>5.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -4188,10 +4190,10 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V26" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="W26" t="n">
         <v>1.75</v>
@@ -4307,16 +4309,16 @@
         <v>6</v>
       </c>
       <c r="M27" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N27" t="n">
         <v>5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="P27" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Q27" t="n">
         <v>3.6</v>
@@ -4330,7 +4332,7 @@
         <v>8</v>
       </c>
       <c r="V27" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="W27" t="n">
         <v>1.8</v>
@@ -4446,16 +4448,16 @@
         <v>5.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P28" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q28" t="n">
         <v>2.6</v>
@@ -4469,7 +4471,7 @@
         <v>5.5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="W28" t="n">
         <v>1.57</v>
@@ -4589,13 +4591,13 @@
         <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N29" t="n">
         <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P29" t="n">
         <v>2.1</v>
@@ -4612,7 +4614,7 @@
         <v>7</v>
       </c>
       <c r="V29" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="W29" t="n">
         <v>1.75</v>
@@ -4710,7 +4712,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H30" t="n">
         <v>3.4</v>
@@ -4728,13 +4730,13 @@
         <v>8.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N30" t="n">
         <v>5.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P30" t="n">
         <v>2.2</v>
@@ -4751,7 +4753,7 @@
         <v>6.5</v>
       </c>
       <c r="V30" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="W30" t="n">
         <v>1.67</v>
@@ -4797,7 +4799,7 @@
       </c>
       <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM30" t="n">
         <v>34</v>
@@ -4902,7 +4904,7 @@
         <v>2.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AA31" t="n">
         <v>5</v>
@@ -5137,22 +5139,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H33" t="n">
         <v>4.75</v>
       </c>
       <c r="I33" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="J33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K33" t="n">
         <v>2.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -5173,10 +5175,10 @@
         <v>2.3</v>
       </c>
       <c r="S33" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="T33" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="U33" t="n">
         <v>2.5</v>
@@ -5191,13 +5193,13 @@
         <v>3.4</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AA33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB33" t="n">
         <v>41</v>
@@ -5221,7 +5223,7 @@
         <v>9</v>
       </c>
       <c r="AI33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ33" t="n">
         <v>51</v>
@@ -5233,7 +5235,7 @@
         <v>8</v>
       </c>
       <c r="AM33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AN33" t="n">
         <v>8.5</v>
@@ -5285,45 +5287,45 @@
         <v>2.8</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J34" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K34" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O34" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R34" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W34" t="n">
         <v>1.44</v>
@@ -5332,13 +5334,13 @@
         <v>2.63</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AA34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB34" t="n">
         <v>13</v>
@@ -5356,10 +5358,10 @@
         <v>34</v>
       </c>
       <c r="AG34" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI34" t="n">
         <v>15</v>
@@ -5368,10 +5370,10 @@
         <v>51</v>
       </c>
       <c r="AK34" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL34" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM34" t="n">
         <v>12</v>
@@ -5386,7 +5388,7 @@
         <v>21</v>
       </c>
       <c r="AQ34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
@@ -5453,10 +5455,10 @@
         <v>3.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="R35" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -5473,7 +5475,7 @@
         <v>2.75</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Z35" t="n">
         <v>2.05</v>
@@ -5564,22 +5566,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
         <v>2.95</v>
       </c>
       <c r="I36" t="n">
-        <v>3.15</v>
+        <v>2.85</v>
       </c>
       <c r="J36" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K36" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="L36" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="M36" t="n">
         <v>1.11</v>
@@ -5588,13 +5590,13 @@
         <v>5.4</v>
       </c>
       <c r="O36" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P36" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="R36" t="n">
         <v>1.47</v>
@@ -5602,49 +5604,49 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="V36" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W36" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X36" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="Y36" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Z36" t="n">
         <v>1.65</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AB36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AD36" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE36" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF36" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG36" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AH36" t="n">
         <v>5.9</v>
       </c>
       <c r="AI36" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ36" t="n">
         <v>110</v>
@@ -5653,22 +5655,22 @@
         <v>700</v>
       </c>
       <c r="AL36" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AM36" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AN36" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AO36" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AP36" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AQ36" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
@@ -5705,30 +5707,34 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="H37" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J37" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="K37" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="L37" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+        <v>4.35</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5.8</v>
+      </c>
       <c r="O37" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P37" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="Q37" t="n">
         <v>2.32</v>
@@ -5739,49 +5745,49 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W37" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X37" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="Z37" t="n">
         <v>1.62</v>
       </c>
       <c r="AA37" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB37" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AC37" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD37" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AE37" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF37" t="n">
         <v>40</v>
       </c>
       <c r="AG37" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AH37" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AI37" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ37" t="n">
         <v>120</v>
@@ -5790,16 +5796,16 @@
         <v>900</v>
       </c>
       <c r="AL37" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AM37" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AN37" t="n">
         <v>13.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AP37" t="n">
         <v>45</v>
@@ -5842,22 +5848,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="H38" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I38" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="J38" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="K38" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L38" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M38" t="n">
         <v>1.04</v>
@@ -5872,10 +5878,10 @@
         <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R38" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -5886,10 +5892,10 @@
         <v>1.4</v>
       </c>
       <c r="W38" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X38" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y38" t="n">
         <v>1.67</v>
@@ -5898,28 +5904,28 @@
         <v>2.1</v>
       </c>
       <c r="AA38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF38" t="n">
         <v>23</v>
       </c>
       <c r="AG38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH38" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI38" t="n">
         <v>13</v>
@@ -5931,22 +5937,22 @@
         <v>151</v>
       </c>
       <c r="AL38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ38" t="n">
         <v>34</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>29</v>
       </c>
       <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr"/>
@@ -5983,22 +5989,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="H39" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I39" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="J39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K39" t="n">
         <v>2.4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -6013,10 +6019,10 @@
         <v>4.33</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R39" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S39" t="n">
         <v>2.05</v>
@@ -6049,7 +6055,7 @@
         <v>34</v>
       </c>
       <c r="AC39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD39" t="n">
         <v>67</v>
@@ -6064,10 +6070,10 @@
         <v>15</v>
       </c>
       <c r="AH39" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ39" t="n">
         <v>51</v>
@@ -6085,10 +6091,10 @@
         <v>8.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ39" t="n">
         <v>23</v>
@@ -6128,13 +6134,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H40" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J40" t="n">
         <v>2.2</v>
@@ -6143,7 +6149,7 @@
         <v>2.4</v>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M40" t="n">
         <v>1.03</v>
@@ -6152,28 +6158,28 @@
         <v>17</v>
       </c>
       <c r="O40" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P40" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R40" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T40" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U40" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V40" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W40" t="n">
         <v>1.3</v>
@@ -6276,10 +6282,10 @@
         <v>4.33</v>
       </c>
       <c r="H41" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I41" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J41" t="n">
         <v>4.5</v>
@@ -6291,45 +6297,45 @@
         <v>2.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O41" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P41" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="R41" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V41" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W41" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X41" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB41" t="n">
         <v>21</v>
@@ -6347,22 +6353,22 @@
         <v>41</v>
       </c>
       <c r="AG41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH41" t="n">
         <v>6.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK41" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM41" t="n">
         <v>9</v>
@@ -6377,7 +6383,7 @@
         <v>15</v>
       </c>
       <c r="AQ41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
@@ -6458,7 +6464,7 @@
         <v>1.44</v>
       </c>
       <c r="W42" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X42" t="n">
         <v>3.25</v>
@@ -6599,10 +6605,10 @@
         <v>1.25</v>
       </c>
       <c r="W43" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X43" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y43" t="n">
         <v>1.83</v>
@@ -6726,10 +6732,10 @@
         <v>3.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R44" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -6740,10 +6746,10 @@
         <v>1.25</v>
       </c>
       <c r="W44" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X44" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y44" t="n">
         <v>1.83</v>
@@ -6837,22 +6843,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H45" t="n">
         <v>3.8</v>
       </c>
       <c r="I45" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L45" t="n">
         <v>4.75</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5</v>
       </c>
       <c r="M45" t="n">
         <v>1.04</v>
@@ -6861,69 +6867,69 @@
         <v>13</v>
       </c>
       <c r="O45" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P45" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R45" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V45" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W45" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X45" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA45" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC45" t="n">
         <v>8.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE45" t="n">
         <v>13</v>
       </c>
       <c r="AF45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI45" t="n">
         <v>15</v>
       </c>
       <c r="AJ45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK45" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL45" t="n">
         <v>13</v>
@@ -6935,10 +6941,10 @@
         <v>15</v>
       </c>
       <c r="AO45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP45" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ45" t="n">
         <v>41</v>
@@ -6981,69 +6987,69 @@
         <v>1.3</v>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J46" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="K46" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L46" t="n">
         <v>9</v>
       </c>
       <c r="M46" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O46" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P46" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R46" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V46" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W46" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X46" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB46" t="n">
         <v>6</v>
       </c>
-      <c r="AB46" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AC46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD46" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE46" t="n">
         <v>12</v>
@@ -7052,7 +7058,7 @@
         <v>34</v>
       </c>
       <c r="AG46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH46" t="n">
         <v>10</v>
@@ -7067,7 +7073,7 @@
         <v>1250</v>
       </c>
       <c r="AL46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM46" t="n">
         <v>41</v>
@@ -7119,40 +7125,40 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H47" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K47" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L47" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M47" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O47" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P47" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R47" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -7160,7 +7166,7 @@
         <v>4.5</v>
       </c>
       <c r="V47" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="W47" t="n">
         <v>1.53</v>
@@ -7175,10 +7181,10 @@
         <v>1.67</v>
       </c>
       <c r="AA47" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC47" t="n">
         <v>13</v>
@@ -7193,7 +7199,7 @@
         <v>41</v>
       </c>
       <c r="AG47" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH47" t="n">
         <v>6.5</v>
@@ -7211,25 +7217,25 @@
         <v>6</v>
       </c>
       <c r="AM47" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN47" t="n">
         <v>9.5</v>
       </c>
       <c r="AO47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP47" t="n">
         <v>19</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>21</v>
       </c>
       <c r="AQ47" t="n">
         <v>34</v>
       </c>
       <c r="AR47" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="48">
@@ -7264,34 +7270,34 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H48" t="n">
         <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="J48" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K48" t="n">
         <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="M48" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N48" t="n">
         <v>8</v>
       </c>
       <c r="O48" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P48" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q48" t="n">
         <v>2.35</v>
@@ -7300,7 +7306,7 @@
         <v>1.57</v>
       </c>
       <c r="S48" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T48" t="n">
         <v>1.29</v>
@@ -7309,34 +7315,34 @@
         <v>4.33</v>
       </c>
       <c r="V48" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W48" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X48" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA48" t="n">
         <v>11</v>
       </c>
       <c r="AB48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC48" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD48" t="n">
         <v>51</v>
       </c>
       <c r="AE48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF48" t="n">
         <v>51</v>
@@ -7345,7 +7351,7 @@
         <v>7</v>
       </c>
       <c r="AH48" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI48" t="n">
         <v>21</v>
@@ -7366,7 +7372,7 @@
         <v>9</v>
       </c>
       <c r="AO48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP48" t="n">
         <v>17</v>
@@ -7425,19 +7431,19 @@
         <v>3.1</v>
       </c>
       <c r="K49" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L49" t="n">
         <v>4.33</v>
       </c>
       <c r="M49" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N49" t="n">
         <v>6.5</v>
       </c>
       <c r="O49" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P49" t="n">
         <v>2.5</v>
@@ -7458,7 +7464,7 @@
         <v>5</v>
       </c>
       <c r="V49" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="W49" t="n">
         <v>1.57</v>
@@ -7574,19 +7580,19 @@
         <v>3</v>
       </c>
       <c r="K50" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L50" t="n">
         <v>4.33</v>
       </c>
       <c r="M50" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N50" t="n">
         <v>7</v>
       </c>
       <c r="O50" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P50" t="n">
         <v>2.5</v>
@@ -7607,7 +7613,7 @@
         <v>5</v>
       </c>
       <c r="V50" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="W50" t="n">
         <v>1.57</v>
@@ -7863,25 +7869,25 @@
         <v>1.53</v>
       </c>
       <c r="H52" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I52" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J52" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K52" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L52" t="n">
+        <v>7</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N52" t="n">
         <v>6.5</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N52" t="n">
-        <v>8</v>
       </c>
       <c r="O52" t="n">
         <v>1.44</v>
@@ -7890,84 +7896,88 @@
         <v>2.63</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R52" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W52" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z52" t="n">
         <v>1.5</v>
       </c>
-      <c r="X52" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>1.57</v>
-      </c>
       <c r="AA52" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AB52" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC52" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD52" t="n">
         <v>11</v>
       </c>
       <c r="AE52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG52" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AH52" t="n">
         <v>7.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AJ52" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="n">
         <v>351</v>
       </c>
       <c r="AL52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN52" t="n">
         <v>21</v>
       </c>
       <c r="AO52" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP52" t="n">
         <v>51</v>
       </c>
       <c r="AQ52" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR52" t="inlineStr"/>
-      <c r="AS52" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8001,13 +8011,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H53" t="n">
         <v>3.3</v>
       </c>
       <c r="I53" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
         <v>2.88</v>
@@ -8016,7 +8026,7 @@
         <v>2.2</v>
       </c>
       <c r="L53" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M53" t="n">
         <v>1.05</v>
@@ -8096,7 +8106,7 @@
         <v>17</v>
       </c>
       <c r="AN53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO53" t="n">
         <v>34</v>
@@ -8424,54 +8434,54 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H56" t="n">
         <v>3.3</v>
       </c>
       <c r="I56" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J56" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="K56" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L56" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="M56" t="n">
         <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="O56" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P56" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R56" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="V56" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W56" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X56" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="Y56" t="n">
         <v>1.78</v>
@@ -8480,43 +8490,43 @@
         <v>1.93</v>
       </c>
       <c r="AA56" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB56" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AC56" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE56" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF56" t="n">
         <v>32</v>
       </c>
       <c r="AG56" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AH56" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI56" t="n">
         <v>15.5</v>
       </c>
       <c r="AJ56" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK56" t="n">
         <v>700</v>
       </c>
       <c r="AL56" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AM56" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN56" t="n">
         <v>12</v>
@@ -8565,54 +8575,54 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="H57" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I57" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J57" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="K57" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M57" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O57" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P57" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R57" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V57" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W57" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X57" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y57" t="n">
         <v>1.95</v>
@@ -8624,25 +8634,25 @@
         <v>6.5</v>
       </c>
       <c r="AB57" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC57" t="n">
         <v>8.5</v>
       </c>
       <c r="AD57" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF57" t="n">
         <v>29</v>
       </c>
       <c r="AG57" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH57" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI57" t="n">
         <v>17</v>
@@ -8651,16 +8661,16 @@
         <v>51</v>
       </c>
       <c r="AK57" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO57" t="n">
         <v>51</v>
@@ -8748,10 +8758,10 @@
         <v>1.85</v>
       </c>
       <c r="U58" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V58" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W58" t="n">
         <v>1.33</v>
@@ -8851,19 +8861,19 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H59" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I59" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J59" t="n">
         <v>2</v>
       </c>
       <c r="K59" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L59" t="n">
         <v>6</v>
@@ -8875,43 +8885,43 @@
         <v>15</v>
       </c>
       <c r="O59" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P59" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="R59" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="S59" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T59" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U59" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V59" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W59" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X59" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA59" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB59" t="n">
         <v>7.5</v>
@@ -8920,16 +8930,16 @@
         <v>8.5</v>
       </c>
       <c r="AD59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE59" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF59" t="n">
         <v>23</v>
       </c>
       <c r="AG59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH59" t="n">
         <v>8.5</v>
@@ -8941,7 +8951,7 @@
         <v>51</v>
       </c>
       <c r="AK59" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL59" t="n">
         <v>19</v>
@@ -8996,28 +9006,28 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H60" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I60" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L60" t="n">
         <v>6.5</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K60" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L60" t="n">
-        <v>7</v>
       </c>
       <c r="M60" t="n">
         <v>1.04</v>
       </c>
       <c r="N60" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O60" t="n">
         <v>1.22</v>
@@ -9026,10 +9036,10 @@
         <v>4</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R60" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
@@ -9061,7 +9071,7 @@
         <v>8.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE60" t="n">
         <v>12</v>
@@ -9082,19 +9092,19 @@
         <v>51</v>
       </c>
       <c r="AK60" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL60" t="n">
         <v>17</v>
       </c>
       <c r="AM60" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN60" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO60" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP60" t="n">
         <v>51</v>
@@ -9143,7 +9153,7 @@
         <v>3.6</v>
       </c>
       <c r="I61" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J61" t="n">
         <v>2.5</v>
@@ -9152,13 +9162,13 @@
         <v>2.1</v>
       </c>
       <c r="L61" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M61" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N61" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O61" t="n">
         <v>1.33</v>
@@ -9167,18 +9177,18 @@
         <v>3.4</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="R61" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V61" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W61" t="n">
         <v>1.44</v>
@@ -9187,10 +9197,10 @@
         <v>2.63</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AA61" t="n">
         <v>6.5</v>
@@ -9211,7 +9221,7 @@
         <v>29</v>
       </c>
       <c r="AG61" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH61" t="n">
         <v>7</v>
@@ -9235,10 +9245,10 @@
         <v>15</v>
       </c>
       <c r="AO61" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP61" t="n">
         <v>41</v>
-      </c>
-      <c r="AP61" t="n">
-        <v>34</v>
       </c>
       <c r="AQ61" t="n">
         <v>41</v>
@@ -9290,7 +9300,7 @@
         <v>2.38</v>
       </c>
       <c r="K62" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L62" t="n">
         <v>4.33</v>
@@ -9299,43 +9309,43 @@
         <v>1.03</v>
       </c>
       <c r="N62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O62" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P62" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R62" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="S62" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T62" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="U62" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V62" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="W62" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X62" t="n">
         <v>3.4</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Z62" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA62" t="n">
         <v>9.5</v>
@@ -9356,7 +9366,7 @@
         <v>21</v>
       </c>
       <c r="AG62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH62" t="n">
         <v>8</v>
@@ -9368,13 +9378,13 @@
         <v>41</v>
       </c>
       <c r="AK62" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL62" t="n">
         <v>15</v>
       </c>
       <c r="AM62" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN62" t="n">
         <v>13</v>
@@ -9423,22 +9433,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I63" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J63" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K63" t="n">
         <v>2.38</v>
       </c>
       <c r="L63" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M63" t="n">
         <v>1.03</v>
@@ -9459,10 +9469,10 @@
         <v>2.25</v>
       </c>
       <c r="S63" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="T63" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="U63" t="n">
         <v>2.5</v>
@@ -9471,13 +9481,13 @@
         <v>1.5</v>
       </c>
       <c r="W63" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X63" t="n">
         <v>3.4</v>
       </c>
       <c r="Y63" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Z63" t="n">
         <v>2.25</v>
@@ -9492,7 +9502,7 @@
         <v>9</v>
       </c>
       <c r="AD63" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE63" t="n">
         <v>15</v>
@@ -9516,13 +9526,13 @@
         <v>126</v>
       </c>
       <c r="AL63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM63" t="n">
         <v>21</v>
       </c>
       <c r="AN63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO63" t="n">
         <v>41</v>
@@ -9568,7 +9578,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H64" t="n">
         <v>4.1</v>
@@ -9604,10 +9614,10 @@
         <v>2.35</v>
       </c>
       <c r="S64" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="T64" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U64" t="n">
         <v>2.38</v>
@@ -9616,19 +9626,19 @@
         <v>1.53</v>
       </c>
       <c r="W64" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X64" t="n">
         <v>3.5</v>
       </c>
       <c r="Y64" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Z64" t="n">
         <v>2.25</v>
       </c>
       <c r="AA64" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB64" t="n">
         <v>10</v>
@@ -9649,7 +9659,7 @@
         <v>17</v>
       </c>
       <c r="AH64" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI64" t="n">
         <v>13</v>
@@ -9713,22 +9723,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="H65" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I65" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J65" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K65" t="n">
         <v>2.2</v>
       </c>
       <c r="L65" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M65" t="n">
         <v>1.04</v>
@@ -9743,10 +9753,10 @@
         <v>3.75</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="R65" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
@@ -9757,28 +9767,28 @@
         <v>1.33</v>
       </c>
       <c r="W65" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X65" t="n">
         <v>3</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="Z65" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA65" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB65" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AC65" t="n">
         <v>8.5</v>
       </c>
       <c r="AD65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE65" t="n">
         <v>15</v>
@@ -9787,25 +9797,25 @@
         <v>26</v>
       </c>
       <c r="AG65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH65" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI65" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ65" t="n">
         <v>51</v>
       </c>
       <c r="AK65" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM65" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN65" t="n">
         <v>13</v>
@@ -9814,10 +9824,10 @@
         <v>41</v>
       </c>
       <c r="AP65" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ65" t="n">
         <v>34</v>
-      </c>
-      <c r="AQ65" t="n">
-        <v>41</v>
       </c>
       <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr"/>
@@ -10001,7 +10011,7 @@
         <v>3.75</v>
       </c>
       <c r="I67" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J67" t="n">
         <v>2.5</v>
@@ -10025,16 +10035,16 @@
         <v>4.5</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R67" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S67" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="T67" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="U67" t="n">
         <v>2.5</v>
@@ -10055,13 +10065,13 @@
         <v>2.25</v>
       </c>
       <c r="AA67" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB67" t="n">
         <v>11</v>
       </c>
       <c r="AC67" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD67" t="n">
         <v>17</v>
@@ -10140,22 +10150,22 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="H68" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I68" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J68" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="K68" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L68" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="M68" t="n">
         <v>1.05</v>
@@ -10164,97 +10174,97 @@
         <v>11</v>
       </c>
       <c r="O68" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P68" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q68" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R68" t="n">
         <v>1.95</v>
       </c>
-      <c r="R68" t="n">
-        <v>1.9</v>
-      </c>
       <c r="S68" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="T68" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="U68" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V68" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W68" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X68" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y68" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z68" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AA68" t="n">
         <v>6</v>
       </c>
       <c r="AB68" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AC68" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD68" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE68" t="n">
         <v>13</v>
       </c>
       <c r="AF68" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG68" t="n">
         <v>9.5</v>
       </c>
       <c r="AH68" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI68" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ68" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK68" t="n">
         <v>501</v>
       </c>
       <c r="AL68" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM68" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN68" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO68" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AP68" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AQ68" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR68" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="69">
@@ -10325,10 +10335,10 @@
         <v>1.62</v>
       </c>
       <c r="S69" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T69" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="U69" t="n">
         <v>4.33</v>
@@ -10346,7 +10356,7 @@
         <v>2</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AA69" t="n">
         <v>9.5</v>
@@ -10441,19 +10451,19 @@
         <v>1.17</v>
       </c>
       <c r="H70" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J70" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="K70" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M70" t="n">
         <v>1.02</v>
@@ -10462,16 +10472,16 @@
         <v>19</v>
       </c>
       <c r="O70" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P70" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R70" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S70" t="n">
         <v>1.83</v>
@@ -10480,10 +10490,10 @@
         <v>2.03</v>
       </c>
       <c r="U70" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V70" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W70" t="n">
         <v>1.25</v>
@@ -10495,25 +10505,25 @@
         <v>2.2</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AA70" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB70" t="n">
         <v>6.5</v>
       </c>
       <c r="AC70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD70" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE70" t="n">
         <v>11</v>
       </c>
       <c r="AF70" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG70" t="n">
         <v>19</v>
@@ -10522,7 +10532,7 @@
         <v>15</v>
       </c>
       <c r="AI70" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ70" t="n">
         <v>81</v>
@@ -10534,7 +10544,7 @@
         <v>29</v>
       </c>
       <c r="AM70" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN70" t="n">
         <v>34</v>
@@ -10543,16 +10553,16 @@
         <v>201</v>
       </c>
       <c r="AP70" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AQ70" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR70" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="AS70" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="71">
@@ -10590,16 +10600,16 @@
         <v>2.25</v>
       </c>
       <c r="H71" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I71" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J71" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="K71" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L71" t="n">
         <v>3.6</v>
@@ -10611,42 +10621,42 @@
         <v>11</v>
       </c>
       <c r="O71" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P71" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q71" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R71" t="n">
         <v>1.88</v>
-      </c>
-      <c r="R71" t="n">
-        <v>1.98</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V71" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W71" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X71" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Z71" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC71" t="n">
         <v>9.5</v>
@@ -10655,16 +10665,16 @@
         <v>21</v>
       </c>
       <c r="AE71" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF71" t="n">
         <v>26</v>
       </c>
       <c r="AG71" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH71" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI71" t="n">
         <v>13</v>
@@ -10673,16 +10683,16 @@
         <v>41</v>
       </c>
       <c r="AK71" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL71" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM71" t="n">
         <v>15</v>
       </c>
       <c r="AN71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO71" t="n">
         <v>34</v>
@@ -10691,7 +10701,7 @@
         <v>23</v>
       </c>
       <c r="AQ71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
@@ -10749,7 +10759,7 @@
         <v>1.06</v>
       </c>
       <c r="N72" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O72" t="n">
         <v>1.33</v>
@@ -10778,10 +10788,10 @@
         <v>2.63</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z72" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA72" t="n">
         <v>8</v>
@@ -10908,7 +10918,7 @@
         <v>1.85</v>
       </c>
       <c r="T73" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U73" t="n">
         <v>2.25</v>
@@ -11147,22 +11157,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="H75" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I75" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J75" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="K75" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L75" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
@@ -11170,10 +11180,10 @@
         <v>1.3</v>
       </c>
       <c r="P75" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R75" t="n">
         <v>1.72</v>
@@ -11181,7 +11191,7 @@
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="V75" t="n">
         <v>1.28</v>
@@ -11193,58 +11203,58 @@
         <v>2.52</v>
       </c>
       <c r="Y75" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AA75" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AB75" t="n">
         <v>26</v>
       </c>
       <c r="AC75" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD75" t="n">
         <v>80</v>
       </c>
       <c r="AE75" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AF75" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG75" t="n">
         <v>9.5</v>
       </c>
       <c r="AH75" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AI75" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ75" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK75" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL75" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AM75" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AN75" t="n">
         <v>8.25</v>
       </c>
       <c r="AO75" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP75" t="n">
         <v>14</v>
-      </c>
-      <c r="AP75" t="n">
-        <v>14.5</v>
       </c>
       <c r="AQ75" t="n">
         <v>28</v>
@@ -11284,22 +11294,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H76" t="n">
         <v>4.75</v>
       </c>
       <c r="I76" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="J76" t="n">
         <v>6.5</v>
       </c>
       <c r="K76" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L76" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="M76" t="n">
         <v>1.03</v>
@@ -11320,10 +11330,10 @@
         <v>2.35</v>
       </c>
       <c r="S76" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="T76" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="U76" t="n">
         <v>2.38</v>
@@ -11338,22 +11348,22 @@
         <v>3.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA76" t="n">
         <v>19</v>
       </c>
       <c r="AB76" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD76" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AE76" t="n">
         <v>41</v>
@@ -11377,7 +11387,7 @@
         <v>251</v>
       </c>
       <c r="AL76" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM76" t="n">
         <v>7.5</v>
@@ -11453,24 +11463,24 @@
         <v>11</v>
       </c>
       <c r="O77" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P77" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q77" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="R77" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V77" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W77" t="n">
         <v>1.44</v>
@@ -11642,13 +11652,13 @@
         <v>26</v>
       </c>
       <c r="AE78" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF78" t="n">
         <v>41</v>
       </c>
       <c r="AG78" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH78" t="n">
         <v>5.5</v>
@@ -11681,10 +11691,10 @@
         <v>41</v>
       </c>
       <c r="AR78" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="79">
@@ -11719,31 +11729,31 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H79" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I79" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J79" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K79" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L79" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M79" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N79" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O79" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P79" t="n">
         <v>3</v>
@@ -11760,7 +11770,7 @@
         <v>3.75</v>
       </c>
       <c r="V79" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W79" t="n">
         <v>1.44</v>
@@ -11769,10 +11779,10 @@
         <v>2.63</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z79" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA79" t="n">
         <v>6.5</v>
@@ -11784,7 +11794,7 @@
         <v>9</v>
       </c>
       <c r="AD79" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE79" t="n">
         <v>17</v>
@@ -11793,10 +11803,10 @@
         <v>29</v>
       </c>
       <c r="AG79" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH79" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI79" t="n">
         <v>15</v>
@@ -11805,7 +11815,7 @@
         <v>51</v>
       </c>
       <c r="AK79" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL79" t="n">
         <v>11</v>
@@ -11820,7 +11830,7 @@
         <v>41</v>
       </c>
       <c r="AP79" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ79" t="n">
         <v>41</v>
@@ -11860,7 +11870,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H80" t="n">
         <v>2.9</v>
@@ -11869,22 +11879,22 @@
         <v>3.9</v>
       </c>
       <c r="J80" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K80" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L80" t="n">
         <v>4.5</v>
       </c>
       <c r="M80" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N80" t="n">
         <v>6.5</v>
       </c>
       <c r="O80" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P80" t="n">
         <v>2.5</v>
@@ -11901,7 +11911,7 @@
         <v>5</v>
       </c>
       <c r="V80" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W80" t="n">
         <v>1.57</v>
@@ -11922,7 +11932,7 @@
         <v>9</v>
       </c>
       <c r="AC80" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD80" t="n">
         <v>19</v>
@@ -11934,10 +11944,10 @@
         <v>41</v>
       </c>
       <c r="AG80" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH80" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI80" t="n">
         <v>17</v>
@@ -11967,10 +11977,10 @@
         <v>51</v>
       </c>
       <c r="AR80" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="81">
@@ -12005,22 +12015,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H81" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I81" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="J81" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K81" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="L81" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
@@ -12031,10 +12041,10 @@
         <v>4.4</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R81" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
@@ -12053,13 +12063,13 @@
         <v>1.95</v>
       </c>
       <c r="AA81" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB81" t="n">
         <v>32</v>
       </c>
       <c r="AC81" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD81" t="n">
         <v>90</v>
@@ -12074,13 +12084,13 @@
         <v>13.5</v>
       </c>
       <c r="AH81" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AI81" t="n">
         <v>14</v>
       </c>
       <c r="AJ81" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK81" t="n">
         <v>300</v>
@@ -12420,13 +12430,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H84" t="n">
         <v>4.1</v>
       </c>
       <c r="I84" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J84" t="n">
         <v>2.2</v>
@@ -12450,10 +12460,10 @@
         <v>3.4</v>
       </c>
       <c r="Q84" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R84" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
@@ -12515,16 +12525,16 @@
         <v>29</v>
       </c>
       <c r="AN84" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO84" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP84" t="n">
         <v>41</v>
       </c>
       <c r="AQ84" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR84" t="inlineStr"/>
       <c r="AS84" t="inlineStr"/>
@@ -12698,22 +12708,22 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H86" t="n">
         <v>2.9</v>
       </c>
       <c r="I86" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="J86" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K86" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L86" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M86" t="n">
         <v>1.1</v>
@@ -12728,24 +12738,24 @@
         <v>2.5</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R86" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V86" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W86" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X86" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y86" t="n">
         <v>2.2</v>
@@ -12754,16 +12764,16 @@
         <v>1.62</v>
       </c>
       <c r="AA86" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC86" t="n">
         <v>11</v>
       </c>
       <c r="AD86" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE86" t="n">
         <v>26</v>
@@ -12772,13 +12782,13 @@
         <v>41</v>
       </c>
       <c r="AG86" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH86" t="n">
         <v>6</v>
       </c>
       <c r="AI86" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ86" t="n">
         <v>81</v>
@@ -12790,25 +12800,25 @@
         <v>6.5</v>
       </c>
       <c r="AM86" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN86" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO86" t="n">
         <v>29</v>
       </c>
       <c r="AP86" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ86" t="n">
         <v>41</v>
       </c>
       <c r="AR86" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="87">
@@ -12843,28 +12853,28 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H87" t="n">
         <v>2.88</v>
       </c>
       <c r="I87" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J87" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L87" t="n">
         <v>3.6</v>
       </c>
-      <c r="K87" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.75</v>
-      </c>
       <c r="M87" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N87" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O87" t="n">
         <v>1.62</v>
@@ -12873,10 +12883,10 @@
         <v>2.2</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R87" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
@@ -12902,7 +12912,7 @@
         <v>6</v>
       </c>
       <c r="AB87" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC87" t="n">
         <v>12</v>
@@ -12914,7 +12924,7 @@
         <v>29</v>
       </c>
       <c r="AF87" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG87" t="n">
         <v>5.5</v>
@@ -12935,7 +12945,7 @@
         <v>6</v>
       </c>
       <c r="AM87" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN87" t="n">
         <v>12</v>
@@ -12947,7 +12957,7 @@
         <v>29</v>
       </c>
       <c r="AQ87" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR87" t="n">
         <v>1.95</v>
@@ -12991,37 +13001,37 @@
         <v>1.33</v>
       </c>
       <c r="H88" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I88" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J88" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K88" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L88" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M88" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N88" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O88" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P88" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R88" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
@@ -13032,16 +13042,16 @@
         <v>1.33</v>
       </c>
       <c r="W88" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X88" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y88" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z88" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA88" t="n">
         <v>6</v>
@@ -13062,10 +13072,10 @@
         <v>34</v>
       </c>
       <c r="AG88" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH88" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI88" t="n">
         <v>23</v>
@@ -13077,7 +13087,7 @@
         <v>101</v>
       </c>
       <c r="AL88" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AM88" t="n">
         <v>41</v>
@@ -13133,28 +13143,28 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="H89" t="n">
         <v>3.7</v>
       </c>
       <c r="I89" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="J89" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K89" t="n">
         <v>2.4</v>
       </c>
       <c r="L89" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M89" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N89" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O89" t="n">
         <v>1.14</v>
@@ -13163,16 +13173,16 @@
         <v>5.5</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R89" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S89" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T89" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U89" t="n">
         <v>2.2</v>
@@ -13181,10 +13191,10 @@
         <v>1.62</v>
       </c>
       <c r="W89" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="X89" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y89" t="n">
         <v>1.44</v>
@@ -13193,55 +13203,55 @@
         <v>2.63</v>
       </c>
       <c r="AA89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB89" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC89" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD89" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF89" t="n">
         <v>21</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF89" t="n">
-        <v>19</v>
       </c>
       <c r="AG89" t="n">
         <v>19</v>
       </c>
       <c r="AH89" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI89" t="n">
         <v>11</v>
       </c>
       <c r="AJ89" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK89" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL89" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM89" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP89" t="n">
         <v>19</v>
       </c>
-      <c r="AN89" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO89" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP89" t="n">
+      <c r="AQ89" t="n">
         <v>21</v>
-      </c>
-      <c r="AQ89" t="n">
-        <v>23</v>
       </c>
       <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr"/>
@@ -13423,40 +13433,40 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H91" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I91" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
         <v>4.33</v>
       </c>
       <c r="K91" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L91" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M91" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N91" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O91" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P91" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q91" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R91" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S91" t="n">
         <v>2.8</v>
@@ -13465,16 +13475,16 @@
         <v>1.44</v>
       </c>
       <c r="U91" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V91" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W91" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X91" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y91" t="n">
         <v>1.8</v>
@@ -13483,10 +13493,10 @@
         <v>1.91</v>
       </c>
       <c r="AA91" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB91" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC91" t="n">
         <v>13</v>
@@ -13495,13 +13505,13 @@
         <v>41</v>
       </c>
       <c r="AE91" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF91" t="n">
         <v>41</v>
       </c>
       <c r="AG91" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH91" t="n">
         <v>6.5</v>
@@ -13513,25 +13523,25 @@
         <v>51</v>
       </c>
       <c r="AK91" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL91" t="n">
         <v>7.5</v>
       </c>
       <c r="AM91" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AN91" t="n">
         <v>9</v>
-      </c>
-      <c r="AN91" t="n">
-        <v>8.5</v>
       </c>
       <c r="AO91" t="n">
         <v>17</v>
       </c>
       <c r="AP91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ91" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR91" t="n">
         <v>1.52</v>
@@ -13572,13 +13582,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H92" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I92" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J92" t="n">
         <v>2.1</v>
@@ -13590,10 +13600,10 @@
         <v>6</v>
       </c>
       <c r="M92" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N92" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O92" t="n">
         <v>1.36</v>
@@ -13602,10 +13612,10 @@
         <v>3</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R92" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S92" t="n">
         <v>3.2</v>
@@ -13635,13 +13645,13 @@
         <v>5.5</v>
       </c>
       <c r="AB92" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC92" t="n">
         <v>9</v>
       </c>
       <c r="AD92" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE92" t="n">
         <v>15</v>
@@ -13653,7 +13663,7 @@
         <v>9</v>
       </c>
       <c r="AH92" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI92" t="n">
         <v>21</v>
@@ -13668,7 +13678,7 @@
         <v>11</v>
       </c>
       <c r="AM92" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN92" t="n">
         <v>17</v>
@@ -13724,10 +13734,10 @@
         <v>9.5</v>
       </c>
       <c r="H93" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I93" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="J93" t="n">
         <v>8.5</v>
@@ -13757,10 +13767,10 @@
         <v>1.7</v>
       </c>
       <c r="S93" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T93" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="U93" t="n">
         <v>3.75</v>
@@ -13781,7 +13791,7 @@
         <v>1.5</v>
       </c>
       <c r="AA93" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB93" t="n">
         <v>41</v>
@@ -13799,16 +13809,16 @@
         <v>81</v>
       </c>
       <c r="AG93" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH93" t="n">
         <v>8</v>
       </c>
       <c r="AI93" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ93" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK93" t="n">
         <v>351</v>
@@ -13832,10 +13842,10 @@
         <v>41</v>
       </c>
       <c r="AR93" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="94">
@@ -13891,7 +13901,7 @@
         <v>1.06</v>
       </c>
       <c r="N94" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O94" t="n">
         <v>1.33</v>
@@ -14025,7 +14035,7 @@
         <v>3.1</v>
       </c>
       <c r="I95" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J95" t="n">
         <v>3.2</v>
@@ -14037,45 +14047,45 @@
         <v>3.5</v>
       </c>
       <c r="M95" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N95" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O95" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P95" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="R95" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V95" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W95" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X95" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="Y95" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z95" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA95" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB95" t="n">
         <v>12</v>
@@ -14093,7 +14103,7 @@
         <v>29</v>
       </c>
       <c r="AG95" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH95" t="n">
         <v>6</v>
@@ -14102,13 +14112,13 @@
         <v>13</v>
       </c>
       <c r="AJ95" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK95" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL95" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM95" t="n">
         <v>15</v>
@@ -14123,7 +14133,7 @@
         <v>23</v>
       </c>
       <c r="AQ95" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR95" t="inlineStr"/>
       <c r="AS95" t="inlineStr"/>
@@ -14163,10 +14173,10 @@
         <v>2.55</v>
       </c>
       <c r="H96" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I96" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J96" t="n">
         <v>3.2</v>
@@ -14178,10 +14188,10 @@
         <v>3.25</v>
       </c>
       <c r="M96" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O96" t="n">
         <v>1.25</v>
@@ -14190,10 +14200,10 @@
         <v>3.75</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R96" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
@@ -14204,10 +14214,10 @@
         <v>1.36</v>
       </c>
       <c r="W96" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X96" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y96" t="n">
         <v>1.67</v>
@@ -14216,7 +14226,7 @@
         <v>2.1</v>
       </c>
       <c r="AA96" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB96" t="n">
         <v>13</v>
@@ -14228,19 +14238,19 @@
         <v>26</v>
       </c>
       <c r="AE96" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF96" t="n">
         <v>26</v>
       </c>
       <c r="AG96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH96" t="n">
         <v>6.5</v>
       </c>
       <c r="AI96" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ96" t="n">
         <v>41</v>
@@ -14252,7 +14262,7 @@
         <v>10</v>
       </c>
       <c r="AM96" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN96" t="n">
         <v>10</v>
@@ -14264,7 +14274,7 @@
         <v>21</v>
       </c>
       <c r="AQ96" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR96" t="inlineStr"/>
       <c r="AS96" t="inlineStr"/>
@@ -14301,28 +14311,28 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H97" t="n">
         <v>3.9</v>
       </c>
       <c r="I97" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J97" t="n">
         <v>5.5</v>
       </c>
       <c r="K97" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L97" t="n">
         <v>2.1</v>
       </c>
       <c r="M97" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N97" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O97" t="n">
         <v>1.2</v>
@@ -14345,10 +14355,10 @@
         <v>1.44</v>
       </c>
       <c r="W97" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X97" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y97" t="n">
         <v>1.75</v>
@@ -14357,16 +14367,16 @@
         <v>2</v>
       </c>
       <c r="AA97" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB97" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC97" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD97" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE97" t="n">
         <v>41</v>
@@ -14405,7 +14415,7 @@
         <v>12</v>
       </c>
       <c r="AQ97" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR97" t="inlineStr"/>
       <c r="AS97" t="inlineStr"/>
@@ -14442,16 +14452,16 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H98" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I98" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J98" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K98" t="n">
         <v>2.2</v>
@@ -14472,18 +14482,18 @@
         <v>3.5</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R98" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V98" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W98" t="n">
         <v>1.4</v>
@@ -14507,13 +14517,13 @@
         <v>8.5</v>
       </c>
       <c r="AD98" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE98" t="n">
         <v>13</v>
       </c>
       <c r="AF98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG98" t="n">
         <v>10</v>
@@ -14528,13 +14538,13 @@
         <v>51</v>
       </c>
       <c r="AK98" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL98" t="n">
         <v>13</v>
       </c>
       <c r="AM98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN98" t="n">
         <v>17</v>
@@ -14604,7 +14614,7 @@
         <v>1.08</v>
       </c>
       <c r="N99" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O99" t="n">
         <v>1.44</v>
@@ -14621,16 +14631,16 @@
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V99" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W99" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X99" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Y99" t="n">
         <v>2</v>
@@ -14690,10 +14700,10 @@
         <v>41</v>
       </c>
       <c r="AR99" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="100">
@@ -14728,13 +14738,13 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H100" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I100" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J100" t="n">
         <v>2.3</v>
@@ -14772,7 +14782,7 @@
         <v>1.33</v>
       </c>
       <c r="W100" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X100" t="n">
         <v>2.75</v>
@@ -14887,10 +14897,10 @@
         <v>5</v>
       </c>
       <c r="M101" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N101" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O101" t="n">
         <v>1.44</v>
@@ -14899,24 +14909,24 @@
         <v>2.63</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="R101" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V101" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W101" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X101" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Y101" t="n">
         <v>2.2</v>
@@ -14976,10 +14986,10 @@
         <v>51</v>
       </c>
       <c r="AR101" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="102">
@@ -15014,22 +15024,22 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H102" t="n">
         <v>2.9</v>
       </c>
       <c r="I102" t="n">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="J102" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K102" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L102" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M102" t="n">
         <v>1.1</v>
@@ -15058,10 +15068,10 @@
         <v>1.18</v>
       </c>
       <c r="W102" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X102" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Y102" t="n">
         <v>2</v>
@@ -15070,19 +15080,19 @@
         <v>1.73</v>
       </c>
       <c r="AA102" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB102" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC102" t="n">
         <v>12</v>
       </c>
-      <c r="AC102" t="n">
-        <v>11</v>
-      </c>
       <c r="AD102" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE102" t="n">
         <v>29</v>
-      </c>
-      <c r="AE102" t="n">
-        <v>26</v>
       </c>
       <c r="AF102" t="n">
         <v>41</v>
@@ -15097,25 +15107,25 @@
         <v>17</v>
       </c>
       <c r="AJ102" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK102" t="n">
         <v>1000</v>
       </c>
       <c r="AL102" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM102" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN102" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO102" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP102" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ102" t="n">
         <v>41</v>
@@ -15168,10 +15178,10 @@
         <v>2.9</v>
       </c>
       <c r="J103" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K103" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L103" t="n">
         <v>3.75</v>
@@ -15180,13 +15190,13 @@
         <v>1.08</v>
       </c>
       <c r="N103" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O103" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P103" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q103" t="n">
         <v>2.35</v>
@@ -15203,16 +15213,16 @@
         <v>1.2</v>
       </c>
       <c r="W103" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="X103" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y103" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z103" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA103" t="n">
         <v>7</v>
@@ -15242,7 +15252,7 @@
         <v>17</v>
       </c>
       <c r="AJ103" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK103" t="n">
         <v>301</v>
@@ -15260,13 +15270,17 @@
         <v>34</v>
       </c>
       <c r="AP103" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ103" t="n">
         <v>41</v>
       </c>
-      <c r="AR103" t="inlineStr"/>
-      <c r="AS103" t="inlineStr"/>
+      <c r="AR103" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -15344,7 +15358,7 @@
         <v>1.33</v>
       </c>
       <c r="W104" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X104" t="n">
         <v>2.75</v>
@@ -15441,37 +15455,37 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H105" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I105" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="J105" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="K105" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L105" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="M105" t="n">
         <v>1.07</v>
       </c>
       <c r="N105" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O105" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P105" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R105" t="n">
         <v>1.75</v>
@@ -15479,7 +15493,7 @@
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="V105" t="n">
         <v>1.29</v>
@@ -15488,37 +15502,37 @@
         <v>1.44</v>
       </c>
       <c r="X105" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="Y105" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Z105" t="n">
         <v>1.87</v>
       </c>
       <c r="AA105" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB105" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC105" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD105" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE105" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF105" t="n">
         <v>45</v>
       </c>
       <c r="AG105" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AH105" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AI105" t="n">
         <v>15.5</v>
@@ -15533,19 +15547,19 @@
         <v>6.7</v>
       </c>
       <c r="AM105" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AN105" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AO105" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP105" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ105" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR105" t="inlineStr"/>
       <c r="AS105" t="inlineStr"/>
@@ -15732,19 +15746,19 @@
         <v>3.55</v>
       </c>
       <c r="J107" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="K107" t="n">
         <v>2.05</v>
       </c>
       <c r="L107" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="M107" t="n">
         <v>1.06</v>
       </c>
       <c r="N107" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="O107" t="n">
         <v>1.3</v>
@@ -15753,7 +15767,7 @@
         <v>3.2</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R107" t="n">
         <v>1.82</v>
@@ -15779,25 +15793,25 @@
         <v>2</v>
       </c>
       <c r="AA107" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AB107" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AC107" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD107" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE107" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF107" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG107" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AH107" t="n">
         <v>6.3</v>
@@ -15812,13 +15826,13 @@
         <v>450</v>
       </c>
       <c r="AL107" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AM107" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN107" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO107" t="n">
         <v>55</v>
@@ -15827,7 +15841,7 @@
         <v>32</v>
       </c>
       <c r="AQ107" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR107" t="inlineStr"/>
       <c r="AS107" t="inlineStr"/>
@@ -15867,13 +15881,13 @@
         <v>2.7</v>
       </c>
       <c r="H108" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I108" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="J108" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K108" t="n">
         <v>1.8</v>
@@ -15888,24 +15902,24 @@
         <v>4.9</v>
       </c>
       <c r="O108" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P108" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="R108" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="V108" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W108" t="n">
         <v>1.65</v>
@@ -15914,13 +15928,13 @@
         <v>2.1</v>
       </c>
       <c r="Y108" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="Z108" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AA108" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB108" t="n">
         <v>11.75</v>
@@ -15941,34 +15955,34 @@
         <v>4.9</v>
       </c>
       <c r="AH108" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AI108" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ108" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AK108" t="n">
         <v>900</v>
       </c>
       <c r="AL108" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AM108" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AN108" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO108" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP108" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ108" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR108" t="inlineStr"/>
       <c r="AS108" t="inlineStr"/>
@@ -16146,22 +16160,22 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="H110" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I110" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="J110" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="K110" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L110" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M110" t="n">
         <v>1.01</v>
@@ -16170,78 +16184,78 @@
         <v>34</v>
       </c>
       <c r="O110" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P110" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="R110" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="V110" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="W110" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="X110" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y110" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="Z110" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AA110" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB110" t="n">
         <v>17</v>
       </c>
       <c r="AC110" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AD110" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE110" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF110" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG110" t="n">
         <v>34</v>
       </c>
       <c r="AH110" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AI110" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ110" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AK110" t="n">
         <v>126</v>
       </c>
       <c r="AL110" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AM110" t="n">
         <v>151</v>
       </c>
       <c r="AN110" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AO110" t="n">
         <v>101</v>
@@ -16250,7 +16264,7 @@
         <v>126</v>
       </c>
       <c r="AQ110" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AR110" t="inlineStr"/>
       <c r="AS110" t="inlineStr"/>
@@ -16290,60 +16304,60 @@
         <v>3.85</v>
       </c>
       <c r="H111" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I111" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="J111" t="n">
         <v>4.1</v>
       </c>
       <c r="K111" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L111" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="M111" t="n">
         <v>1.04</v>
       </c>
       <c r="N111" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O111" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P111" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="R111" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="n">
-        <v>2.72</v>
+        <v>2.57</v>
       </c>
       <c r="V111" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="W111" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="X111" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Y111" t="n">
         <v>1.65</v>
       </c>
       <c r="Z111" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AA111" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB111" t="n">
         <v>24</v>
@@ -16358,28 +16372,28 @@
         <v>35</v>
       </c>
       <c r="AF111" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG111" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH111" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AI111" t="n">
         <v>15</v>
       </c>
       <c r="AJ111" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK111" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AL111" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AM111" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AN111" t="n">
         <v>8.75</v>
@@ -16388,10 +16402,10 @@
         <v>16</v>
       </c>
       <c r="AP111" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ111" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR111" t="inlineStr"/>
       <c r="AS111" t="inlineStr"/>
@@ -16428,28 +16442,28 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="H112" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I112" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J112" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="K112" t="n">
         <v>2.02</v>
       </c>
       <c r="L112" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M112" t="n">
         <v>1.06</v>
       </c>
       <c r="N112" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="O112" t="n">
         <v>1.28</v>
@@ -16458,7 +16472,7 @@
         <v>3.5</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R112" t="n">
         <v>1.91</v>
@@ -16469,7 +16483,7 @@
         <v>2.92</v>
       </c>
       <c r="V112" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W112" t="n">
         <v>1.44</v>
@@ -16484,31 +16498,31 @@
         <v>2.15</v>
       </c>
       <c r="AA112" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AB112" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AC112" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD112" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE112" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF112" t="n">
         <v>25</v>
       </c>
       <c r="AG112" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AH112" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AI112" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ112" t="n">
         <v>55</v>
@@ -16517,22 +16531,22 @@
         <v>400</v>
       </c>
       <c r="AL112" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AM112" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AN112" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO112" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AP112" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AQ112" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR112" t="inlineStr"/>
       <c r="AS112" t="inlineStr"/>
@@ -16575,7 +16589,7 @@
         <v>3.4</v>
       </c>
       <c r="I113" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J113" t="n">
         <v>2.5</v>
@@ -16587,16 +16601,16 @@
         <v>6</v>
       </c>
       <c r="M113" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N113" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O113" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P113" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q113" t="n">
         <v>2.6</v>
@@ -16619,16 +16633,16 @@
         <v>2.25</v>
       </c>
       <c r="Y113" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z113" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA113" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AB113" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC113" t="n">
         <v>9.5</v>
@@ -16676,10 +16690,10 @@
         <v>51</v>
       </c>
       <c r="AR113" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="114">
@@ -16720,13 +16734,13 @@
         <v>3.1</v>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J114" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K114" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L114" t="n">
         <v>3.6</v>
@@ -16744,18 +16758,18 @@
         <v>3</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R114" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V114" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W114" t="n">
         <v>1.5</v>
@@ -16773,7 +16787,7 @@
         <v>7.5</v>
       </c>
       <c r="AB114" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC114" t="n">
         <v>10</v>
@@ -16803,22 +16817,22 @@
         <v>301</v>
       </c>
       <c r="AL114" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM114" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO114" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP114" t="n">
         <v>26</v>
       </c>
       <c r="AQ114" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR114" t="inlineStr"/>
       <c r="AS114" t="inlineStr"/>
@@ -17030,10 +17044,10 @@
         <v>2.63</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R116" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
@@ -17044,10 +17058,10 @@
         <v>1.18</v>
       </c>
       <c r="W116" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X116" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Y116" t="n">
         <v>2.63</v>
@@ -17107,10 +17121,10 @@
         <v>81</v>
       </c>
       <c r="AR116" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="117">
@@ -17175,10 +17189,10 @@
         <v>3.75</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="R117" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
@@ -17189,7 +17203,7 @@
         <v>1.36</v>
       </c>
       <c r="W117" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X117" t="n">
         <v>3</v>
@@ -17289,16 +17303,16 @@
         <v>2.1</v>
       </c>
       <c r="H118" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I118" t="n">
         <v>3.1</v>
       </c>
       <c r="J118" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K118" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L118" t="n">
         <v>3.5</v>
@@ -17316,16 +17330,16 @@
         <v>5</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R118" t="n">
         <v>2.35</v>
       </c>
       <c r="S118" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="T118" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="U118" t="n">
         <v>2.38</v>
@@ -17334,22 +17348,22 @@
         <v>1.53</v>
       </c>
       <c r="W118" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X118" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y118" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z118" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA118" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB118" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC118" t="n">
         <v>9</v>
@@ -17364,7 +17378,7 @@
         <v>21</v>
       </c>
       <c r="AG118" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH118" t="n">
         <v>7.5</v>
@@ -17373,10 +17387,10 @@
         <v>12</v>
       </c>
       <c r="AJ118" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK118" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL118" t="n">
         <v>13</v>
@@ -17391,10 +17405,10 @@
         <v>34</v>
       </c>
       <c r="AP118" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ118" t="n">
         <v>23</v>
-      </c>
-      <c r="AQ118" t="n">
-        <v>26</v>
       </c>
       <c r="AR118" t="inlineStr"/>
       <c r="AS118" t="inlineStr"/>
@@ -17461,16 +17475,16 @@
         <v>5</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R119" t="n">
         <v>2.35</v>
       </c>
       <c r="S119" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="T119" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="U119" t="n">
         <v>2.38</v>
@@ -17479,7 +17493,7 @@
         <v>1.53</v>
       </c>
       <c r="W119" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X119" t="n">
         <v>3.5</v>
@@ -17620,7 +17634,7 @@
         <v>1.44</v>
       </c>
       <c r="W120" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X120" t="n">
         <v>3.25</v>
@@ -17717,22 +17731,22 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="H121" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I121" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="J121" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K121" t="n">
         <v>2.2</v>
       </c>
       <c r="L121" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="M121" t="n">
         <v>1.04</v>
@@ -17773,22 +17787,22 @@
         <v>2.42</v>
       </c>
       <c r="AA121" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AB121" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC121" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD121" t="n">
         <v>35</v>
       </c>
       <c r="AE121" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF121" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG121" t="n">
         <v>8.5</v>
@@ -17806,22 +17820,22 @@
         <v>200</v>
       </c>
       <c r="AL121" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AM121" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN121" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AO121" t="n">
         <v>27</v>
       </c>
       <c r="AP121" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ121" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR121" t="inlineStr"/>
       <c r="AS121" t="inlineStr"/>
@@ -18002,37 +18016,37 @@
         <v>2.02</v>
       </c>
       <c r="H123" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I123" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J123" t="n">
         <v>2.6</v>
       </c>
       <c r="K123" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L123" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="M123" t="n">
         <v>1.05</v>
       </c>
       <c r="N123" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="O123" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P123" t="n">
         <v>3.6</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R123" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr"/>
@@ -18043,28 +18057,28 @@
         <v>1.4</v>
       </c>
       <c r="W123" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X123" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="Y123" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Z123" t="n">
         <v>2.18</v>
       </c>
       <c r="AA123" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB123" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AC123" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD123" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE123" t="n">
         <v>15</v>
@@ -18073,13 +18087,13 @@
         <v>22</v>
       </c>
       <c r="AG123" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AH123" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AI123" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ123" t="n">
         <v>50</v>
@@ -18088,22 +18102,22 @@
         <v>300</v>
       </c>
       <c r="AL123" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AM123" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AN123" t="n">
         <v>11.5</v>
       </c>
       <c r="AO123" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP123" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ123" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR123" t="inlineStr"/>
       <c r="AS123" t="inlineStr"/>
@@ -18140,22 +18154,22 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H124" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I124" t="n">
-        <v>4.4</v>
+        <v>4.75</v>
       </c>
       <c r="J124" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="K124" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L124" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="M124" t="n">
         <v>1.05</v>
@@ -18178,67 +18192,67 @@
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="V124" t="n">
         <v>1.4</v>
       </c>
       <c r="W124" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X124" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Y124" t="n">
         <v>1.72</v>
       </c>
       <c r="Z124" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="AA124" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AB124" t="n">
         <v>8.25</v>
       </c>
       <c r="AC124" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD124" t="n">
         <v>13</v>
       </c>
       <c r="AE124" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF124" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG124" t="n">
         <v>8</v>
       </c>
       <c r="AH124" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AI124" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ124" t="n">
         <v>60</v>
       </c>
       <c r="AK124" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AL124" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AM124" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN124" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO124" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AP124" t="n">
         <v>40</v>
@@ -18281,87 +18295,87 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="H125" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="I125" t="n">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="J125" t="n">
-        <v>2.47</v>
+        <v>2.72</v>
       </c>
       <c r="K125" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L125" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="M125" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N125" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O125" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P125" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R125" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="V125" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="W125" t="n">
         <v>1.3</v>
       </c>
       <c r="X125" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Y125" t="n">
         <v>1.5</v>
       </c>
       <c r="Z125" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AA125" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB125" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AC125" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD125" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AE125" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AF125" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG125" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH125" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AI125" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AJ125" t="n">
         <v>37</v>
@@ -18370,22 +18384,22 @@
         <v>200</v>
       </c>
       <c r="AL125" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM125" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AN125" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO125" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AP125" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AQ125" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR125" t="inlineStr"/>
       <c r="AS125" t="inlineStr"/>
@@ -18422,31 +18436,31 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H126" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I126" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K126" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L126" t="n">
         <v>3.5</v>
       </c>
-      <c r="I126" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J126" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K126" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L126" t="n">
-        <v>3.4</v>
-      </c>
       <c r="M126" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N126" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O126" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P126" t="n">
         <v>5</v>
@@ -18458,16 +18472,16 @@
         <v>2.35</v>
       </c>
       <c r="S126" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T126" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="U126" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="V126" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W126" t="n">
         <v>1.3</v>
@@ -18476,10 +18490,10 @@
         <v>3.4</v>
       </c>
       <c r="Y126" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z126" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA126" t="n">
         <v>11</v>
@@ -18488,22 +18502,22 @@
         <v>13</v>
       </c>
       <c r="AC126" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD126" t="n">
         <v>21</v>
       </c>
       <c r="AE126" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF126" t="n">
         <v>21</v>
       </c>
       <c r="AG126" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH126" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI126" t="n">
         <v>12</v>
@@ -18512,19 +18526,19 @@
         <v>34</v>
       </c>
       <c r="AK126" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL126" t="n">
         <v>13</v>
       </c>
       <c r="AM126" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN126" t="n">
         <v>11</v>
       </c>
       <c r="AO126" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP126" t="n">
         <v>21</v>
@@ -18567,70 +18581,70 @@
         </is>
       </c>
       <c r="G127" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H127" t="n">
         <v>4.33</v>
       </c>
-      <c r="H127" t="n">
-        <v>4.1</v>
-      </c>
       <c r="I127" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="J127" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K127" t="n">
         <v>2.5</v>
       </c>
       <c r="L127" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M127" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N127" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O127" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P127" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R127" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S127" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="T127" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="U127" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V127" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W127" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X127" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y127" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z127" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA127" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB127" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC127" t="n">
         <v>15</v>
@@ -18645,10 +18659,10 @@
         <v>34</v>
       </c>
       <c r="AG127" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH127" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI127" t="n">
         <v>15</v>
@@ -18657,10 +18671,10 @@
         <v>41</v>
       </c>
       <c r="AK127" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL127" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM127" t="n">
         <v>9.5</v>
@@ -18675,7 +18689,7 @@
         <v>12</v>
       </c>
       <c r="AQ127" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR127" t="inlineStr"/>
       <c r="AS127" t="inlineStr"/>
@@ -18750,10 +18764,10 @@
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V128" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W128" t="n">
         <v>1.44</v>
@@ -18798,7 +18812,7 @@
         <v>51</v>
       </c>
       <c r="AK128" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL128" t="n">
         <v>7.5</v>
@@ -18810,7 +18824,7 @@
         <v>9</v>
       </c>
       <c r="AO128" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP128" t="n">
         <v>19</v>
@@ -18994,45 +19008,45 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H130" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I130" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J130" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K130" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L130" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M130" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N130" t="n">
         <v>11</v>
       </c>
       <c r="O130" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P130" t="n">
         <v>3.5</v>
       </c>
       <c r="Q130" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R130" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V130" t="n">
         <v>1.3</v>
@@ -19053,16 +19067,16 @@
         <v>7</v>
       </c>
       <c r="AB130" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC130" t="n">
         <v>8.5</v>
       </c>
       <c r="AD130" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE130" t="n">
         <v>13</v>
-      </c>
-      <c r="AE130" t="n">
-        <v>15</v>
       </c>
       <c r="AF130" t="n">
         <v>26</v>
@@ -19071,7 +19085,7 @@
         <v>10</v>
       </c>
       <c r="AH130" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI130" t="n">
         <v>17</v>
@@ -19083,13 +19097,13 @@
         <v>301</v>
       </c>
       <c r="AL130" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM130" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN130" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO130" t="n">
         <v>51</v>
@@ -19135,34 +19149,34 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H131" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I131" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J131" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K131" t="n">
         <v>2.1</v>
       </c>
       <c r="L131" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M131" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N131" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O131" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P131" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q131" t="n">
         <v>1.98</v>
@@ -19176,7 +19190,7 @@
         <v>3.4</v>
       </c>
       <c r="V131" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W131" t="n">
         <v>1.4</v>
@@ -19185,28 +19199,28 @@
         <v>2.75</v>
       </c>
       <c r="Y131" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z131" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA131" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB131" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC131" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD131" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE131" t="n">
         <v>19</v>
       </c>
-      <c r="AE131" t="n">
-        <v>17</v>
-      </c>
       <c r="AF131" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG131" t="n">
         <v>10</v>
@@ -19221,22 +19235,22 @@
         <v>51</v>
       </c>
       <c r="AK131" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL131" t="n">
         <v>10</v>
       </c>
       <c r="AM131" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN131" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO131" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP131" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ131" t="n">
         <v>34</v>
@@ -19276,22 +19290,22 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H132" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I132" t="n">
+        <v>3</v>
+      </c>
+      <c r="J132" t="n">
         <v>2.75</v>
       </c>
-      <c r="J132" t="n">
-        <v>3</v>
-      </c>
       <c r="K132" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L132" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M132" t="n">
         <v>1.04</v>
@@ -19335,25 +19349,25 @@
         <v>9</v>
       </c>
       <c r="AB132" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC132" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD132" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF132" t="n">
         <v>23</v>
-      </c>
-      <c r="AE132" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF132" t="n">
-        <v>26</v>
       </c>
       <c r="AG132" t="n">
         <v>12</v>
       </c>
       <c r="AH132" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI132" t="n">
         <v>13</v>
@@ -19365,19 +19379,19 @@
         <v>151</v>
       </c>
       <c r="AL132" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM132" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN132" t="n">
         <v>11</v>
       </c>
       <c r="AO132" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP132" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ132" t="n">
         <v>29</v>
@@ -19699,111 +19713,111 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="H135" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I135" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J135" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K135" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L135" t="n">
         <v>2.7</v>
       </c>
       <c r="M135" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N135" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O135" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P135" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="Q135" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="R135" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="V135" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W135" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="X135" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="Y135" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Z135" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="AA135" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB135" t="n">
         <v>20</v>
       </c>
       <c r="AC135" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AD135" t="n">
         <v>45</v>
       </c>
       <c r="AE135" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF135" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AG135" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH135" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AI135" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AJ135" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AK135" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AL135" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AM135" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AN135" t="n">
         <v>8.5</v>
       </c>
       <c r="AO135" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP135" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ135" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AR135" t="inlineStr"/>
       <c r="AS135" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
@@ -698,10 +698,10 @@
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
@@ -710,31 +710,31 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="U2" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
         <v>1.53</v>
@@ -746,22 +746,22 @@
         <v>3.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
         <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -773,16 +773,16 @@
         <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL2" t="n">
         <v>19</v>
@@ -794,7 +794,7 @@
         <v>17</v>
       </c>
       <c r="AO2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -837,16 +837,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
@@ -867,10 +867,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="R3" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -881,19 +881,19 @@
         <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X3" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB3" t="n">
         <v>15</v>
@@ -914,10 +914,10 @@
         <v>9.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
         <v>51</v>
@@ -932,13 +932,13 @@
         <v>12</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO3" t="n">
         <v>23</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>29</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -987,10 +987,10 @@
         <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L4" t="n">
         <v>4.75</v>
@@ -1002,10 +1002,10 @@
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q4" t="n">
         <v>1.67</v>
@@ -1016,19 +1016,19 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="V4" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="W4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X4" t="n">
         <v>3.25</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Z4" t="n">
         <v>2.05</v>
@@ -1052,7 +1052,7 @@
         <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
         <v>7.5</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AK4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
@@ -1119,22 +1119,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H5" t="n">
         <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="J5" t="n">
         <v>5.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1149,10 +1149,10 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -1163,16 +1163,16 @@
         <v>1.37</v>
       </c>
       <c r="W5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X5" t="n">
         <v>3.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1199,16 +1199,16 @@
         <v>8</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
         <v>51</v>
       </c>
       <c r="AK5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM5" t="n">
         <v>8</v>
@@ -1220,7 +1220,7 @@
         <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>23</v>
@@ -1263,7 +1263,7 @@
         <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
         <v>3.2</v>
@@ -1311,13 +1311,13 @@
         <v>1.3</v>
       </c>
       <c r="X6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA6" t="n">
         <v>10</v>
@@ -1332,34 +1332,34 @@
         <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK6" t="n">
         <v>126</v>
       </c>
       <c r="AL6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>34</v>
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
         <v>4.1</v>
@@ -1453,13 +1453,13 @@
         <v>1.41</v>
       </c>
       <c r="W7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X7" t="n">
         <v>3.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Z7" t="n">
         <v>2</v>
@@ -1691,28 +1691,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J9" t="n">
         <v>2.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
         <v>1.22</v>
@@ -1721,18 +1721,18 @@
         <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W9" t="n">
         <v>1.33</v>
@@ -1741,13 +1741,13 @@
         <v>3.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB9" t="n">
         <v>10</v>
@@ -1759,10 +1759,10 @@
         <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
@@ -1771,7 +1771,7 @@
         <v>7</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>41</v>
@@ -1780,10 +1780,10 @@
         <v>151</v>
       </c>
       <c r="AL9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN9" t="n">
         <v>13</v>
@@ -1835,16 +1835,16 @@
         <v>1.3</v>
       </c>
       <c r="H10" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I10" t="n">
         <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L10" t="n">
         <v>8.5</v>
@@ -1856,39 +1856,43 @@
         <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
+        <v>2.38</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.9</v>
+      </c>
       <c r="U10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AA10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB10" t="n">
         <v>6.5</v>
@@ -1903,25 +1907,25 @@
         <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
         <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>67</v>
       </c>
       <c r="AK10" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
@@ -1973,10 +1977,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
         <v>1.85</v>
@@ -1988,7 +1992,7 @@
         <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -2011,25 +2015,25 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X11" t="n">
         <v>2.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AA11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB11" t="n">
         <v>21</v>
@@ -2053,13 +2057,13 @@
         <v>6.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
         <v>67</v>
       </c>
       <c r="AK11" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL11" t="n">
         <v>6</v>
@@ -2114,7 +2118,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -2132,16 +2136,16 @@
         <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
         <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q12" t="n">
         <v>2.1</v>
@@ -2152,16 +2156,16 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X12" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y12" t="n">
         <v>2.2</v>
@@ -2170,7 +2174,7 @@
         <v>1.62</v>
       </c>
       <c r="AA12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB12" t="n">
         <v>6</v>
@@ -2218,7 +2222,7 @@
         <v>51</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2400,22 +2404,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="H14" t="n">
         <v>4.75</v>
       </c>
       <c r="I14" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K14" t="n">
         <v>2.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2436,16 +2440,16 @@
         <v>2.4</v>
       </c>
       <c r="S14" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T14" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U14" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V14" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W14" t="n">
         <v>1.29</v>
@@ -2454,10 +2458,10 @@
         <v>3.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="Z14" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA14" t="n">
         <v>19</v>
@@ -2466,7 +2470,7 @@
         <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD14" t="n">
         <v>67</v>
@@ -2484,25 +2488,25 @@
         <v>9</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM14" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>8</v>
       </c>
       <c r="AN14" t="n">
         <v>8.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>11</v>
@@ -2545,19 +2549,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
         <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L15" t="n">
         <v>3.4</v>
@@ -2575,16 +2579,16 @@
         <v>4.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R15" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S15" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U15" t="n">
         <v>2.5</v>
@@ -2593,19 +2597,19 @@
         <v>1.5</v>
       </c>
       <c r="W15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB15" t="n">
         <v>13</v>
@@ -2617,7 +2621,7 @@
         <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>21</v>
@@ -2626,19 +2630,19 @@
         <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="n">
         <v>126</v>
       </c>
       <c r="AL15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM15" t="n">
         <v>17</v>
@@ -2653,7 +2657,7 @@
         <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2708,49 +2712,49 @@
         <v>7.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
         <v>17</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R16" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S16" t="n">
-        <v>2.03</v>
+        <v>1.87</v>
       </c>
       <c r="T16" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U16" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="V16" t="n">
         <v>1.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AA16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB16" t="n">
         <v>7</v>
@@ -2765,7 +2769,7 @@
         <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
@@ -2853,10 +2857,10 @@
         <v>2.63</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
         <v>1.22</v>
@@ -2883,7 +2887,7 @@
         <v>1.4</v>
       </c>
       <c r="W17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X17" t="n">
         <v>3.25</v>
@@ -3001,7 +3005,7 @@
         <v>1.17</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O18" t="n">
         <v>1.8</v>
@@ -3060,7 +3064,7 @@
         <v>6</v>
       </c>
       <c r="AI18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ18" t="n">
         <v>126</v>
@@ -3069,10 +3073,10 @@
         <v>401</v>
       </c>
       <c r="AL18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN18" t="n">
         <v>15</v>
@@ -3125,10 +3129,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
         <v>5.25</v>
@@ -3155,10 +3159,10 @@
         <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -3178,7 +3182,7 @@
         <v>2.1</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AA19" t="n">
         <v>5.5</v>
@@ -3205,7 +3209,7 @@
         <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="n">
         <v>67</v>
@@ -3270,7 +3274,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
@@ -3300,10 +3304,10 @@
         <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -3323,7 +3327,7 @@
         <v>2.25</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AA20" t="n">
         <v>5.5</v>
@@ -3417,7 +3421,7 @@
         <v>4.75</v>
       </c>
       <c r="I21" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="J21" t="n">
         <v>5.5</v>
@@ -3441,10 +3445,10 @@
         <v>5.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R21" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="S21" t="n">
         <v>1.83</v>
@@ -3465,7 +3469,7 @@
         <v>3.75</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Z21" t="n">
         <v>2.2</v>
@@ -3556,13 +3560,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="J22" t="n">
         <v>3.5</v>
@@ -3589,13 +3593,13 @@
         <v>2.5</v>
       </c>
       <c r="R22" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="U22" t="n">
         <v>5</v>
@@ -3613,7 +3617,7 @@
         <v>2.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AA22" t="n">
         <v>6.5</v>
@@ -3705,16 +3709,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I23" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
         <v>1.73</v>
@@ -3723,10 +3727,10 @@
         <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N23" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.83</v>
@@ -3735,37 +3739,37 @@
         <v>1.83</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R23" t="n">
         <v>1.25</v>
       </c>
       <c r="S23" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="T23" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="U23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W23" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="X23" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="Y23" t="n">
         <v>2.75</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB23" t="n">
         <v>11</v>
@@ -3774,7 +3778,7 @@
         <v>13</v>
       </c>
       <c r="AD23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE23" t="n">
         <v>34</v>
@@ -3810,7 +3814,7 @@
         <v>34</v>
       </c>
       <c r="AP23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ23" t="n">
         <v>51</v>
@@ -3854,7 +3858,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
@@ -3887,7 +3891,7 @@
         <v>2.6</v>
       </c>
       <c r="R24" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S24" t="n">
         <v>4.4</v>
@@ -3911,7 +3915,7 @@
         <v>2.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AA24" t="n">
         <v>5.5</v>
@@ -4003,7 +4007,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
@@ -4036,7 +4040,7 @@
         <v>2.4</v>
       </c>
       <c r="R25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S25" t="n">
         <v>4</v>
@@ -4045,10 +4049,10 @@
         <v>1.25</v>
       </c>
       <c r="U25" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W25" t="n">
         <v>1.53</v>
@@ -4060,7 +4064,7 @@
         <v>2.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AA25" t="n">
         <v>5.5</v>
@@ -4114,10 +4118,10 @@
         <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -4152,16 +4156,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J26" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K26" t="n">
         <v>1.8</v>
@@ -4170,13 +4174,13 @@
         <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N26" t="n">
         <v>5.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -4190,13 +4194,13 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V26" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="W26" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="X26" t="n">
         <v>2.05</v>
@@ -4211,7 +4215,7 @@
         <v>4.75</v>
       </c>
       <c r="AB26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC26" t="n">
         <v>11</v>
@@ -4309,16 +4313,16 @@
         <v>6</v>
       </c>
       <c r="M27" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N27" t="n">
         <v>5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="P27" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Q27" t="n">
         <v>3.6</v>
@@ -4332,10 +4336,10 @@
         <v>8</v>
       </c>
       <c r="V27" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="W27" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X27" t="n">
         <v>2</v>
@@ -4448,16 +4452,16 @@
         <v>5.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
         <v>7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P28" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q28" t="n">
         <v>2.6</v>
@@ -4471,7 +4475,7 @@
         <v>5.5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="W28" t="n">
         <v>1.57</v>
@@ -4591,36 +4595,36 @@
         <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N29" t="n">
         <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="P29" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V29" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W29" t="n">
         <v>1.75</v>
       </c>
       <c r="X29" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="Y29" t="n">
         <v>2.5</v>
@@ -4724,22 +4728,22 @@
         <v>2.3</v>
       </c>
       <c r="K30" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L30" t="n">
         <v>8.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="P30" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q30" t="n">
         <v>3.1</v>
@@ -4753,10 +4757,10 @@
         <v>6.5</v>
       </c>
       <c r="V30" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="W30" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X30" t="n">
         <v>2.1</v>
@@ -4863,7 +4867,7 @@
         <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L31" t="n">
         <v>5</v>
@@ -4895,7 +4899,7 @@
         <v>1.11</v>
       </c>
       <c r="W31" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X31" t="n">
         <v>2.1</v>
@@ -4904,7 +4908,7 @@
         <v>2.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AA31" t="n">
         <v>5</v>
@@ -4916,7 +4920,7 @@
         <v>10</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
         <v>23</v>
@@ -4928,7 +4932,7 @@
         <v>6</v>
       </c>
       <c r="AH31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI31" t="n">
         <v>23</v>
@@ -5139,22 +5143,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="H33" t="n">
         <v>4.75</v>
       </c>
       <c r="I33" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="J33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K33" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -5163,28 +5167,28 @@
         <v>15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="R33" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="S33" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="T33" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="U33" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V33" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W33" t="n">
         <v>1.3</v>
@@ -5193,25 +5197,25 @@
         <v>3.4</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AA33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC33" t="n">
         <v>19</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AD33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AE33" t="n">
         <v>41</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>81</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>51</v>
       </c>
       <c r="AF33" t="n">
         <v>41</v>
@@ -5232,19 +5236,19 @@
         <v>251</v>
       </c>
       <c r="AL33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AN33" t="n">
         <v>8.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ33" t="n">
         <v>23</v>
@@ -5284,22 +5288,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H34" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="J34" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
         <v>2.05</v>
       </c>
       <c r="L34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
         <v>1.07</v>
@@ -5334,34 +5338,34 @@
         <v>2.63</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AA34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE34" t="n">
         <v>29</v>
       </c>
-      <c r="AE34" t="n">
-        <v>23</v>
-      </c>
       <c r="AF34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG34" t="n">
         <v>8.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI34" t="n">
         <v>15</v>
@@ -5373,22 +5377,22 @@
         <v>301</v>
       </c>
       <c r="AL34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM34" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AN34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
@@ -5425,16 +5429,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I35" t="n">
         <v>3.25</v>
       </c>
       <c r="J35" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
         <v>2.1</v>
@@ -5455,69 +5459,69 @@
         <v>3.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="R35" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V35" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W35" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X35" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="Z35" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AA35" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB35" t="n">
         <v>11</v>
       </c>
       <c r="AC35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD35" t="n">
         <v>21</v>
       </c>
       <c r="AE35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH35" t="n">
         <v>6</v>
       </c>
       <c r="AI35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK35" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL35" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AM35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN35" t="n">
         <v>12</v>
@@ -5713,7 +5717,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J37" t="n">
         <v>2.8</v>
@@ -5848,22 +5852,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="H38" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I38" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J38" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K38" t="n">
         <v>2.3</v>
       </c>
       <c r="L38" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M38" t="n">
         <v>1.04</v>
@@ -5878,36 +5882,36 @@
         <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R38" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V38" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W38" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X38" t="n">
         <v>3.25</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z38" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA38" t="n">
         <v>8.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC38" t="n">
         <v>8.5</v>
@@ -5925,7 +5929,7 @@
         <v>13</v>
       </c>
       <c r="AH38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI38" t="n">
         <v>13</v>
@@ -5937,19 +5941,19 @@
         <v>151</v>
       </c>
       <c r="AL38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ38" t="n">
         <v>34</v>
@@ -5992,37 +5996,37 @@
         <v>5.75</v>
       </c>
       <c r="H39" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I39" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="J39" t="n">
         <v>6</v>
       </c>
       <c r="K39" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M39" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O39" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P39" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R39" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S39" t="n">
         <v>2.05</v>
@@ -6031,22 +6035,22 @@
         <v>1.8</v>
       </c>
       <c r="U39" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V39" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W39" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X39" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA39" t="n">
         <v>17</v>
@@ -6055,7 +6059,7 @@
         <v>34</v>
       </c>
       <c r="AC39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD39" t="n">
         <v>67</v>
@@ -6067,7 +6071,7 @@
         <v>41</v>
       </c>
       <c r="AG39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH39" t="n">
         <v>8.5</v>
@@ -6079,10 +6083,10 @@
         <v>51</v>
       </c>
       <c r="AK39" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM39" t="n">
         <v>7.5</v>
@@ -6097,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="AQ39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
@@ -6134,52 +6138,52 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I40" t="n">
         <v>4.5</v>
       </c>
       <c r="J40" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K40" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L40" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M40" t="n">
         <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O40" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P40" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="R40" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="S40" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T40" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U40" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V40" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="W40" t="n">
         <v>1.3</v>
@@ -6203,10 +6207,10 @@
         <v>8.5</v>
       </c>
       <c r="AD40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE40" t="n">
         <v>13</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>12</v>
       </c>
       <c r="AF40" t="n">
         <v>21</v>
@@ -6215,10 +6219,10 @@
         <v>15</v>
       </c>
       <c r="AH40" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ40" t="n">
         <v>41</v>
@@ -6309,18 +6313,18 @@
         <v>3.75</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R41" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W41" t="n">
         <v>1.36</v>
@@ -6450,10 +6454,10 @@
         <v>4.33</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R42" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -6464,7 +6468,7 @@
         <v>1.44</v>
       </c>
       <c r="W42" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X42" t="n">
         <v>3.25</v>
@@ -6984,28 +6988,28 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="H46" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="I46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J46" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="K46" t="n">
         <v>2.5</v>
       </c>
       <c r="L46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M46" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O46" t="n">
         <v>1.22</v>
@@ -7014,10 +7018,10 @@
         <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R46" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -7028,28 +7032,28 @@
         <v>1.4</v>
       </c>
       <c r="W46" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X46" t="n">
         <v>3.25</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AA46" t="n">
         <v>6.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE46" t="n">
         <v>12</v>
@@ -7061,13 +7065,13 @@
         <v>12</v>
       </c>
       <c r="AH46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ46" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="n">
         <v>1250</v>
@@ -7076,16 +7080,16 @@
         <v>21</v>
       </c>
       <c r="AM46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN46" t="n">
         <v>29</v>
       </c>
       <c r="AO46" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AP46" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AQ46" t="n">
         <v>67</v>
@@ -7125,13 +7129,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H47" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J47" t="n">
         <v>4.75</v>
@@ -7143,16 +7147,16 @@
         <v>2.75</v>
       </c>
       <c r="M47" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N47" t="n">
         <v>7.5</v>
       </c>
       <c r="O47" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P47" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="Q47" t="n">
         <v>2.35</v>
@@ -7163,22 +7167,22 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V47" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="W47" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X47" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y47" t="n">
         <v>2.1</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AA47" t="n">
         <v>9</v>
@@ -7187,7 +7191,7 @@
         <v>19</v>
       </c>
       <c r="AC47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD47" t="n">
         <v>41</v>
@@ -7232,10 +7236,10 @@
         <v>34</v>
       </c>
       <c r="AR47" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="48">
@@ -7270,52 +7274,52 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H48" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J48" t="n">
         <v>6</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L48" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="M48" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N48" t="n">
         <v>8</v>
       </c>
       <c r="O48" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P48" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R48" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S48" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T48" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="U48" t="n">
         <v>4.33</v>
       </c>
       <c r="V48" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W48" t="n">
         <v>1.5</v>
@@ -7327,7 +7331,7 @@
         <v>2.25</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AA48" t="n">
         <v>11</v>
@@ -7339,7 +7343,7 @@
         <v>19</v>
       </c>
       <c r="AD48" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE48" t="n">
         <v>51</v>
@@ -7348,7 +7352,7 @@
         <v>51</v>
       </c>
       <c r="AG48" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH48" t="n">
         <v>7</v>
@@ -7366,7 +7370,7 @@
         <v>5.5</v>
       </c>
       <c r="AM48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AN48" t="n">
         <v>9</v>
@@ -7431,19 +7435,19 @@
         <v>3.1</v>
       </c>
       <c r="K49" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L49" t="n">
         <v>4.33</v>
       </c>
       <c r="M49" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N49" t="n">
         <v>6.5</v>
       </c>
       <c r="O49" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P49" t="n">
         <v>2.5</v>
@@ -7464,10 +7468,10 @@
         <v>5</v>
       </c>
       <c r="V49" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W49" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X49" t="n">
         <v>2.25</v>
@@ -7476,7 +7480,7 @@
         <v>2.2</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AA49" t="n">
         <v>6</v>
@@ -7580,19 +7584,19 @@
         <v>3</v>
       </c>
       <c r="K50" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L50" t="n">
         <v>4.33</v>
       </c>
       <c r="M50" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N50" t="n">
         <v>7</v>
       </c>
       <c r="O50" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P50" t="n">
         <v>2.5</v>
@@ -7613,10 +7617,10 @@
         <v>5</v>
       </c>
       <c r="V50" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W50" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X50" t="n">
         <v>2.25</v>
@@ -7625,7 +7629,7 @@
         <v>2.1</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AA50" t="n">
         <v>6</v>
@@ -7723,7 +7727,7 @@
         <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J51" t="n">
         <v>2.05</v>
@@ -7735,10 +7739,10 @@
         <v>7.5</v>
       </c>
       <c r="M51" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O51" t="n">
         <v>1.33</v>
@@ -7747,10 +7751,10 @@
         <v>3.25</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R51" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S51" t="n">
         <v>2.95</v>
@@ -7765,16 +7769,16 @@
         <v>1.25</v>
       </c>
       <c r="W51" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X51" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y51" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="AA51" t="n">
         <v>5.5</v>
@@ -7801,7 +7805,7 @@
         <v>8</v>
       </c>
       <c r="AI51" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ51" t="n">
         <v>81</v>
@@ -7810,7 +7814,7 @@
         <v>101</v>
       </c>
       <c r="AL51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM51" t="n">
         <v>41</v>
@@ -7819,10 +7823,10 @@
         <v>23</v>
       </c>
       <c r="AO51" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ51" t="n">
         <v>67</v>
@@ -7866,28 +7870,28 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I52" t="n">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="J52" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K52" t="n">
         <v>2</v>
       </c>
       <c r="L52" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O52" t="n">
         <v>1.44</v>
@@ -7904,10 +7908,10 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V52" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W52" t="n">
         <v>1.53</v>
@@ -7916,22 +7920,22 @@
         <v>2.38</v>
       </c>
       <c r="Y52" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA52" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AB52" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC52" t="n">
         <v>9.5</v>
       </c>
       <c r="AD52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE52" t="n">
         <v>17</v>
@@ -7940,13 +7944,13 @@
         <v>41</v>
       </c>
       <c r="AG52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH52" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ52" t="n">
         <v>101</v>
@@ -7955,16 +7959,16 @@
         <v>351</v>
       </c>
       <c r="AL52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN52" t="n">
         <v>21</v>
       </c>
       <c r="AO52" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP52" t="n">
         <v>51</v>
@@ -7973,10 +7977,10 @@
         <v>67</v>
       </c>
       <c r="AR52" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -8011,16 +8015,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H53" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I53" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J53" t="n">
         <v>3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2.88</v>
       </c>
       <c r="K53" t="n">
         <v>2.2</v>
@@ -8041,10 +8045,10 @@
         <v>3.75</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R53" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
@@ -8055,16 +8059,16 @@
         <v>1.33</v>
       </c>
       <c r="W53" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X53" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Z53" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA53" t="n">
         <v>8.5</v>
@@ -8073,13 +8077,13 @@
         <v>11</v>
       </c>
       <c r="AC53" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD53" t="n">
         <v>21</v>
       </c>
       <c r="AE53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF53" t="n">
         <v>26</v>
@@ -8097,19 +8101,19 @@
         <v>41</v>
       </c>
       <c r="AK53" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN53" t="n">
         <v>11</v>
       </c>
       <c r="AO53" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP53" t="n">
         <v>23</v>
@@ -8152,111 +8156,111 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H54" t="n">
         <v>3.15</v>
       </c>
       <c r="I54" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="J54" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K54" t="n">
         <v>2.05</v>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M54" t="n">
         <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="O54" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P54" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="R54" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="V54" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W54" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X54" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="Z54" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="AA54" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AB54" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AD54" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AE54" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF54" t="n">
         <v>30</v>
       </c>
       <c r="AG54" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AH54" t="n">
         <v>6.4</v>
       </c>
       <c r="AI54" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ54" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK54" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AL54" t="n">
         <v>8.75</v>
       </c>
       <c r="AM54" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AN54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO54" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ54" t="n">
         <v>30</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ54" t="n">
-        <v>27</v>
       </c>
       <c r="AR54" t="inlineStr"/>
       <c r="AS54" t="inlineStr"/>
@@ -8434,22 +8438,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H56" t="n">
         <v>3.3</v>
       </c>
       <c r="I56" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J56" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="K56" t="n">
         <v>2.12</v>
       </c>
       <c r="L56" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M56" t="n">
         <v>1.07</v>
@@ -8490,7 +8494,7 @@
         <v>1.93</v>
       </c>
       <c r="AA56" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AB56" t="n">
         <v>11.25</v>
@@ -8499,10 +8503,10 @@
         <v>9.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE56" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF56" t="n">
         <v>32</v>
@@ -8517,25 +8521,25 @@
         <v>15.5</v>
       </c>
       <c r="AJ56" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK56" t="n">
         <v>700</v>
       </c>
       <c r="AL56" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AM56" t="n">
         <v>17</v>
       </c>
       <c r="AN56" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AO56" t="n">
         <v>45</v>
       </c>
       <c r="AP56" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ56" t="n">
         <v>40</v>
@@ -8605,10 +8609,10 @@
         <v>3.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R57" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -8716,22 +8720,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H58" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I58" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J58" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="K58" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M58" t="n">
         <v>1.04</v>
@@ -8746,7 +8750,7 @@
         <v>4</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R58" t="n">
         <v>2.1</v>
@@ -8758,10 +8762,10 @@
         <v>1.85</v>
       </c>
       <c r="U58" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V58" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W58" t="n">
         <v>1.33</v>
@@ -8770,43 +8774,43 @@
         <v>3.25</v>
       </c>
       <c r="Y58" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="Z58" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AA58" t="n">
         <v>7</v>
       </c>
       <c r="AB58" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC58" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD58" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>9.5</v>
       </c>
       <c r="AE58" t="n">
         <v>12</v>
       </c>
       <c r="AF58" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG58" t="n">
         <v>12</v>
       </c>
       <c r="AH58" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI58" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ58" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK58" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AL58" t="n">
         <v>21</v>
@@ -8815,13 +8819,13 @@
         <v>41</v>
       </c>
       <c r="AN58" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO58" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP58" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ58" t="n">
         <v>51</v>
@@ -8861,22 +8865,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="H59" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K59" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M59" t="n">
         <v>1.03</v>
@@ -8891,16 +8895,16 @@
         <v>4.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="R59" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S59" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T59" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U59" t="n">
         <v>2.5</v>
@@ -8915,55 +8919,55 @@
         <v>3.4</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z59" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA59" t="n">
         <v>8.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC59" t="n">
         <v>8.5</v>
       </c>
       <c r="AD59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF59" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG59" t="n">
         <v>15</v>
       </c>
       <c r="AH59" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI59" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL59" t="n">
         <v>17</v>
       </c>
-      <c r="AJ59" t="n">
+      <c r="AM59" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO59" t="n">
         <v>51</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>67</v>
       </c>
       <c r="AP59" t="n">
         <v>41</v>
@@ -9006,48 +9010,48 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H60" t="n">
         <v>4.2</v>
       </c>
       <c r="I60" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K60" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L60" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M60" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N60" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O60" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P60" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="R60" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V60" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W60" t="n">
         <v>1.33</v>
@@ -9056,43 +9060,43 @@
         <v>3.25</v>
       </c>
       <c r="Y60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z60" t="n">
         <v>1.95</v>
       </c>
-      <c r="Z60" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AA60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB60" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC60" t="n">
         <v>8.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE60" t="n">
         <v>12</v>
       </c>
       <c r="AF60" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH60" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI60" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ60" t="n">
         <v>51</v>
       </c>
       <c r="AK60" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AL60" t="n">
         <v>17</v>
@@ -9107,10 +9111,10 @@
         <v>67</v>
       </c>
       <c r="AP60" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ60" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr"/>
@@ -9147,7 +9151,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H61" t="n">
         <v>3.6</v>
@@ -9156,7 +9160,7 @@
         <v>4.33</v>
       </c>
       <c r="J61" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K61" t="n">
         <v>2.1</v>
@@ -9165,10 +9169,10 @@
         <v>5</v>
       </c>
       <c r="M61" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N61" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O61" t="n">
         <v>1.33</v>
@@ -9197,10 +9201,10 @@
         <v>2.63</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AA61" t="n">
         <v>6.5</v>
@@ -9221,7 +9225,7 @@
         <v>29</v>
       </c>
       <c r="AG61" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH61" t="n">
         <v>7</v>
@@ -9288,19 +9292,19 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H62" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I62" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J62" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K62" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L62" t="n">
         <v>4.33</v>
@@ -9318,10 +9322,10 @@
         <v>4.33</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R62" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S62" t="n">
         <v>2.05</v>
@@ -9336,19 +9340,19 @@
         <v>1.44</v>
       </c>
       <c r="W62" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X62" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="Z62" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA62" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB62" t="n">
         <v>10</v>
@@ -9357,22 +9361,22 @@
         <v>8.5</v>
       </c>
       <c r="AD62" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE62" t="n">
         <v>15</v>
       </c>
-      <c r="AE62" t="n">
-        <v>13</v>
-      </c>
       <c r="AF62" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG62" t="n">
         <v>15</v>
       </c>
       <c r="AH62" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ62" t="n">
         <v>41</v>
@@ -9381,19 +9385,19 @@
         <v>151</v>
       </c>
       <c r="AL62" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM62" t="n">
         <v>21</v>
       </c>
       <c r="AN62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO62" t="n">
         <v>41</v>
       </c>
       <c r="AP62" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ62" t="n">
         <v>29</v>
@@ -9463,16 +9467,16 @@
         <v>4.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R63" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S63" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="T63" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="U63" t="n">
         <v>2.5</v>
@@ -9487,7 +9491,7 @@
         <v>3.4</v>
       </c>
       <c r="Y63" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z63" t="n">
         <v>2.25</v>
@@ -9578,7 +9582,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H64" t="n">
         <v>4.1</v>
@@ -9614,10 +9618,10 @@
         <v>2.35</v>
       </c>
       <c r="S64" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="T64" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="U64" t="n">
         <v>2.38</v>
@@ -9632,7 +9636,7 @@
         <v>3.5</v>
       </c>
       <c r="Y64" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z64" t="n">
         <v>2.25</v>
@@ -9659,7 +9663,7 @@
         <v>17</v>
       </c>
       <c r="AH64" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI64" t="n">
         <v>13</v>
@@ -9723,16 +9727,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H65" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I65" t="n">
         <v>3.6</v>
       </c>
-      <c r="I65" t="n">
-        <v>3.5</v>
-      </c>
       <c r="J65" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K65" t="n">
         <v>2.2</v>
@@ -9753,10 +9757,10 @@
         <v>3.75</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R65" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
@@ -9773,22 +9777,22 @@
         <v>3</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="Z65" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA65" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC65" t="n">
         <v>8.5</v>
       </c>
       <c r="AD65" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE65" t="n">
         <v>15</v>
@@ -9797,7 +9801,7 @@
         <v>26</v>
       </c>
       <c r="AG65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH65" t="n">
         <v>7</v>
@@ -9809,7 +9813,7 @@
         <v>51</v>
       </c>
       <c r="AK65" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL65" t="n">
         <v>11</v>
@@ -9864,22 +9868,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H66" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I66" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J66" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K66" t="n">
         <v>2.38</v>
       </c>
       <c r="L66" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M66" t="n">
         <v>1.03</v>
@@ -9894,10 +9898,10 @@
         <v>4.33</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R66" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
@@ -9908,22 +9912,22 @@
         <v>1.44</v>
       </c>
       <c r="W66" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X66" t="n">
         <v>3.25</v>
       </c>
       <c r="Y66" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z66" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA66" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB66" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC66" t="n">
         <v>8.5</v>
@@ -9935,13 +9939,13 @@
         <v>13</v>
       </c>
       <c r="AF66" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG66" t="n">
         <v>13</v>
       </c>
       <c r="AH66" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI66" t="n">
         <v>15</v>
@@ -9950,13 +9954,13 @@
         <v>41</v>
       </c>
       <c r="AK66" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL66" t="n">
         <v>15</v>
       </c>
       <c r="AM66" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN66" t="n">
         <v>15</v>
@@ -9968,7 +9972,7 @@
         <v>34</v>
       </c>
       <c r="AQ66" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR66" t="inlineStr"/>
       <c r="AS66" t="inlineStr"/>
@@ -10035,16 +10039,16 @@
         <v>4.5</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R67" t="n">
         <v>2.3</v>
       </c>
       <c r="S67" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="T67" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="U67" t="n">
         <v>2.5</v>
@@ -10065,13 +10069,13 @@
         <v>2.25</v>
       </c>
       <c r="AA67" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB67" t="n">
         <v>11</v>
       </c>
       <c r="AC67" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD67" t="n">
         <v>17</v>
@@ -10150,28 +10154,28 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H68" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I68" t="n">
+        <v>13</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L68" t="n">
         <v>11</v>
       </c>
-      <c r="J68" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L68" t="n">
-        <v>10</v>
-      </c>
       <c r="M68" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N68" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O68" t="n">
         <v>1.25</v>
@@ -10189,7 +10193,7 @@
         <v>2.6</v>
       </c>
       <c r="T68" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U68" t="n">
         <v>3.25</v>
@@ -10198,7 +10202,7 @@
         <v>1.33</v>
       </c>
       <c r="W68" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X68" t="n">
         <v>3</v>
@@ -10207,10 +10211,10 @@
         <v>2.5</v>
       </c>
       <c r="Z68" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB68" t="n">
         <v>5.5</v>
@@ -10219,7 +10223,7 @@
         <v>9.5</v>
       </c>
       <c r="AD68" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE68" t="n">
         <v>13</v>
@@ -10243,25 +10247,25 @@
         <v>501</v>
       </c>
       <c r="AL68" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM68" t="n">
         <v>51</v>
       </c>
       <c r="AN68" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AO68" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AP68" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AQ68" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR68" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="AS68" t="n">
         <v>2.75</v>
@@ -10299,7 +10303,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H69" t="n">
         <v>3.3</v>
@@ -10308,10 +10312,10 @@
         <v>1.95</v>
       </c>
       <c r="J69" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K69" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L69" t="n">
         <v>2.75</v>
@@ -10356,7 +10360,7 @@
         <v>2</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AA69" t="n">
         <v>9.5</v>
@@ -10389,10 +10393,10 @@
         <v>67</v>
       </c>
       <c r="AK69" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL69" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM69" t="n">
         <v>8.5</v>
@@ -10404,7 +10408,7 @@
         <v>17</v>
       </c>
       <c r="AP69" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ69" t="n">
         <v>34</v>
@@ -10448,16 +10452,16 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H70" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I70" t="n">
         <v>13</v>
       </c>
       <c r="J70" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K70" t="n">
         <v>2.88</v>
@@ -10466,34 +10470,34 @@
         <v>11</v>
       </c>
       <c r="M70" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N70" t="n">
         <v>19</v>
       </c>
       <c r="O70" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P70" t="n">
         <v>5.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R70" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S70" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T70" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U70" t="n">
         <v>2.2</v>
       </c>
       <c r="V70" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W70" t="n">
         <v>1.25</v>
@@ -10505,13 +10509,13 @@
         <v>2.2</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AA70" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB70" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC70" t="n">
         <v>10</v>
@@ -10526,10 +10530,10 @@
         <v>29</v>
       </c>
       <c r="AG70" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI70" t="n">
         <v>29</v>
@@ -10559,7 +10563,7 @@
         <v>67</v>
       </c>
       <c r="AR70" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AS70" t="n">
         <v>4.4</v>
@@ -10597,10 +10601,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I71" t="n">
         <v>3.2</v>
@@ -10612,48 +10616,48 @@
         <v>2.1</v>
       </c>
       <c r="L71" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M71" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N71" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O71" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P71" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="R71" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V71" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="W71" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X71" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="Z71" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA71" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB71" t="n">
         <v>11</v>
@@ -10668,10 +10672,10 @@
         <v>19</v>
       </c>
       <c r="AF71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH71" t="n">
         <v>6</v>
@@ -10680,10 +10684,10 @@
         <v>13</v>
       </c>
       <c r="AJ71" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK71" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL71" t="n">
         <v>10</v>
@@ -10698,7 +10702,7 @@
         <v>34</v>
       </c>
       <c r="AP71" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ71" t="n">
         <v>34</v>
@@ -10738,13 +10742,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H72" t="n">
         <v>3.6</v>
       </c>
       <c r="I72" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J72" t="n">
         <v>3.6</v>
@@ -10756,13 +10760,13 @@
         <v>3.1</v>
       </c>
       <c r="M72" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N72" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O72" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P72" t="n">
         <v>3.25</v>
@@ -10779,7 +10783,7 @@
         <v>3.75</v>
       </c>
       <c r="V72" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W72" t="n">
         <v>1.44</v>
@@ -10788,10 +10792,10 @@
         <v>2.63</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z72" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA72" t="n">
         <v>8</v>
@@ -10836,7 +10840,7 @@
         <v>9.5</v>
       </c>
       <c r="AO72" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP72" t="n">
         <v>21</v>
@@ -10879,22 +10883,22 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H73" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I73" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="J73" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K73" t="n">
         <v>2.4</v>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M73" t="n">
         <v>1.03</v>
@@ -10918,7 +10922,7 @@
         <v>1.85</v>
       </c>
       <c r="T73" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U73" t="n">
         <v>2.25</v>
@@ -10933,22 +10937,22 @@
         <v>3.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z73" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB73" t="n">
         <v>11</v>
       </c>
       <c r="AC73" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD73" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE73" t="n">
         <v>13</v>
@@ -10960,22 +10964,22 @@
         <v>17</v>
       </c>
       <c r="AH73" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI73" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ73" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK73" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL73" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM73" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN73" t="n">
         <v>13</v>
@@ -10984,10 +10988,10 @@
         <v>41</v>
       </c>
       <c r="AP73" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ73" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
@@ -11309,7 +11313,7 @@
         <v>2.6</v>
       </c>
       <c r="L76" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M76" t="n">
         <v>1.03</v>
@@ -11330,10 +11334,10 @@
         <v>2.35</v>
       </c>
       <c r="S76" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="T76" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U76" t="n">
         <v>2.38</v>
@@ -11348,10 +11352,10 @@
         <v>3.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AA76" t="n">
         <v>19</v>
@@ -11463,36 +11467,36 @@
         <v>11</v>
       </c>
       <c r="O77" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P77" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="R77" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V77" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W77" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X77" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y77" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA77" t="n">
         <v>6.5</v>
@@ -11504,7 +11508,7 @@
         <v>8.5</v>
       </c>
       <c r="AD77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE77" t="n">
         <v>15</v>
@@ -11513,7 +11517,7 @@
         <v>29</v>
       </c>
       <c r="AG77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH77" t="n">
         <v>7.5</v>
@@ -11522,13 +11526,13 @@
         <v>19</v>
       </c>
       <c r="AJ77" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK77" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM77" t="n">
         <v>23</v>
@@ -11584,22 +11588,22 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="H78" t="n">
         <v>2.88</v>
       </c>
       <c r="I78" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J78" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K78" t="n">
         <v>1.91</v>
       </c>
       <c r="L78" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M78" t="n">
         <v>1.11</v>
@@ -11643,16 +11647,16 @@
         <v>6.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC78" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD78" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE78" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF78" t="n">
         <v>41</v>
@@ -11673,28 +11677,28 @@
         <v>501</v>
       </c>
       <c r="AL78" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM78" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN78" t="n">
         <v>13</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>12</v>
       </c>
       <c r="AO78" t="n">
         <v>34</v>
       </c>
       <c r="AP78" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ78" t="n">
         <v>41</v>
       </c>
       <c r="AR78" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="79">
@@ -11729,7 +11733,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H79" t="n">
         <v>3.2</v>
@@ -11809,7 +11813,7 @@
         <v>6</v>
       </c>
       <c r="AI79" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ79" t="n">
         <v>51</v>
@@ -11827,7 +11831,7 @@
         <v>15</v>
       </c>
       <c r="AO79" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP79" t="n">
         <v>41</v>
@@ -11870,16 +11874,16 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>2.9</v>
       </c>
       <c r="I80" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K80" t="n">
         <v>1.91</v>
@@ -11923,13 +11927,13 @@
         <v>2.1</v>
       </c>
       <c r="Z80" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AA80" t="n">
         <v>6</v>
       </c>
       <c r="AB80" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC80" t="n">
         <v>10</v>
@@ -11950,7 +11954,7 @@
         <v>5.5</v>
       </c>
       <c r="AI80" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ80" t="n">
         <v>67</v>
@@ -11977,10 +11981,10 @@
         <v>51</v>
       </c>
       <c r="AR80" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="81">
@@ -12015,22 +12019,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H81" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="I81" t="n">
         <v>1.42</v>
       </c>
       <c r="J81" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K81" t="n">
         <v>2.35</v>
       </c>
       <c r="L81" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
@@ -12041,10 +12045,10 @@
         <v>4.4</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R81" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
@@ -12057,19 +12061,19 @@
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Z81" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AA81" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB81" t="n">
         <v>32</v>
       </c>
       <c r="AC81" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD81" t="n">
         <v>90</v>
@@ -12111,7 +12115,7 @@
         <v>9.25</v>
       </c>
       <c r="AQ81" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr"/>
@@ -12436,7 +12440,7 @@
         <v>4.1</v>
       </c>
       <c r="I84" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J84" t="n">
         <v>2.2</v>
@@ -12448,22 +12452,22 @@
         <v>6</v>
       </c>
       <c r="M84" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N84" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O84" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P84" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="R84" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
@@ -12525,7 +12529,7 @@
         <v>29</v>
       </c>
       <c r="AN84" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO84" t="n">
         <v>67</v>
@@ -12708,16 +12712,16 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H86" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J86" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K86" t="n">
         <v>1.87</v>
@@ -12758,22 +12762,22 @@
         <v>2.25</v>
       </c>
       <c r="Y86" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z86" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA86" t="n">
         <v>6.5</v>
       </c>
       <c r="AB86" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC86" t="n">
         <v>11</v>
       </c>
       <c r="AD86" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE86" t="n">
         <v>26</v>
@@ -12782,7 +12786,7 @@
         <v>41</v>
       </c>
       <c r="AG86" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH86" t="n">
         <v>6</v>
@@ -12791,13 +12795,13 @@
         <v>19</v>
       </c>
       <c r="AJ86" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK86" t="n">
         <v>101</v>
       </c>
       <c r="AL86" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM86" t="n">
         <v>12</v>
@@ -12815,10 +12819,10 @@
         <v>41</v>
       </c>
       <c r="AR86" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="87">
@@ -12998,16 +13002,16 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H88" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I88" t="n">
         <v>8</v>
       </c>
       <c r="J88" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="K88" t="n">
         <v>2.3</v>
@@ -13016,10 +13020,10 @@
         <v>8</v>
       </c>
       <c r="M88" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N88" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O88" t="n">
         <v>1.29</v>
@@ -13028,18 +13032,18 @@
         <v>3.5</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R88" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V88" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W88" t="n">
         <v>1.4</v>
@@ -13048,10 +13052,10 @@
         <v>2.75</v>
       </c>
       <c r="Y88" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z88" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA88" t="n">
         <v>6</v>
@@ -13075,7 +13079,7 @@
         <v>9.5</v>
       </c>
       <c r="AH88" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI88" t="n">
         <v>23</v>
@@ -13087,7 +13091,7 @@
         <v>101</v>
       </c>
       <c r="AL88" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM88" t="n">
         <v>41</v>
@@ -13288,13 +13292,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H90" t="n">
         <v>4.33</v>
       </c>
       <c r="I90" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J90" t="n">
         <v>1.95</v>
@@ -13336,10 +13340,10 @@
         <v>1.5</v>
       </c>
       <c r="W90" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X90" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y90" t="n">
         <v>1.73</v>
@@ -13348,22 +13352,22 @@
         <v>2</v>
       </c>
       <c r="AA90" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB90" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC90" t="n">
         <v>8.5</v>
       </c>
       <c r="AD90" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE90" t="n">
         <v>11</v>
       </c>
       <c r="AF90" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG90" t="n">
         <v>15</v>
@@ -13375,7 +13379,7 @@
         <v>17</v>
       </c>
       <c r="AJ90" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK90" t="n">
         <v>201</v>
@@ -13433,22 +13437,22 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="H91" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J91" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K91" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L91" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="M91" t="n">
         <v>1.06</v>
@@ -13463,10 +13467,10 @@
         <v>3.4</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R91" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S91" t="n">
         <v>2.8</v>
@@ -13475,37 +13479,37 @@
         <v>1.44</v>
       </c>
       <c r="U91" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V91" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W91" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X91" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y91" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z91" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA91" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB91" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC91" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD91" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE91" t="n">
         <v>41</v>
-      </c>
-      <c r="AE91" t="n">
-        <v>29</v>
       </c>
       <c r="AF91" t="n">
         <v>41</v>
@@ -13526,19 +13530,19 @@
         <v>251</v>
       </c>
       <c r="AL91" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM91" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AN91" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO91" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP91" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ91" t="n">
         <v>29</v>
@@ -13582,7 +13586,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="H92" t="n">
         <v>3.9</v>
@@ -13600,10 +13604,10 @@
         <v>6</v>
       </c>
       <c r="M92" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O92" t="n">
         <v>1.36</v>
@@ -13731,22 +13735,22 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="H93" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I93" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="J93" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="K93" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L93" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="M93" t="n">
         <v>1.07</v>
@@ -13755,28 +13759,28 @@
         <v>9</v>
       </c>
       <c r="O93" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T93" t="n">
         <v>1.33</v>
       </c>
-      <c r="P93" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R93" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S93" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T93" t="n">
-        <v>1.37</v>
-      </c>
       <c r="U93" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V93" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W93" t="n">
         <v>1.44</v>
@@ -13785,37 +13789,37 @@
         <v>2.63</v>
       </c>
       <c r="Y93" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z93" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AA93" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB93" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC93" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AD93" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AE93" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AF93" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG93" t="n">
         <v>7.5</v>
       </c>
       <c r="AH93" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI93" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ93" t="n">
         <v>81</v>
@@ -13827,25 +13831,25 @@
         <v>5.5</v>
       </c>
       <c r="AM93" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AN93" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO93" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AP93" t="n">
         <v>15</v>
       </c>
       <c r="AQ93" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR93" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="94">
@@ -13934,10 +13938,10 @@
         <v>2.63</v>
       </c>
       <c r="Y94" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z94" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA94" t="n">
         <v>7.5</v>
@@ -14170,22 +14174,22 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="H96" t="n">
         <v>3.3</v>
       </c>
       <c r="I96" t="n">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="J96" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K96" t="n">
         <v>2.2</v>
       </c>
       <c r="L96" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M96" t="n">
         <v>1.04</v>
@@ -14226,22 +14230,22 @@
         <v>2.1</v>
       </c>
       <c r="AA96" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB96" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC96" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD96" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE96" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF96" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG96" t="n">
         <v>12</v>
@@ -14259,19 +14263,19 @@
         <v>151</v>
       </c>
       <c r="AL96" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM96" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AN96" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO96" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP96" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ96" t="n">
         <v>26</v>
@@ -14317,7 +14321,7 @@
         <v>3.9</v>
       </c>
       <c r="I97" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="J97" t="n">
         <v>5.5</v>
@@ -14329,10 +14333,10 @@
         <v>2.1</v>
       </c>
       <c r="M97" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N97" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O97" t="n">
         <v>1.2</v>
@@ -14452,22 +14456,22 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="H98" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I98" t="n">
-        <v>5.25</v>
+        <v>6.25</v>
       </c>
       <c r="J98" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K98" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L98" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M98" t="n">
         <v>1.05</v>
@@ -14482,10 +14486,10 @@
         <v>3.5</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R98" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
@@ -14502,61 +14506,61 @@
         <v>2.75</v>
       </c>
       <c r="Y98" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z98" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="AA98" t="n">
         <v>6.5</v>
       </c>
       <c r="AB98" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC98" t="n">
         <v>8.5</v>
       </c>
       <c r="AD98" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE98" t="n">
         <v>13</v>
       </c>
       <c r="AF98" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG98" t="n">
         <v>10</v>
       </c>
       <c r="AH98" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI98" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ98" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK98" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AL98" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM98" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN98" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO98" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP98" t="n">
         <v>41</v>
       </c>
       <c r="AQ98" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR98" t="inlineStr"/>
       <c r="AS98" t="inlineStr"/>
@@ -14602,10 +14606,10 @@
         <v>3.1</v>
       </c>
       <c r="J99" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K99" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L99" t="n">
         <v>3.75</v>
@@ -14646,7 +14650,7 @@
         <v>2</v>
       </c>
       <c r="Z99" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AA99" t="n">
         <v>6.5</v>
@@ -14661,13 +14665,13 @@
         <v>23</v>
       </c>
       <c r="AE99" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF99" t="n">
         <v>34</v>
       </c>
       <c r="AG99" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH99" t="n">
         <v>6</v>
@@ -14676,10 +14680,10 @@
         <v>17</v>
       </c>
       <c r="AJ99" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK99" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL99" t="n">
         <v>8</v>
@@ -14738,7 +14742,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H100" t="n">
         <v>3.9</v>
@@ -14747,51 +14751,51 @@
         <v>4.75</v>
       </c>
       <c r="J100" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K100" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L100" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M100" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N100" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O100" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P100" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R100" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V100" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W100" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X100" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y100" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z100" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AA100" t="n">
         <v>7</v>
@@ -14803,7 +14807,7 @@
         <v>8.5</v>
       </c>
       <c r="AD100" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE100" t="n">
         <v>13</v>
@@ -14827,10 +14831,10 @@
         <v>301</v>
       </c>
       <c r="AL100" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM100" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN100" t="n">
         <v>15</v>
@@ -14882,16 +14886,16 @@
         <v>1.85</v>
       </c>
       <c r="H101" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I101" t="n">
         <v>4.33</v>
       </c>
       <c r="J101" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K101" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L101" t="n">
         <v>5</v>
@@ -14917,10 +14921,10 @@
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V101" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W101" t="n">
         <v>1.53</v>
@@ -14929,16 +14933,16 @@
         <v>2.38</v>
       </c>
       <c r="Y101" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z101" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AA101" t="n">
         <v>5.5</v>
       </c>
       <c r="AB101" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC101" t="n">
         <v>9</v>
@@ -14947,22 +14951,22 @@
         <v>15</v>
       </c>
       <c r="AE101" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF101" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG101" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH101" t="n">
         <v>6.5</v>
       </c>
       <c r="AI101" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ101" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK101" t="n">
         <v>501</v>
@@ -14974,7 +14978,7 @@
         <v>21</v>
       </c>
       <c r="AN101" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO101" t="n">
         <v>51</v>
@@ -14986,10 +14990,10 @@
         <v>51</v>
       </c>
       <c r="AR101" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="102">
@@ -15169,28 +15173,28 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.35</v>
+        <v>2.63</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I103" t="n">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="J103" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K103" t="n">
         <v>1.95</v>
       </c>
       <c r="L103" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M103" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N103" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O103" t="n">
         <v>1.44</v>
@@ -15199,18 +15203,18 @@
         <v>2.63</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R103" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V103" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W103" t="n">
         <v>1.53</v>
@@ -15228,22 +15232,22 @@
         <v>7</v>
       </c>
       <c r="AB103" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC103" t="n">
         <v>11</v>
       </c>
-      <c r="AC103" t="n">
-        <v>10</v>
-      </c>
       <c r="AD103" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE103" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AF103" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG103" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH103" t="n">
         <v>6</v>
@@ -15258,28 +15262,28 @@
         <v>301</v>
       </c>
       <c r="AL103" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM103" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN103" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO103" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP103" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ103" t="n">
         <v>41</v>
       </c>
       <c r="AR103" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="104">
@@ -15364,10 +15368,10 @@
         <v>2.75</v>
       </c>
       <c r="Y104" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z104" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA104" t="n">
         <v>7</v>
@@ -15458,7 +15462,7 @@
         <v>3.8</v>
       </c>
       <c r="H105" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I105" t="n">
         <v>1.87</v>
@@ -15476,7 +15480,7 @@
         <v>1.07</v>
       </c>
       <c r="N105" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="O105" t="n">
         <v>1.33</v>
@@ -15511,7 +15515,7 @@
         <v>1.87</v>
       </c>
       <c r="AA105" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB105" t="n">
         <v>21</v>
@@ -15529,13 +15533,13 @@
         <v>45</v>
       </c>
       <c r="AG105" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AH105" t="n">
         <v>6.5</v>
       </c>
       <c r="AI105" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ105" t="n">
         <v>75</v>
@@ -15559,7 +15563,7 @@
         <v>15.5</v>
       </c>
       <c r="AQ105" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR105" t="inlineStr"/>
       <c r="AS105" t="inlineStr"/>
@@ -15596,22 +15600,22 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H106" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I106" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="J106" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="K106" t="n">
         <v>2.1</v>
       </c>
       <c r="L106" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="M106" t="n">
         <v>1.07</v>
@@ -15646,10 +15650,10 @@
         <v>2.62</v>
       </c>
       <c r="Y106" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Z106" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AA106" t="n">
         <v>6.7</v>
@@ -15661,10 +15665,10 @@
         <v>8.25</v>
       </c>
       <c r="AD106" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE106" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AE106" t="n">
-        <v>15</v>
       </c>
       <c r="AF106" t="n">
         <v>28</v>
@@ -15673,34 +15677,34 @@
         <v>7.1</v>
       </c>
       <c r="AH106" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI106" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ106" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK106" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL106" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AM106" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN106" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO106" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AP106" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AQ106" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR106" t="inlineStr"/>
       <c r="AS106" t="inlineStr"/>
@@ -15746,19 +15750,19 @@
         <v>3.55</v>
       </c>
       <c r="J107" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="K107" t="n">
         <v>2.05</v>
       </c>
       <c r="L107" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="M107" t="n">
         <v>1.06</v>
       </c>
       <c r="N107" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="O107" t="n">
         <v>1.3</v>
@@ -15781,10 +15785,10 @@
         <v>1.32</v>
       </c>
       <c r="W107" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X107" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="Y107" t="n">
         <v>1.72</v>
@@ -15793,25 +15797,25 @@
         <v>2</v>
       </c>
       <c r="AA107" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB107" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AC107" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD107" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE107" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF107" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG107" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AH107" t="n">
         <v>6.3</v>
@@ -15826,10 +15830,10 @@
         <v>450</v>
       </c>
       <c r="AL107" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AM107" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN107" t="n">
         <v>12</v>
@@ -15841,7 +15845,7 @@
         <v>32</v>
       </c>
       <c r="AQ107" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR107" t="inlineStr"/>
       <c r="AS107" t="inlineStr"/>
@@ -15878,40 +15882,40 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H108" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I108" t="n">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="J108" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="K108" t="n">
         <v>1.8</v>
       </c>
       <c r="L108" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M108" t="n">
         <v>1.14</v>
       </c>
       <c r="N108" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O108" t="n">
         <v>1.6</v>
       </c>
       <c r="P108" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="R108" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr"/>
@@ -15928,34 +15932,34 @@
         <v>2.1</v>
       </c>
       <c r="Y108" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="Z108" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AA108" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AB108" t="n">
-        <v>11.75</v>
+        <v>10</v>
       </c>
       <c r="AC108" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD108" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AE108" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AF108" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG108" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AH108" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AI108" t="n">
         <v>20</v>
@@ -15967,22 +15971,22 @@
         <v>900</v>
       </c>
       <c r="AL108" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="AM108" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AN108" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AO108" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AP108" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AQ108" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR108" t="inlineStr"/>
       <c r="AS108" t="inlineStr"/>
@@ -16301,108 +16305,108 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="H111" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I111" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="J111" t="n">
-        <v>4.1</v>
+        <v>4.55</v>
       </c>
       <c r="K111" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="L111" t="n">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="M111" t="n">
         <v>1.04</v>
       </c>
       <c r="N111" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O111" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P111" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R111" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="V111" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W111" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X111" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Y111" t="n">
         <v>1.65</v>
       </c>
       <c r="Z111" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="AA111" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AB111" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AC111" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD111" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AE111" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AF111" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AG111" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM111" t="n">
         <v>9.25</v>
-      </c>
-      <c r="AH111" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI111" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ111" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK111" t="n">
-        <v>400</v>
-      </c>
-      <c r="AL111" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AM111" t="n">
-        <v>10.25</v>
       </c>
       <c r="AN111" t="n">
         <v>8.75</v>
       </c>
       <c r="AO111" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AP111" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ111" t="n">
         <v>24</v>
@@ -16442,22 +16446,22 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="H112" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I112" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J112" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="K112" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L112" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M112" t="n">
         <v>1.06</v>
@@ -16469,48 +16473,48 @@
         <v>1.28</v>
       </c>
       <c r="P112" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q112" t="n">
         <v>1.83</v>
       </c>
       <c r="R112" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="V112" t="n">
         <v>1.37</v>
       </c>
       <c r="W112" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X112" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="Y112" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Z112" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AA112" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB112" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC112" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD112" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE112" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF112" t="n">
         <v>25</v>
@@ -16519,34 +16523,34 @@
         <v>7.8</v>
       </c>
       <c r="AH112" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AI112" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ112" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK112" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AL112" t="n">
         <v>10.5</v>
       </c>
       <c r="AM112" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN112" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO112" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AP112" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AQ112" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AR112" t="inlineStr"/>
       <c r="AS112" t="inlineStr"/>
@@ -16583,69 +16587,69 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H113" t="n">
         <v>3.4</v>
       </c>
       <c r="I113" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J113" t="n">
         <v>2.5</v>
       </c>
       <c r="K113" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L113" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N113" t="n">
         <v>6</v>
       </c>
-      <c r="M113" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N113" t="n">
-        <v>6.5</v>
-      </c>
       <c r="O113" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P113" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R113" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V113" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W113" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X113" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y113" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z113" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA113" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AB113" t="n">
         <v>6.5</v>
       </c>
       <c r="AC113" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD113" t="n">
         <v>13</v>
@@ -16657,16 +16661,16 @@
         <v>41</v>
       </c>
       <c r="AG113" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH113" t="n">
         <v>7</v>
       </c>
       <c r="AI113" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ113" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK113" t="n">
         <v>101</v>
@@ -16675,25 +16679,25 @@
         <v>9.5</v>
       </c>
       <c r="AM113" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN113" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO113" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP113" t="n">
         <v>51</v>
       </c>
       <c r="AQ113" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR113" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="114">
@@ -16728,13 +16732,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H114" t="n">
         <v>3.1</v>
       </c>
       <c r="I114" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="J114" t="n">
         <v>3.2</v>
@@ -16761,7 +16765,7 @@
         <v>2.15</v>
       </c>
       <c r="R114" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
@@ -16772,10 +16776,10 @@
         <v>1.25</v>
       </c>
       <c r="W114" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X114" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y114" t="n">
         <v>1.83</v>
@@ -16832,7 +16836,7 @@
         <v>26</v>
       </c>
       <c r="AQ114" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR114" t="inlineStr"/>
       <c r="AS114" t="inlineStr"/>
@@ -16869,13 +16873,13 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H115" t="n">
         <v>3.1</v>
       </c>
       <c r="I115" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J115" t="n">
         <v>2.88</v>
@@ -16902,7 +16906,7 @@
         <v>2.4</v>
       </c>
       <c r="R115" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
@@ -17014,7 +17018,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="H116" t="n">
         <v>4</v>
@@ -17032,22 +17036,22 @@
         <v>8.5</v>
       </c>
       <c r="M116" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N116" t="n">
         <v>8</v>
       </c>
       <c r="O116" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P116" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R116" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
@@ -17055,7 +17059,7 @@
         <v>4.5</v>
       </c>
       <c r="V116" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="W116" t="n">
         <v>1.53</v>
@@ -17121,10 +17125,10 @@
         <v>81</v>
       </c>
       <c r="AR116" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="117">
@@ -17159,13 +17163,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H117" t="n">
         <v>3.3</v>
       </c>
       <c r="I117" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J117" t="n">
         <v>3.4</v>
@@ -17177,13 +17181,13 @@
         <v>3.1</v>
       </c>
       <c r="M117" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N117" t="n">
         <v>11</v>
       </c>
       <c r="O117" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P117" t="n">
         <v>3.75</v>
@@ -17200,7 +17204,7 @@
         <v>3</v>
       </c>
       <c r="V117" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W117" t="n">
         <v>1.36</v>
@@ -17300,22 +17304,22 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H118" t="n">
         <v>3.75</v>
       </c>
       <c r="I118" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J118" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K118" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L118" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M118" t="n">
         <v>1.03</v>
@@ -17330,22 +17334,22 @@
         <v>5</v>
       </c>
       <c r="Q118" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R118" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S118" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V118" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R118" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S118" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T118" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U118" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V118" t="n">
-        <v>1.53</v>
       </c>
       <c r="W118" t="n">
         <v>1.29</v>
@@ -17360,13 +17364,13 @@
         <v>2.5</v>
       </c>
       <c r="AA118" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB118" t="n">
         <v>13</v>
       </c>
       <c r="AC118" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD118" t="n">
         <v>21</v>
@@ -17384,7 +17388,7 @@
         <v>7.5</v>
       </c>
       <c r="AI118" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ118" t="n">
         <v>34</v>
@@ -17393,7 +17397,7 @@
         <v>101</v>
       </c>
       <c r="AL118" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM118" t="n">
         <v>19</v>
@@ -17445,16 +17449,16 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H119" t="n">
         <v>4.5</v>
       </c>
       <c r="I119" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J119" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K119" t="n">
         <v>2.5</v>
@@ -17481,10 +17485,10 @@
         <v>2.35</v>
       </c>
       <c r="S119" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T119" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U119" t="n">
         <v>2.38</v>
@@ -17514,10 +17518,10 @@
         <v>8.5</v>
       </c>
       <c r="AD119" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE119" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF119" t="n">
         <v>21</v>
@@ -17526,7 +17530,7 @@
         <v>17</v>
       </c>
       <c r="AH119" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI119" t="n">
         <v>15</v>
@@ -17538,10 +17542,10 @@
         <v>151</v>
       </c>
       <c r="AL119" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM119" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN119" t="n">
         <v>17</v>
@@ -17593,13 +17597,13 @@
         <v>2.25</v>
       </c>
       <c r="H120" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I120" t="n">
         <v>3</v>
       </c>
       <c r="J120" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K120" t="n">
         <v>2.3</v>
@@ -17614,39 +17618,43 @@
         <v>15</v>
       </c>
       <c r="O120" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P120" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R120" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr"/>
+        <v>2.25</v>
+      </c>
+      <c r="S120" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1.8</v>
+      </c>
       <c r="U120" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V120" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W120" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X120" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y120" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z120" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA120" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB120" t="n">
         <v>13</v>
@@ -17661,7 +17669,7 @@
         <v>17</v>
       </c>
       <c r="AF120" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG120" t="n">
         <v>15</v>
@@ -17673,13 +17681,13 @@
         <v>12</v>
       </c>
       <c r="AJ120" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK120" t="n">
         <v>126</v>
       </c>
       <c r="AL120" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM120" t="n">
         <v>17</v>
@@ -17688,7 +17696,7 @@
         <v>11</v>
       </c>
       <c r="AO120" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP120" t="n">
         <v>21</v>
@@ -17731,48 +17739,48 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="H121" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I121" t="n">
-        <v>2.4</v>
+        <v>2.67</v>
       </c>
       <c r="J121" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="K121" t="n">
         <v>2.2</v>
       </c>
       <c r="L121" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="M121" t="n">
         <v>1.04</v>
       </c>
       <c r="N121" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O121" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P121" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R121" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="n">
-        <v>2.42</v>
+        <v>2.57</v>
       </c>
       <c r="V121" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W121" t="n">
         <v>1.33</v>
@@ -17781,61 +17789,61 @@
         <v>3.05</v>
       </c>
       <c r="Y121" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="Z121" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="AA121" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="AB121" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AC121" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AN121" t="n">
         <v>9.75</v>
       </c>
-      <c r="AD121" t="n">
-        <v>35</v>
-      </c>
-      <c r="AE121" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF121" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG121" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH121" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AI121" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ121" t="n">
-        <v>37</v>
-      </c>
-      <c r="AK121" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL121" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AM121" t="n">
-        <v>14</v>
-      </c>
-      <c r="AN121" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AO121" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AP121" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ121" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR121" t="inlineStr"/>
       <c r="AS121" t="inlineStr"/>
@@ -17872,37 +17880,37 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="H122" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I122" t="n">
-        <v>4.35</v>
+        <v>4.65</v>
       </c>
       <c r="J122" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="K122" t="n">
         <v>2.22</v>
       </c>
       <c r="L122" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="M122" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N122" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O122" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P122" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R122" t="n">
         <v>2.02</v>
@@ -17910,10 +17918,10 @@
       <c r="S122" t="inlineStr"/>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="V122" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W122" t="n">
         <v>1.36</v>
@@ -17925,7 +17933,7 @@
         <v>1.7</v>
       </c>
       <c r="Z122" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AA122" t="n">
         <v>7.8</v>
@@ -17937,19 +17945,19 @@
         <v>8</v>
       </c>
       <c r="AD122" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE122" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF122" t="n">
         <v>23</v>
       </c>
       <c r="AG122" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH122" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AI122" t="n">
         <v>14</v>
@@ -17961,19 +17969,19 @@
         <v>400</v>
       </c>
       <c r="AL122" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AM122" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AN122" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO122" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AP122" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AQ122" t="n">
         <v>40</v>
@@ -18587,7 +18595,7 @@
         <v>4.33</v>
       </c>
       <c r="I127" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J127" t="n">
         <v>5</v>
@@ -18596,7 +18604,7 @@
         <v>2.5</v>
       </c>
       <c r="L127" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M127" t="n">
         <v>1.02</v>
@@ -18617,16 +18625,16 @@
         <v>2.5</v>
       </c>
       <c r="S127" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T127" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U127" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V127" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W127" t="n">
         <v>1.25</v>
@@ -18635,10 +18643,10 @@
         <v>3.75</v>
       </c>
       <c r="Y127" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z127" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA127" t="n">
         <v>19</v>
@@ -18647,7 +18655,7 @@
         <v>29</v>
       </c>
       <c r="AC127" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD127" t="n">
         <v>51</v>
@@ -18677,19 +18685,19 @@
         <v>10</v>
       </c>
       <c r="AM127" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN127" t="n">
         <v>8.5</v>
       </c>
       <c r="AO127" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP127" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ127" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR127" t="inlineStr"/>
       <c r="AS127" t="inlineStr"/>
@@ -18867,7 +18875,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="H129" t="n">
         <v>10</v>
@@ -18897,36 +18905,36 @@
         <v>13</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="R129" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V129" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W129" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="X129" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y129" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z129" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA129" t="n">
         <v>19</v>
       </c>
       <c r="AB129" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC129" t="n">
         <v>15</v>
@@ -18938,7 +18946,7 @@
         <v>11</v>
       </c>
       <c r="AF129" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG129" t="n">
         <v>34</v>
@@ -18956,10 +18964,10 @@
         <v>201</v>
       </c>
       <c r="AL129" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM129" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN129" t="n">
         <v>51</v>
@@ -18971,7 +18979,7 @@
         <v>126</v>
       </c>
       <c r="AQ129" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR129" t="inlineStr"/>
       <c r="AS129" t="inlineStr"/>
@@ -19290,7 +19298,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H132" t="n">
         <v>3.5</v>
@@ -19299,13 +19307,13 @@
         <v>3</v>
       </c>
       <c r="J132" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K132" t="n">
         <v>2.25</v>
       </c>
       <c r="L132" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M132" t="n">
         <v>1.04</v>
@@ -19355,7 +19363,7 @@
         <v>9</v>
       </c>
       <c r="AD132" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE132" t="n">
         <v>17</v>
@@ -19572,111 +19580,111 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="H134" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="I134" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="J134" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="K134" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="L134" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="M134" t="n">
         <v>1.03</v>
       </c>
       <c r="N134" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O134" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P134" t="n">
-        <v>4.65</v>
+        <v>4.9</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R134" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="S134" t="inlineStr"/>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="V134" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W134" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X134" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y134" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Z134" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA134" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC134" t="n">
         <v>21</v>
       </c>
-      <c r="AB134" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC134" t="n">
-        <v>18</v>
-      </c>
       <c r="AD134" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AE134" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF134" t="n">
         <v>50</v>
       </c>
-      <c r="AF134" t="n">
-        <v>45</v>
-      </c>
       <c r="AG134" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH134" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI134" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AJ134" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK134" t="n">
         <v>350</v>
       </c>
       <c r="AL134" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO134" t="n">
         <v>9.5</v>
       </c>
-      <c r="AM134" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AN134" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AO134" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AP134" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AQ134" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR134" t="inlineStr"/>
       <c r="AS134" t="inlineStr"/>
@@ -19716,19 +19724,19 @@
         <v>3.15</v>
       </c>
       <c r="H135" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I135" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J135" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K135" t="n">
         <v>2.15</v>
       </c>
-      <c r="J135" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K135" t="n">
-        <v>2.18</v>
-      </c>
       <c r="L135" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M135" t="n">
         <v>1.04</v>
@@ -19746,7 +19754,7 @@
         <v>1.6</v>
       </c>
       <c r="R135" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr"/>
@@ -19772,7 +19780,7 @@
         <v>13.5</v>
       </c>
       <c r="AB135" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC135" t="n">
         <v>10.75</v>
@@ -19784,16 +19792,16 @@
         <v>24</v>
       </c>
       <c r="AF135" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG135" t="n">
         <v>8.5</v>
       </c>
       <c r="AH135" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AI135" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AJ135" t="n">
         <v>35</v>
@@ -19802,7 +19810,7 @@
         <v>200</v>
       </c>
       <c r="AL135" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AM135" t="n">
         <v>12.5</v>
@@ -19814,10 +19822,10 @@
         <v>23</v>
       </c>
       <c r="AP135" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ135" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AR135" t="inlineStr"/>
       <c r="AS135" t="inlineStr"/>
@@ -19991,13 +19999,13 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H137" t="n">
         <v>3.35</v>
       </c>
       <c r="I137" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J137" t="n">
         <v>2.22</v>
@@ -20067,7 +20075,7 @@
         <v>6.7</v>
       </c>
       <c r="AI137" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ137" t="n">
         <v>100</v>
@@ -20076,7 +20084,7 @@
         <v>900</v>
       </c>
       <c r="AL137" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM137" t="n">
         <v>35</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
@@ -840,63 +840,63 @@
         <v>2.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J3" t="n">
         <v>3.5</v>
       </c>
       <c r="K3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2.1</v>
       </c>
-      <c r="L3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N3" t="n">
-        <v>10</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.99</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X3" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA3" t="n">
         <v>9</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
         <v>11</v>
@@ -911,13 +911,13 @@
         <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
         <v>6</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>51</v>
@@ -978,31 +978,31 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
         <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
         <v>4.33</v>
@@ -1016,28 +1016,28 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X4" t="n">
         <v>3.25</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z4" t="n">
         <v>2.05</v>
       </c>
       <c r="AA4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB4" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>9</v>
       </c>
       <c r="AC4" t="n">
         <v>8.5</v>
@@ -1046,7 +1046,7 @@
         <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
         <v>21</v>
@@ -1055,7 +1055,7 @@
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
@@ -1064,13 +1064,13 @@
         <v>41</v>
       </c>
       <c r="AK4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
       </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN4" t="n">
         <v>15</v>
@@ -1082,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
         <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J5" t="n">
         <v>5.5</v>
@@ -1134,16 +1134,16 @@
         <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
         <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -1160,19 +1160,19 @@
         <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1193,7 +1193,7 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
         <v>8</v>
@@ -1211,13 +1211,13 @@
         <v>7.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN5" t="n">
         <v>8.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
         <v>13</v>
@@ -1260,22 +1260,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1284,16 +1284,16 @@
         <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
         <v>2.07</v>
@@ -1302,40 +1302,40 @@
         <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="V6" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="W6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X6" t="n">
         <v>3.25</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA6" t="n">
         <v>10</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1350,22 +1350,22 @@
         <v>41</v>
       </c>
       <c r="AK6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN6" t="n">
         <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
         <v>26</v>
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K7" t="n">
         <v>2.3</v>
@@ -1423,22 +1423,22 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
         <v>1.95</v>
@@ -1447,25 +1447,25 @@
         <v>1.95</v>
       </c>
       <c r="U7" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W7" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB7" t="n">
         <v>8</v>
@@ -1474,7 +1474,7 @@
         <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1483,10 +1483,10 @@
         <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1495,10 +1495,10 @@
         <v>51</v>
       </c>
       <c r="AK7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM7" t="n">
         <v>26</v>
@@ -1977,22 +1977,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J11" t="n">
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -2001,39 +2001,39 @@
         <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V11" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W11" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X11" t="n">
         <v>2.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB11" t="n">
         <v>21</v>
@@ -2051,10 +2051,10 @@
         <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI11" t="n">
         <v>17</v>
@@ -2063,7 +2063,7 @@
         <v>67</v>
       </c>
       <c r="AK11" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL11" t="n">
         <v>6</v>
@@ -2083,8 +2083,12 @@
       <c r="AQ11" t="n">
         <v>34</v>
       </c>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
+      <c r="AR11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>2.11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2118,16 +2122,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
@@ -2162,10 +2166,10 @@
         <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X12" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y12" t="n">
         <v>2.2</v>
@@ -2180,13 +2184,13 @@
         <v>6</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
         <v>34</v>
@@ -2213,7 +2217,7 @@
         <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
         <v>81</v>
@@ -2222,7 +2226,7 @@
         <v>51</v>
       </c>
       <c r="AQ12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2712,16 +2716,16 @@
         <v>7.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
         <v>17</v>
       </c>
       <c r="O16" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q16" t="n">
         <v>1.57</v>
@@ -2730,28 +2734,28 @@
         <v>2.35</v>
       </c>
       <c r="S16" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="T16" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U16" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="V16" t="n">
         <v>1.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X16" t="n">
         <v>3.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="AA16" t="n">
         <v>8</v>
@@ -2763,7 +2767,7 @@
         <v>8.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -2772,7 +2776,7 @@
         <v>23</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH16" t="n">
         <v>10</v>
@@ -2796,7 +2800,7 @@
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP16" t="n">
         <v>51</v>
@@ -2839,22 +2843,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2863,16 +2867,16 @@
         <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R17" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S17" t="n">
         <v>2.05</v>
@@ -2881,13 +2885,13 @@
         <v>1.8</v>
       </c>
       <c r="U17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V17" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X17" t="n">
         <v>3.25</v>
@@ -2908,10 +2912,10 @@
         <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF17" t="n">
         <v>29</v>
@@ -2938,7 +2942,7 @@
         <v>11</v>
       </c>
       <c r="AN17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO17" t="n">
         <v>19</v>
@@ -3129,60 +3133,60 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
         <v>5.25</v>
       </c>
       <c r="J19" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
         <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R19" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W19" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X19" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA19" t="n">
         <v>5.5</v>
@@ -3197,22 +3201,22 @@
         <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
         <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI19" t="n">
         <v>21</v>
       </c>
       <c r="AJ19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK19" t="n">
         <v>501</v>
@@ -3236,10 +3240,10 @@
         <v>51</v>
       </c>
       <c r="AR19" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="20">
@@ -3274,54 +3278,54 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L20" t="n">
         <v>6.5</v>
       </c>
-      <c r="J20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>7</v>
-      </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="V20" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="W20" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y20" t="n">
         <v>2.25</v>
@@ -3333,25 +3337,25 @@
         <v>5.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC20" t="n">
         <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI20" t="n">
         <v>23</v>
@@ -3363,16 +3367,16 @@
         <v>451</v>
       </c>
       <c r="AL20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP20" t="n">
         <v>51</v>
@@ -3380,8 +3384,12 @@
       <c r="AQ20" t="n">
         <v>51</v>
       </c>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
+      <c r="AR20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3415,13 +3423,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J21" t="n">
         <v>5.5</v>
@@ -3439,10 +3447,10 @@
         <v>19</v>
       </c>
       <c r="O21" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q21" t="n">
         <v>1.44</v>
@@ -3463,16 +3471,16 @@
         <v>1.73</v>
       </c>
       <c r="W21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA21" t="n">
         <v>21</v>
@@ -3508,7 +3516,7 @@
         <v>126</v>
       </c>
       <c r="AL21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM21" t="n">
         <v>9</v>
@@ -3560,22 +3568,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J22" t="n">
         <v>3.5</v>
       </c>
       <c r="K22" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L22" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.1</v>
@@ -3584,52 +3592,52 @@
         <v>7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S22" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="T22" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V22" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W22" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X22" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC22" t="n">
         <v>11</v>
       </c>
       <c r="AD22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -3644,13 +3652,13 @@
         <v>6</v>
       </c>
       <c r="AI22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
         <v>67</v>
       </c>
       <c r="AK22" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL22" t="n">
         <v>7</v>
@@ -3671,10 +3679,10 @@
         <v>41</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -3709,22 +3717,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H23" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I23" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M23" t="n">
         <v>1.18</v>
@@ -3733,10 +3741,10 @@
         <v>4.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="P23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q23" t="n">
         <v>4</v>
@@ -3745,10 +3753,10 @@
         <v>1.25</v>
       </c>
       <c r="S23" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="T23" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="U23" t="n">
         <v>10</v>
@@ -3757,10 +3765,10 @@
         <v>1.06</v>
       </c>
       <c r="W23" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="X23" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Y23" t="n">
         <v>2.75</v>
@@ -3769,7 +3777,7 @@
         <v>1.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB23" t="n">
         <v>11</v>
@@ -3781,13 +3789,13 @@
         <v>34</v>
       </c>
       <c r="AE23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF23" t="n">
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AH23" t="n">
         <v>6.5</v>
@@ -3796,7 +3804,7 @@
         <v>29</v>
       </c>
       <c r="AJ23" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AK23" t="n">
         <v>101</v>
@@ -3808,16 +3816,16 @@
         <v>12</v>
       </c>
       <c r="AN23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO23" t="n">
         <v>34</v>
       </c>
       <c r="AP23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR23" t="n">
         <v>2</v>
@@ -3858,22 +3866,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="K24" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L24" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.1</v>
@@ -3894,10 +3902,10 @@
         <v>1.48</v>
       </c>
       <c r="S24" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="U24" t="n">
         <v>5.5</v>
@@ -3906,31 +3914,31 @@
         <v>1.14</v>
       </c>
       <c r="W24" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X24" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA24" t="n">
         <v>5.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE24" t="n">
         <v>19</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>21</v>
       </c>
       <c r="AF24" t="n">
         <v>41</v>
@@ -3951,16 +3959,16 @@
         <v>451</v>
       </c>
       <c r="AL24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM24" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AN24" t="n">
         <v>15</v>
       </c>
       <c r="AO24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP24" t="n">
         <v>41</v>
@@ -3969,10 +3977,10 @@
         <v>51</v>
       </c>
       <c r="AR24" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="25">
@@ -4043,10 +4051,10 @@
         <v>1.53</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T25" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="U25" t="n">
         <v>5</v>
@@ -4194,13 +4202,13 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V26" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W26" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="X26" t="n">
         <v>2.05</v>
@@ -4339,7 +4347,7 @@
         <v>1.08</v>
       </c>
       <c r="W27" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="X27" t="n">
         <v>2</v>
@@ -4449,7 +4457,7 @@
         <v>1.91</v>
       </c>
       <c r="L28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
         <v>1.1</v>
@@ -4478,16 +4486,16 @@
         <v>1.14</v>
       </c>
       <c r="W28" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X28" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA28" t="n">
         <v>5</v>
@@ -4496,19 +4504,19 @@
         <v>7</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD28" t="n">
         <v>15</v>
       </c>
       <c r="AE28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF28" t="n">
         <v>41</v>
       </c>
       <c r="AG28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH28" t="n">
         <v>7</v>
@@ -4580,10 +4588,10 @@
         <v>2.2</v>
       </c>
       <c r="H29" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J29" t="n">
         <v>3.1</v>
@@ -4595,22 +4603,22 @@
         <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P29" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R29" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -4621,19 +4629,19 @@
         <v>1.08</v>
       </c>
       <c r="W29" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X29" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="Y29" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA29" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AB29" t="n">
         <v>8.5</v>
@@ -4642,7 +4650,7 @@
         <v>11</v>
       </c>
       <c r="AD29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
@@ -4651,20 +4659,20 @@
         <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AH29" t="n">
         <v>6</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ29" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM29" t="n">
         <v>17</v>
@@ -4673,13 +4681,13 @@
         <v>17</v>
       </c>
       <c r="AO29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP29" t="n">
         <v>41</v>
       </c>
       <c r="AQ29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr"/>
@@ -4728,16 +4736,16 @@
         <v>2.3</v>
       </c>
       <c r="K30" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L30" t="n">
         <v>8.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.67</v>
@@ -4746,21 +4754,21 @@
         <v>2.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R30" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V30" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W30" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X30" t="n">
         <v>2.1</v>
@@ -4861,13 +4869,13 @@
         <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L31" t="n">
         <v>5</v>
@@ -4899,7 +4907,7 @@
         <v>1.11</v>
       </c>
       <c r="W31" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X31" t="n">
         <v>2.1</v>
@@ -5429,81 +5437,81 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H35" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L35" t="n">
         <v>3.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P35" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="R35" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="V35" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="W35" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X35" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z35" t="n">
         <v>1.8</v>
       </c>
-      <c r="Z35" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AA35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB35" t="n">
         <v>11</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE35" t="n">
         <v>21</v>
       </c>
-      <c r="AE35" t="n">
-        <v>19</v>
-      </c>
       <c r="AF35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG35" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AH35" t="n">
         <v>6</v>
@@ -5515,10 +5523,10 @@
         <v>51</v>
       </c>
       <c r="AK35" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AL35" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM35" t="n">
         <v>15</v>
@@ -5530,10 +5538,10 @@
         <v>34</v>
       </c>
       <c r="AP35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5996,10 +6004,10 @@
         <v>5.75</v>
       </c>
       <c r="H39" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I39" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J39" t="n">
         <v>6</v>
@@ -6017,16 +6025,16 @@
         <v>13</v>
       </c>
       <c r="O39" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R39" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S39" t="n">
         <v>2.05</v>
@@ -6035,10 +6043,10 @@
         <v>1.8</v>
       </c>
       <c r="U39" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W39" t="n">
         <v>1.33</v>
@@ -6047,19 +6055,19 @@
         <v>3.25</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC39" t="n">
         <v>17</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>19</v>
       </c>
       <c r="AD39" t="n">
         <v>67</v>
@@ -6077,7 +6085,7 @@
         <v>8.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ39" t="n">
         <v>51</v>
@@ -6086,16 +6094,16 @@
         <v>301</v>
       </c>
       <c r="AL39" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM39" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AN39" t="n">
         <v>8.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP39" t="n">
         <v>12</v>
@@ -6141,16 +6149,16 @@
         <v>1.7</v>
       </c>
       <c r="H40" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J40" t="n">
         <v>2.25</v>
       </c>
       <c r="K40" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L40" t="n">
         <v>4.5</v>
@@ -6159,31 +6167,31 @@
         <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O40" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P40" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="R40" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="S40" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T40" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U40" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="V40" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="W40" t="n">
         <v>1.3</v>
@@ -6192,16 +6200,16 @@
         <v>3.4</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z40" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA40" t="n">
         <v>9</v>
       </c>
       <c r="AB40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC40" t="n">
         <v>8.5</v>
@@ -6219,7 +6227,7 @@
         <v>15</v>
       </c>
       <c r="AH40" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI40" t="n">
         <v>13</v>
@@ -6234,13 +6242,13 @@
         <v>15</v>
       </c>
       <c r="AM40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN40" t="n">
         <v>15</v>
       </c>
       <c r="AO40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP40" t="n">
         <v>34</v>
@@ -6301,10 +6309,10 @@
         <v>2.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O41" t="n">
         <v>1.25</v>
@@ -6313,10 +6321,10 @@
         <v>3.75</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R41" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -6565,22 +6573,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I43" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K43" t="n">
         <v>2.1</v>
       </c>
       <c r="L43" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M43" t="n">
         <v>1.06</v>
@@ -6621,13 +6629,13 @@
         <v>1.83</v>
       </c>
       <c r="AA43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD43" t="n">
         <v>41</v>
@@ -6636,16 +6644,16 @@
         <v>29</v>
       </c>
       <c r="AF43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG43" t="n">
         <v>9.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ43" t="n">
         <v>51</v>
@@ -6654,16 +6662,16 @@
         <v>301</v>
       </c>
       <c r="AL43" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM43" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN43" t="n">
         <v>9</v>
       </c>
       <c r="AO43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP43" t="n">
         <v>17</v>
@@ -6706,13 +6714,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H44" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I44" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J44" t="n">
         <v>4.5</v>
@@ -6721,13 +6729,13 @@
         <v>2.1</v>
       </c>
       <c r="L44" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O44" t="n">
         <v>1.33</v>
@@ -6736,10 +6744,10 @@
         <v>3.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R44" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -6756,13 +6764,13 @@
         <v>2.63</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB44" t="n">
         <v>19</v>
@@ -6780,22 +6788,22 @@
         <v>41</v>
       </c>
       <c r="AG44" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH44" t="n">
         <v>6.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ44" t="n">
         <v>51</v>
       </c>
       <c r="AK44" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL44" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM44" t="n">
         <v>9</v>
@@ -7129,16 +7137,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H47" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J47" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K47" t="n">
         <v>2</v>
@@ -7150,48 +7158,48 @@
         <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O47" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P47" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R47" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V47" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W47" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X47" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y47" t="n">
         <v>2.1</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AA47" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD47" t="n">
         <v>41</v>
@@ -7236,10 +7244,10 @@
         <v>34</v>
       </c>
       <c r="AR47" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -7313,7 +7321,7 @@
         <v>3.4</v>
       </c>
       <c r="T48" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="U48" t="n">
         <v>4.33</v>
@@ -7331,7 +7339,7 @@
         <v>2.25</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AA48" t="n">
         <v>11</v>
@@ -7471,7 +7479,7 @@
         <v>1.17</v>
       </c>
       <c r="W49" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X49" t="n">
         <v>2.25</v>
@@ -7480,7 +7488,7 @@
         <v>2.2</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AA49" t="n">
         <v>6</v>
@@ -7620,7 +7628,7 @@
         <v>1.17</v>
       </c>
       <c r="W50" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X50" t="n">
         <v>2.25</v>
@@ -7629,7 +7637,7 @@
         <v>2.1</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AA50" t="n">
         <v>6</v>
@@ -7769,16 +7777,16 @@
         <v>1.25</v>
       </c>
       <c r="W51" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X51" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y51" t="n">
         <v>2.25</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AA51" t="n">
         <v>5.5</v>
@@ -8045,10 +8053,10 @@
         <v>3.75</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R53" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
@@ -8059,13 +8067,13 @@
         <v>1.33</v>
       </c>
       <c r="W53" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X53" t="n">
         <v>2.75</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Z53" t="n">
         <v>2</v>
@@ -8297,22 +8305,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H55" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="J55" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K55" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="M55" t="n">
         <v>1.09</v>
@@ -8335,16 +8343,16 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="V55" t="n">
         <v>1.24</v>
       </c>
       <c r="W55" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X55" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="Y55" t="n">
         <v>1.85</v>
@@ -8353,19 +8361,19 @@
         <v>1.85</v>
       </c>
       <c r="AA55" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB55" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC55" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AD55" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE55" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF55" t="n">
         <v>45</v>
@@ -8386,16 +8394,16 @@
         <v>800</v>
       </c>
       <c r="AL55" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AM55" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AN55" t="n">
         <v>10</v>
       </c>
       <c r="AO55" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP55" t="n">
         <v>23</v>
@@ -8438,22 +8446,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="H56" t="n">
         <v>3.3</v>
       </c>
       <c r="I56" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J56" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="K56" t="n">
         <v>2.12</v>
       </c>
       <c r="L56" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M56" t="n">
         <v>1.07</v>
@@ -8485,7 +8493,7 @@
         <v>1.4</v>
       </c>
       <c r="X56" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Y56" t="n">
         <v>1.78</v>
@@ -8494,22 +8502,22 @@
         <v>1.93</v>
       </c>
       <c r="AA56" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB56" t="n">
         <v>11.25</v>
       </c>
       <c r="AC56" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD56" t="n">
         <v>24</v>
       </c>
       <c r="AE56" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF56" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG56" t="n">
         <v>7.3</v>
@@ -8533,16 +8541,16 @@
         <v>17</v>
       </c>
       <c r="AN56" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AO56" t="n">
         <v>45</v>
       </c>
       <c r="AP56" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ56" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR56" t="inlineStr"/>
       <c r="AS56" t="inlineStr"/>
@@ -8729,7 +8737,7 @@
         <v>8.5</v>
       </c>
       <c r="J58" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K58" t="n">
         <v>2.5</v>
@@ -8738,22 +8746,22 @@
         <v>8</v>
       </c>
       <c r="M58" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N58" t="n">
         <v>13</v>
       </c>
       <c r="O58" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R58" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S58" t="n">
         <v>2</v>
@@ -8762,10 +8770,10 @@
         <v>1.85</v>
       </c>
       <c r="U58" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V58" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="W58" t="n">
         <v>1.33</v>
@@ -8883,19 +8891,19 @@
         <v>5</v>
       </c>
       <c r="M59" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N59" t="n">
         <v>15</v>
       </c>
       <c r="O59" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P59" t="n">
         <v>4.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="R59" t="n">
         <v>2.25</v>
@@ -8910,7 +8918,7 @@
         <v>2.5</v>
       </c>
       <c r="V59" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W59" t="n">
         <v>1.3</v>
@@ -9010,96 +9018,96 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H60" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I60" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J60" t="n">
         <v>2.05</v>
       </c>
       <c r="K60" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L60" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M60" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N60" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O60" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P60" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="R60" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="V60" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="W60" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X60" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AA60" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC60" t="n">
         <v>8.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE60" t="n">
         <v>12</v>
       </c>
       <c r="AF60" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AG60" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH60" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ60" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK60" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AL60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM60" t="n">
         <v>34</v>
@@ -9111,10 +9119,10 @@
         <v>67</v>
       </c>
       <c r="AP60" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ60" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr"/>
@@ -9868,22 +9876,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
         <v>3.9</v>
       </c>
       <c r="I66" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J66" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K66" t="n">
         <v>2.38</v>
       </c>
       <c r="L66" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M66" t="n">
         <v>1.03</v>
@@ -9915,25 +9923,25 @@
         <v>1.3</v>
       </c>
       <c r="X66" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y66" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z66" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA66" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB66" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC66" t="n">
         <v>8.5</v>
       </c>
       <c r="AD66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE66" t="n">
         <v>13</v>
@@ -9942,13 +9950,13 @@
         <v>21</v>
       </c>
       <c r="AG66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH66" t="n">
         <v>7.5</v>
       </c>
       <c r="AI66" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ66" t="n">
         <v>41</v>
@@ -9966,7 +9974,7 @@
         <v>15</v>
       </c>
       <c r="AO66" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP66" t="n">
         <v>34</v>
@@ -10166,16 +10174,16 @@
         <v>1.73</v>
       </c>
       <c r="K68" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L68" t="n">
         <v>11</v>
       </c>
       <c r="M68" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N68" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="O68" t="n">
         <v>1.25</v>
@@ -10184,25 +10192,25 @@
         <v>3.75</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R68" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S68" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T68" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="U68" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V68" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W68" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X68" t="n">
         <v>3</v>
@@ -10214,7 +10222,7 @@
         <v>1.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB68" t="n">
         <v>5.5</v>
@@ -10232,7 +10240,7 @@
         <v>41</v>
       </c>
       <c r="AG68" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH68" t="n">
         <v>10</v>
@@ -10247,7 +10255,7 @@
         <v>501</v>
       </c>
       <c r="AL68" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM68" t="n">
         <v>51</v>
@@ -10259,16 +10267,16 @@
         <v>201</v>
       </c>
       <c r="AP68" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AQ68" t="n">
         <v>101</v>
       </c>
       <c r="AR68" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="69">
@@ -10312,13 +10320,13 @@
         <v>1.95</v>
       </c>
       <c r="J69" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="K69" t="n">
         <v>2</v>
       </c>
       <c r="L69" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M69" t="n">
         <v>1.08</v>
@@ -10345,10 +10353,10 @@
         <v>1.31</v>
       </c>
       <c r="U69" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V69" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W69" t="n">
         <v>1.5</v>
@@ -10357,25 +10365,25 @@
         <v>2.5</v>
       </c>
       <c r="Y69" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA69" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB69" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC69" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD69" t="n">
         <v>41</v>
       </c>
       <c r="AE69" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF69" t="n">
         <v>41</v>
@@ -10390,22 +10398,22 @@
         <v>17</v>
       </c>
       <c r="AJ69" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK69" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL69" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM69" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AN69" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO69" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP69" t="n">
         <v>19</v>
@@ -10455,7 +10463,7 @@
         <v>1.18</v>
       </c>
       <c r="H70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I70" t="n">
         <v>13</v>
@@ -10467,16 +10475,16 @@
         <v>2.88</v>
       </c>
       <c r="L70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M70" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N70" t="n">
         <v>19</v>
       </c>
       <c r="O70" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P70" t="n">
         <v>5.5</v>
@@ -10488,16 +10496,16 @@
         <v>2.5</v>
       </c>
       <c r="S70" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T70" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="U70" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V70" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W70" t="n">
         <v>1.25</v>
@@ -10506,10 +10514,10 @@
         <v>3.75</v>
       </c>
       <c r="Y70" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA70" t="n">
         <v>8</v>
@@ -10521,13 +10529,13 @@
         <v>10</v>
       </c>
       <c r="AD70" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE70" t="n">
         <v>11</v>
       </c>
       <c r="AF70" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG70" t="n">
         <v>17</v>
@@ -10557,16 +10565,16 @@
         <v>201</v>
       </c>
       <c r="AP70" t="n">
+        <v>101</v>
+      </c>
+      <c r="AQ70" t="n">
         <v>81</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>67</v>
       </c>
       <c r="AR70" t="n">
         <v>1.22</v>
       </c>
       <c r="AS70" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="71">
@@ -10742,40 +10750,40 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H72" t="n">
         <v>3.6</v>
       </c>
       <c r="I72" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J72" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K72" t="n">
         <v>2.05</v>
       </c>
       <c r="L72" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M72" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N72" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O72" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P72" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R72" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
@@ -10783,7 +10791,7 @@
         <v>3.75</v>
       </c>
       <c r="V72" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W72" t="n">
         <v>1.44</v>
@@ -10798,19 +10806,19 @@
         <v>1.83</v>
       </c>
       <c r="AA72" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB72" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC72" t="n">
         <v>11</v>
       </c>
       <c r="AD72" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE72" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF72" t="n">
         <v>34</v>
@@ -10834,7 +10842,7 @@
         <v>7.5</v>
       </c>
       <c r="AM72" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN72" t="n">
         <v>9.5</v>
@@ -10843,7 +10851,7 @@
         <v>21</v>
       </c>
       <c r="AP72" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ72" t="n">
         <v>29</v>
@@ -11352,10 +11360,10 @@
         <v>3.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AA76" t="n">
         <v>19</v>
@@ -11874,16 +11882,16 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H80" t="n">
         <v>2.9</v>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J80" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K80" t="n">
         <v>1.91</v>
@@ -11927,19 +11935,19 @@
         <v>2.1</v>
       </c>
       <c r="Z80" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AA80" t="n">
         <v>6</v>
       </c>
       <c r="AB80" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC80" t="n">
         <v>10</v>
       </c>
       <c r="AD80" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE80" t="n">
         <v>21</v>
@@ -11963,10 +11971,10 @@
         <v>501</v>
       </c>
       <c r="AL80" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM80" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN80" t="n">
         <v>15</v>
@@ -12434,13 +12442,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H84" t="n">
         <v>4.1</v>
       </c>
       <c r="I84" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J84" t="n">
         <v>2.2</v>
@@ -12452,22 +12460,22 @@
         <v>6</v>
       </c>
       <c r="M84" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O84" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P84" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R84" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
@@ -12532,13 +12540,13 @@
         <v>17</v>
       </c>
       <c r="AO84" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP84" t="n">
         <v>41</v>
       </c>
       <c r="AQ84" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR84" t="inlineStr"/>
       <c r="AS84" t="inlineStr"/>
@@ -12724,7 +12732,7 @@
         <v>3.5</v>
       </c>
       <c r="K86" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L86" t="n">
         <v>3.6</v>
@@ -12745,7 +12753,7 @@
         <v>2.5</v>
       </c>
       <c r="R86" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
@@ -12857,28 +12865,28 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H87" t="n">
         <v>2.88</v>
       </c>
       <c r="I87" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J87" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K87" t="n">
         <v>1.8</v>
       </c>
       <c r="L87" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M87" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N87" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O87" t="n">
         <v>1.62</v>
@@ -12890,7 +12898,7 @@
         <v>3.1</v>
       </c>
       <c r="R87" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
@@ -12913,19 +12921,19 @@
         <v>1.53</v>
       </c>
       <c r="AA87" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB87" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC87" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD87" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE87" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF87" t="n">
         <v>51</v>
@@ -12937,25 +12945,25 @@
         <v>6</v>
       </c>
       <c r="AI87" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ87" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK87" t="n">
         <v>101</v>
       </c>
       <c r="AL87" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM87" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN87" t="n">
         <v>11</v>
       </c>
-      <c r="AN87" t="n">
-        <v>12</v>
-      </c>
       <c r="AO87" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP87" t="n">
         <v>29</v>
@@ -13011,7 +13019,7 @@
         <v>8</v>
       </c>
       <c r="J88" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="K88" t="n">
         <v>2.3</v>
@@ -13020,10 +13028,10 @@
         <v>8</v>
       </c>
       <c r="M88" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N88" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O88" t="n">
         <v>1.29</v>
@@ -13292,67 +13300,67 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H90" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I90" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J90" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K90" t="n">
         <v>2.5</v>
       </c>
       <c r="L90" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M90" t="n">
         <v>1.03</v>
       </c>
       <c r="N90" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O90" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P90" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R90" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S90" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="T90" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U90" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V90" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W90" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X90" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y90" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z90" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA90" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB90" t="n">
         <v>7.5</v>
@@ -13373,7 +13381,7 @@
         <v>15</v>
       </c>
       <c r="AH90" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI90" t="n">
         <v>17</v>
@@ -13388,16 +13396,16 @@
         <v>21</v>
       </c>
       <c r="AM90" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN90" t="n">
         <v>21</v>
       </c>
       <c r="AO90" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP90" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ90" t="n">
         <v>41</v>
@@ -13440,7 +13448,7 @@
         <v>4.75</v>
       </c>
       <c r="H91" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I91" t="n">
         <v>1.8</v>
@@ -13458,19 +13466,19 @@
         <v>1.06</v>
       </c>
       <c r="N91" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O91" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P91" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R91" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S91" t="n">
         <v>2.8</v>
@@ -13533,7 +13541,7 @@
         <v>7</v>
       </c>
       <c r="AM91" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AN91" t="n">
         <v>8.5</v>
@@ -13545,7 +13553,7 @@
         <v>15</v>
       </c>
       <c r="AQ91" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR91" t="n">
         <v>1.52</v>
@@ -13586,7 +13594,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="H92" t="n">
         <v>3.9</v>
@@ -13735,64 +13743,64 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H93" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I93" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="J93" t="n">
         <v>7.5</v>
       </c>
       <c r="K93" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L93" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M93" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N93" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O93" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P93" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="R93" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S93" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T93" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="U93" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V93" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W93" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X93" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y93" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z93" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AA93" t="n">
         <v>15</v>
@@ -13807,34 +13815,34 @@
         <v>81</v>
       </c>
       <c r="AE93" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AF93" t="n">
         <v>67</v>
       </c>
       <c r="AG93" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH93" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI93" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ93" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK93" t="n">
         <v>351</v>
       </c>
       <c r="AL93" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AM93" t="n">
         <v>6</v>
       </c>
       <c r="AN93" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO93" t="n">
         <v>10</v>
@@ -13843,13 +13851,13 @@
         <v>15</v>
       </c>
       <c r="AQ93" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR93" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.23</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="94">
@@ -13884,7 +13892,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H94" t="n">
         <v>3.4</v>
@@ -14318,60 +14326,60 @@
         <v>6</v>
       </c>
       <c r="H97" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I97" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="J97" t="n">
         <v>5.5</v>
       </c>
       <c r="K97" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L97" t="n">
         <v>2.1</v>
       </c>
       <c r="M97" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N97" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O97" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P97" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R97" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V97" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W97" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X97" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y97" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z97" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA97" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB97" t="n">
         <v>34</v>
@@ -14389,7 +14397,7 @@
         <v>41</v>
       </c>
       <c r="AG97" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH97" t="n">
         <v>7.5</v>
@@ -14398,13 +14406,13 @@
         <v>15</v>
       </c>
       <c r="AJ97" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK97" t="n">
         <v>201</v>
       </c>
       <c r="AL97" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM97" t="n">
         <v>8</v>
@@ -14413,13 +14421,13 @@
         <v>8.5</v>
       </c>
       <c r="AO97" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP97" t="n">
         <v>12</v>
       </c>
       <c r="AQ97" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR97" t="inlineStr"/>
       <c r="AS97" t="inlineStr"/>
@@ -14459,16 +14467,16 @@
         <v>1.55</v>
       </c>
       <c r="H98" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I98" t="n">
         <v>6.25</v>
       </c>
       <c r="J98" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K98" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L98" t="n">
         <v>6</v>
@@ -14480,24 +14488,24 @@
         <v>11</v>
       </c>
       <c r="O98" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P98" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="R98" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V98" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W98" t="n">
         <v>1.4</v>
@@ -14506,16 +14514,16 @@
         <v>2.75</v>
       </c>
       <c r="Y98" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z98" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AA98" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB98" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AB98" t="n">
-        <v>7</v>
       </c>
       <c r="AC98" t="n">
         <v>8.5</v>
@@ -14530,7 +14538,7 @@
         <v>29</v>
       </c>
       <c r="AG98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH98" t="n">
         <v>7.5</v>
@@ -14542,10 +14550,10 @@
         <v>67</v>
       </c>
       <c r="AK98" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL98" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM98" t="n">
         <v>29</v>
@@ -14557,7 +14565,7 @@
         <v>67</v>
       </c>
       <c r="AP98" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ98" t="n">
         <v>51</v>
@@ -14597,7 +14605,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H99" t="n">
         <v>3.1</v>
@@ -14606,10 +14614,10 @@
         <v>3.1</v>
       </c>
       <c r="J99" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K99" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="L99" t="n">
         <v>3.75</v>
@@ -14621,39 +14629,39 @@
         <v>8</v>
       </c>
       <c r="O99" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P99" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R99" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V99" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W99" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X99" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y99" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z99" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="AA99" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB99" t="n">
         <v>11</v>
@@ -14665,13 +14673,13 @@
         <v>23</v>
       </c>
       <c r="AE99" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF99" t="n">
         <v>34</v>
       </c>
       <c r="AG99" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH99" t="n">
         <v>6</v>
@@ -14680,10 +14688,10 @@
         <v>17</v>
       </c>
       <c r="AJ99" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK99" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL99" t="n">
         <v>8</v>
@@ -14772,18 +14780,18 @@
         <v>3.75</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R100" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V100" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W100" t="n">
         <v>1.36</v>
@@ -14792,10 +14800,10 @@
         <v>3</v>
       </c>
       <c r="Y100" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Z100" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AA100" t="n">
         <v>7</v>
@@ -14936,7 +14944,7 @@
         <v>2.1</v>
       </c>
       <c r="Z101" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AA101" t="n">
         <v>5.5</v>
@@ -15371,10 +15379,10 @@
         <v>1.8</v>
       </c>
       <c r="Z104" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA104" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB104" t="n">
         <v>8.5</v>
@@ -15392,7 +15400,7 @@
         <v>26</v>
       </c>
       <c r="AG104" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH104" t="n">
         <v>7</v>
@@ -15407,7 +15415,7 @@
         <v>251</v>
       </c>
       <c r="AL104" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM104" t="n">
         <v>21</v>
@@ -15600,34 +15608,34 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H106" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I106" t="n">
-        <v>4.15</v>
+        <v>4.45</v>
       </c>
       <c r="J106" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="K106" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L106" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M106" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N106" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="O106" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P106" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q106" t="n">
         <v>1.93</v>
@@ -15638,49 +15646,49 @@
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="V106" t="n">
         <v>1.3</v>
       </c>
       <c r="W106" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X106" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="Y106" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="Z106" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AA106" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AB106" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AC106" t="n">
         <v>8.25</v>
       </c>
       <c r="AD106" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE106" t="n">
         <v>14</v>
-      </c>
-      <c r="AE106" t="n">
-        <v>14.5</v>
       </c>
       <c r="AF106" t="n">
         <v>28</v>
       </c>
       <c r="AG106" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AH106" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AI106" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ106" t="n">
         <v>80</v>
@@ -15689,16 +15697,16 @@
         <v>700</v>
       </c>
       <c r="AL106" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM106" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN106" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO106" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AP106" t="n">
         <v>45</v>
@@ -15747,7 +15755,7 @@
         <v>3.2</v>
       </c>
       <c r="I107" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J107" t="n">
         <v>2.62</v>
@@ -15774,7 +15782,7 @@
         <v>1.9</v>
       </c>
       <c r="R107" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
@@ -15797,7 +15805,7 @@
         <v>2</v>
       </c>
       <c r="AA107" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AB107" t="n">
         <v>9.75</v>
@@ -15806,13 +15814,13 @@
         <v>8.25</v>
       </c>
       <c r="AD107" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE107" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF107" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG107" t="n">
         <v>7.1</v>
@@ -15882,54 +15890,54 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H108" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="I108" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J108" t="n">
         <v>3.1</v>
       </c>
-      <c r="J108" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K108" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L108" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="M108" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="N108" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O108" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P108" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="R108" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="V108" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W108" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X108" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Y108" t="n">
         <v>2.25</v>
@@ -15938,31 +15946,31 @@
         <v>1.57</v>
       </c>
       <c r="AA108" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB108" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AC108" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AD108" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE108" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AF108" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG108" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AH108" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AI108" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ108" t="n">
         <v>150</v>
@@ -15971,22 +15979,22 @@
         <v>900</v>
       </c>
       <c r="AL108" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AM108" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AN108" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO108" t="n">
         <v>45</v>
       </c>
       <c r="AP108" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AQ108" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR108" t="inlineStr"/>
       <c r="AS108" t="inlineStr"/>
@@ -16732,22 +16740,22 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H114" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I114" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J114" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="J114" t="n">
-        <v>3.2</v>
       </c>
       <c r="K114" t="n">
         <v>2.05</v>
       </c>
       <c r="L114" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M114" t="n">
         <v>1.08</v>
@@ -16765,21 +16773,21 @@
         <v>2.15</v>
       </c>
       <c r="R114" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V114" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W114" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X114" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y114" t="n">
         <v>1.83</v>
@@ -16821,7 +16829,7 @@
         <v>301</v>
       </c>
       <c r="AL114" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM114" t="n">
         <v>15</v>
@@ -16836,7 +16844,7 @@
         <v>26</v>
       </c>
       <c r="AQ114" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR114" t="inlineStr"/>
       <c r="AS114" t="inlineStr"/>
@@ -16873,7 +16881,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="H115" t="n">
         <v>3.1</v>
@@ -16906,7 +16914,7 @@
         <v>2.4</v>
       </c>
       <c r="R115" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
@@ -17018,40 +17026,40 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="H116" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I116" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J116" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K116" t="n">
         <v>2.05</v>
-      </c>
-      <c r="K116" t="n">
-        <v>2.1</v>
       </c>
       <c r="L116" t="n">
         <v>8.5</v>
       </c>
       <c r="M116" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N116" t="n">
         <v>8</v>
       </c>
       <c r="O116" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P116" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R116" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
@@ -17059,7 +17067,7 @@
         <v>4.5</v>
       </c>
       <c r="V116" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W116" t="n">
         <v>1.53</v>
@@ -17083,7 +17091,7 @@
         <v>9.5</v>
       </c>
       <c r="AD116" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE116" t="n">
         <v>17</v>
@@ -17095,7 +17103,7 @@
         <v>7</v>
       </c>
       <c r="AH116" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI116" t="n">
         <v>29</v>
@@ -17110,7 +17118,7 @@
         <v>13</v>
       </c>
       <c r="AM116" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN116" t="n">
         <v>26</v>
@@ -17119,16 +17127,16 @@
         <v>101</v>
       </c>
       <c r="AP116" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AQ116" t="n">
         <v>81</v>
       </c>
       <c r="AR116" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="117">
@@ -17163,13 +17171,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H117" t="n">
         <v>3.3</v>
       </c>
       <c r="I117" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J117" t="n">
         <v>3.4</v>
@@ -17181,22 +17189,22 @@
         <v>3.1</v>
       </c>
       <c r="M117" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N117" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O117" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P117" t="n">
         <v>3.75</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R117" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
@@ -17204,7 +17212,7 @@
         <v>3</v>
       </c>
       <c r="V117" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W117" t="n">
         <v>1.36</v>
@@ -17449,19 +17457,19 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H119" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I119" t="n">
         <v>5.5</v>
       </c>
       <c r="J119" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K119" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L119" t="n">
         <v>5.5</v>
@@ -17470,49 +17478,49 @@
         <v>1.03</v>
       </c>
       <c r="N119" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O119" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P119" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R119" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S119" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="T119" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="U119" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V119" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W119" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X119" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y119" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z119" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA119" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB119" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC119" t="n">
         <v>8.5</v>
@@ -17521,16 +17529,16 @@
         <v>11</v>
       </c>
       <c r="AE119" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF119" t="n">
         <v>21</v>
       </c>
       <c r="AG119" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH119" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI119" t="n">
         <v>15</v>
@@ -17539,13 +17547,13 @@
         <v>41</v>
       </c>
       <c r="AK119" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL119" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM119" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN119" t="n">
         <v>17</v>
@@ -17594,52 +17602,52 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H120" t="n">
         <v>3.6</v>
       </c>
       <c r="I120" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J120" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K120" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L120" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M120" t="n">
         <v>1.03</v>
       </c>
       <c r="N120" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O120" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P120" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R120" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S120" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="T120" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="U120" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V120" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W120" t="n">
         <v>1.3</v>
@@ -17648,13 +17656,13 @@
         <v>3.4</v>
       </c>
       <c r="Y120" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z120" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA120" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB120" t="n">
         <v>13</v>
@@ -17663,7 +17671,7 @@
         <v>9.5</v>
       </c>
       <c r="AD120" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE120" t="n">
         <v>17</v>
@@ -17678,13 +17686,13 @@
         <v>7</v>
       </c>
       <c r="AI120" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ120" t="n">
         <v>34</v>
       </c>
       <c r="AK120" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL120" t="n">
         <v>13</v>
@@ -17696,13 +17704,13 @@
         <v>11</v>
       </c>
       <c r="AO120" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP120" t="n">
         <v>21</v>
       </c>
       <c r="AQ120" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR120" t="inlineStr"/>
       <c r="AS120" t="inlineStr"/>
@@ -17880,111 +17888,111 @@
         </is>
       </c>
       <c r="G122" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H122" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I122" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K122" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L122" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N122" t="n">
+        <v>8</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P122" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q122" t="n">
         <v>1.65</v>
       </c>
-      <c r="H122" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I122" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="J122" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="K122" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L122" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="M122" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N122" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O122" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P122" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q122" t="n">
-        <v>1.7</v>
-      </c>
       <c r="R122" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="S122" t="inlineStr"/>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="V122" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="W122" t="n">
         <v>1.36</v>
       </c>
       <c r="X122" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Y122" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="Z122" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="AA122" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC122" t="n">
         <v>7.8</v>
       </c>
-      <c r="AB122" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC122" t="n">
-        <v>8</v>
-      </c>
       <c r="AD122" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AE122" t="n">
         <v>12.5</v>
       </c>
       <c r="AF122" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG122" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH122" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AI122" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ122" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AK122" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AL122" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AM122" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AN122" t="n">
         <v>14.5</v>
       </c>
       <c r="AO122" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AP122" t="n">
         <v>40</v>
       </c>
       <c r="AQ122" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR122" t="inlineStr"/>
       <c r="AS122" t="inlineStr"/>
@@ -18790,7 +18798,7 @@
         <v>1.83</v>
       </c>
       <c r="AA128" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB128" t="n">
         <v>15</v>
@@ -18802,7 +18810,7 @@
         <v>34</v>
       </c>
       <c r="AE128" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF128" t="n">
         <v>34</v>
@@ -18814,7 +18822,7 @@
         <v>6.5</v>
       </c>
       <c r="AI128" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ128" t="n">
         <v>51</v>
@@ -18823,7 +18831,7 @@
         <v>301</v>
       </c>
       <c r="AL128" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM128" t="n">
         <v>10</v>
@@ -18875,7 +18883,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="H129" t="n">
         <v>10</v>
@@ -18937,7 +18945,7 @@
         <v>10</v>
       </c>
       <c r="AC129" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD129" t="n">
         <v>8.5</v>
@@ -18946,7 +18954,7 @@
         <v>11</v>
       </c>
       <c r="AF129" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG129" t="n">
         <v>34</v>
@@ -18964,10 +18972,10 @@
         <v>201</v>
       </c>
       <c r="AL129" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM129" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AN129" t="n">
         <v>51</v>
@@ -19439,16 +19447,16 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H133" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I133" t="n">
         <v>3.2</v>
       </c>
-      <c r="I133" t="n">
-        <v>3.3</v>
-      </c>
       <c r="J133" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K133" t="n">
         <v>2.2</v>
@@ -19504,7 +19512,7 @@
         <v>9</v>
       </c>
       <c r="AD133" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE133" t="n">
         <v>17</v>
@@ -19721,28 +19729,28 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="H135" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I135" t="n">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="J135" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="K135" t="n">
         <v>2.15</v>
       </c>
       <c r="L135" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M135" t="n">
         <v>1.04</v>
       </c>
       <c r="N135" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O135" t="n">
         <v>1.2</v>
@@ -19754,15 +19762,15 @@
         <v>1.6</v>
       </c>
       <c r="R135" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="V135" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W135" t="n">
         <v>1.34</v>
@@ -19777,55 +19785,55 @@
         <v>2.42</v>
       </c>
       <c r="AA135" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AB135" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC135" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI135" t="n">
         <v>10.75</v>
       </c>
-      <c r="AD135" t="n">
-        <v>45</v>
-      </c>
-      <c r="AE135" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF135" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG135" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH135" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AI135" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AJ135" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AK135" t="n">
         <v>200</v>
       </c>
       <c r="AL135" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AM135" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AN135" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO135" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AP135" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AQ135" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AR135" t="inlineStr"/>
       <c r="AS135" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
@@ -1119,19 +1119,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H5" t="n">
         <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J5" t="n">
         <v>5.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L5" t="n">
         <v>2.1</v>
@@ -1143,36 +1143,36 @@
         <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1193,34 +1193,34 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>8</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
         <v>51</v>
       </c>
       <c r="AK5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ5" t="n">
         <v>23</v>
@@ -1977,28 +1977,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -2007,18 +2007,18 @@
         <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W11" t="n">
         <v>1.5</v>
@@ -2027,22 +2027,22 @@
         <v>2.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
         <v>15</v>
       </c>
       <c r="AD11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE11" t="n">
         <v>41</v>
@@ -2069,16 +2069,16 @@
         <v>6</v>
       </c>
       <c r="AM11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AN11" t="n">
         <v>9</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>34</v>
@@ -2122,63 +2122,63 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L12" t="n">
         <v>7.5</v>
       </c>
-      <c r="J12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>7</v>
-      </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="R12" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB12" t="n">
         <v>6</v>
@@ -2187,19 +2187,19 @@
         <v>8.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
         <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
         <v>21</v>
@@ -2211,13 +2211,13 @@
         <v>501</v>
       </c>
       <c r="AL12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
         <v>81</v>
@@ -3278,72 +3278,72 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H20" t="n">
         <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J20" t="n">
         <v>2.3</v>
       </c>
       <c r="K20" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z20" t="n">
         <v>1.5</v>
       </c>
-      <c r="X20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1.57</v>
-      </c>
       <c r="AA20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>17</v>
@@ -3352,16 +3352,16 @@
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH20" t="n">
         <v>7.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="n">
         <v>451</v>
@@ -3370,25 +3370,25 @@
         <v>11</v>
       </c>
       <c r="AM20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP20" t="n">
         <v>51</v>
       </c>
       <c r="AQ20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR20" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="21">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I21" t="n">
         <v>1.44</v>
@@ -3444,7 +3444,7 @@
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O21" t="n">
         <v>1.13</v>
@@ -3477,10 +3477,10 @@
         <v>4</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA21" t="n">
         <v>21</v>
@@ -3522,7 +3522,7 @@
         <v>9</v>
       </c>
       <c r="AN21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO21" t="n">
         <v>11</v>
@@ -3753,7 +3753,7 @@
         <v>1.25</v>
       </c>
       <c r="S23" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T23" t="n">
         <v>1.08</v>
@@ -3866,22 +3866,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H24" t="n">
         <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K24" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
         <v>1.1</v>
@@ -3896,22 +3896,22 @@
         <v>2.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S24" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="U24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W24" t="n">
         <v>1.57</v>
@@ -3935,7 +3935,7 @@
         <v>9.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
@@ -3959,7 +3959,7 @@
         <v>451</v>
       </c>
       <c r="AL24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM24" t="n">
         <v>21</v>
@@ -3977,10 +3977,10 @@
         <v>51</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="25">
@@ -4045,22 +4045,22 @@
         <v>2.63</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R25" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S25" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T25" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V25" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W25" t="n">
         <v>1.53</v>
@@ -4126,10 +4126,10 @@
         <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="26">
@@ -4164,28 +4164,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K26" t="n">
         <v>1.8</v>
       </c>
       <c r="L26" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N26" t="n">
         <v>5</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N26" t="n">
-        <v>5.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.73</v>
@@ -4208,10 +4208,10 @@
         <v>1.08</v>
       </c>
       <c r="W26" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X26" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="Y26" t="n">
         <v>2.63</v>
@@ -4220,7 +4220,7 @@
         <v>1.44</v>
       </c>
       <c r="AA26" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AB26" t="n">
         <v>8.5</v>
@@ -4254,7 +4254,7 @@
         <v>6.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN26" t="n">
         <v>15</v>
@@ -4333,10 +4333,10 @@
         <v>1.91</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -4585,28 +4585,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H29" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I29" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K29" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L29" t="n">
         <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="N29" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="O29" t="n">
         <v>1.8</v>
@@ -4623,22 +4623,22 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V29" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W29" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X29" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Y29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA29" t="n">
         <v>4.75</v>
@@ -4647,19 +4647,19 @@
         <v>8.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD29" t="n">
         <v>21</v>
       </c>
       <c r="AE29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF29" t="n">
         <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AH29" t="n">
         <v>6</v>
@@ -4724,19 +4724,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
         <v>7</v>
       </c>
       <c r="J30" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K30" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L30" t="n">
         <v>8.5</v>
@@ -4768,10 +4768,10 @@
         <v>1.1</v>
       </c>
       <c r="W30" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X30" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Y30" t="n">
         <v>3.25</v>
@@ -4798,10 +4798,10 @@
         <v>51</v>
       </c>
       <c r="AG30" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI30" t="n">
         <v>34</v>
@@ -4893,10 +4893,10 @@
         <v>2.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -6149,7 +6149,7 @@
         <v>1.7</v>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I40" t="n">
         <v>4.33</v>
@@ -6176,40 +6176,40 @@
         <v>5</v>
       </c>
       <c r="Q40" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V40" t="n">
         <v>1.57</v>
       </c>
-      <c r="R40" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U40" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W40" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z40" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC40" t="n">
         <v>8.5</v>
@@ -6218,13 +6218,13 @@
         <v>15</v>
       </c>
       <c r="AE40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH40" t="n">
         <v>8</v>
@@ -6236,13 +6236,13 @@
         <v>41</v>
       </c>
       <c r="AK40" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN40" t="n">
         <v>15</v>
@@ -6251,10 +6251,10 @@
         <v>41</v>
       </c>
       <c r="AP40" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ40" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
@@ -6291,28 +6291,28 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H41" t="n">
         <v>3.5</v>
       </c>
       <c r="I41" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J41" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K41" t="n">
         <v>2.2</v>
       </c>
       <c r="L41" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N41" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O41" t="n">
         <v>1.25</v>
@@ -6321,42 +6321,42 @@
         <v>3.75</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="R41" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V41" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W41" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X41" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z41" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA41" t="n">
         <v>13</v>
       </c>
       <c r="AB41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC41" t="n">
         <v>15</v>
       </c>
       <c r="AD41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE41" t="n">
         <v>34</v>
@@ -6365,25 +6365,25 @@
         <v>41</v>
       </c>
       <c r="AG41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH41" t="n">
         <v>6.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK41" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL41" t="n">
         <v>7.5</v>
       </c>
       <c r="AM41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN41" t="n">
         <v>8.5</v>
@@ -6395,7 +6395,7 @@
         <v>15</v>
       </c>
       <c r="AQ41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
@@ -6726,7 +6726,7 @@
         <v>4.5</v>
       </c>
       <c r="K44" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L44" t="n">
         <v>2.63</v>
@@ -6735,13 +6735,13 @@
         <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O44" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P44" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q44" t="n">
         <v>2.1</v>
@@ -7285,25 +7285,25 @@
         <v>5.75</v>
       </c>
       <c r="H48" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I48" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J48" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K48" t="n">
         <v>2.05</v>
       </c>
       <c r="L48" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M48" t="n">
         <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O48" t="n">
         <v>1.4</v>
@@ -7336,16 +7336,16 @@
         <v>2.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC48" t="n">
         <v>19</v>
@@ -7387,7 +7387,7 @@
         <v>12</v>
       </c>
       <c r="AP48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ48" t="n">
         <v>34</v>
@@ -7431,22 +7431,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>3</v>
       </c>
       <c r="I49" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J49" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K49" t="n">
         <v>1.91</v>
       </c>
       <c r="L49" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M49" t="n">
         <v>1.11</v>
@@ -7473,10 +7473,10 @@
         <v>1.22</v>
       </c>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V49" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W49" t="n">
         <v>1.57</v>
@@ -7491,16 +7491,16 @@
         <v>1.62</v>
       </c>
       <c r="AA49" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC49" t="n">
         <v>10</v>
       </c>
       <c r="AD49" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE49" t="n">
         <v>21</v>
@@ -7518,34 +7518,34 @@
         <v>19</v>
       </c>
       <c r="AJ49" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK49" t="n">
         <v>101</v>
       </c>
       <c r="AL49" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM49" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN49" t="n">
         <v>15</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>13</v>
       </c>
       <c r="AO49" t="n">
         <v>41</v>
       </c>
       <c r="AP49" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ49" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR49" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="50">
@@ -7580,28 +7580,28 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H50" t="n">
         <v>3</v>
       </c>
       <c r="I50" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J50" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K50" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L50" t="n">
         <v>4.33</v>
       </c>
       <c r="M50" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O50" t="n">
         <v>1.5</v>
@@ -7643,7 +7643,7 @@
         <v>6</v>
       </c>
       <c r="AB50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC50" t="n">
         <v>10</v>
@@ -7664,7 +7664,7 @@
         <v>6</v>
       </c>
       <c r="AI50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ50" t="n">
         <v>67</v>
@@ -7676,7 +7676,7 @@
         <v>8</v>
       </c>
       <c r="AM50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN50" t="n">
         <v>13</v>
@@ -9027,7 +9027,7 @@
         <v>6.25</v>
       </c>
       <c r="J60" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K60" t="n">
         <v>2.3</v>
@@ -9036,10 +9036,10 @@
         <v>6.5</v>
       </c>
       <c r="M60" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N60" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O60" t="n">
         <v>1.25</v>
@@ -9048,7 +9048,7 @@
         <v>3.75</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R60" t="n">
         <v>2</v>
@@ -9068,13 +9068,13 @@
         <v>3</v>
       </c>
       <c r="Y60" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA60" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB60" t="n">
         <v>7</v>
@@ -9089,10 +9089,10 @@
         <v>12</v>
       </c>
       <c r="AF60" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH60" t="n">
         <v>8.5</v>
@@ -9101,7 +9101,7 @@
         <v>19</v>
       </c>
       <c r="AJ60" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK60" t="n">
         <v>351</v>
@@ -10020,7 +10020,7 @@
         <v>1.9</v>
       </c>
       <c r="H67" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I67" t="n">
         <v>3.4</v>
@@ -10029,7 +10029,7 @@
         <v>2.5</v>
       </c>
       <c r="K67" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L67" t="n">
         <v>4</v>
@@ -10038,70 +10038,70 @@
         <v>1.03</v>
       </c>
       <c r="N67" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O67" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P67" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R67" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S67" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="T67" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="U67" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V67" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W67" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X67" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z67" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA67" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB67" t="n">
         <v>11</v>
       </c>
       <c r="AC67" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD67" t="n">
         <v>17</v>
       </c>
       <c r="AE67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF67" t="n">
         <v>21</v>
       </c>
       <c r="AG67" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH67" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI67" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ67" t="n">
         <v>41</v>
@@ -10110,7 +10110,7 @@
         <v>126</v>
       </c>
       <c r="AL67" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM67" t="n">
         <v>21</v>
@@ -10125,7 +10125,7 @@
         <v>26</v>
       </c>
       <c r="AQ67" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR67" t="inlineStr"/>
       <c r="AS67" t="inlineStr"/>
@@ -10320,13 +10320,13 @@
         <v>1.95</v>
       </c>
       <c r="J69" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K69" t="n">
         <v>2</v>
       </c>
       <c r="L69" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M69" t="n">
         <v>1.08</v>
@@ -10347,16 +10347,16 @@
         <v>1.62</v>
       </c>
       <c r="S69" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T69" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="U69" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V69" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W69" t="n">
         <v>1.5</v>
@@ -10365,22 +10365,22 @@
         <v>2.5</v>
       </c>
       <c r="Y69" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA69" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB69" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC69" t="n">
         <v>12</v>
       </c>
       <c r="AD69" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE69" t="n">
         <v>29</v>
@@ -10398,7 +10398,7 @@
         <v>17</v>
       </c>
       <c r="AJ69" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK69" t="n">
         <v>401</v>
@@ -10413,10 +10413,10 @@
         <v>9.5</v>
       </c>
       <c r="AO69" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP69" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ69" t="n">
         <v>34</v>
@@ -10460,22 +10460,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="H70" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I70" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J70" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="K70" t="n">
         <v>2.88</v>
       </c>
       <c r="L70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M70" t="n">
         <v>1.02</v>
@@ -10514,67 +10514,67 @@
         <v>3.75</v>
       </c>
       <c r="Y70" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AA70" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB70" t="n">
         <v>6</v>
       </c>
       <c r="AC70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD70" t="n">
         <v>6.5</v>
       </c>
       <c r="AE70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF70" t="n">
         <v>34</v>
       </c>
       <c r="AG70" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH70" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI70" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ70" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK70" t="n">
         <v>501</v>
       </c>
       <c r="AL70" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM70" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN70" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO70" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AP70" t="n">
+        <v>126</v>
+      </c>
+      <c r="AQ70" t="n">
         <v>101</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>81</v>
       </c>
       <c r="AR70" t="n">
         <v>1.22</v>
       </c>
       <c r="AS70" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="71">
@@ -11306,22 +11306,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H76" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I76" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J76" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K76" t="n">
         <v>2.6</v>
       </c>
       <c r="L76" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M76" t="n">
         <v>1.03</v>
@@ -11336,22 +11336,22 @@
         <v>5</v>
       </c>
       <c r="Q76" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V76" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R76" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S76" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T76" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U76" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V76" t="n">
-        <v>1.53</v>
       </c>
       <c r="W76" t="n">
         <v>1.29</v>
@@ -11360,10 +11360,10 @@
         <v>3.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA76" t="n">
         <v>19</v>
@@ -11378,7 +11378,7 @@
         <v>81</v>
       </c>
       <c r="AE76" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF76" t="n">
         <v>41</v>
@@ -11387,10 +11387,10 @@
         <v>17</v>
       </c>
       <c r="AH76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ76" t="n">
         <v>51</v>
@@ -11405,10 +11405,10 @@
         <v>7.5</v>
       </c>
       <c r="AN76" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO76" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP76" t="n">
         <v>11</v>
@@ -12442,13 +12442,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H84" t="n">
         <v>4.1</v>
       </c>
       <c r="I84" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J84" t="n">
         <v>2.2</v>
@@ -12460,22 +12460,22 @@
         <v>6</v>
       </c>
       <c r="M84" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N84" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O84" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P84" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q84" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R84" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
@@ -12540,13 +12540,13 @@
         <v>17</v>
       </c>
       <c r="AO84" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP84" t="n">
         <v>41</v>
       </c>
       <c r="AQ84" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR84" t="inlineStr"/>
       <c r="AS84" t="inlineStr"/>
@@ -13016,7 +13016,7 @@
         <v>4</v>
       </c>
       <c r="I88" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J88" t="n">
         <v>1.91</v>
@@ -13040,18 +13040,18 @@
         <v>3.5</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R88" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V88" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W88" t="n">
         <v>1.4</v>
@@ -13099,13 +13099,13 @@
         <v>101</v>
       </c>
       <c r="AL88" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM88" t="n">
         <v>41</v>
       </c>
       <c r="AN88" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO88" t="n">
         <v>101</v>
@@ -13445,40 +13445,40 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="H91" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I91" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="K91" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L91" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="M91" t="n">
         <v>1.06</v>
       </c>
       <c r="N91" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O91" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P91" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q91" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R91" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S91" t="n">
         <v>2.8</v>
@@ -13499,25 +13499,25 @@
         <v>2.75</v>
       </c>
       <c r="Y91" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z91" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA91" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC91" t="n">
         <v>13</v>
       </c>
-      <c r="AB91" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC91" t="n">
-        <v>15</v>
-      </c>
       <c r="AD91" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE91" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF91" t="n">
         <v>41</v>
@@ -13538,19 +13538,19 @@
         <v>251</v>
       </c>
       <c r="AL91" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM91" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AN91" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ91" t="n">
         <v>26</v>
@@ -13594,13 +13594,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H92" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I92" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J92" t="n">
         <v>2.1</v>
@@ -13612,10 +13612,10 @@
         <v>6</v>
       </c>
       <c r="M92" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N92" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O92" t="n">
         <v>1.36</v>
@@ -13624,10 +13624,10 @@
         <v>3</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R92" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S92" t="n">
         <v>3.2</v>
@@ -13636,10 +13636,10 @@
         <v>1.36</v>
       </c>
       <c r="U92" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V92" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W92" t="n">
         <v>1.4</v>
@@ -13657,13 +13657,13 @@
         <v>5.5</v>
       </c>
       <c r="AB92" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC92" t="n">
         <v>9</v>
       </c>
       <c r="AD92" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE92" t="n">
         <v>15</v>
@@ -13675,10 +13675,10 @@
         <v>9</v>
       </c>
       <c r="AH92" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI92" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ92" t="n">
         <v>81</v>
@@ -13690,13 +13690,13 @@
         <v>11</v>
       </c>
       <c r="AM92" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN92" t="n">
         <v>17</v>
       </c>
       <c r="AO92" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP92" t="n">
         <v>41</v>
@@ -13746,25 +13746,25 @@
         <v>8</v>
       </c>
       <c r="H93" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I93" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J93" t="n">
         <v>7.5</v>
       </c>
       <c r="K93" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L93" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M93" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N93" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O93" t="n">
         <v>1.4</v>
@@ -13779,10 +13779,10 @@
         <v>1.57</v>
       </c>
       <c r="S93" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T93" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="U93" t="n">
         <v>4.33</v>
@@ -13824,7 +13824,7 @@
         <v>7</v>
       </c>
       <c r="AH93" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI93" t="n">
         <v>23</v>
@@ -13854,10 +13854,10 @@
         <v>41</v>
       </c>
       <c r="AR93" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="94">
@@ -13892,28 +13892,28 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H94" t="n">
         <v>3.4</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J94" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K94" t="n">
         <v>2.1</v>
       </c>
       <c r="L94" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M94" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N94" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O94" t="n">
         <v>1.33</v>
@@ -13934,10 +13934,10 @@
         <v>1.42</v>
       </c>
       <c r="U94" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V94" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W94" t="n">
         <v>1.44</v>
@@ -13946,22 +13946,22 @@
         <v>2.63</v>
       </c>
       <c r="Y94" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z94" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA94" t="n">
         <v>7.5</v>
       </c>
       <c r="AB94" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC94" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD94" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE94" t="n">
         <v>19</v>
@@ -13970,7 +13970,7 @@
         <v>29</v>
       </c>
       <c r="AG94" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH94" t="n">
         <v>6.5</v>
@@ -13982,22 +13982,22 @@
         <v>51</v>
       </c>
       <c r="AK94" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL94" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM94" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN94" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO94" t="n">
         <v>34</v>
       </c>
       <c r="AP94" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ94" t="n">
         <v>34</v>
@@ -14929,10 +14929,10 @@
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V101" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W101" t="n">
         <v>1.53</v>
@@ -14998,10 +14998,10 @@
         <v>51</v>
       </c>
       <c r="AR101" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="102">
@@ -15896,7 +15896,7 @@
         <v>2.95</v>
       </c>
       <c r="I108" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J108" t="n">
         <v>3.1</v>
@@ -15958,7 +15958,7 @@
         <v>22</v>
       </c>
       <c r="AE108" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF108" t="n">
         <v>50</v>
@@ -15985,13 +15985,13 @@
         <v>14.5</v>
       </c>
       <c r="AN108" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO108" t="n">
         <v>45</v>
       </c>
       <c r="AP108" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AQ108" t="n">
         <v>65</v>
@@ -17026,10 +17026,10 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H116" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I116" t="n">
         <v>7.5</v>
@@ -17041,7 +17041,7 @@
         <v>2.05</v>
       </c>
       <c r="L116" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M116" t="n">
         <v>1.08</v>
@@ -17064,10 +17064,10 @@
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V116" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W116" t="n">
         <v>1.53</v>
@@ -17115,16 +17115,16 @@
         <v>101</v>
       </c>
       <c r="AL116" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM116" t="n">
         <v>34</v>
       </c>
       <c r="AN116" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO116" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP116" t="n">
         <v>67</v>
@@ -17133,10 +17133,10 @@
         <v>81</v>
       </c>
       <c r="AR116" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -17189,10 +17189,10 @@
         <v>3.1</v>
       </c>
       <c r="M117" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N117" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O117" t="n">
         <v>1.25</v>
@@ -17201,10 +17201,10 @@
         <v>3.75</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R117" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
@@ -19870,83 +19870,83 @@
         </is>
       </c>
       <c r="G136" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H136" t="n">
         <v>3.35</v>
       </c>
-      <c r="H136" t="n">
-        <v>3.25</v>
-      </c>
       <c r="I136" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J136" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K136" t="n">
         <v>2.07</v>
       </c>
-      <c r="J136" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K136" t="n">
-        <v>2.02</v>
-      </c>
       <c r="L136" t="n">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P136" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q136" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="R136" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S136" t="inlineStr"/>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="V136" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W136" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X136" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="Y136" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Z136" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AA136" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AB136" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC136" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD136" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AE136" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF136" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG136" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH136" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AI136" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ136" t="n">
         <v>100</v>
@@ -19955,19 +19955,19 @@
         <v>900</v>
       </c>
       <c r="AL136" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AM136" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AN136" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AO136" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AP136" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AQ136" t="n">
         <v>35</v>
@@ -20007,104 +20007,104 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H137" t="n">
         <v>3.35</v>
       </c>
       <c r="I137" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="J137" t="n">
         <v>2.22</v>
       </c>
       <c r="K137" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="L137" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="P137" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q137" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="R137" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V137" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="W137" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="X137" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="Y137" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="Z137" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AA137" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AB137" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AC137" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD137" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE137" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF137" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AG137" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AH137" t="n">
         <v>6.7</v>
       </c>
       <c r="AI137" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AJ137" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AK137" t="n">
         <v>900</v>
       </c>
       <c r="AL137" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AM137" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AN137" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO137" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AP137" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AQ137" t="n">
         <v>70</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J5" t="n">
         <v>5.5</v>
@@ -1169,10 +1169,10 @@
         <v>3.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1199,7 +1199,7 @@
         <v>8</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
         <v>51</v>
@@ -1214,7 +1214,7 @@
         <v>8</v>
       </c>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -2122,13 +2122,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H12" t="n">
         <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
@@ -2137,13 +2137,13 @@
         <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
         <v>1.3</v>
@@ -2152,18 +2152,18 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R12" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W12" t="n">
         <v>1.4</v>
@@ -2181,7 +2181,7 @@
         <v>6</v>
       </c>
       <c r="AB12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC12" t="n">
         <v>8.5</v>
@@ -2193,7 +2193,7 @@
         <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG12" t="n">
         <v>9.5</v>
@@ -2205,7 +2205,7 @@
         <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK12" t="n">
         <v>501</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
         <v>4.75</v>
       </c>
       <c r="I21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J21" t="n">
         <v>5.5</v>
@@ -3444,13 +3444,13 @@
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O21" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q21" t="n">
         <v>1.44</v>
@@ -3471,10 +3471,10 @@
         <v>1.73</v>
       </c>
       <c r="W21" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Y21" t="n">
         <v>1.62</v>
@@ -3516,13 +3516,13 @@
         <v>126</v>
       </c>
       <c r="AL21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM21" t="n">
         <v>9</v>
       </c>
       <c r="AN21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO21" t="n">
         <v>11</v>
@@ -3568,28 +3568,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
         <v>1.95</v>
       </c>
       <c r="L22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
@@ -3598,13 +3598,13 @@
         <v>2.63</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R22" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S22" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="T22" t="n">
         <v>1.26</v>
@@ -3631,16 +3631,16 @@
         <v>7</v>
       </c>
       <c r="AB22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF22" t="n">
         <v>41</v>
@@ -3661,10 +3661,10 @@
         <v>451</v>
       </c>
       <c r="AL22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN22" t="n">
         <v>11</v>
@@ -3679,10 +3679,10 @@
         <v>41</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="23">
@@ -3720,7 +3720,7 @@
         <v>2.75</v>
       </c>
       <c r="H23" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I23" t="n">
         <v>3</v>
@@ -3741,10 +3741,10 @@
         <v>4.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="P23" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q23" t="n">
         <v>4</v>
@@ -3753,7 +3753,7 @@
         <v>1.25</v>
       </c>
       <c r="S23" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="T23" t="n">
         <v>1.08</v>
@@ -3765,16 +3765,16 @@
         <v>1.06</v>
       </c>
       <c r="W23" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="X23" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AA23" t="n">
         <v>5</v>
@@ -3792,7 +3792,7 @@
         <v>41</v>
       </c>
       <c r="AF23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG23" t="n">
         <v>4.33</v>
@@ -3866,22 +3866,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J24" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K24" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.1</v>
@@ -3920,10 +3920,10 @@
         <v>2.25</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA24" t="n">
         <v>5.5</v>
@@ -3935,7 +3935,7 @@
         <v>9.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
@@ -3944,7 +3944,7 @@
         <v>41</v>
       </c>
       <c r="AG24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH24" t="n">
         <v>6.5</v>
@@ -3959,7 +3959,7 @@
         <v>451</v>
       </c>
       <c r="AL24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM24" t="n">
         <v>21</v>
@@ -4182,10 +4182,10 @@
         <v>4.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N26" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.73</v>
@@ -4303,16 +4303,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I27" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J27" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K27" t="n">
         <v>1.8</v>
@@ -4327,10 +4327,10 @@
         <v>5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P27" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Q27" t="n">
         <v>3.5</v>
@@ -4347,10 +4347,10 @@
         <v>1.08</v>
       </c>
       <c r="W27" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X27" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="Y27" t="n">
         <v>2.75</v>
@@ -4362,7 +4362,7 @@
         <v>4.33</v>
       </c>
       <c r="AB27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC27" t="n">
         <v>11</v>
@@ -4371,13 +4371,13 @@
         <v>17</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
         <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AH27" t="n">
         <v>6.5</v>
@@ -4442,48 +4442,48 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K28" t="n">
         <v>1.91</v>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P28" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R28" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V28" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W28" t="n">
         <v>1.62</v>
@@ -4492,22 +4492,22 @@
         <v>2.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA28" t="n">
         <v>5</v>
       </c>
       <c r="AB28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC28" t="n">
         <v>10</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
         <v>21</v>
@@ -4519,7 +4519,7 @@
         <v>6</v>
       </c>
       <c r="AH28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI28" t="n">
         <v>23</v>
@@ -4529,13 +4529,13 @@
       </c>
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO28" t="n">
         <v>51</v>
@@ -4547,10 +4547,10 @@
         <v>51</v>
       </c>
       <c r="AR28" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="29">
@@ -4585,13 +4585,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
         <v>2.63</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J29" t="n">
         <v>3.25</v>
@@ -4603,10 +4603,10 @@
         <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="N29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="O29" t="n">
         <v>1.8</v>
@@ -4644,13 +4644,13 @@
         <v>4.75</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC29" t="n">
         <v>12</v>
       </c>
       <c r="AD29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
         <v>29</v>
@@ -4681,7 +4681,7 @@
         <v>17</v>
       </c>
       <c r="AO29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP29" t="n">
         <v>41</v>
@@ -4863,28 +4863,28 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H31" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
         <v>1.83</v>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N31" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.62</v>
@@ -4922,10 +4922,10 @@
         <v>5</v>
       </c>
       <c r="AB31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD31" t="n">
         <v>19</v>
@@ -4937,7 +4937,7 @@
         <v>41</v>
       </c>
       <c r="AG31" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH31" t="n">
         <v>6.5</v>
@@ -7431,13 +7431,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>3</v>
       </c>
       <c r="I49" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J49" t="n">
         <v>2.88</v>
@@ -7446,7 +7446,7 @@
         <v>1.91</v>
       </c>
       <c r="L49" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M49" t="n">
         <v>1.11</v>
@@ -7467,10 +7467,10 @@
         <v>1.48</v>
       </c>
       <c r="S49" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T49" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="U49" t="n">
         <v>5.5</v>
@@ -7494,13 +7494,13 @@
         <v>5.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE49" t="n">
         <v>21</v>
@@ -7509,13 +7509,13 @@
         <v>41</v>
       </c>
       <c r="AG49" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH49" t="n">
         <v>6</v>
       </c>
       <c r="AI49" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ49" t="n">
         <v>81</v>
@@ -7527,7 +7527,7 @@
         <v>8.5</v>
       </c>
       <c r="AM49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN49" t="n">
         <v>15</v>
@@ -7580,7 +7580,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H50" t="n">
         <v>3</v>
@@ -7592,16 +7592,16 @@
         <v>3.1</v>
       </c>
       <c r="K50" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L50" t="n">
         <v>4.33</v>
       </c>
       <c r="M50" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O50" t="n">
         <v>1.5</v>
@@ -7613,7 +7613,7 @@
         <v>2.5</v>
       </c>
       <c r="R50" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S50" t="n">
         <v>4.1</v>
@@ -7729,7 +7729,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H51" t="n">
         <v>4</v>
@@ -7762,13 +7762,13 @@
         <v>2.05</v>
       </c>
       <c r="R51" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S51" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="T51" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="U51" t="n">
         <v>3.75</v>
@@ -7840,10 +7840,10 @@
         <v>67</v>
       </c>
       <c r="AR51" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="52">
@@ -12442,66 +12442,66 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H84" t="n">
         <v>4.1</v>
       </c>
       <c r="I84" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J84" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K84" t="n">
         <v>2.2</v>
       </c>
       <c r="L84" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M84" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O84" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P84" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R84" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V84" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W84" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X84" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y84" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z84" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB84" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>7</v>
       </c>
       <c r="AC84" t="n">
         <v>8.5</v>
@@ -12516,19 +12516,19 @@
         <v>29</v>
       </c>
       <c r="AG84" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH84" t="n">
         <v>7.5</v>
       </c>
       <c r="AI84" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ84" t="n">
         <v>67</v>
       </c>
       <c r="AK84" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AL84" t="n">
         <v>13</v>
@@ -12537,13 +12537,13 @@
         <v>29</v>
       </c>
       <c r="AN84" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO84" t="n">
         <v>67</v>
       </c>
       <c r="AP84" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ84" t="n">
         <v>51</v>
@@ -13743,58 +13743,58 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H93" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I93" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="J93" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K93" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L93" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M93" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N93" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O93" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P93" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R93" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S93" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T93" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="U93" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V93" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W93" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X93" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y93" t="n">
         <v>2.5</v>
@@ -13803,7 +13803,7 @@
         <v>1.5</v>
       </c>
       <c r="AA93" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB93" t="n">
         <v>34</v>
@@ -13821,16 +13821,16 @@
         <v>67</v>
       </c>
       <c r="AG93" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH93" t="n">
         <v>7</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>7.5</v>
       </c>
       <c r="AI93" t="n">
         <v>23</v>
       </c>
       <c r="AJ93" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK93" t="n">
         <v>351</v>
@@ -13848,16 +13848,16 @@
         <v>10</v>
       </c>
       <c r="AP93" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ93" t="n">
         <v>41</v>
       </c>
       <c r="AR93" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="94">
@@ -13910,10 +13910,10 @@
         <v>4</v>
       </c>
       <c r="M94" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N94" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O94" t="n">
         <v>1.33</v>
@@ -13928,16 +13928,16 @@
         <v>1.75</v>
       </c>
       <c r="S94" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="T94" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="U94" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V94" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W94" t="n">
         <v>1.44</v>
@@ -14003,10 +14003,10 @@
         <v>34</v>
       </c>
       <c r="AR94" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.49</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="95">
@@ -14891,16 +14891,16 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H101" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I101" t="n">
         <v>4.33</v>
       </c>
       <c r="J101" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K101" t="n">
         <v>2</v>
@@ -14959,13 +14959,13 @@
         <v>15</v>
       </c>
       <c r="AE101" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF101" t="n">
         <v>34</v>
       </c>
       <c r="AG101" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH101" t="n">
         <v>6.5</v>
@@ -20007,22 +20007,22 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H137" t="n">
         <v>3.35</v>
       </c>
       <c r="I137" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J137" t="n">
         <v>2.22</v>
       </c>
       <c r="K137" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L137" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
@@ -20030,7 +20030,7 @@
         <v>1.38</v>
       </c>
       <c r="P137" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="Q137" t="n">
         <v>2.1</v>
@@ -20047,10 +20047,10 @@
         <v>1.21</v>
       </c>
       <c r="W137" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X137" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="Y137" t="n">
         <v>2.02</v>
@@ -20059,13 +20059,13 @@
         <v>1.62</v>
       </c>
       <c r="AA137" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB137" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC137" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD137" t="n">
         <v>12.5</v>
@@ -20077,10 +20077,10 @@
         <v>35</v>
       </c>
       <c r="AG137" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AH137" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI137" t="n">
         <v>19.5</v>
@@ -20092,22 +20092,22 @@
         <v>900</v>
       </c>
       <c r="AL137" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AM137" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN137" t="n">
         <v>17.5</v>
       </c>
       <c r="AO137" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AP137" t="n">
         <v>65</v>
       </c>
       <c r="AQ137" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR137" t="inlineStr"/>
       <c r="AS137" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
@@ -3866,22 +3866,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K24" t="n">
         <v>1.95</v>
       </c>
       <c r="L24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
         <v>1.1</v>
@@ -3896,10 +3896,10 @@
         <v>2.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R24" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S24" t="n">
         <v>4.2</v>
@@ -3908,10 +3908,10 @@
         <v>1.23</v>
       </c>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W24" t="n">
         <v>1.57</v>
@@ -3929,22 +3929,22 @@
         <v>5.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC24" t="n">
         <v>9.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF24" t="n">
         <v>41</v>
       </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH24" t="n">
         <v>6.5</v>
@@ -3959,16 +3959,16 @@
         <v>451</v>
       </c>
       <c r="AL24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN24" t="n">
         <v>15</v>
       </c>
       <c r="AO24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP24" t="n">
         <v>41</v>
@@ -3977,10 +3977,10 @@
         <v>51</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="25">
@@ -4015,28 +4015,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.44</v>
@@ -4051,7 +4051,7 @@
         <v>1.57</v>
       </c>
       <c r="S25" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T25" t="n">
         <v>1.27</v>
@@ -4069,22 +4069,22 @@
         <v>2.38</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
         <v>19</v>
@@ -4093,37 +4093,37 @@
         <v>34</v>
       </c>
       <c r="AG25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK25" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="AL25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM25" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>41</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>51</v>
       </c>
       <c r="AR25" t="n">
         <v>1.8</v>
@@ -4442,28 +4442,28 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H28" t="n">
         <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
         <v>2.75</v>
       </c>
       <c r="K28" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O28" t="n">
         <v>1.57</v>
@@ -4475,15 +4475,15 @@
         <v>2.7</v>
       </c>
       <c r="R28" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W28" t="n">
         <v>1.62</v>
@@ -4501,7 +4501,7 @@
         <v>5</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC28" t="n">
         <v>10</v>
@@ -4525,7 +4525,7 @@
         <v>23</v>
       </c>
       <c r="AJ28" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="n">
@@ -4538,7 +4538,7 @@
         <v>15</v>
       </c>
       <c r="AO28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP28" t="n">
         <v>41</v>
@@ -4748,30 +4748,30 @@
         <v>5.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P30" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V30" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W30" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X30" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="Y30" t="n">
         <v>3.25</v>
@@ -4863,19 +4863,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H31" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I31" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J31" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L31" t="n">
         <v>4.75</v>
@@ -4887,10 +4887,10 @@
         <v>5.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P31" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q31" t="n">
         <v>3.1</v>
@@ -4922,25 +4922,25 @@
         <v>5</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC31" t="n">
         <v>11</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF31" t="n">
         <v>41</v>
       </c>
       <c r="AG31" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH31" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI31" t="n">
         <v>23</v>
@@ -7580,7 +7580,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H50" t="n">
         <v>3</v>
@@ -7592,16 +7592,16 @@
         <v>3.1</v>
       </c>
       <c r="K50" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L50" t="n">
         <v>4.33</v>
       </c>
       <c r="M50" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O50" t="n">
         <v>1.5</v>
@@ -7610,10 +7610,10 @@
         <v>2.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R50" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S50" t="n">
         <v>4.1</v>
@@ -7691,10 +7691,10 @@
         <v>41</v>
       </c>
       <c r="AR50" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="51">
@@ -7729,16 +7729,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H51" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I51" t="n">
         <v>8</v>
       </c>
       <c r="J51" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
         <v>2.2</v>
@@ -7762,7 +7762,7 @@
         <v>2.05</v>
       </c>
       <c r="R51" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S51" t="n">
         <v>2.9</v>
@@ -7798,7 +7798,7 @@
         <v>9</v>
       </c>
       <c r="AD51" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE51" t="n">
         <v>13</v>
@@ -7810,7 +7810,7 @@
         <v>8.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI51" t="n">
         <v>23</v>
@@ -7822,7 +7822,7 @@
         <v>101</v>
       </c>
       <c r="AL51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM51" t="n">
         <v>41</v>
@@ -7831,10 +7831,10 @@
         <v>23</v>
       </c>
       <c r="AO51" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP51" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AQ51" t="n">
         <v>67</v>
@@ -7843,7 +7843,7 @@
         <v>1.54</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.44</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="52">
@@ -12442,13 +12442,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H84" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="J84" t="n">
         <v>2.1</v>
@@ -12457,7 +12457,7 @@
         <v>2.2</v>
       </c>
       <c r="L84" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M84" t="n">
         <v>1.06</v>
@@ -12492,13 +12492,13 @@
         <v>2.63</v>
       </c>
       <c r="Y84" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="Z84" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AA84" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB84" t="n">
         <v>6.5</v>
@@ -12507,25 +12507,25 @@
         <v>8.5</v>
       </c>
       <c r="AD84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE84" t="n">
         <v>13</v>
       </c>
       <c r="AF84" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG84" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH84" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI84" t="n">
         <v>21</v>
       </c>
       <c r="AJ84" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK84" t="n">
         <v>501</v>
@@ -12534,13 +12534,13 @@
         <v>13</v>
       </c>
       <c r="AM84" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN84" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO84" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP84" t="n">
         <v>51</v>
@@ -13892,16 +13892,16 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I94" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J94" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K94" t="n">
         <v>2.1</v>
@@ -13913,19 +13913,19 @@
         <v>1.06</v>
       </c>
       <c r="N94" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O94" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P94" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q94" t="n">
         <v>2.05</v>
       </c>
       <c r="R94" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S94" t="n">
         <v>2.95</v>
@@ -13952,25 +13952,25 @@
         <v>1.83</v>
       </c>
       <c r="AA94" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB94" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC94" t="n">
         <v>9</v>
       </c>
       <c r="AD94" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE94" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF94" t="n">
         <v>29</v>
       </c>
       <c r="AG94" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH94" t="n">
         <v>6.5</v>
@@ -13985,7 +13985,7 @@
         <v>301</v>
       </c>
       <c r="AL94" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM94" t="n">
         <v>17</v>
@@ -13994,19 +13994,19 @@
         <v>12</v>
       </c>
       <c r="AO94" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP94" t="n">
         <v>29</v>
       </c>
       <c r="AQ94" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR94" t="n">
         <v>1.56</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.46</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="95">

--- a/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-09.xlsx
@@ -4015,13 +4015,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J25" t="n">
         <v>2.88</v>
@@ -4078,7 +4078,7 @@
         <v>6</v>
       </c>
       <c r="AB25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC25" t="n">
         <v>9.5</v>
@@ -4096,7 +4096,7 @@
         <v>7.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI25" t="n">
         <v>19</v>
@@ -4881,10 +4881,10 @@
         <v>4.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N31" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O31" t="n">
         <v>1.67</v>
@@ -7729,16 +7729,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H51" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K51" t="n">
         <v>2.2</v>
@@ -7747,10 +7747,10 @@
         <v>7.5</v>
       </c>
       <c r="M51" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O51" t="n">
         <v>1.33</v>
@@ -7783,10 +7783,10 @@
         <v>2.63</v>
       </c>
       <c r="Y51" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA51" t="n">
         <v>5.5</v>
@@ -7798,7 +7798,7 @@
         <v>9</v>
       </c>
       <c r="AD51" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE51" t="n">
         <v>13</v>
@@ -7810,10 +7810,10 @@
         <v>8.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI51" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ51" t="n">
         <v>81</v>
@@ -7825,7 +7825,7 @@
         <v>15</v>
       </c>
       <c r="AM51" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN51" t="n">
         <v>23</v>
@@ -7843,7 +7843,7 @@
         <v>1.54</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.43</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="52">
